--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KaE2c1Zsh6ys9G6CU8MmcLyGZ2ndpxzDoJKLgdqHqdSjGKbMSkjUxCDErEMJm9cil/', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJWdK8La5IwQ7kNvwFmyHMC&amp;_nc_oc=Adn1f7_FGtzCKg7WFuHLZHQ7E1E6uYhKNInWNLSkBsaTkBWeR32XfqLnzL_TbfDTrWXUe2iGS7ojx91s5OVkTRGm&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=UZscgmSr7OfeOWAkucnr4w&amp;oh=00_AfbMi8RnUJ7rVB1vRUCuwZnH05fb7Iucb5gjkJbhWBr_PA&amp;oe=68D0CED6', 'profileId': 'pfbid02KaE2c1Zsh6ys9G6CU8MmcLyGZ2ndpxzDoJKLgdqHqdSjGKbMSkjUxCDErEMJm9cil', 'profileName': 'Jesus Saldarriaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KaE2c1Zsh6ys9G6CU8MmcLyGZ2ndpxzDoJKLgdqHqdSjGKbMSkjUxCDErEMJm9cil/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJWdK8La5IwQ7kNvwEA3Lnv&amp;_nc_oc=AdnK1AqbJGUD3Sb93yXcGCtiyemLsvn-lNXnsg80NiDyLw8xNchNHQw-rI-sA0vGDyRFKQOIhfiQoqgd852uAotn&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=KYHsJdtWk6arpewuJqj-iQ&amp;oh=00_AfbKo0T3EiIVRJeKEZ6AtuujumrvIgWDuI39AGnJFIkU7g&amp;oe=68D0CED6', 'profileId': 'pfbid02KaE2c1Zsh6ys9G6CU8MmcLyGZ2ndpxzDoJKLgdqHqdSjGKbMSkjUxCDErEMJm9cil', 'profileName': 'Jesus Saldarriaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SCj4rb6qMRMQ7kNvwHnrElf&amp;_nc_oc=AdmC9IMBcQhnMSzUEUmQZaVWTas_18MVAPhZApI4Qd2x3_w-v_rXoaDpKnGg8otppcnU4nv-Rkty9B55Qe20QHzR&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=UZscgmSr7OfeOWAkucnr4w&amp;oh=00_AfbX_KSpc9nX4VPVj4XweAWbHY24uwIYcodV9g6c69EQKw&amp;oe=68D0D069', 'profileId': 'pfbid02AZKwjdtxf7FqrUYSJxwXbGU4yBywqRX5uQy2e5dsUhU4Xiahqg962rvtPUcF5biml', 'profileName': 'Ruben Galarza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SCj4rb6qMRMQ7kNvwE6iR4f&amp;_nc_oc=Adm1Icp0ub5H5_qBo09AEwIT1dmNGWFs3uJailtYiP8aJqomBjtMM0uWAVyk6O1KKd2yHYOqaUaaVR5ZfC6_Jx6l&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=KYHsJdtWk6arpewuJqj-iQ&amp;oh=00_AfZhi4cIw26lYTV4mAOt_b4e7M_FBKbFpisTmX2cchgSZQ&amp;oe=68D0D069', 'profileId': 'pfbid02AZKwjdtxf7FqrUYSJxwXbGU4yBywqRX5uQy2e5dsUhU4Xiahqg962rvtPUcF5biml', 'profileName': 'Ruben Galarza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nl3TczAOQboQ7kNvwHm2O40&amp;_nc_oc=Adka1SLa1XyMWdKLhc0mXqINc6DSf6dRV5Y1DveIR7-t_aSk1ERO3qxKJ7RyQ6N0lyJSGNA6Z1_OO9dVqQn-d-ly&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=UZscgmSr7OfeOWAkucnr4w&amp;oh=00_AfbSbSAmtPycrcojI3zldcIhcXb_0u_VCQtv29F_h5vl-g&amp;oe=68D0B90C', 'profileId': 'pfbid023U3Q6PZiRDZvCNao1EJcPCXtiDcsXpSXrrU8Kss9muvVESjhDbvTNFERjjN818U5l', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nl3TczAOQboQ7kNvwHbWnKy&amp;_nc_oc=Adm-8UjlTKRCyIE1Dbl-b9O6MuK_gsmzA4QcKzM0noMjYG-YzTgySjZRHqucNyaTvDioUpARUO2XGQlLk6Dwny3N&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=KYHsJdtWk6arpewuJqj-iQ&amp;oh=00_AfaVSAF7_RANeY5CmQy0QPwuVPdW0rMruwHaQbgq8XOpLg&amp;oe=68D0B90C', 'profileId': 'pfbid023U3Q6PZiRDZvCNao1EJcPCXtiDcsXpSXrrU8Kss9muvVESjhDbvTNFERjjN818U5l', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WGx9OpLj38kQ7kNvwGpbEqZ&amp;_nc_oc=AdlzeXQVYNhrG4QV4jLBNcre_4KGpOIU6PayYbnGNJ1OAdB07E6bgPdFzCafbhnYacSe2rrDg5vkcZjmCjb1TzNf&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=tQFjbr1NhchHCsOXs6_FMg&amp;oh=00_Afb_1NqaVQM65y9GykaoE3YUnwKV4zA0NI3IaqDOFj9dcw&amp;oe=68D0A1E9', 'profileId': 'pfbid021quL7gyzAH2QQvXrjS92UTvGM3uCpRMweCPnN1bcHEY1zQWRiJC992wUSnVoLpyal', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WGx9OpLj38kQ7kNvwGQ4c2N&amp;_nc_oc=AdkNDh4QAU1xhN6nEdOcK83_rcraexlM5gkdQlIc7-G-LMKom-drcWI_6QZt6wJG5bs&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfYVj9AFosAM8QbkA2zUKyW7rLBlmc7TzLwb7KIWuuWy1g&amp;oe=68D0DA29', 'profileId': 'pfbid021quL7gyzAH2QQvXrjS92UTvGM3uCpRMweCPnN1bcHEY1zQWRiJC992wUSnVoLpyal', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JxCzFRw7BeQQ7kNvwGcGZa8&amp;_nc_oc=AdkGbNPYu7dhMnheaWtTr-0SbcNAhLlQ9daRG48zjCUxOvS6LJEh2kntuqRq4AG_4GmbNGMkEsXQBiu-tof-wsF7&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tQFjbr1NhchHCsOXs6_FMg&amp;oh=00_AfbaAHlqUg9T3zbsEne-pxFGKqlC5DjPFR4rHPaKzN2ADQ&amp;oe=68D0C246', 'profileId': 'pfbid034RJSKiZWjt7SriqHujaqUV52PZNNyvTPxbQJm1h9YJBJhdiUM6U1gSaDTMjfeKDcl', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JxCzFRw7BeQQ7kNvwGoPYWG&amp;_nc_oc=AdnifeLNp67I8rEEh9YyZ9MOI_MvR3ChiyEH3SXcd8MQ38qUp5f98in_IH0gWhi4W58&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfYTps4-Z7-hY8ev2MNHmAe40475Zdcvqm0cupQMScTf2g&amp;oe=68D0C246', 'profileId': 'pfbid034RJSKiZWjt7SriqHujaqUV52PZNNyvTPxbQJm1h9YJBJhdiUM6U1gSaDTMjfeKDcl', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JjTu6daiCUwQ7kNvwGY9NkB&amp;_nc_oc=AdnLeYSvBDmoAml9juHsD271xTifJPwf8ZSEstTD2jAm7lmp3LIf7yo8wchkXBC7wmAohHqwmwRx3UaP6RxGFJVI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=tQFjbr1NhchHCsOXs6_FMg&amp;oh=00_AfZXzxK1_Y6Av9XtxHmOrK7FL7uIy5BoL6arK5FpC2y3-A&amp;oe=68F25930', 'profileId': 'pfbid0wtfrB49wg5oVqm9oqCe2bmp2zGdwnhzetUQBReycg3mBQaSSirxPaz34kjXg69Bwl', 'profileName': 'Francis Rodriguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JjTu6daiCUwQ7kNvwF2nfAe&amp;_nc_oc=AdkYMkQ5g24d5AWGyNBRtCiVY1xe_jHbb-zhmhBDNd0zvriXVF80dGKtBQsO1dHzprg&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfYZjfYasYCrigLo8NxQR39T72yP2tHYagTFumOSdVoPKQ&amp;oe=68F25930', 'profileId': 'pfbid0wtfrB49wg5oVqm9oqCe2bmp2zGdwnhzetUQBReycg3mBQaSSirxPaz34kjXg69Bwl', 'profileName': 'Francis Rodriguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sTEoWR0HUzIQ7kNvwHGRmxI&amp;_nc_oc=AdnymsS1U1TzIYjzHjSUqDGYkCevzdNhVO8d9lQs2oPT7f2VgKWRo4VhVW7KfLcJelWPr016xYmcW1k5yLQQunfq&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=tQFjbr1NhchHCsOXs6_FMg&amp;oh=00_AfZSKCgZC2RPQVptD2uF1MdeCxHWEKHeL2-u2RWhDKBpgg&amp;oe=68D0A4A0', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sTEoWR0HUzIQ7kNvwH1WZTp&amp;_nc_oc=AdlStRMSJdb5mwZFP1y-zkNhM9f7SUDNlJinAyNAU9E7eknUIDDXeGeJKIJw73q7Z3Y&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_Afb9pk46UiIUJ4DGfK60wYJx9iUByyksXkTNa6aa1PuQnA&amp;oe=68D0A4A0', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wLxjjL91BWcQ7kNvwG5Kl-2&amp;_nc_oc=AdkJX5L4TvoJDjSMDFlt3-cKg2dCpWvPX9DEn_iRRMRLlGTs6VTThv2RhhbfLwdCCXdzzVM5_fizOu2Ww__DaC7c&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=tQFjbr1NhchHCsOXs6_FMg&amp;oh=00_AfaQ6Wqy4tR1R7pEOcXrT3ZcW13eNWkEuiHE1a-fZsUOHg&amp;oe=68D0D0BD', 'profileId': 'pfbid02fqesjKnBjLy57vwvpixe7rZYydVQbo9Bq5YnJM2UCNUFRdFnbYrKV6C2so2MzhXul', 'profileName': 'Pablo Acevedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wLxjjL91BWcQ7kNvwG7Z5nX&amp;_nc_oc=Adlt_p9quV0ZCTVYSItIUIcw3LKa_byIHx8JX5OHKCGmbAfXlQCTSG6ftV2WJGhMDo8&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfZdiCTzqObdfcbJekgO8zeOCqNShEsi4p9ykKOKY1ykEA&amp;oe=68D0D0BD', 'profileId': 'pfbid02fqesjKnBjLy57vwvpixe7rZYydVQbo9Bq5YnJM2UCNUFRdFnbYrKV6C2so2MzhXul', 'profileName': 'Pablo Acevedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -579,23 +579,23 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trueno</t>
+          <t>Esa es vida feliz viaje y bendiciones 🙏👏</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45912.8341087963</v>
+        <v>45922.75929398148</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20:01:07</t>
+          <t>18:13:23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KaE2c1Zsh6ys9G6CU8MmcLyGZ2ndpxzDoJKLgdqHqdSjGKbMSkjUxCDErEMJm9cil/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wJWdK8La5IwQ7kNvwEA3Lnv&amp;_nc_oc=AdnK1AqbJGUD3Sb93yXcGCtiyemLsvn-lNXnsg80NiDyLw8xNchNHQw-rI-sA0vGDyRFKQOIhfiQoqgd852uAotn&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=KYHsJdtWk6arpewuJqj-iQ&amp;oh=00_AfbKo0T3EiIVRJeKEZ6AtuujumrvIgWDuI39AGnJFIkU7g&amp;oe=68D0CED6', 'profileId': 'pfbid02KaE2c1Zsh6ys9G6CU8MmcLyGZ2ndpxzDoJKLgdqHqdSjGKbMSkjUxCDErEMJm9cil', 'profileName': 'Jesus Saldarriaga', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zwr3naFNnU4Q7kNvwE3DROC&amp;_nc_oc=Adn1-cFURtSwQPvbZeIpYPb4qpHb5-TwEVRCGu1Fm7SKfZYkgXz4w_yocO4ERJfIVaM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbF-Ldfj_YUIwVGuRFGmI7ohJAfUYOnn1ruoeU0sQXXog&amp;oe=68D8C51E', 'profileId': 'pfbid02Nqvi1vfCz5huXiZbmydH9mgrfFuWNyLF1E9DpsyS1nADha7S336x4xAissjncJwwl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -633,18 +633,18 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ñ0</t>
+          <t>Yooo</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45915.73059027778</v>
+        <v>45921.6556712963</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45915</v>
+        <v>45921</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>17:32:03</t>
+          <t>15:44:10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SCj4rb6qMRMQ7kNvwE6iR4f&amp;_nc_oc=Adm1Icp0ub5H5_qBo09AEwIT1dmNGWFs3uJailtYiP8aJqomBjtMM0uWAVyk6O1KKd2yHYOqaUaaVR5ZfC6_Jx6l&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=KYHsJdtWk6arpewuJqj-iQ&amp;oh=00_AfZhi4cIw26lYTV4mAOt_b4e7M_FBKbFpisTmX2cchgSZQ&amp;oe=68D0D069', 'profileId': 'pfbid02AZKwjdtxf7FqrUYSJxwXbGU4yBywqRX5uQy2e5dsUhU4Xiahqg962rvtPUcF5biml', 'profileName': 'Ruben Galarza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=P9ac70aAcvsQ7kNvwEeexGy&amp;_nc_oc=Adm0M86uHLtfWkuaYZ3OXBde60YjzrNyeoldCUxBX2-UAq54BUTsXrgiKtlhLzXyHsA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYh4xAEvErfb7TlYz4DXs0gP40yv7I2FDe_w7LTEEdDvg&amp;oe=68D8CB6E', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AMEN</t>
+          <t>Amén señor gracias por todas las bendiciones que me das todos los días</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45912.51775462963</v>
+        <v>45920.65432870371</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45912</v>
+        <v>45920</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12:25:34</t>
+          <t>15:42:14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -715,17 +715,17 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7MnzvGDUQ1kVijmbUb5P4RtYH4SjBJ22RQAqGucCTZa8PYLS9zMvR4cfh116Ps8l?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nl3TczAOQboQ7kNvwHbWnKy&amp;_nc_oc=Adm-8UjlTKRCyIE1Dbl-b9O6MuK_gsmzA4QcKzM0noMjYG-YzTgySjZRHqucNyaTvDioUpARUO2XGQlLk6Dwny3N&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=KYHsJdtWk6arpewuJqj-iQ&amp;oh=00_AfaVSAF7_RANeY5CmQy0QPwuVPdW0rMruwHaQbgq8XOpLg&amp;oe=68D0B90C', 'profileId': 'pfbid023U3Q6PZiRDZvCNao1EJcPCXtiDcsXpSXrrU8Kss9muvVESjhDbvTNFERjjN818U5l', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Cv-nD_4_A9AQ7kNvwHUnHdz&amp;_nc_oc=AdloYZkMHF4r4wUVQQxERgVKWDuROqpqULX21aGl83QPchy3T-HOzDwqJ89u-c9yRmU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYAsaCPhchqh-nSwEnh3O-GIw8R1CuIkUqxXn77UsK_jA&amp;oe=68D8B79B', 'profileId': 'pfbid02VFnb2mtiF9QFccyizm9TVTTKbRvrNXmZaTFxnH5sYav7RGnPpXxKZoeDPXinf8EUl', 'profileName': 'Carmenza Diaz', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -735,16 +735,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rico</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45919.72311342593</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>17:21:17</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -752,20 +766,16 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid0mRTzhLavVmaB9TyrwVNMKivA1iByEvhsJ7fz2BF9CVzdRqiGVzxMqXtghHBfKgurl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-6SWSkxtG5wQ7kNvwEEa8J4&amp;_nc_oc=AdnpEs5f1uPEUUTgun9ZkjpV2ycDwr7ZpEkLHW_Y5DVWGXf7hwLXyVaUsq0yDNhIHp0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_Afat6VmZky2q5bsyXOmQqmN4epd6RS3hnG0yCbY647MpWw&amp;oe=68D8B717', 'profileId': 'pfbid0mRTzhLavVmaB9TyrwVNMKivA1iByEvhsJ7fz2BF9CVzdRqiGVzxMqXtghHBfKgurl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -779,16 +789,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Eso sí es vida</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45917.72106481482</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>17:18:20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -799,17 +823,17 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lztZcYLgWAIQ7kNvwE4h2Vu&amp;_nc_oc=AdkxE8E1GYttwS18i7aUVC33tuyKoeO5UxpSg197Ec1Nqa19jZ_I8h_bLly270n74lk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYnK9jolzc2ToCGl5E81tkYqYSuszBGn8ig-RpurUixUQ&amp;oe=68D8CE09', 'profileId': 'pfbid0mgY6656imgMzTHD2oztndRhZdfMqBvhX5d2nswp2MS1chFM8zx4mm5gA7uiuYHQml', 'profileName': 'Beto Villa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -819,16 +843,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Trueno</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45912.8341087963</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20:01:07</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -836,20 +874,16 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ILdYOhM60FgQ7kNvwFVbjLu&amp;_nc_oc=AdlH50OfxJeh-LbnXl9LkmpAlccXyonNcabMPc4al0ALSge-krehNDmTOHCg47DCYcM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbTyAGYn5H_-sqJM94-QBKZ6TR-0_0d2DQM74yaHnHdLQ&amp;oe=68D8B7D6', 'profileId': 'pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -863,16 +897,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7  66..años</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45922.97435185185</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>23:23:04</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -883,17 +931,17 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U1-cCptUt2oQ7kNvwHd-o4H&amp;_nc_oc=AdknLmhNXJOXFc_3EBXkIbq94ryoE2-ANr8oosGq_m5IvLrIhpt1_T6ntDmWmitmfBE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYYoMyX0XKa4h1ZEf7yHhYxq_khoUmqV8NGRaubJEBDcg&amp;oe=68D8B2DD', 'profileId': 'pfbid02HDppxm2AsXefqc766r7PtyssgbEiESUGN3zLzsNo89kc8b5od9ZddQtQPtdzeyv4l', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -903,16 +951,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Exceso de azúcares y grasas saturadas🥴🥴🥴</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45918.98391203704</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>23:36:50</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -920,20 +982,16 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=45ITI-_cCiwQ7kNvwE2T67X&amp;_nc_oc=AdkZo3uw3xkJmZVJxP1AhVjOC4q_XHTolzTKy4IUF5Cxgt88Fp_tUx-t87yEds6TWUA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbR4sLM3SzxyuoUA3Z9TkmoUW5jP0_IG9jGsjExN8hZDA&amp;oe=68D8D5A5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -947,16 +1005,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ñ0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45915.73059027778</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:32:03</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -967,17 +1039,17 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6z7_-sV7vDYQ7kNvwGmB0Uq&amp;_nc_oc=Adl8aBb4NkLQz-3_Jpj2QnRGr_Wmb3Yqceyp47To1HZHTaFKy5u9zclqKuj4Kxw3b6o&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfZIgWpLqTYmL3opblTujj0IIzgBaZY2JdjPyfN6sHJYoA&amp;oe=68D8B969', 'profileId': 'pfbid02AWpTQrex26sMBYiMkdfDQtSKYbrxf9kxC9qmtm6LQxRSFQW4DeYaAph1qzfXCSbTl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -987,16 +1059,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>De dónde eres</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45922.55671296296</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>13:21:40</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1004,20 +1090,16 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-Q77F1KKutAQ7kNvwGQuVh-&amp;_nc_oc=AdnLHF11Cpu8_h6k3r94iPNb6vo_n-qwBGnsNbywsjNGALY6oneAjMsGnWp_vf2DEFI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbPjScGxSgad4BR1ECYNQ8C5vkhv22rpRXIjgJA9-xT6w&amp;oe=68D8DB75', 'profileId': 'pfbid09ABuGA9P2apssa1rQyq7NW5BcFy9wyfHuGkUhh7i1cEY4ay7TGFro1CxnEM2QQNsl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1031,16 +1113,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AMEN</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45912.51775462963</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>12:25:34</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1051,17 +1147,17 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FlrA-AUGYrwQ7kNvwF7qb9U&amp;_nc_oc=Adn5k6nOajpdjV83YvLMe4ZEqknwOCcTrkOsech4f19PWkiWdThNYIWYVx7tOakeSOo&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=CmL3MgcjxMDoA8kk-_FI7A&amp;oh=00_AfbsZ7pWSDiUGydJNGji9-vy5Z8y_TyRx4joCdsLIfrM1w&amp;oe=68D8DA4C', 'profileId': 'pfbid023RXumcKhnF9KwfNhpXxbzbXmuFc9eSg3FcDk6QUAfLJ6K6q2RZRhjQBwjaSrMfKVl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1071,7 +1167,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
+          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1088,20 +1184,24 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1111,7 +1211,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1128,20 +1228,16 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1155,7 +1251,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
+          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1179,13 +1275,13 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1199,30 +1295,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>👍</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>45917.00005787037</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>45917</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1233,17 +1315,17 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=WGx9OpLj38kQ7kNvwGQ4c2N&amp;_nc_oc=AdkNDh4QAU1xhN6nEdOcK83_rcraexlM5gkdQlIc7-G-LMKom-drcWI_6QZt6wJG5bs&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfYVj9AFosAM8QbkA2zUKyW7rLBlmc7TzLwb7KIWuuWy1g&amp;oe=68D0DA29', 'profileId': 'pfbid021quL7gyzAH2QQvXrjS92UTvGM3uCpRMweCPnN1bcHEY1zQWRiJC992wUSnVoLpyal', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1253,30 +1335,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Amalia</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>45916.87971064815</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>45916</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>21:06:47</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1284,16 +1352,20 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JxCzFRw7BeQQ7kNvwGoPYWG&amp;_nc_oc=AdnifeLNp67I8rEEh9YyZ9MOI_MvR3ChiyEH3SXcd8MQ38qUp5f98in_IH0gWhi4W58&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfYTps4-Z7-hY8ev2MNHmAe40475Zdcvqm0cupQMScTf2g&amp;oe=68D0C246', 'profileId': 'pfbid034RJSKiZWjt7SriqHujaqUV52PZNNyvTPxbQJm1h9YJBJhdiUM6U1gSaDTMjfeKDcl', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1307,30 +1379,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>para mañana es tatde</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>45915.09944444444</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>45915</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>02:23:12</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1341,17 +1399,17 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent.forf1-3.fna.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JjTu6daiCUwQ7kNvwF2nfAe&amp;_nc_oc=AdkYMkQ5g24d5AWGyNBRtCiVY1xe_jHbb-zhmhBDNd0zvriXVF80dGKtBQsO1dHzprg&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-3.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfYZjfYasYCrigLo8NxQR39T72yP2tHYagTFumOSdVoPKQ&amp;oe=68F25930', 'profileId': 'pfbid0wtfrB49wg5oVqm9oqCe2bmp2zGdwnhzetUQBReycg3mBQaSSirxPaz34kjXg69Bwl', 'profileName': 'Francis Rodriguez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1361,30 +1419,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Ñ</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>45915.16798611111</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>45915</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>04:01:54</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1392,16 +1436,20 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=sTEoWR0HUzIQ7kNvwH1WZTp&amp;_nc_oc=AdlStRMSJdb5mwZFP1y-zkNhM9f7SUDNlJinAyNAU9E7eknUIDDXeGeJKIJw73q7Z3Y&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_Afb9pk46UiIUJ4DGfK60wYJx9iUByyksXkTNa6aa1PuQnA&amp;oe=68D0A4A0', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1415,30 +1463,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>El doctor bayter,, dice que es mierda,,, 🤦</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>45912.51447916667</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>45912</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>12:20:51</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1449,17 +1483,17 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hHrWSM3KfUaLKQRKbcRaZD5sR5d9vhZQVNm424muVDDFESzqkq27PPHcYbPgjTJVl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent.forf1-4.fna.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wLxjjL91BWcQ7kNvwG7Z5nX&amp;_nc_oc=Adlt_p9quV0ZCTVYSItIUIcw3LKa_byIHx8JX5OHKCGmbAfXlQCTSG6ftV2WJGhMDo8&amp;_nc_zt=24&amp;_nc_ht=scontent.forf1-4.fna&amp;_nc_gid=yS1YzMxUCu2FYbStpchHpA&amp;oh=00_AfZdiCTzqObdfcbJekgO8zeOCqNShEsi4p9ykKOKY1ykEA&amp;oe=68D0D0BD', 'profileId': 'pfbid02fqesjKnBjLy57vwvpixe7rZYydVQbo9Bq5YnJM2UCNUFRdFnbYrKV6C2so2MzhXul', 'profileName': 'Pablo Acevedo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1469,7 +1503,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1486,24 +1520,20 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1513,7 +1543,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
+          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1530,8 +1560,622 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>👍</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45917.00005787037</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KP7dqlToG3EQ7kNvwE7qi4A&amp;_nc_oc=AdlHscQvodhxoT61wmV7iFfLBy3zPuDAQXfW8bQK_Vayqa_PJEHBkcabxqCqAM4ovCc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfaP1ASmNNfiERb-rVCi7FILsBSeVRI9d6PrVvgSG88NTw&amp;oe=68D8C329', 'profileId': 'pfbid022HMNMZKBMK6eaLZ6LkwMZSWLG5U7GXQ8EHjZmCvLz1HMi6PtX7b5Gkw8FAqKP7t5l', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Amen 🙏</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45918.11836805556</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>02:50:27</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1100972898776292', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzExMDA5NzI4OTg3NzYyOTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMTAwOTcyODk4Nzc2Mjky', 'date': '2025-09-18T02:50:27.000Z', 'text': 'Amen 🙏', 'profileUrl': 'https://www.facebook.com/ana.milena.mendoza.ortiz.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/503399434_596818393431126_408432923864334008_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U4PGvqJZAYgQ7kNvwGOmUWE&amp;_nc_oc=Adk66G6ZOJgw_8P13xctWKrV1yMI1mFm88u54ZYcc3Bqgddq-p3AteuM7mDRxOZYlLA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfZdsS3ExSFjlrqpc67ah7WJeTbJmDQjVZmF80Aq4yYHAA&amp;oe=68D8DFA1', 'profileId': 'pfbid02hNzSLzGdrXV9HDUpjzEBFNMmNuRUu5b5BhBhaLitTacZuoX4gpvVQFHFoS4nbSqAl', 'profileName': 'Ana Milena Mendoza Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Leo dan</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45919.99899305555</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>23:58:33</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=817107374327681', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgxNzEwNzM3NDMyNzY4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MTcxMDczNzQzMjc2ODE=', 'date': '2025-09-19T23:58:33.000Z', 'text': 'Leo dan', 'profileUrl': 'https://www.facebook.com/carmen.cruz.98478', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/450540272_7319391744832338_4989926542834453205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RaVPXjoc31UQ7kNvwHyQWom&amp;_nc_oc=AdmB4REBUB_UqtHsTNBynWREeCS1TT15PAu-P_bKfhPgwrRpz_a0taFgAxnQqvmI9BE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYXTAjvBoKfpTr8N84Ips1hwqVBF3xqOtQxLLH-O78S_A&amp;oe=68D8D649', 'profileId': 'pfbid02QNPNerMZ8EMqxQTMyR1YM7w8iM4rxczWyU4Dthc96ndBH3bS6hEiwV5AmjAt1DLbl', 'profileName': 'Carmen Monroy Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>14</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Amalia</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45916.87971064815</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>21:06:47</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V06Q8mAZIlcQ7kNvwFdekEn&amp;_nc_oc=AdnrpXMq1ZCKOmSIisGFiO3bllP6w943Y1WOMrrLX2OQa8JBUfpGvVPKlGj9x3aenZM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_Afaeys-pHwyc7n6Xe2Kx8XgQYt-OoMavEECItAnGQ5xguA&amp;oe=68D8E386', 'profileId': 'pfbid034NnwzwKW6twFDaSQbDG6on8FWrYUoMZYheTzhNGxM7PcpNt2754KXtpNxfr5bmBWl', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Código sagrado 444</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45923.5630787037</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>13:30:50</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1339938961057207', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzEzMzk5Mzg5NjEwNTcyMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMzM5OTM4OTYxMDU3MjA3', 'date': '2025-09-23T13:30:50.000Z', 'text': 'Código sagrado 444', 'profileUrl': 'https://www.facebook.com/melva.lopez.75', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/463634667_3301865023276898_391807565447451000_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fnbv4NoNENoQ7kNvwHv7J6P&amp;_nc_oc=AdkbXZT9RGNSXL_U6UvSs3iBzMZDzyoMGI0xKyESVbcUTu1wEwtniUaT2Pv26ouM55g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_Afa6FI9932h4onzk3JE7wx4R-HmH5-z6ZnNfVrcMkXwrLw&amp;oe=68D8D257', 'profileId': 'pfbid0Q3iK6eqMeHpJZASr7DTLa3Agik4z6hScJhv7EHPuVBebTkZq8vqkzEyV8shFyd9Wl', 'profileName': 'Melva Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>para mañana es tatde</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45915.09944444444</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>02:23:12</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3Pc8N3Jkn6YQ7kNvwHpNA_w&amp;_nc_oc=Adls7d_0vVTDF5m2RIHB_1K6LrG5D33EBY5LZOaZHF4doQSsCYkz34LKT-DU2U1VZwE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYpW1cI0yER7iubaEgUbdHpZ7FlkT71PIlwieDMcI4B5Q&amp;oe=68FA7A70', 'profileId': 'pfbid0wrAMrGuw3HESkzpSEwzHMXNZ8Pvmtak2WgKTk8jX6DL91o44Q1dSifgxMhH5DJASl', 'profileName': 'Francis Rodriguez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ñ</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45915.16798611111</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>04:01:54</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pGhnqkfMqMcQ7kNvwFxBoxy&amp;_nc_oc=Adn2Y_pNHAOAMHRV3vVk4j4F3wcbq9KtKfMHfeylkwX6YKyATtvSZJlJ0VlpNoPO1jM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_Afap1tAK4lWUS5BooBzBVDx8q1XyRAQWr77eRnrB_nNeyg&amp;oe=68D8C5E0', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>El doctor bayter,, dice que es mierda,,, 🤦</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45912.51447916667</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>12:20:51</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UZupZDfVP3EQ7kNvwHS6UY_&amp;_nc_oc=AdlvAyCIcXM4YH2YZ68soDm3ITsFPPE0KlwOrTsrFHNx3TjvsuZlZBGCjt-LglfFlUA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfaPS-0Y1H98wTURCO6TTdQMtzPUQROiCi5uLw1ddi0ptw&amp;oe=68D8B9BD', 'profileId': 'pfbid02fo9PQYYB6dq4MBLUEwbZebLbenet32WT1rxJKzut4fEGK863uYiVkJJjb1VruZZtl', 'profileName': 'Pablo Acevedo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>14</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" s="2" t="n">
+        <v>45922.03387731482</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>00:48:47</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=835062203017596', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgzNTA2MjIwMzAxNzU5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MzUwNjIyMDMwMTc1OTY=', 'date': '2025-09-22T00:48:47.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/42863679_2379012832326187_2075853136920051712_n.webp?stp=cp0_dst-webp_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=1176f5&amp;_nc_ohc=jCbcpfw62vMQ7kNvwGf2F1E&amp;_nc_oc=AdnpdqEF9i_dhecDVtDWAOB2OLwF6JyVGrN0py6oEwyX-LmA96YaBgjoFM94h_MXXHA&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYlmhrvct-f5qiIO2-Ot_DpHwnHQdN1Nl_6NGbAhaLCnQ&amp;oe=68D8DBE5'}, 'frame_count': 20, 'frame_rate': 83, 'frames_per_column': 4, 'frames_per_row': 5, 'label': 'QooBee, a yellow dragon cupid, laughing with their hands over their mouth and eyes turning into red hearts', 'pack': {'name': 'Sweet QooBee', 'id': '2041010162793124'}, 'sprite_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/17633084_2041011739459633_7391660925691887616_n.png?stp=dst-png_p320x320&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=V2Jg696vd-EQ7kNvwGoVTTK&amp;_nc_oc=AdmkvPbJvRAL4TyKT0B2DkBgFbPBhqEUvjN_-wHXib2WRp2F5RPyRvgNHhGRnYlfuEM&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYh6XrhoforTkbVVvulY67zq67JCDeEk_r6JKf1Rd15FQ&amp;oe=68D8CC87'}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/17633085_2041011742792966_636656995289530368_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=9vhauccG-r0Q7kNvwGg7FZl&amp;_nc_oc=AdmfJi3HMoMzLJzcRHGq-gK-wQPLDzNGP3d9ZCdgv0OdGRnREdHkj4x9qLgntyejVo4&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfZrFtVvxr6VAjIHqJaIXEIN-n7eqgH83luvonfE7iohZg&amp;oe=68D8EB54', 'width': 80, 'height': 80}, 'id': '2041011726126301'}], 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/506624575_10232582330194479_9180279040545905006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GBh4rFraWdYQ7kNvwF3EO1E&amp;_nc_oc=AdmgD5o7i9KEHc2ETUY0ScFwjuMXTiTxtDOpcGkOTEGCbJj76S0JQ-AHhzWhUEvxBNE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfZkhZ3f75VbbV64dwdPxNspy7BaCLh3unhKhG3NOz5BRg&amp;oe=68D8DCB1', 'profileId': 'pfbid024Yx651Qhsc9wBn49qq3AGHcdVgGMfj1jhSbHA7Ehwj77RxU3WUeGTGY4MCr82kRkl', 'profileName': 'Lucy Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>15</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
         <is>
           <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618253743745/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
@@ -1619,11 +2263,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10201601100</t>
         </is>
       </c>
     </row>
@@ -1873,11 +2517,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00210</t>
+          <t>100003320</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,23 +579,23 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Esa es vida feliz viaje y bendiciones 🙏👏</t>
+          <t>🌹</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45922.75929398148</v>
+        <v>45924.14524305556</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18:13:23</t>
+          <t>03:29:09</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zwr3naFNnU4Q7kNvwE3DROC&amp;_nc_oc=Adn1-cFURtSwQPvbZeIpYPb4qpHb5-TwEVRCGu1Fm7SKfZYkgXz4w_yocO4ERJfIVaM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbF-Ldfj_YUIwVGuRFGmI7ohJAfUYOnn1ruoeU0sQXXog&amp;oe=68D8C51E', 'profileId': 'pfbid02Nqvi1vfCz5huXiZbmydH9mgrfFuWNyLF1E9DpsyS1nADha7S336x4xAissjncJwwl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ks43JfE89N8Q7kNvwHM0QYT&amp;_nc_oc=AdnXQXFddos9ieYTCJyGsdRYjYrbksDTYGtqnH_M4tScXiZLMB2exC58s4z8i8UUzUJkfaxNSE44pqmfLf9DCejs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_Afa9rVCnWpiEltjAdrm9UuvVxMfhQkfXTIXy5up0KvxHVA&amp;oe=68D9D266', 'profileId': 'pfbid02fkR2qUfotVBHRBkPy2ECZazfxQc6RF2gH3agSWQR9pZcqvSUYAFxaBY7S7R5ysA1l', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -633,23 +633,23 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yooo</t>
+          <t>Esa es vida feliz viaje y bendiciones 🙏👏</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45921.6556712963</v>
+        <v>45922.75929398148</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15:44:10</t>
+          <t>18:13:23</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=P9ac70aAcvsQ7kNvwEeexGy&amp;_nc_oc=Adm0M86uHLtfWkuaYZ3OXBde60YjzrNyeoldCUxBX2-UAq54BUTsXrgiKtlhLzXyHsA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYh4xAEvErfb7TlYz4DXs0gP40yv7I2FDe_w7LTEEdDvg&amp;oe=68D8CB6E', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zwr3naFNnU4Q7kNvwF1YISI&amp;_nc_oc=AdlDusTufnAuwkuStR7K16aefNMIzxuHsL18wFjVbuu-G25Dfayq64Q2WslKLDE_6EnZzrCNVYN-0SyTvZjcHVVM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZd_gT4AfnrtfXeKObKZWqBhA1R0_-18nBBLgIOh5wBVg&amp;oe=68D9DE5E', 'profileId': 'pfbid0KJHX6m2r8xXc5dguk5nDs9yr45Cewb622k3deM6Z272bYzDUsSJPHSLGpaaTqdYel', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Amén señor gracias por todas las bendiciones que me das todos los días</t>
+          <t>Yooo</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45920.65432870371</v>
+        <v>45921.6556712963</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15:42:14</t>
+          <t>15:44:10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Cv-nD_4_A9AQ7kNvwHUnHdz&amp;_nc_oc=AdloYZkMHF4r4wUVQQxERgVKWDuROqpqULX21aGl83QPchy3T-HOzDwqJ89u-c9yRmU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYAsaCPhchqh-nSwEnh3O-GIw8R1CuIkUqxXn77UsK_jA&amp;oe=68D8B79B', 'profileId': 'pfbid02VFnb2mtiF9QFccyizm9TVTTKbRvrNXmZaTFxnH5sYav7RGnPpXxKZoeDPXinf8EUl', 'profileName': 'Carmenza Diaz', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=P9ac70aAcvsQ7kNvwEJvG2I&amp;_nc_oc=AdnWalNrCBtqgun8qYHFiBi3f_Q-05zXu6jedzi1fU75KYyNiaDsdXIwX5mCdn0donYoEaRBt_7nZjj015h-MbwH&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfYkhDmfzHgQu6R5orYax-VjnCrE2sokKEWcih4y_KRkdQ&amp;oe=68D9E4AE', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -741,23 +741,23 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rico</t>
+          <t>Amén señor gracias por todas las bendiciones que me das todos los días</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45919.72311342593</v>
+        <v>45920.65432870371</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17:21:17</t>
+          <t>15:42:14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid0mRTzhLavVmaB9TyrwVNMKivA1iByEvhsJ7fz2BF9CVzdRqiGVzxMqXtghHBfKgurl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-6SWSkxtG5wQ7kNvwEEa8J4&amp;_nc_oc=AdnpEs5f1uPEUUTgun9ZkjpV2ycDwr7ZpEkLHW_Y5DVWGXf7hwLXyVaUsq0yDNhIHp0&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_Afat6VmZky2q5bsyXOmQqmN4epd6RS3hnG0yCbY647MpWw&amp;oe=68D8B717', 'profileId': 'pfbid0mRTzhLavVmaB9TyrwVNMKivA1iByEvhsJ7fz2BF9CVzdRqiGVzxMqXtghHBfKgurl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Cv-nD_4_A9AQ7kNvwHkCkhf&amp;_nc_oc=Adml7BrCdy2FW-7Yh4Gp7Ego6lfkR_Jsyfd1Z1DnW8JhVkZgJ91G0ycB4YMgg3n0-flVR_Seochfdi_lvqOkrJK3&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfYDd9_vmmlNGHTJ9vKnuiZtS3-Ple5TIvYjS03B4yZk1w&amp;oe=68D9D0DB', 'profileId': 'pfbid0REBsYxh9a9UA6QkXBwfwNNFt6yT6DHpjTop7QwDJN36bntGaJ6H43U5oZuEbrVCvl', 'profileName': 'Carmenza Diaz', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -795,23 +795,23 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Eso sí es vida</t>
+          <t>Rico</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45917.72106481482</v>
+        <v>45919.72311342593</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:18:20</t>
+          <t>17:21:17</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lztZcYLgWAIQ7kNvwE4h2Vu&amp;_nc_oc=AdkxE8E1GYttwS18i7aUVC33tuyKoeO5UxpSg197Ec1Nqa19jZ_I8h_bLly270n74lk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYnK9jolzc2ToCGl5E81tkYqYSuszBGn8ig-RpurUixUQ&amp;oe=68D8CE09', 'profileId': 'pfbid0mgY6656imgMzTHD2oztndRhZdfMqBvhX5d2nswp2MS1chFM8zx4mm5gA7uiuYHQml', 'profileName': 'Beto Villa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid02qGuht1WkM6es4YMTzJaYfq2Xx8mo8z6fQujGsTUWuyAsAJmeCbsLuhouxHSuFEkLl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEOCDkBbC-4Q7kNvwHRgsKJ&amp;_nc_oc=AdmOUs9FJgXkButuquE3-SQI07rpYeQ69luZ5X2XvH4iABdMEA_og6hx6ZKnhJsk-1xHrYqEEJxRocOFuvyzCd6E&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZmA6EQxPU3_61ZgXn4hQ260Oc-Hh0clYLnZjQKonUfaQ&amp;oe=68D9D057', 'profileId': 'pfbid02qGuht1WkM6es4YMTzJaYfq2Xx8mo8z6fQujGsTUWuyAsAJmeCbsLuhouxHSuFEkLl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -849,23 +849,23 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trueno</t>
+          <t>Eso sí es vida</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45912.8341087963</v>
+        <v>45917.72106481482</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20:01:07</t>
+          <t>17:18:20</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ILdYOhM60FgQ7kNvwFVbjLu&amp;_nc_oc=AdlH50OfxJeh-LbnXl9LkmpAlccXyonNcabMPc4al0ALSge-krehNDmTOHCg47DCYcM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbTyAGYn5H_-sqJM94-QBKZ6TR-0_0d2DQM74yaHnHdLQ&amp;oe=68D8B7D6', 'profileId': 'pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lztZcYLgWAIQ7kNvwEXC6Uj&amp;_nc_oc=AdnwdXlJrFkg0EJT4sLOXEOQdK3K8einUwHTWMV6PR1NtUydaZnJzSat2Q4jH5nAm0pONcUsm7Cc72X0tHurPNY9&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZrlxQVqs9dDSCrqO8tgdbgCEA31s7iJ8beI8E0f0AAzQ&amp;oe=68D9AF09', 'profileId': 'pfbid02q42Gi6TLoUZQNi5WGJ4GsEJUKNRhH54HAXVWZFzg2sxuYfZzGM67erXCGRkLFPhyl', 'profileName': 'Beto Villa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -903,23 +903,23 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7  66..años</t>
+          <t>Trueno</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45922.97435185185</v>
+        <v>45912.8341087963</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23:23:04</t>
+          <t>20:01:07</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U1-cCptUt2oQ7kNvwHd-o4H&amp;_nc_oc=AdknLmhNXJOXFc_3EBXkIbq94ryoE2-ANr8oosGq_m5IvLrIhpt1_T6ntDmWmitmfBE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfYYoMyX0XKa4h1ZEf7yHhYxq_khoUmqV8NGRaubJEBDcg&amp;oe=68D8B2DD', 'profileId': 'pfbid02HDppxm2AsXefqc766r7PtyssgbEiESUGN3zLzsNo89kc8b5od9ZddQtQPtdzeyv4l', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xQdNt0YAdIUQ7kNvwFj9YlD&amp;_nc_oc=AdnqZ731XYyvs_AUn7Sj7xqI1S5mpCkXivBRVS61dk1xA1CpmU1vK92swMj7nnNtUX96_xfMlVp_OvcS8DcuGKzJ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfYLZQBHHoBtesL-bOQU7adzsxqEXqdIOV5pWQoHFK8saA&amp;oe=68D9D116', 'profileId': 'pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -957,23 +957,23 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Exceso de azúcares y grasas saturadas🥴🥴🥴</t>
+          <t>7  66..años</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45918.98391203704</v>
+        <v>45922.97435185185</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23:36:50</t>
+          <t>23:23:04</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=45ITI-_cCiwQ7kNvwE2T67X&amp;_nc_oc=AdkZo3uw3xkJmZVJxP1AhVjOC4q_XHTolzTKy4IUF5Cxgt88Fp_tUx-t87yEds6TWUA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbR4sLM3SzxyuoUA3Z9TkmoUW5jP0_IG9jGsjExN8hZDA&amp;oe=68D8D5A5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U1-cCptUt2oQ7kNvwEcYhLr&amp;_nc_oc=AdkkgQeieT0CQCb1_mloOPjKLK3PonY-qQZkNE0NEEgemcEJEqQYRk1wYvruAermnZRxFzpbbX51W0E1Tx8Cx3LG&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfayNE5400ynNqwxc2RBQRaWt_eKQf0Rzh3e-yd92yPYTQ&amp;oe=68D9CC1D', 'profileId': 'pfbid02HDppxm2AsXefqc766r7PtyssgbEiESUGN3zLzsNo89kc8b5od9ZddQtQPtdzeyv4l', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1011,18 +1011,18 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ñ0</t>
+          <t>Exceso de azúcares y grasas saturadas🥴🥴🥴</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45915.73059027778</v>
+        <v>45918.98391203704</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:32:03</t>
+          <t>23:36:50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6z7_-sV7vDYQ7kNvwGmB0Uq&amp;_nc_oc=Adl8aBb4NkLQz-3_Jpj2QnRGr_Wmb3Yqceyp47To1HZHTaFKy5u9zclqKuj4Kxw3b6o&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfZIgWpLqTYmL3opblTujj0IIzgBaZY2JdjPyfN6sHJYoA&amp;oe=68D8B969', 'profileId': 'pfbid02AWpTQrex26sMBYiMkdfDQtSKYbrxf9kxC9qmtm6LQxRSFQW4DeYaAph1qzfXCSbTl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=45ITI-_cCiwQ7kNvwGw250B&amp;_nc_oc=Adl4egqIymmpw-xwXy-waEpBOzqWTF5RhOdVbqu5F7slYg3cX8zsnbzrsxmrd_LnJ_ZkVPQ0Y96jKJ7GTkC5zme3&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZF9avqxvTsGjgFq_jJLnKosIJuMmzA5_dzfoyQQpWe0Q&amp;oe=68D9B6A5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1065,23 +1065,23 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>De dónde eres</t>
+          <t>Ñ0</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45922.55671296296</v>
+        <v>45915.73059027778</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13:21:40</t>
+          <t>17:32:03</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1093,7 +1093,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-Q77F1KKutAQ7kNvwGQuVh-&amp;_nc_oc=AdnLHF11Cpu8_h6k3r94iPNb6vo_n-qwBGnsNbywsjNGALY6oneAjMsGnWp_vf2DEFI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=DMJWCR6mmezMlCkr_UbJ_A&amp;oh=00_AfbPjScGxSgad4BR1ECYNQ8C5vkhv22rpRXIjgJA9-xT6w&amp;oe=68D8DB75', 'profileId': 'pfbid09ABuGA9P2apssa1rQyq7NW5BcFy9wyfHuGkUhh7i1cEY4ay7TGFro1CxnEM2QQNsl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6z7_-sV7vDYQ7kNvwFIqFyM&amp;_nc_oc=AdkZxtQp99bvJ4sutqcvOBN3ZLSCI0NGsd0duKadujAAnALatvsBOBxcx5i6eQclkX6GiD-iQwrSmbTDhadMPQyI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_Afbq9dmasd4an6aisWsYFM1lFKDLgj1sf2FyJJW_P8-kFg&amp;oe=68D9D2A9', 'profileId': 'pfbid06yBGVh2bAwVxhAh6F1xbZ9bgHYQKqYHKEmb5RE764av3FhyzZA13sn5G3ki9Bqnml', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1119,18 +1119,18 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AMEN</t>
+          <t>De dónde eres</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45912.51775462963</v>
+        <v>45922.55671296296</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:25:34</t>
+          <t>13:21:40</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1147,17 +1147,17 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K4rJg92CqVc2uiBnqXE5ZnyrEP6xFz5noe6qJFxDnbqeRAWrQb3igoNNfmeKU3fVl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FlrA-AUGYrwQ7kNvwF7qb9U&amp;_nc_oc=Adn5k6nOajpdjV83YvLMe4ZEqknwOCcTrkOsech4f19PWkiWdThNYIWYVx7tOakeSOo&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=CmL3MgcjxMDoA8kk-_FI7A&amp;oh=00_AfbsZ7pWSDiUGydJNGji9-vy5Z8y_TyRx4joCdsLIfrM1w&amp;oe=68D8DA4C', 'profileId': 'pfbid023RXumcKhnF9KwfNhpXxbzbXmuFc9eSg3FcDk6QUAfLJ6K6q2RZRhjQBwjaSrMfKVl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-Q77F1KKutAQ7kNvwHkS5WX&amp;_nc_oc=AdkZ4CKak2WompbcEP_axDODTcayCnflXyEMklFFDC70fDEDF9YyjpBVTi4QURJgLPg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=YSgEtOkSjTz8ddLTUyLTVA&amp;oh=00_AfbS2AgWHHGX7IWTjWfcL5rSE_NBbgr7vy6h6YXFfD6OZw&amp;oe=68D9BC75', 'profileId': 'pfbid09ABuGA9P2apssa1rQyq7NW5BcFy9wyfHuGkUhh7i1cEY4ay7TGFro1CxnEM2QQNsl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1167,16 +1167,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>AMEN</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45912.51775462963</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>12:25:34</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1184,24 +1198,20 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ASHJ8i4qiCoQ7kNvwHcuxHW&amp;_nc_oc=AdkwDoxVHP4EyaokhPCYGXEumVcTAks0d00IgG-ZNQv-8oiOCPIXdQC5b-hWLKdC8rA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=YSgEtOkSjTz8ddLTUyLTVA&amp;oh=00_AfYftAOi6bRQ4EFkK4wh2X1IHXOaQCi0mxG3rLp87rnNYA&amp;oe=68D9BB4C', 'profileId': 'pfbid037GycxHFXdcFBtbP8VCMc45SnvtHQTarGCTqnXsLseNJJGSwZCYSfMVyTLDfHgHQGl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1211,7 +1221,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
+          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1228,20 +1238,24 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1251,7 +1265,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1268,24 +1282,20 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1295,7 +1305,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
+          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1312,20 +1322,24 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1335,7 +1349,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1352,24 +1366,20 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1379,7 +1389,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
+          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1396,20 +1406,24 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1419,7 +1433,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1436,24 +1450,20 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1463,7 +1473,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
+          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1480,16 +1490,20 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1503,7 +1517,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1523,17 +1537,17 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1543,7 +1557,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1560,20 +1574,16 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1587,7 +1597,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
+          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1611,17 +1621,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1631,30 +1641,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>👍</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>45917.00005787037</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>45917</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1662,10 +1658,14 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=KP7dqlToG3EQ7kNvwE7qi4A&amp;_nc_oc=AdlHscQvodhxoT61wmV7iFfLBy3zPuDAQXfW8bQK_Vayqa_PJEHBkcabxqCqAM4ovCc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfaP1ASmNNfiERb-rVCi7FILsBSeVRI9d6PrVvgSG88NTw&amp;oe=68D8C329', 'profileId': 'pfbid022HMNMZKBMK6eaLZ6LkwMZSWLG5U7GXQ8EHjZmCvLz1HMi6PtX7b5Gkw8FAqKP7t5l', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1691,23 +1691,23 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Amen 🙏</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45918.11836805556</v>
+        <v>45917.00005787037</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>02:50:27</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1719,7 +1719,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1100972898776292', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzExMDA5NzI4OTg3NzYyOTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMTAwOTcyODk4Nzc2Mjky', 'date': '2025-09-18T02:50:27.000Z', 'text': 'Amen 🙏', 'profileUrl': 'https://www.facebook.com/ana.milena.mendoza.ortiz.2025', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/503399434_596818393431126_408432923864334008_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U4PGvqJZAYgQ7kNvwGOmUWE&amp;_nc_oc=Adk66G6ZOJgw_8P13xctWKrV1yMI1mFm88u54ZYcc3Bqgddq-p3AteuM7mDRxOZYlLA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfZdsS3ExSFjlrqpc67ah7WJeTbJmDQjVZmF80Aq4yYHAA&amp;oe=68D8DFA1', 'profileId': 'pfbid02hNzSLzGdrXV9HDUpjzEBFNMmNuRUu5b5BhBhaLitTacZuoX4gpvVQFHFoS4nbSqAl', 'profileName': 'Ana Milena Mendoza Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h7dJQkrHPQsQ7kNvwGcscgC&amp;_nc_oc=Adm0lBmay1lLNA8PGulEBpL1_2lTfmkVuEhjsakFuWBKMkZm9z35jtZQSDh2lhDmIAY&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfbaR-kQL9QH30jBgnuFS_CC7VgNHUiwsmQOk2--zMotjQ&amp;oe=68D9DC69', 'profileId': 'pfbid035eqYyafoNyr9oEoRXHKmwpRtktmq9NdDLkSkRfVR6itJi6PK1PjyLiDSHAiWPZsgl', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1745,18 +1745,18 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Leo dan</t>
+          <t>Amen 🙏</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45919.99899305555</v>
+        <v>45918.11836805556</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23:58:33</t>
+          <t>02:50:27</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1773,7 +1773,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=817107374327681', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgxNzEwNzM3NDMyNzY4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MTcxMDczNzQzMjc2ODE=', 'date': '2025-09-19T23:58:33.000Z', 'text': 'Leo dan', 'profileUrl': 'https://www.facebook.com/carmen.cruz.98478', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/450540272_7319391744832338_4989926542834453205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=RaVPXjoc31UQ7kNvwHyQWom&amp;_nc_oc=AdmB4REBUB_UqtHsTNBynWREeCS1TT15PAu-P_bKfhPgwrRpz_a0taFgAxnQqvmI9BE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYXTAjvBoKfpTr8N84Ips1hwqVBF3xqOtQxLLH-O78S_A&amp;oe=68D8D649', 'profileId': 'pfbid02QNPNerMZ8EMqxQTMyR1YM7w8iM4rxczWyU4Dthc96ndBH3bS6hEiwV5AmjAt1DLbl', 'profileName': 'Carmen Monroy Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1100972898776292', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzExMDA5NzI4OTg3NzYyOTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMTAwOTcyODk4Nzc2Mjky', 'date': '2025-09-18T02:50:27.000Z', 'text': 'Amen 🙏', 'profileUrl': 'https://www.facebook.com/ana.milena.mendoza.ortiz.2025', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/503399434_596818393431126_408432923864334008_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U4PGvqJZAYgQ7kNvwFvC5x-&amp;_nc_oc=Adm6te8LlIfIIgBcrWkvf-4N-m8Dtpn0C4jkdOpuA37nloBZnGcZ5o0XF4-Gp4mHm7c&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaNqadVIcWw5kedWqZ5jnTDqy1my2wzp2lV-Rpb7VXeFw&amp;oe=68D9C0A1', 'profileId': 'pfbid0dqMFRpeH1RmRFMEDrrBhkN6riNE3K6PLA4rzDwN4Sq53FADua1Lg1sLqm2LJe6W3l', 'profileName': 'Ana Milena Mendoza Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1799,18 +1799,18 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Amalia</t>
+          <t>Leo dan</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45916.87971064815</v>
+        <v>45919.99899305555</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>21:06:47</t>
+          <t>23:58:33</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V06Q8mAZIlcQ7kNvwFdekEn&amp;_nc_oc=AdnrpXMq1ZCKOmSIisGFiO3bllP6w943Y1WOMrrLX2OQa8JBUfpGvVPKlGj9x3aenZM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_Afaeys-pHwyc7n6Xe2Kx8XgQYt-OoMavEECItAnGQ5xguA&amp;oe=68D8E386', 'profileId': 'pfbid034NnwzwKW6twFDaSQbDG6on8FWrYUoMZYheTzhNGxM7PcpNt2754KXtpNxfr5bmBWl', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=817107374327681', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgxNzEwNzM3NDMyNzY4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MTcxMDczNzQzMjc2ODE=', 'date': '2025-09-19T23:58:33.000Z', 'text': 'Leo dan', 'profileUrl': 'https://www.facebook.com/carmen.cruz.98478', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/450540272_7319391744832338_4989926542834453205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_Wtn_fplG-MQ7kNvwH-f5Wh&amp;_nc_oc=AdmPl8IxvSs2gjtPCfa6gBxswMg0ne3r7vdzFg9drKgZ7AeVfpX16Wzo_1IAdNi2L8I&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfbjAaICoogenfZEL06bSb-syMNMldTZAOJ_pZDkHnnGWQ&amp;oe=68D9B749', 'profileId': 'pfbid0LLnfB39zTHY556W8fRjfSWd2UUav3xRPhXjCX5EVDfvAA1FfPjBBAwWn2p2bY4p1l', 'profileName': 'Carmen Monroy Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1853,18 +1853,18 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Código sagrado 444</t>
+          <t>Amalia</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45923.5630787037</v>
+        <v>45916.87971064815</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13:30:50</t>
+          <t>21:06:47</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1339938961057207', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzEzMzk5Mzg5NjEwNTcyMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMzM5OTM4OTYxMDU3MjA3', 'date': '2025-09-23T13:30:50.000Z', 'text': 'Código sagrado 444', 'profileUrl': 'https://www.facebook.com/melva.lopez.75', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/463634667_3301865023276898_391807565447451000_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fnbv4NoNENoQ7kNvwHv7J6P&amp;_nc_oc=AdkbXZT9RGNSXL_U6UvSs3iBzMZDzyoMGI0xKyESVbcUTu1wEwtniUaT2Pv26ouM55g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_Afa6FI9932h4onzk3JE7wx4R-HmH5-z6ZnNfVrcMkXwrLw&amp;oe=68D8D257', 'profileId': 'pfbid0Q3iK6eqMeHpJZASr7DTLa3Agik4z6hScJhv7EHPuVBebTkZq8vqkzEyV8shFyd9Wl', 'profileName': 'Melva Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V06Q8mAZIlcQ7kNvwEabSZq&amp;_nc_oc=AdkTGc31s1Yk4Xwjgvy3tS4hy0GT-whHe-zWzNfKj-lxiAgRCWSkG8H5xroXFEHx5ko&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfZOWSy9RGydNRfqe2ZjwfqSwEJSDt_KFJGwg2N-GWm4_A&amp;oe=68D9C486', 'profileId': 'pfbid0zq9m5mh9FhtfrfnfoLUHfQpK6r2mrdn5L8MKx9JUbJXsSL9XZcFtH4yQAP5dFJF9l', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1907,23 +1907,23 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>para mañana es tatde</t>
+          <t>Código sagrado 444</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45915.09944444444</v>
+        <v>45923.5630787037</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>02:23:12</t>
+          <t>13:30:50</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1935,7 +1935,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3Pc8N3Jkn6YQ7kNvwHpNA_w&amp;_nc_oc=Adls7d_0vVTDF5m2RIHB_1K6LrG5D33EBY5LZOaZHF4doQSsCYkz34LKT-DU2U1VZwE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYpW1cI0yER7iubaEgUbdHpZ7FlkT71PIlwieDMcI4B5Q&amp;oe=68FA7A70', 'profileId': 'pfbid0wrAMrGuw3HESkzpSEwzHMXNZ8Pvmtak2WgKTk8jX6DL91o44Q1dSifgxMhH5DJASl', 'profileName': 'Francis Rodriguez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1339938961057207', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzEzMzk5Mzg5NjEwNTcyMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMzM5OTM4OTYxMDU3MjA3', 'date': '2025-09-23T13:30:50.000Z', 'text': 'Código sagrado 444', 'profileUrl': 'https://www.facebook.com/melva.lopez.75', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/463634667_3301865023276898_391807565447451000_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fnbv4NoNENoQ7kNvwHsl26E&amp;_nc_oc=Adk5dBdWhL5TWLdkI9NAvYnunE92Wn6BgyXSqi43gyTAywzYryt28qFqYaPYimDdQwg&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaasvVnDTxQHI9AEcVwX_ykQHYcSjrJHfc5EDeZ7XImgQ&amp;oe=68D9B357', 'profileId': 'pfbid0Q3iK6eqMeHpJZASr7DTLa3Agik4z6hScJhv7EHPuVBebTkZq8vqkzEyV8shFyd9Wl', 'profileName': 'Melva Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -1961,18 +1961,18 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ñ</t>
+          <t>para mañana es tatde</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45915.16798611111</v>
+        <v>45915.09944444444</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45915</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>04:01:54</t>
+          <t>02:23:12</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1989,7 +1989,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=pGhnqkfMqMcQ7kNvwFxBoxy&amp;_nc_oc=Adn2Y_pNHAOAMHRV3vVk4j4F3wcbq9KtKfMHfeylkwX6YKyATtvSZJlJ0VlpNoPO1jM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_Afap1tAK4lWUS5BooBzBVDx8q1XyRAQWr77eRnrB_nNeyg&amp;oe=68D8C5E0', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3Pc8N3Jkn6YQ7kNvwGxXTHz&amp;_nc_oc=Adl5d5OVjMadRDOsU29omZ9eGx17vEIUG1OxyeiPu9dsE97_17cf9l3ZKfypGvBfEGo&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfbtPJGH8W0_HkfZ6A0kr9FPmMY2Zh5oLQiKBDc9tLDfew&amp;oe=68FB5B70', 'profileId': 'pfbid031DeYUJGZ4onMivzDUhbWBgbvLKMdB4axBGRnUz6hHWiJkc4XJqrmoPy4PkTd8H22l', 'profileName': 'Francis Rodriguez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -2015,23 +2015,23 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>El doctor bayter,, dice que es mierda,,, 🤦</t>
+          <t>Ñ</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45912.51447916667</v>
+        <v>45915.16798611111</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12:20:51</t>
+          <t>04:01:54</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2043,7 +2043,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UZupZDfVP3EQ7kNvwHS6UY_&amp;_nc_oc=AdlvAyCIcXM4YH2YZ68soDm3ITsFPPE0KlwOrTsrFHNx3TjvsuZlZBGCjt-LglfFlUA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfaPS-0Y1H98wTURCO6TTdQMtzPUQROiCi5uLw1ddi0ptw&amp;oe=68D8B9BD', 'profileId': 'pfbid02fo9PQYYB6dq4MBLUEwbZebLbenet32WT1rxJKzut4fEGK863uYiVkJJjb1VruZZtl', 'profileName': 'Pablo Acevedo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VRbyNiXo76EQ7kNvwE1u-Jl&amp;_nc_oc=AdkdVxyoZVFM4L7X-3sTUXGUke4jFFa22FVcKmFatZJjLaSbPEDkV1tpbp39luQZotw&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_Afa99IO0jMrhy3-eKi85pf0ejoDHUBGF8rIFPvY8dOUKFA&amp;oe=68D9DF20', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
@@ -2067,16 +2067,20 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
       <c r="G33" s="2" t="n">
-        <v>45922.03387731482</v>
+        <v>45924.06284722222</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>00:48:47</t>
+          <t>01:30:30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2093,17 +2097,17 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02hFM27ZoK2cLp3nmf623hDhidMn28HJhLWeFaDLcTe9NmrvwNdRFgTaxGx8YsoVfHl?comment_id=835062203017596', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgzNTA2MjIwMzAxNzU5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MzUwNjIyMDMwMTc1OTY=', 'date': '2025-09-22T00:48:47.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/42863679_2379012832326187_2075853136920051712_n.webp?stp=cp0_dst-webp_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=1176f5&amp;_nc_ohc=jCbcpfw62vMQ7kNvwGf2F1E&amp;_nc_oc=AdnpdqEF9i_dhecDVtDWAOB2OLwF6JyVGrN0py6oEwyX-LmA96YaBgjoFM94h_MXXHA&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYlmhrvct-f5qiIO2-Ot_DpHwnHQdN1Nl_6NGbAhaLCnQ&amp;oe=68D8DBE5'}, 'frame_count': 20, 'frame_rate': 83, 'frames_per_column': 4, 'frames_per_row': 5, 'label': 'QooBee, a yellow dragon cupid, laughing with their hands over their mouth and eyes turning into red hearts', 'pack': {'name': 'Sweet QooBee', 'id': '2041010162793124'}, 'sprite_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/17633084_2041011739459633_7391660925691887616_n.png?stp=dst-png_p320x320&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=V2Jg696vd-EQ7kNvwGoVTTK&amp;_nc_oc=AdmkvPbJvRAL4TyKT0B2DkBgFbPBhqEUvjN_-wHXib2WRp2F5RPyRvgNHhGRnYlfuEM&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfYh6XrhoforTkbVVvulY67zq67JCDeEk_r6JKf1Rd15FQ&amp;oe=68D8CC87'}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.1997-6/17633085_2041011742792966_636656995289530368_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=9vhauccG-r0Q7kNvwGg7FZl&amp;_nc_oc=AdmfJi3HMoMzLJzcRHGq-gK-wQPLDzNGP3d9ZCdgv0OdGRnREdHkj4x9qLgntyejVo4&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfZrFtVvxr6VAjIHqJaIXEIN-n7eqgH83luvonfE7iohZg&amp;oe=68D8EB54', 'width': 80, 'height': 80}, 'id': '2041011726126301'}], 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/506624575_10232582330194479_9180279040545905006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GBh4rFraWdYQ7kNvwF3EO1E&amp;_nc_oc=AdmgD5o7i9KEHc2ETUY0ScFwjuMXTiTxtDOpcGkOTEGCbJj76S0JQ-AHhzWhUEvxBNE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=1Ws86bX1rYaMZPhEAFHWaw&amp;oh=00_AfZkhZ3f75VbbV64dwdPxNspy7BaCLh3unhKhG3NOz5BRg&amp;oe=68D8DCB1', 'profileId': 'pfbid024Yx651Qhsc9wBn49qq3AGHcdVgGMfj1jhSbHA7Ehwj77RxU3WUeGTGY4MCr82kRkl', 'profileName': 'Lucy Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1523119669109951', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MjMxMTk2NjkxMDk5NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTIzMTE5NjY5MTA5OTUx', 'date': '2025-09-24T01:30:30.000Z', 'text': 'Si', 'profileUrl': 'https://www.facebook.com/arnoby.arroyabe', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t1.6435-1/69544983_120826635942165_5825097851021033472_n.jpg?stp=c0.0.960.960a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Bo7-VJhNJU4Q7kNvwG2Ed4Q&amp;_nc_oc=Adl9ElYXS2d-msUQ4K_TTsZY-TpeeRyAeBMCS-SzvGdetpvRnzcyYS2T5iKlw-l-xFk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaxYIyEPG7zjwl0qGfk223jaFjEM8aqsuXKSV2I2OboTQ&amp;oe=68FB70FB', 'profileId': 'pfbid02Vp1Dq2pRntvC8kvycA7syp8WVGkQGjRZWazQfrAoH89hiVWX9uc6CSGECUbRyZrNl', 'profileName': 'Arnoby Arroyabe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2113,16 +2117,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>El doctor bayter,, dice que es mierda,,, 🤦</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45912.51447916667</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>12:20:51</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2130,20 +2148,16 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UZupZDfVP3EQ7kNvwEpJ1SF&amp;_nc_oc=Adk5mwGJ0_7mpkOzksU009VJqYLlIk14ePlKh519ylSwEKo5E-6C90tvnWWanlBIPRE&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaeoIzIGqknF4OmBm7meBZbbNTocCe_k8I66VmYDrPWpw&amp;oe=68D9D2FD', 'profileId': 'pfbid02fo9PQYYB6dq4MBLUEwbZebLbenet32WT1rxJKzut4fEGK863uYiVkJJjb1VruZZtl', 'profileName': 'Pablo Acevedo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2157,16 +2171,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0</v>
+      <c r="G35" s="2" t="n">
+        <v>45922.03387731482</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>00:48:47</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2176,6 +2200,90 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=835062203017596', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgzNTA2MjIwMzAxNzU5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MzUwNjIyMDMwMTc1OTY=', 'date': '2025-09-22T00:48:47.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/42863679_2379012832326187_2075853136920051712_n.webp?stp=cp0_dst-webp_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=1176f5&amp;_nc_ohc=jCbcpfw62vMQ7kNvwHPEGSC&amp;_nc_oc=AdnHiFZs0y6tHjaWJ-bEn8D_F0KrSoKsQZjc8kuYH7f3Bw2U35e1ixtZTy-wi42P1k0&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfZBxNi3ZL5TLSczaDYNS8_8By0OALis_0Sd6vNvBmlBGg&amp;oe=68D9BCE5'}, 'frame_count': 20, 'frame_rate': 83, 'frames_per_column': 4, 'frames_per_row': 5, 'label': 'QooBee, a yellow dragon cupid, laughing with their hands over their mouth and eyes turning into red hearts', 'pack': {'name': 'Sweet QooBee', 'id': '2041010162793124'}, 'sprite_image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/17633084_2041011739459633_7391660925691887616_n.png?stp=dst-png_p320x320&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=V2Jg696vd-EQ7kNvwE78l-T&amp;_nc_oc=AdmS0gMMX3XzF4VnI2XG7QROsSkebupgJar_t8aIFP-yHZ0HyaiaP5qGgEz-X3wEYRY&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfZ4aEOE_H1NsDkrButoB8Q9AHw-BGY0WMkSdgFGVXzk3A&amp;oe=68D9E5C7'}, 'image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/17633085_2041011742792966_636656995289530368_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=9vhauccG-r0Q7kNvwF4sKEb&amp;_nc_oc=Adlk_QdCAPDlSL2wO0-R8UxXl9cl8zt7oOdu-cuqAY6iuCj8zYmVLotV93ykzYBPbM8&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfYRl5IYYolWncnpu4x3DddlDnm0uxsNztzVUqInoIyIug&amp;oe=68D9CC54', 'width': 80, 'height': 80}, 'id': '2041011726126301'}], 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/506624575_10232582330194479_9180279040545905006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GBh4rFraWdYQ7kNvwEGQnE9&amp;_nc_oc=Adk7Kwo4BftnYip5DV2dUNbNlPZkubWphMkx9darqsK8zsd0ngYPOxKGsaFCTj7p9jY&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_Afao6DF-3O-9vaGok_2KMuPUFXiCTqXmgdvx3C0Pbv0k9w&amp;oe=68D9BDB1', 'profileId': 'pfbid024Yx651Qhsc9wBn49qq3AGHcdVgGMfj1jhSbHA7Ehwj77RxU3WUeGTGY4MCr82kRkl', 'profileName': 'Lucy Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>16</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
         <is>
           <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618253743745/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
@@ -2263,11 +2371,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10201601100</t>
+          <t>010201601100</t>
         </is>
       </c>
     </row>
@@ -2517,11 +2625,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>100003320</t>
+          <t>2000033020</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -579,18 +579,18 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>🌹</t>
+          <t>Amén</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45924.14524305556</v>
+        <v>45929.78123842592</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45924</v>
+        <v>45929</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>03:29:09</t>
+          <t>18:44:59</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ks43JfE89N8Q7kNvwHM0QYT&amp;_nc_oc=AdnXQXFddos9ieYTCJyGsdRYjYrbksDTYGtqnH_M4tScXiZLMB2exC58s4z8i8UUzUJkfaxNSE44pqmfLf9DCejs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_Afa9rVCnWpiEltjAdrm9UuvVxMfhQkfXTIXy5up0KvxHVA&amp;oe=68D9D266', 'profileId': 'pfbid02fkR2qUfotVBHRBkPy2ECZazfxQc6RF2gH3agSWQR9pZcqvSUYAFxaBY7S7R5ysA1l', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=ALMY2Gk-l_4Q7kNvwFZI8_k&amp;_nc_oc=Adn3vT4xeGoi2mS6Ec3Qu_7T2Z8vdgChCBfu2mRAwBxdfitFZvqKTnqyPhL1cAy2Too&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfbP6osQWzJ2gJ2BYIXNo9vSbkMcuNz9jqCfsN2Hw8lhLw&amp;oe=68E34F6F', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YOncqbAWLBsQ7kNvwHUDLRU&amp;_nc_oc=Adl5LqlNtjMtvzgt5b-CId6aQ9fkJwPpCj9c0Px0pUJPE7eCfhFxr-wrOZfmf4UtkYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_Afb0hvQcdexKyq4b2SQPe_xRcVWiGB7xjUx5aT8jChjtTg&amp;oe=68E33BA3', 'profileId': 'pfbid02LHjTuFt3agPwpaebx2jjbQuwXchrDE2BWFmEt2AWZj8MSf122eeTe6UDZimhtQRKl', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -633,23 +633,23 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Esa es vida feliz viaje y bendiciones 🙏👏</t>
+          <t>🌹</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45922.75929398148</v>
+        <v>45924.14524305556</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>18:13:23</t>
+          <t>03:29:09</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zwr3naFNnU4Q7kNvwF1YISI&amp;_nc_oc=AdlDusTufnAuwkuStR7K16aefNMIzxuHsL18wFjVbuu-G25Dfayq64Q2WslKLDE_6EnZzrCNVYN-0SyTvZjcHVVM&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZd_gT4AfnrtfXeKObKZWqBhA1R0_-18nBBLgIOh5wBVg&amp;oe=68D9DE5E', 'profileId': 'pfbid0KJHX6m2r8xXc5dguk5nDs9yr45Cewb622k3deM6Z272bYzDUsSJPHSLGpaaTqdYel', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=z5MFalbCZjkQ7kNvwFtxwMC&amp;_nc_oc=Adnry06cdFqnbSLCKAVu1zxlAVAGR53ZbQcuyxbxxSfhf-vEeTkeEPr5N-U7WLTps80&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_Afbot5vQo5mMYsPoKINugtK1CrTdlZ8YY5LSIhG1BmV2Vw&amp;oe=68E34526', 'profileId': 'pfbid02fXkYDZA4RzEGqSLjcDf7iEXXCN2zYU6QjyxQ15EajY166C8cUCHcjcnDgF7175G9l', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yooo</t>
+          <t>Esa es vida feliz viaje y bendiciones 🙏👏</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45921.6556712963</v>
+        <v>45922.75929398148</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15:44:10</t>
+          <t>18:13:23</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=P9ac70aAcvsQ7kNvwEJvG2I&amp;_nc_oc=AdnWalNrCBtqgun8qYHFiBi3f_Q-05zXu6jedzi1fU75KYyNiaDsdXIwX5mCdn0donYoEaRBt_7nZjj015h-MbwH&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfYkhDmfzHgQu6R5orYax-VjnCrE2sokKEWcih4y_KRkdQ&amp;oe=68D9E4AE', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dculolKVAPIQ7kNvwEV9Zgx&amp;_nc_oc=Adl6tmAGABtGmpnA-u00gTROh87yRJulKzykcdn79PR9hVhBeXJUW5QfLkZlRlzZgFI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfZ_I6_jNGMl-IRuPcZQqKt1Fb10gnozOm3ZOefIAl0YdA&amp;oe=68E3511E', 'profileId': 'pfbid02NdGDQ19TXbWNp9u5axujZC4hGykLstJA6J8yvPVvP8gtjkMa9bmfDT95iV2EEnzPl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Cv-nD_4_A9AQ7kNvwHkCkhf&amp;_nc_oc=Adml7BrCdy2FW-7Yh4Gp7Ego6lfkR_Jsyfd1Z1DnW8JhVkZgJ91G0ycB4YMgg3n0-flVR_Seochfdi_lvqOkrJK3&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfYDd9_vmmlNGHTJ9vKnuiZtS3-Ple5TIvYjS03B4yZk1w&amp;oe=68D9D0DB', 'profileId': 'pfbid0REBsYxh9a9UA6QkXBwfwNNFt6yT6DHpjTop7QwDJN36bntGaJ6H43U5oZuEbrVCvl', 'profileName': 'Carmenza Diaz', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PA-MRnseVcEQ7kNvwHIPytB&amp;_nc_oc=Adl79aMLyLptlijalVGR7TLXz7V3iHjecYBrf1fWTnSIBWPBKh3LLD_roy9dkcwuVcc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYWsE0rzKWRspm7aXwpAc49MEsr_Ad1iL4IeNFfmreUVw&amp;oe=68E3439B', 'profileId': 'pfbid02V386QrNxngg8A5BGUiM6qbbGwL86AFHWHAhF8wpyHv3sB4h8Lo5x1Uavxy8sBgAFl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -795,18 +795,18 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rico</t>
+          <t>Yooo</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45919.72311342593</v>
+        <v>45921.6556712963</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45919</v>
+        <v>45921</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:21:17</t>
+          <t>15:44:10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid02qGuht1WkM6es4YMTzJaYfq2Xx8mo8z6fQujGsTUWuyAsAJmeCbsLuhouxHSuFEkLl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TEOCDkBbC-4Q7kNvwHRgsKJ&amp;_nc_oc=AdmOUs9FJgXkButuquE3-SQI07rpYeQ69luZ5X2XvH4iABdMEA_og6hx6ZKnhJsk-1xHrYqEEJxRocOFuvyzCd6E&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZmA6EQxPU3_61ZgXn4hQ260Oc-Hh0clYLnZjQKonUfaQ&amp;oe=68D9D057', 'profileId': 'pfbid02qGuht1WkM6es4YMTzJaYfq2Xx8mo8z6fQujGsTUWuyAsAJmeCbsLuhouxHSuFEkLl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zCoWcKR6hSYQ7kNvwGVzxWx&amp;_nc_oc=AdmLfYxxWWrl6AIwxrS5bl96-vGFQa_bh562n5vapX4s-xJrPfB72GjXyuloNmz1lnI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfZ3X3f2dOkw9XAEsazP-M60nUBVNfO0hWYr-ucGFKPpyw&amp;oe=68E3576E', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -849,23 +849,23 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Eso sí es vida</t>
+          <t>Rico</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45917.72106481482</v>
+        <v>45919.72311342593</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17:18:20</t>
+          <t>17:21:17</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lztZcYLgWAIQ7kNvwEXC6Uj&amp;_nc_oc=AdnwdXlJrFkg0EJT4sLOXEOQdK3K8einUwHTWMV6PR1NtUydaZnJzSat2Q4jH5nAm0pONcUsm7Cc72X0tHurPNY9&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZrlxQVqs9dDSCrqO8tgdbgCEA31s7iJ8beI8E0f0AAzQ&amp;oe=68D9AF09', 'profileId': 'pfbid02q42Gi6TLoUZQNi5WGJ4GsEJUKNRhH54HAXVWZFzg2sxuYfZzGM67erXCGRkLFPhyl', 'profileName': 'Beto Villa', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid0mgm2e4eNs3C2e4fdK59qr3gDNDJxqSHarmhikg5mSjE8RpLyhZC7C6cMoUBytqFGl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AUGaUjhmXHgQ7kNvwErM3au&amp;_nc_oc=Adl3jtRoxnn5U-KbUwKS0RN7NOgRzECl2A34VKWjmrcGmroh50VsrlnsUupJ2-w1OgQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYJTnFNDLr4ZDLZOWcXw_X0tS5uB29s88JsuQdwlxFgwA&amp;oe=68E34317', 'profileId': 'pfbid0mgm2e4eNs3C2e4fdK59qr3gDNDJxqSHarmhikg5mSjE8RpLyhZC7C6cMoUBytqFGl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -903,23 +903,23 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trueno</t>
+          <t>Eso sí es vida</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45912.8341087963</v>
+        <v>45917.72106481482</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20:01:07</t>
+          <t>17:18:20</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xQdNt0YAdIUQ7kNvwFj9YlD&amp;_nc_oc=AdnqZ731XYyvs_AUn7Sj7xqI1S5mpCkXivBRVS61dk1xA1CpmU1vK92swMj7nnNtUX96_xfMlVp_OvcS8DcuGKzJ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfYLZQBHHoBtesL-bOQU7adzsxqEXqdIOV5pWQoHFK8saA&amp;oe=68D9D116', 'profileId': 'pfbid02KXiYHEKs48vf7iQi3BXnpqBeNRWRr2rrQkX389fDokR4rramJoV8BE3HL39WnYKhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HxCSJ97kEu8Q7kNvwEQcyLo&amp;_nc_oc=Adn2sqRDcTDYcZPBD0-IKFoTp-GGLF-7EYH80O65twV5CQ9MMCMh4jsMQiJul-oIZzU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfbrapOQ4FSvt6B4LbIYggqFF3ft4jmal5MhkCd5Uj720Q&amp;oe=68E35A09', 'profileId': 'pfbid0mTsbU9ayKNioEb5AYUQqWSBxJWW4Xz1LmU8BBJiNunUhJV62oqm9qq7JBZEecmdul', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -957,23 +957,23 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7  66..años</t>
+          <t>Trueno</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45922.97435185185</v>
+        <v>45912.8341087963</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23:23:04</t>
+          <t>20:01:07</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U1-cCptUt2oQ7kNvwEcYhLr&amp;_nc_oc=AdkkgQeieT0CQCb1_mloOPjKLK3PonY-qQZkNE0NEEgemcEJEqQYRk1wYvruAermnZRxFzpbbX51W0E1Tx8Cx3LG&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfayNE5400ynNqwxc2RBQRaWt_eKQf0Rzh3e-yd92yPYTQ&amp;oe=68D9CC1D', 'profileId': 'pfbid02HDppxm2AsXefqc766r7PtyssgbEiESUGN3zLzsNo89kc8b5od9ZddQtQPtdzeyv4l', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KK43fJp7bcZAPhZkvHDU62DqsUgDFrHh2fXnKsPZYUQsuGRZNG3UNFeaD2EETto7l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pA3gB9nHVdcQ7kNvwF5REPT&amp;_nc_oc=Adkhx2hJhYGtWaokIGbL_tUkYBSpVUycjCwWV1WjhVjvJNR2ErDoJKh2zJGbsbJkL5g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_Afbxeq07Xe9Ov5UvOXgaLk7gEPbQ8gpV6iid5QW3ziUnqg&amp;oe=68E343D6', 'profileId': 'pfbid02KK43fJp7bcZAPhZkvHDU62DqsUgDFrHh2fXnKsPZYUQsuGRZNG3UNFeaD2EETto7l', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1011,23 +1011,23 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Exceso de azúcares y grasas saturadas🥴🥴🥴</t>
+          <t>Eso jamás la superará  aunque ya no esté  sigue siendo unica</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45918.98391203704</v>
+        <v>45924.59932870371</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45918</v>
+        <v>45924</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23:36:50</t>
+          <t>14:23:02</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=45ITI-_cCiwQ7kNvwGw250B&amp;_nc_oc=Adl4egqIymmpw-xwXy-waEpBOzqWTF5RhOdVbqu5F7slYg3cX8zsnbzrsxmrd_LnJ_ZkVPQ0Y96jKJ7GTkC5zme3&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_AfZF9avqxvTsGjgFq_jJLnKosIJuMmzA5_dzfoyQQpWe0Q&amp;oe=68D9B6A5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0fGXD5H4RUQQ7kNvwFIPTNE&amp;_nc_oc=AdlvTb6s75ZcrA0lCgx6cCFFsG0IzVGsDegDFfuzBNlAmUiUG6NTkU3D_SndFmGpMPk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYqb2sKfwfgiZW6S5Faq4jOvuTfrUxaY6v6-BjH1KFLYQ&amp;oe=68E3498D', 'profileId': 'pfbid0JG1Gi1BAENcda5dVaNBE4TGygcMEt9ZLqq7Db9AggQgUZh2efPRNhpDVeoZE3fNWl', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1065,23 +1065,23 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ñ0</t>
+          <t>7  66..años</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45915.73059027778</v>
+        <v>45922.97435185185</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:32:03</t>
+          <t>23:23:04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1093,7 +1093,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6z7_-sV7vDYQ7kNvwFIqFyM&amp;_nc_oc=AdkZxtQp99bvJ4sutqcvOBN3ZLSCI0NGsd0duKadujAAnALatvsBOBxcx5i6eQclkX6GiD-iQwrSmbTDhadMPQyI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=Bco7zDB7ojVkZeupToY23Q&amp;oh=00_Afbq9dmasd4an6aisWsYFM1lFKDLgj1sf2FyJJW_P8-kFg&amp;oe=68D9D2A9', 'profileId': 'pfbid06yBGVh2bAwVxhAh6F1xbZ9bgHYQKqYHKEmb5RE764av3FhyzZA13sn5G3ki9Bqnml', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fy5Fg9-Oeg8Q7kNvwHWLcfY&amp;_nc_oc=AdmPOodXG15NwGUfdq6_imaPMPlRViEyWRnEl2dHRZsRFHt7Ikfs8d7cLoGAN_0pL24&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYgoowEIf_fq9BDRzMVdyY4H86bFtsSqf3VvB8pEAgFGw&amp;oe=68E33EDD', 'profileId': 'pfbid0D9idAAabZm86r7aKLKeR9iGxvtG27xrzqa9rH1ZW1KCsnspDDVScEvgvqPAYwi8Tl', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1119,23 +1119,23 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>De dónde eres</t>
+          <t>Exceso de azúcares y grasas saturadas🥴🥴🥴</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45922.55671296296</v>
+        <v>45918.98391203704</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13:21:40</t>
+          <t>23:36:50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1147,7 +1147,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-Q77F1KKutAQ7kNvwHkS5WX&amp;_nc_oc=AdkZ4CKak2WompbcEP_axDODTcayCnflXyEMklFFDC70fDEDF9YyjpBVTi4QURJgLPg&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=YSgEtOkSjTz8ddLTUyLTVA&amp;oh=00_AfbS2AgWHHGX7IWTjWfcL5rSE_NBbgr7vy6h6YXFfD6OZw&amp;oe=68D9BC75', 'profileId': 'pfbid09ABuGA9P2apssa1rQyq7NW5BcFy9wyfHuGkUhh7i1cEY4ay7TGFro1CxnEM2QQNsl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Mart9VlSMUgQ7kNvwHXQCag&amp;_nc_oc=AdkZ0SsCjZMO80bKsGQ80ynN0ymD71-u4nudbLmHFa-VOwokNOgc2h68_ag11h8rxxw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfYy1wm2sB27o0ywTyDlH16_HHzK3Ap2LOK72934Wg-sIg&amp;oe=68E361A5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1173,18 +1173,18 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AMEN</t>
+          <t>No lo esperaba de tiiii😂</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45912.51775462963</v>
+        <v>45928.75578703704</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45912</v>
+        <v>45928</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12:25:34</t>
+          <t>18:08:20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1201,17 +1201,17 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F3FbCKpeAbKvnAyc1EG5G2JdgvNBRmbALCkdL2AGz9Y8ELoh5ADMt9wW2hBaS76cl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ASHJ8i4qiCoQ7kNvwHcuxHW&amp;_nc_oc=AdkwDoxVHP4EyaokhPCYGXEumVcTAks0d00IgG-ZNQv-8oiOCPIXdQC5b-hWLKdC8rA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=YSgEtOkSjTz8ddLTUyLTVA&amp;oh=00_AfYftAOi6bRQ4EFkK4wh2X1IHXOaQCi0mxG3rLp87rnNYA&amp;oe=68D9BB4C', 'profileId': 'pfbid037GycxHFXdcFBtbP8VCMc45SnvtHQTarGCTqnXsLseNJJGSwZCYSfMVyTLDfHgHQGl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aumV7R2vyUIQ7kNvwEtJtEI&amp;_nc_oc=Adkr7vHYAX98nW1d_Z9C5aIvNkOj1t_BKX6LhnNbg39QB84SgsrPd_Zl3dFt0JukoYo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfZGFL0WdNyHw0lSewtwVYA7jW9cQOV4v9emcQSuu0rX_A&amp;oe=68E33B0E', 'profileId': 'pfbid032iN8mZvcb67m8oKnB1N3y8dwwJchyfKw7pNEXK3pBwGEmwbp4oESYz2RzJhcA8MPl', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1221,16 +1221,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ñ0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45915.73059027778</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17:32:03</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1238,20 +1252,16 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MKSOs2noYM4Q7kNvwGYOrHX&amp;_nc_oc=Adljf-dzab3HqALM5DdsPzzygJDqrLPJ46ZE9mVMxa0j7JMel63XS1HM4128i-9vymg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfYiW666YrNbbccy02-rw6uhmxYfJWAw2TJ3dxuXIQhyUA&amp;oe=68E34569', 'profileId': 'pfbid02An7VMaiQPRGgEr6sjrJvbZDxBp2ByEjzW42zcyff1BaT9uf5EzQKTrNi1sg5cEDGl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1265,16 +1275,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>De dónde eres</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45922.55671296296</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>13:21:40</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1285,17 +1309,17 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xOXHHaVeiB0Q7kNvwE3bRYT&amp;_nc_oc=Adms2i3SchYqfEWoiJ3WPCg2F7PbeOkLyeC8h2E-BeI-0l3G9lXahb7VBF9dhjmY8OA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfaCPIMuDQ5yT0b-u1yp0P_UMHzauvjF78IoSQVNvbRs5Q&amp;oe=68E36775', 'profileId': 'pfbid08wXQeEdda1DbokiNUd5BWPa52f696QJsoxMuvFoPkkvEcwxUmpP2ba9S5PiJyNJ1l', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1305,16 +1329,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>AMEN</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45912.51775462963</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12:25:34</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1322,20 +1360,16 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IEmhgO6xfuwQ7kNvwEnQj8g&amp;_nc_oc=AdmzYKCxbqZx7Zp50QwkRiMjxzWIgciAGXzc9o0Qdm3JgVVfO51BDQSjGKhLKw7EkN8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfbKbRJQzJrjRigkOnYzKp_dmbki4SDHyKMBQma1U0WEDQ&amp;oe=68E3664C', 'profileId': 'pfbid023gpwiLPA9dw9CQ4gFbiuX5RvjWwntPhF2vVduvHyo8n6ZqmzkwL2BauFgJgYJoUNl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1349,16 +1383,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No e</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45929.12488425926</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>02:59:50</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1369,13 +1417,13 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dNV8BNvYn9MQ7kNvwHSJ0Uf&amp;_nc_oc=Adk1wcoEL6Xigi4JSA-Y7TcGZP7bTpGklMRC3Iy0yK7C_GC5sbFyE4hdr-hABt70nQs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfY42MpWfuMbf7ZN3eFjQKS6JWNrb_VB1xejDP7rwHO7Ug&amp;oe=6904DD65', 'profileId': 'pfbid0MeUUNbwiNPTiWtZAyP9r32dyWpC7iCSQ6f7Phk45vckL9GF1KgveiZ7rNRyk5vJ6l', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1389,7 +1437,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
+          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1413,13 +1461,13 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1433,7 +1481,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1453,13 +1501,13 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1473,7 +1521,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
+          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1497,13 +1545,13 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1517,7 +1565,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1537,17 +1585,17 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1557,7 +1605,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
+          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1574,20 +1622,24 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1597,7 +1649,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1614,20 +1666,16 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1641,7 +1689,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
+          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1665,13 +1713,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1685,30 +1733,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>👍</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>45917.00005787037</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>45917</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1719,13 +1753,13 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1519950902753490', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTk5NTA5MDI3NTM0OTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE5OTUwOTAyNzUzNDkw', 'date': '2025-09-17T00:00:05.000Z', 'text': '👍', 'profileUrl': 'https://www.facebook.com/luz.mery.ricardo.alvarez.2025', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/471694413_122135180522531850_3890142638678596273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=h7dJQkrHPQsQ7kNvwGcscgC&amp;_nc_oc=Adm0lBmay1lLNA8PGulEBpL1_2lTfmkVuEhjsakFuWBKMkZm9z35jtZQSDh2lhDmIAY&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfbaR-kQL9QH30jBgnuFS_CC7VgNHUiwsmQOk2--zMotjQ&amp;oe=68D9DC69', 'profileId': 'pfbid035eqYyafoNyr9oEoRXHKmwpRtktmq9NdDLkSkRfVR6itJi6PK1PjyLiDSHAiWPZsgl', 'profileName': 'Luz Mery Ricardo Alvarez', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1739,30 +1773,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Amen 🙏</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>45918.11836805556</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>45918</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>02:50:27</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1773,17 +1793,17 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1100972898776292', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzExMDA5NzI4OTg3NzYyOTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMTAwOTcyODk4Nzc2Mjky', 'date': '2025-09-18T02:50:27.000Z', 'text': 'Amen 🙏', 'profileUrl': 'https://www.facebook.com/ana.milena.mendoza.ortiz.2025', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/503399434_596818393431126_408432923864334008_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U4PGvqJZAYgQ7kNvwFvC5x-&amp;_nc_oc=Adm6te8LlIfIIgBcrWkvf-4N-m8Dtpn0C4jkdOpuA37nloBZnGcZ5o0XF4-Gp4mHm7c&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaNqadVIcWw5kedWqZ5jnTDqy1my2wzp2lV-Rpb7VXeFw&amp;oe=68D9C0A1', 'profileId': 'pfbid0dqMFRpeH1RmRFMEDrrBhkN6riNE3K6PLA4rzDwN4Sq53FADua1Lg1sLqm2LJe6W3l', 'profileName': 'Ana Milena Mendoza Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1793,30 +1813,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Leo dan</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>45919.99899305555</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>45919</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>23:58:33</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1824,20 +1830,24 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=817107374327681', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgxNzEwNzM3NDMyNzY4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MTcxMDczNzQzMjc2ODE=', 'date': '2025-09-19T23:58:33.000Z', 'text': 'Leo dan', 'profileUrl': 'https://www.facebook.com/carmen.cruz.98478', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/450540272_7319391744832338_4989926542834453205_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_Wtn_fplG-MQ7kNvwH-f5Wh&amp;_nc_oc=AdmPl8IxvSs2gjtPCfa6gBxswMg0ne3r7vdzFg9drKgZ7AeVfpX16Wzo_1IAdNi2L8I&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfbjAaICoogenfZEL06bSb-syMNMldTZAOJ_pZDkHnnGWQ&amp;oe=68D9B749', 'profileId': 'pfbid0LLnfB39zTHY556W8fRjfSWd2UUav3xRPhXjCX5EVDfvAA1FfPjBBAwWn2p2bY4p1l', 'profileName': 'Carmen Monroy Cruz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,30 +1857,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Amalia</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>45916.87971064815</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>45916</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>21:06:47</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1878,10 +1874,14 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=772947068989815', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzc3Mjk0NzA2ODk4OTgxNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83NzI5NDcwNjg5ODk4MTU=', 'date': '2025-09-16T21:06:47.000Z', 'text': 'Amalia', 'profileUrl': 'https://www.facebook.com/luz.dary.arevalo.926040', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/429667084_418220303983429_8091933987754906415_n.jpg?stp=c4.0.394.394a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V06Q8mAZIlcQ7kNvwEabSZq&amp;_nc_oc=AdkTGc31s1Yk4Xwjgvy3tS4hy0GT-whHe-zWzNfKj-lxiAgRCWSkG8H5xroXFEHx5ko&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfZOWSy9RGydNRfqe2ZjwfqSwEJSDt_KFJGwg2N-GWm4_A&amp;oe=68D9C486', 'profileId': 'pfbid0zq9m5mh9FhtfrfnfoLUHfQpK6r2mrdn5L8MKx9JUbJXsSL9XZcFtH4yQAP5dFJF9l', 'profileName': 'Luz Dary Arevalo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1905,26 +1905,12 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Código sagrado 444</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>45923.5630787037</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>45923</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>13:30:50</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1935,17 +1921,17 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1339938961057207', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzEzMzk5Mzg5NjEwNTcyMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xMzM5OTM4OTYxMDU3MjA3', 'date': '2025-09-23T13:30:50.000Z', 'text': 'Código sagrado 444', 'profileUrl': 'https://www.facebook.com/melva.lopez.75', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/463634667_3301865023276898_391807565447451000_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fnbv4NoNENoQ7kNvwHsl26E&amp;_nc_oc=Adk5dBdWhL5TWLdkI9NAvYnunE92Wn6BgyXSqi43gyTAywzYryt28qFqYaPYimDdQwg&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaasvVnDTxQHI9AEcVwX_ykQHYcSjrJHfc5EDeZ7XImgQ&amp;oe=68D9B357', 'profileId': 'pfbid0Q3iK6eqMeHpJZASr7DTLa3Agik4z6hScJhv7EHPuVBebTkZq8vqkzEyV8shFyd9Wl', 'profileName': 'Melva Lopez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1955,30 +1941,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>para mañana es tatde</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>45915.09944444444</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>45915</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>02:23:12</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1986,16 +1958,20 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=722662120781252', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzcyMjY2MjEyMDc4MTI1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF83MjI2NjIxMjA3ODEyNTI=', 'date': '2025-09-15T02:23:12.000Z', 'text': 'para mañana es tatde', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t1.6435-1/43485809_174198076792301_6706438806746169344_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3Pc8N3Jkn6YQ7kNvwGxXTHz&amp;_nc_oc=Adl5d5OVjMadRDOsU29omZ9eGx17vEIUG1OxyeiPu9dsE97_17cf9l3ZKfypGvBfEGo&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfbtPJGH8W0_HkfZ6A0kr9FPmMY2Zh5oLQiKBDc9tLDfew&amp;oe=68FB5B70', 'profileId': 'pfbid031DeYUJGZ4onMivzDUhbWBgbvLKMdB4axBGRnUz6hHWiJkc4XJqrmoPy4PkTd8H22l', 'profileName': 'Francis Rodriguez', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2009,30 +1985,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Ñ</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>45915.16798611111</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>45915</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>04:01:54</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2043,17 +2005,17 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1518984202746394', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MTg5ODQyMDI3NDYzOTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTE4OTg0MjAyNzQ2Mzk0', 'date': '2025-09-15T04:01:54.000Z', 'text': 'Ñ', 'profileUrl': 'https://www.facebook.com/dennishernando.guerramoreno.7', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t39.30808-1/541781257_1846995982914351_4784610040757378466_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VRbyNiXo76EQ7kNvwE1u-Jl&amp;_nc_oc=AdkdVxyoZVFM4L7X-3sTUXGUke4jFFa22FVcKmFatZJjLaSbPEDkV1tpbp39luQZotw&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_Afa99IO0jMrhy3-eKi85pf0ejoDHUBGF8rIFPvY8dOUKFA&amp;oe=68D9DF20', 'profileId': '100028119017507', 'profileName': 'Claudia Pantoja', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618253743745/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2063,30 +2025,16 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.instagram.com/p/DPHbZ51jBH_/#advertiser</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>45924.06284722222</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>45924</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>01:30:30</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2094,16 +2042,20 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=1523119669109951', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzE1MjMxMTk2NjkxMDk5NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF8xNTIzMTE5NjY5MTA5OTUx', 'date': '2025-09-24T01:30:30.000Z', 'text': 'Si', 'profileUrl': 'https://www.facebook.com/arnoby.arroyabe', 'profilePicture': 'https://scontent.fagc1-2.fna.fbcdn.net/v/t1.6435-1/69544983_120826635942165_5825097851021033472_n.jpg?stp=c0.0.960.960a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Bo7-VJhNJU4Q7kNvwG2Ed4Q&amp;_nc_oc=Adl9ElYXS2d-msUQ4K_TTsZY-TpeeRyAeBMCS-SzvGdetpvRnzcyYS2T5iKlw-l-xFk&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-2.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaxYIyEPG7zjwl0qGfk223jaFjEM8aqsuXKSV2I2OboTQ&amp;oe=68FB70FB', 'profileId': 'pfbid02Vp1Dq2pRntvC8kvycA7syp8WVGkQGjRZWazQfrAoH89hiVWX9uc6CSGECUbRyZrNl', 'profileName': 'Arnoby Arroyabe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2117,29 +2069,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>El doctor bayter,, dice que es mierda,,, 🤦</t>
+          <t>Comida de peso pa varones 🔥💪💯</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45912.51447916667</v>
+        <v>45928.89277777778</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>45912</v>
+        <v>45928</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12:20:51</t>
+          <t>21:25:36</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2151,13 +2103,13 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=647162791552650', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzY0NzE2Mjc5MTU1MjY1MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF82NDcxNjI3OTE1NTI2NTA=', 'date': '2025-09-12T12:20:51.000Z', 'text': 'El doctor bayter,, dice que es mierda,,, 🤦', 'profileUrl': 'https://www.facebook.com/pablo.acevedo.898164', 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/501217432_1380651576503283_5267925321271090181_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UZupZDfVP3EQ7kNvwEpJ1SF&amp;_nc_oc=Adk5mwGJ0_7mpkOzksU009VJqYLlIk14ePlKh519ylSwEKo5E-6C90tvnWWanlBIPRE&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfaeoIzIGqknF4OmBm7meBZbbNTocCe_k8I66VmYDrPWpw&amp;oe=68D9D2FD', 'profileId': 'pfbid02fo9PQYYB6dq4MBLUEwbZebLbenet32WT1rxJKzut4fEGK863uYiVkJJjb1VruZZtl', 'profileName': 'Pablo Acevedo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=enYtzx_8eOMQ7kNvwEMNYAa&amp;_nc_oc=Adll3TKhHVNommRh1w-KHm2jWsYFHueW5PNFdMKnAb3CfMZmz1asVGOXjQEaDvAGbKQ&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfYc4DW_DmsfqAlG909F10866LXsGnWIofYfI8dfIqkpcQ&amp;oe=68E34AE1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=enYtzx_8eOMQ7kNvwEMNYAa&amp;_nc_oc=Adll3TKhHVNommRh1w-KHm2jWsYFHueW5PNFdMKnAb3CfMZmz1asVGOXjQEaDvAGbKQ&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbFYw93CNyIuMz8Xx6f622Vr6FWihWuuYtT4qixlH5TiA&amp;oe=68E34AE1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tUrb6oPFz08Q7kNvwGiAQEm&amp;_nc_oc=AdnkPC1-ti5TCCFMZi8m4XcQPb5iCp6rI96j5ItnkCGW_IfaPyEFjcHP2ATZMfuP89U&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfaxwMmZ_tW2EYjvXjv9k7k89AKA8gUReObrYK1jf48XIA&amp;oe=68E34500', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2171,20 +2123,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Par de MK</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="n">
-        <v>45922.03387731482</v>
+        <v>45930.1530324074</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45922</v>
+        <v>45930</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>00:48:47</t>
+          <t>03:40:22</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2201,17 +2157,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0dDkJdkbkMniYocxtNuyQBf3dqumxbqFptQwYp8UEF7uXj6zQfZtFibkuqbZsqRQVl?comment_id=835062203017596', 'id': 'Y29tbWVudDoxMjE3NjAwNjcwNDEyMTcwXzgzNTA2MjIwMzAxNzU5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDY3MDQxMjE3MF84MzUwNjIyMDMwMTc1OTY=', 'date': '2025-09-22T00:48:47.000Z', 'attachments': [{'__typename': 'Sticker', 'animated_image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/42863679_2379012832326187_2075853136920051712_n.webp?stp=cp0_dst-webp_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=1176f5&amp;_nc_ohc=jCbcpfw62vMQ7kNvwHPEGSC&amp;_nc_oc=AdnHiFZs0y6tHjaWJ-bEn8D_F0KrSoKsQZjc8kuYH7f3Bw2U35e1ixtZTy-wi42P1k0&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfZBxNi3ZL5TLSczaDYNS8_8By0OALis_0Sd6vNvBmlBGg&amp;oe=68D9BCE5'}, 'frame_count': 20, 'frame_rate': 83, 'frames_per_column': 4, 'frames_per_row': 5, 'label': 'QooBee, a yellow dragon cupid, laughing with their hands over their mouth and eyes turning into red hearts', 'pack': {'name': 'Sweet QooBee', 'id': '2041010162793124'}, 'sprite_image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/17633084_2041011739459633_7391660925691887616_n.png?stp=dst-png_p320x320&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ba09c1&amp;_nc_ohc=V2Jg696vd-EQ7kNvwE78l-T&amp;_nc_oc=AdmS0gMMX3XzF4VnI2XG7QROsSkebupgJar_t8aIFP-yHZ0HyaiaP5qGgEz-X3wEYRY&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfZ4aEOE_H1NsDkrButoB8Q9AHw-BGY0WMkSdgFGVXzk3A&amp;oe=68D9E5C7'}, 'image': {'uri': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.1997-6/17633085_2041011742792966_636656995289530368_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=9vhauccG-r0Q7kNvwF4sKEb&amp;_nc_oc=Adlk_QdCAPDlSL2wO0-R8UxXl9cl8zt7oOdu-cuqAY6iuCj8zYmVLotV93ykzYBPbM8&amp;_nc_zt=26&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_AfYRl5IYYolWncnpu4x3DddlDnm0uxsNztzVUqInoIyIug&amp;oe=68D9CC54', 'width': 80, 'height': 80}, 'id': '2041011726126301'}], 'profilePicture': 'https://scontent.fagc1-1.fna.fbcdn.net/v/t39.30808-1/506624575_10232582330194479_9180279040545905006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GBh4rFraWdYQ7kNvwEGQnE9&amp;_nc_oc=Adk7Kwo4BftnYip5DV2dUNbNlPZkubWphMkx9darqsK8zsd0ngYPOxKGsaFCTj7p9jY&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc1-1.fna&amp;_nc_gid=ibyiGNHO-Cwh7B5bywgCeQ&amp;oh=00_Afao6DF-3O-9vaGok_2KMuPUFXiCTqXmgdvx3C0Pbv0k9w&amp;oe=68D9BDB1', 'profileId': 'pfbid024Yx651Qhsc9wBn49qq3AGHcdVgGMfj1jhSbHA7Ehwj77RxU3WUeGTGY4MCr82kRkl', 'profileName': 'Lucy Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600670412170', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-T9PHIPBKN0Q7kNvwEkPZAg&amp;_nc_oc=Adl9S9L8QWIwLrOcaRKQbl82OuYOt6veYAX6I31BW8j1jngzbWYVxoqxRWsuZN_a7EE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfYoV0awkmr73dEaYN6B29AvNB8OufcLqrl4DoQ1dL_01A&amp;oe=68E3539B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2221,16 +2177,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bueno primero fueron las chocolatinas jet. ¿Que está pasando?</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45930.61596064815</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>14:46:59</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2238,20 +2208,16 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=2IwigY4L7LUQ7kNvwHlvX7_&amp;_nc_oc=AdkVuthSbpnuuxnRerXa6eDcekXLE_KXSM61QOFn2BAwwQypy26Qz1rU23wJ4U-3Ky8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfavH1tAgNhJsp7OpSK0tXx7K5xZ1vR9xt_lnzPboNs23Q&amp;oe=68E34087', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2265,16 +2231,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!
+Isaías 5:20-21</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45930.50383101852</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>12:05:31</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2285,7 +2266,1979 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618253743745/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5RjBQlJLdgkQ7kNvwETSmGH&amp;_nc_oc=AdkckExt7O19AsBZkIJ6IQ251Tg9TwESG86HryVnM3glAkv_ZtOVK2ZpfAiyvfreb3M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbHuvyeCKN27Otyx77wuVGHC2ke8G-yCnCtg4XgPQKmmQ&amp;oe=68E3697D', 'profileId': 'pfbid0AyUJdt78NRmSKLqSWQCa7836YHqL6ffMyMUmTqdpvGpCphiVGrxmkoHSg5wSaFYZl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dos votos más para la Polo poli</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45930.53417824074</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>12:49:13</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEXx5Nm&amp;_nc_oc=AdnHCmiIbSKMIQCGUC42Yq36WSEypFzTJ2RAGCBTQ1K64hFtqVAtiPpDrvZrdQkW0yI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfYzP5fi8BbTudEd569PkQSERxp7oGr8QdLFregeRG4wRw&amp;oe=6904E9BA', 'profileId': 'pfbid0P3HmeaSwMuTKD4WKLNWcvfPbvjiBeFpq2GAfHUWCSjfeQxjEdJceqBBfEdzeJKZcl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Roscones con éso</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45929.15116898148</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>03:37:41</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XRvsPgHcatGceUtWTs2MRi8z3rnNcRFppDoLtxvccK4wvoR9piTK1sxXtxJStXgKl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEXx5Nm&amp;_nc_oc=AdnHCmiIbSKMIQCGUC42Yq36WSEypFzTJ2RAGCBTQ1K64hFtqVAtiPpDrvZrdQkW0yI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfYzP5fi8BbTudEd569PkQSERxp7oGr8QdLFregeRG4wRw&amp;oe=6904E9BA', 'profileId': 'pfbid02XRvsPgHcatGceUtWTs2MRi8z3rnNcRFppDoLtxvccK4wvoR9piTK1sxXtxJStXgKl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>18</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Patos</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45927.96673611111</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>23:12:06</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QAGaPBFn9ebyt78AFmpdpeDYN4bSXtTMmDxSxhbP6knFqkK7JmEF6u8p6NJLVCALl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sguT9QgREMoQ7kNvwFtBVcp&amp;_nc_oc=AdmgICo8kspGt_jDGRs0tA6VcofXedSlnJ0ZV9JpWnuFJb6W1GIfLWY2Qlz9T7zxe04&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfaQvkSnEQawQHZtNUC142zS3nxQplP8rfEI6yMIxc8jQA&amp;oe=68E3492A', 'profileId': 'pfbid02QAGaPBFn9ebyt78AFmpdpeDYN4bSXtTMmDxSxhbP6knFqkK7JmEF6u8p6NJLVCALl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>18</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cual de los dos muerde la almohada 😅</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45928.13310185185</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>03:11:40</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zA1Ey0cQd54Q7kNvwHuFR-Y&amp;_nc_oc=Adnn2oclm9F2QCpfB3mE_MYVUAYLY9Ri8F373Rn4WQMuk4AOjhyBwZBjRsdsXhDQz7A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbJJTxXY7PiK5O6cFzZXlSpqTvJpIuSbLqQFG0hKxC7aw&amp;oe=68E35CE8', 'profileId': 'pfbid03351GgdvvDB6qRXvjU1hQc8bMRU4FwrdSjpq8J2AbehHApztr7UfB89eQvFnB6mSbl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>18</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" s="2" t="n">
+        <v>45928.76094907407</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18:15:46</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=XFHqnAwbaJ4Q7kNvwExZi9n&amp;_nc_oc=Adlw5Uf16gCEd_k_njIwk9myAOLgW-2C6MBU2bQea32qyMUn_k_V8cDDwQpsyj_3-z8&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfYtcMomiF7XLMtnTV0B6n8mTm-huZHfc2q3zNWU4duI8A&amp;oe=68E36666'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=XFHqnAwbaJ4Q7kNvwExZi9n&amp;_nc_oc=Adlw5Uf16gCEd_k_njIwk9myAOLgW-2C6MBU2bQea32qyMUn_k_V8cDDwQpsyj_3-z8&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfY6SAuQtW4tIEBMwJaO77eHmo3Bq3BlWIt6qpYAnaGqgw&amp;oe=68E36666', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwG4jziX&amp;_nc_oc=Adn1xaKwyR6jikokHcaH-lWcAhhpQ7F_87SA999PuUDnkRFkeWVF3HadjWsP5FvFtuc&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfY02Qh85Tsi9sJkX_NtH0gQBqY6ISowr29YoQNv-wAiYg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>18</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45931.5277199074</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>12:39:55</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUaR0dVbIXwQ7kNvwFyjd-u&amp;_nc_oc=AdkA3fU-zHpPXgFMbfhZvy12kGxJbI_MdqG8KhBey9T1ipTyrFtoYQLVrF3Xvub9lpI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbwNCgSckyYEuRt3n9T8kDi35QwhEGq3c7Hl-ApfKcRHA&amp;oe=68E33A69', 'profileId': 'pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>18</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45929.97519675926</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>23:24:17</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Dkby2bYTcUQ7kNvwFlWd1R&amp;_nc_oc=Adnvze4YSDvLKpJT3wH3EpDwYd7p4zBL0w2D-r6R-YfTo4ezI8xGFcfAqFQTLwik_Mg&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfaD_p6JaImwYjQymSR9P9YD3vefhiLThV27tWLfIWkhvA&amp;oe=68E34B6A', 'profileId': 'pfbid0Sgq699NPceaVBPP6kzZQjEZzD8VgcHJAGknHAAfFcXGX9BUB7Lh3JvHT8y1RoJ71l', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Par de mari cones</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45928.03414351852</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>00:49:10</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDUcfSqnMR0Q7kNvwH30wj5&amp;_nc_oc=AdkP4L-LN5hvekRr2MLyD7TlBmSWVZWRL1O6kV6-Zoz9XY0Q-C8QsskviVEZ2hHZCZQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afb2CEhT722eXPAeUXJkU2pi4Yj___foIlH_vSQkR5osNQ&amp;oe=68E33E55', 'profileId': 'pfbid032eymuHXbopuQVi53oPHtQ67okpRUmCqRjSDnPNwy4Nw7QYb8oRb35rPkpCRpgrkvl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>18</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Par de cochinos</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45928.91380787037</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>21:55:53</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=saA-kNcyiV4Q7kNvwGDTI62&amp;_nc_oc=AdmUZ9qxes5DbkX-ezwxLe3eB51mJy3nmG--tOHQ5I2O9Siz06-euMZVc0PbcL13WsM&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afb5lVrJRqSjP1116_evjDCTdxC-LNhXDRvMRziSBUxinQ&amp;oe=68E34DE1', 'profileId': 'pfbid025Q6k7o5Psp1BDKLRdA1pNMKcTDAyrsL2MYMp8tj7pZpfEtpA9AF1c4h3XhtjKFGHl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>18</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Raros utds par de muerde almohadas 🤢🤮</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45929.46361111111</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>11:07:36</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5SzBkNHW5REQ7kNvwGhM7hu&amp;_nc_oc=Adl43ac1JUSnoCto0xu-MuwZsf42S99uDtKcLnGfwQFQTm1zJASnOBXHw7XD0-f-T0w&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afa335VPfe3JC-gwwYPTFvp5Yz0HRiSXEdT9M_VMR5ObiQ&amp;oe=68E34DBA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>18</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>La verdad no</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45927.93817129629</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>22:30:58</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1Uk9_pdbD1UQ7kNvwGuUKHj&amp;_nc_oc=Adn_Bkt3O-Q4zxWICAozcN7pXbEEiszl2sDOZxImXAfv-gBlDW0HRFH5KXf6y474UGc&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfZ6tFtlRDMpj_-RtMxQIUxdF_mjWFiEFDuhM4JF-APfag&amp;oe=68E34172', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>18</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>El peor comercial de alpina</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45928.8809837963</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>21:08:37</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02GBsc9r4ubNRxfvwK3yBNT9roEPYuc1Z6n36tfepFAYJniz9Rnkoxmzaru2wSCJxJl/', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6qklYhnvKSUQ7kNvwEACct9&amp;_nc_oc=AdkTQeYVLBi6HnFWJrqPJvLmzcFVPhJBMAab8rxP0TQkm9pXgaAZr7JGWEvgq74FvJ8&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfbkEp8QpobC16St5D05QovM03tKyGPWTcs0ytA0FPRbiQ&amp;oe=68E34AD3', 'profileId': 'pfbid02GBsc9r4ubNRxfvwK3yBNT9roEPYuc1Z6n36tfepFAYJniz9Rnkoxmzaru2wSCJxJl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>18</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45927.92600694444</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>22:13:27</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V6dc0uxmcqIQ7kNvwGbQu3Q&amp;_nc_oc=Adm1CVhM7PzO5WmGVFsFYQaYr8WQSwk3i9RH8JcYRh6XALKhpXlLJZpkBBC6apTkLYM&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfZ7uxAD9lfoj6bwO1Ztk5egL9bXHv4EXrskYsYV75vRqg&amp;oe=68E33CEF', 'profileId': 'pfbid03ph4k9d6RVMg2MW4eUADybnK6gMThEuSJqZUfG2P25Yig3SYETsc3E4ycuDPuQSYl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>18</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Otro par de culiflojos que tristeza</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45928.1515162037</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>03:38:11</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OcZtpsK5pHUQ7kNvwFNWLsP&amp;_nc_oc=AdnYF6B8Zr5TskFX51BpMcArzYBH2x4pmsdnVnD96K4-h3aDN5oPhDzi-EO7bTBmVus&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afa5X1xI2UGlxXeKeULCtimvI4wqHtvuzAQLHCQZyI61kg&amp;oe=68E35DB6', 'profileId': 'pfbid02GeQpB6U9BnhgNrwysw5F2pQU6hngvXx3trBrjb8jNvQNspa5cU1kTEiHMBbhXze3l', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Eres como rarito dice jajajajaja</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45930.13398148148</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>03:12:56</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1cPJ6g76z8UQ7kNvwHPQZ-w&amp;_nc_oc=AdkXrtvdCrPPpzJSdpD7wjtslEfTZSYOaYCwTc7i61ucCvZ2gYOZvaqBDignWxMKjQc&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfbFDCQj_TG-BF-j_sRSeBmreCeuRsbrDPWM-qKeCHrPmg&amp;oe=68E352FC', 'profileId': 'pfbid02n448pMvGTphznojyifNXKz18koDNRvs8Caxm3saxvAqKGFBd6oxY7rJydR5QbnXXl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>18</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45931.52835648148</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>12:40:50</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl/', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUaR0dVbIXwQ7kNvwEsGbIN&amp;_nc_oc=AdkcBKZ2PDfcxMt0usIf8kFiWgVVSHcxjsweyZbBN7Xwz5-gc4cUqE7MMjkc9RHaotE&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afa-YgaDoHVsDSOQtogvSoMVeWpAthFVHmVce58AlnDQxA&amp;oe=68E33A69', 'profileId': 'pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>18</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Este par de ridículos.. busquen oficio.</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45930.48481481482</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>11:38:08</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BTd46QCb5DwQ7kNvwFld5RU&amp;_nc_oc=Adl1HruexE1mEzEaj1mMxb9wKqRSgsRKuP0I2Q6hU8Ryb823wilJLknx3Dwu1SBj79Q&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfbwROvItooNEJQfznax3qcnI_IFbdgb_Qphm1NhZhbUOA&amp;oe=68E35882', 'profileId': 'pfbid02znKG1dZr5i2iCvkWLMa6nAdSM5gPWwtecFgjyRNifkKQrw4kwBu6frrspSZJq8PAl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>18</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>La media tarde será sacando barro de la mina par de mks 😂😂😂</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45928.5024537037</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>12:03:32</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwFdbGQr&amp;_nc_oc=AdlWuYhJ3HlZBGPHM2OUdqpfVrxJtwg2K6WEsEK1QQbjiTwU9AW9qPyQXQjhsQaCnXw&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfY0NfP26TmUJnC-jjefGgbm6hL_7dOftpu7Y6VEPk-ISQ&amp;oe=6904E9BA', 'profileId': 'pfbid02dwuTqsnVqKgnHXM5RbgqH9VUE7Lsfo5LPoe4DLw2CY7dWehzZd9ejcjZ5xx6TUQRl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>18</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Partida de m47icas</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45928.94643518519</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>22:42:52</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/539819000_122137429424656379_1116785277329631914_n.jpg?stp=c0.0.1058.1058a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jNn1KVFKt8UQ7kNvwHt-iw8&amp;_nc_oc=AdlD0BiardRxzuZ7HKO8X4QFn4HG-vQKaXda2mVwyge_PSrTyh4qJ8BFzs2ZuANte7s&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfYdyOZNvd-o72MVlSCWgyxEBNiXtqzEuXQxwLDEujsc6A&amp;oe=68E35C1A', 'profileId': 'pfbid02ohPuSXScmh4WHazP2RusZrjhQGtt6nNE8gzjMvDgpbxfSnWxAvJT1H43hyoD9Nm6l', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>18</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" s="2" t="n">
+        <v>45928.75989583333</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>18:14:15</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=kl_QISMfI3kQ7kNvwG7dceF&amp;_nc_oc=Adlukq1RyQlAiJhlFsA3tuDEaKS6hH5CvZh_FKh1je1p-OQV2yDqj4kLTMCZh9VBOjE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfZMTqy9qHh8W7-khXkBX3sJlvREZ621H-QOaI0AcMJ1YA&amp;oe=68E34C88'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=kl_QISMfI3kQ7kNvwG7dceF&amp;_nc_oc=Adlukq1RyQlAiJhlFsA3tuDEaKS6hH5CvZh_FKh1je1p-OQV2yDqj4kLTMCZh9VBOjE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfbvoWImjw99UkgqkI-FeKC1KN4gx2XZrZRoc2ybzp4khA&amp;oe=68E34C88', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwH_igs5&amp;_nc_oc=AdkAWwPDBMljeXjbojwwy2LsfRIuYFzyilIgeTYfKrrpqjIzjY_a6n65SSGZUg8whPs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afaqz5BU2nQ3bRNkGqv6phW1cCUlw7q4N0cqT5WbBanurg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>18</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" s="2" t="n">
+        <v>45928.76092592593</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>18:15:44</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=abfCj-v1dG0Q7kNvwHek35C&amp;_nc_oc=Adm8GVSEV6Y-TIA10r42vbf3N5BKzNX6L1Z7JoLZaDPvXsP2pDUVswAXsEd_APEnHI0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afbmyg0F0ynkJ5XUbHm2Qb6r1GGJFRh3zfDcwayeOLnQcQ&amp;oe=68E36240'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=abfCj-v1dG0Q7kNvwHek35C&amp;_nc_oc=Adm8GVSEV6Y-TIA10r42vbf3N5BKzNX6L1Z7JoLZaDPvXsP2pDUVswAXsEd_APEnHI0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfZmNNZdtJ4kFDGfmalq-DV-xJVsTqJgH1l2q2ONNwtPSQ&amp;oe=68E36240', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwH_igs5&amp;_nc_oc=AdkAWwPDBMljeXjbojwwy2LsfRIuYFzyilIgeTYfKrrpqjIzjY_a6n65SSGZUg8whPs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afaqz5BU2nQ3bRNkGqv6phW1cCUlw7q4N0cqT5WbBanurg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>18</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Locas cochinas</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45929.33924768519</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>08:08:31</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kHyeyvSrTZ8Q7kNvwFAZ4UN&amp;_nc_oc=AdnWi_Vybyzd1XjJBERg3bh7GMZr9psXDp_rm98864QKb8Xs6ETZ29zLiWXa8alTxg8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfZQcllt4jjO1gz7MagxF4ZSUZjmWVpcUbZy9aEi3kuOXw&amp;oe=68E36E8D', 'profileId': 'pfbid02SJ1BfZjL9oyyUsqmuR93EhCFB93xYsS6aeaDMnQsLKNYfMCiANtHRJBgfgjzbqjAl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>18</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>🤨?🏳️‍🌈</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45928.52097222222</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>12:30:12</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3bmugLyMi1QQ7kNvwG3m0R0&amp;_nc_oc=AdnDdZ6euhm7oVeYM2fJ4XmaZm13R4dk_OnC44Ul1Bx6S2O2uDzqgLU7GsQBeaD5WtU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfbeCQMc8U34DZLUvfMaePHjtWn5k2gphOSworv5kO7x0A&amp;oe=68E35B0B', 'profileId': 'pfbid0bLS2oEWMTQ1NE9ffBX2ZDzyx7WqP1T2TW52Zb4oVkm7QUW9LMuoJMe8fgLt1tDzRl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>18</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45929.02462962963</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>00:35:28</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QS1G8uwRLNgQ7kNvwGmClj7&amp;_nc_oc=Adk4eV68oUek0WaYs1pCIm0w1Ic2ZZoHpIQAbUMkIURboHcw25tKBNbaR3Ebn8n6jj4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfYhGVRzj0xQTwrMs3nCQovCUrtLxKE1YqNs0b1vbJwCUg&amp;oe=68E34AFA', 'profileId': 'pfbid0qJ7gup7SPTzms1esXRHN6g3ei3bV8VyjUPBQV1P8WzttMn7DBcHZtw9MSfrfevDdl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>18</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Par de mariconas , que boleta.</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45929.03864583333</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>00:55:39</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e0vLCiFIxxwQ7kNvwHJJhBy&amp;_nc_oc=AdmiY4eCW_XC4PLXY8iB0C6dbyl71NgT9sqGlMuqfjSWhmHjUQaLyfbYLjdGY-Q9C3k&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afbeq_VHesCqQsnNT2dVpj7N4rk3ULqzWops6lGtV7ukkg&amp;oe=6904F7CD', 'profileId': 'pfbid0XVeGSZD1k39XTrjweoKxUYDwm16J1kbYX8grsvHg3xA8QPv3DGojKnA74JnUa8qNl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>18</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" s="2" t="n">
+        <v>45928.76074074074</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>18:15:28</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=v3Fsv1qQg78Q7kNvwE_VNe5&amp;_nc_oc=Adnj7K2qtufEfw4-ma_hMxWlBK-p1JopRJJjkzK7ErtwfcY-cagJ0csxXVS4PFb4tX8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afbe-4MYQLmNCdg-7Y0K18HRawiVQ7_hm-bJh2q4A9Kgfg&amp;oe=68E35566'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=v3Fsv1qQg78Q7kNvwE_VNe5&amp;_nc_oc=Adnj7K2qtufEfw4-ma_hMxWlBK-p1JopRJJjkzK7ErtwfcY-cagJ0csxXVS4PFb4tX8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfY2-qeD_NPpu-Ul04ajO95uMS5zvl0rBNRABmsY_5o0ng&amp;oe=68E35566', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwH_igs5&amp;_nc_oc=AdkAWwPDBMljeXjbojwwy2LsfRIuYFzyilIgeTYfKrrpqjIzjY_a6n65SSGZUg8whPs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afaqz5BU2nQ3bRNkGqv6phW1cCUlw7q4N0cqT5WbBanurg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>18</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>La peor publicidad</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45928.69450231481</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>16:40:05</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QapFAkEXI6cQ7kNvwFycNXl&amp;_nc_oc=Adl2v_3XkVbdwBn4jJzVJz2e-W8Gwrfx5Z-5gOv_2-APvRBf0dSkGK96ujPrHvaYYaI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfYqoqXRwTQ58wAeqrVU4hqqnxJoDAknfEZWlNGrZ6FANQ&amp;oe=6904F9DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>18</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45928.79291666667</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>19:01:48</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QapFAkEXI6cQ7kNvwFycNXl&amp;_nc_oc=Adl2v_3XkVbdwBn4jJzVJz2e-W8Gwrfx5Z-5gOv_2-APvRBf0dSkGK96ujPrHvaYYaI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfYqoqXRwTQ58wAeqrVU4hqqnxJoDAknfEZWlNGrZ6FANQ&amp;oe=6904F9DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>18</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Uy no que cochinada de publicidad no apto para menores</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45928.86114583333</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>20:40:03</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=APl0L2xGI-gQ7kNvwFcfRCH&amp;_nc_oc=AdnOCmEfAQsUv13xk4Vbyi-uBOTTK6ALCmTYT-uwm_pnzJvEcxqml4xFSqkoxcH_1FQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfZAdGgp_PSFhgTvTxf_7SQZbacqURKuN-t2L_Md-Q5UGA&amp;oe=68E3430D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>18</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Locas hp. Malparidos degenerados</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45929.81305555555</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>19:30:48</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZDH2YVpvFQAQ7kNvwGmLdoe&amp;_nc_oc=AdlZNZ7yRBoKsQ3jJ-N0OaRKMNFk3Rnke4yr7y6gVn_lmQmLK2Epy7KuSlv7UgE9DkU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfaLr5UobJOD_TmsKb7MB46gQWEdVFD10dW5XoUI2RFsDQ&amp;oe=68E34210', 'profileId': 'pfbid02UxY5maKXdoSYYdcZv7bbDmomq9o9AVdh8skvo8wrHMEMXn6m3udTCz3f8rbAY7awl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>19</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPHW-YyjJlv/#advertiser</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ese yogur me encanta</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45928.7074074074</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>16:58:40</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid026uFQAHiSsmX8K5HunLSqz7qUJ9wnnB7XWuViS4PiZvqCRFDt7Q2PBiaTe7XDr31yl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ADoDeqH-9c0Q7kNvwFY06bg&amp;_nc_oc=Adlj2sr_sH1LWhx--i6d6YaCgGpZ0pTFcOkEpji7lEIKHM3H15IXEKoWcx7cLnCJSy4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfbJA8dnxjeAFm-dXBYb_W2h7pfcuyNyQgL7McklydOm5g&amp;oe=68E33ABD', 'profileId': 'pfbid026uFQAHiSsmX8K5HunLSqz7qUJ9wnnB7XWuViS4PiZvqCRFDt7Q2PBiaTe7XDr31yl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Quiero mi guía</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45928.22010416666</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>05:16:57</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AzMd7V-0VnkQ7kNvwElPWt6&amp;_nc_oc=AdlVYG4ageVZxLahVaHck7ciT7OuwhQuXdaJ0Z-vOqj58FuqjrV9llu7UiDebKiXJl8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfYKI-5iMeDLhIwl-hfhKBXGVHKFZgFSaCf4K6l0D8s9hg&amp;oe=68E35BF1', 'profileId': 'pfbid02t92FUcrxnw7VNY5fHVHPJGqemLrzLgDmAALJYTgokCniDX3vuamtx3oh1uaygLifl', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Todo</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45929.5749537037</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>13:47:56</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZvTmlV-TZWYQ7kNvwEY1KT8&amp;_nc_oc=AdlAu9-cnuKLxp3ESC91a9DKbwofyKe8h8OLB2rHbt4hhVxdJo_8BpF4-rXOgssz9TY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfamTRm-ChjxWPBvvryXl8mBOO5C9AKzIaG9k_TaDFfPXQ&amp;oe=68E36F6A', 'profileId': 'pfbid02MKFcxwrKPGNmUpKzouGgfV2yULBH5yGDg417PzxGYQCyZXcgLwAbh7bfGfBfwn7xl', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Muy espeso demasiado</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45930.12193287037</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>02:55:35</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jTnP6QUnwS4Q7kNvwHPdW9e&amp;_nc_oc=Adln5VdjMYXyFqFX_zOyghjJoeJTE_cboKC5QKYZgOQ12wJQ8l822G3THaywsGqiecs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfZAw_UJ_4yCBi3gKLw-q9PYaqxULaMwauVSn1952X0poQ&amp;oe=68E35453', 'profileId': 'pfbid02JtGBmJVGrg47JtqBveUbM4Kr5ynZ1QhEtzKe2jMof8oJyuabFJSh7xNY2bXqXrWyl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Pvm</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45928.129375</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>03:06:18</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Wh7gY-uTdF8Q7kNvwG188kC&amp;_nc_oc=AdlZaucVZ8SR6aALL6ChsdmGD4AsMr8QMMNEMDdGXr0p0t4NDUan7moFTbw5yLIKOYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfZj3GsB1sjp-vA7OIPJo6zR4irytCAbEAgJJofsUNxZdw&amp;oe=68E33E0A', 'profileId': 'pfbid027pKqe2A1uKrxxv9njfdUVroZ45q3p52dmYSDadsyw9BCZy9qkp6Xi91h1dzzMDxul', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0@00P</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45929.93984953704</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>22:33:23</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent.fagc3-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGqmHHF&amp;_nc_oc=Adl0gH-gGnHvlBM1eORm0eKlyWfcTM7doiOh2fflmvtzvkhSAPk1bXqaz1svrsNAkuI&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-2.fna&amp;oh=00_Afa_q8r2McQxewWpx_K-taxBD258Y2AaUD68SSDi0yAA_Q&amp;oe=6904E9BA', 'profileId': 'pfbid02jSFcieqY2ipFfm5nsz1CxexXUp97to36xranDdo8rFcynY2S6PNJDbcqRhJD6V5ml', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -2300,7 +4253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,11 +4324,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>010201601100</t>
+          <t>0036002600101000</t>
         </is>
       </c>
     </row>
@@ -2625,12 +4578,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2000033020</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2673,6 +4624,94 @@
       </c>
       <c r="E17" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPHbZ51jBH_/#advertiser</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70000001100001022620000010000004100</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DPHW-YyjJlv/#advertiser</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=ALMY2Gk-l_4Q7kNvwFZI8_k&amp;_nc_oc=Adn3vT4xeGoi2mS6Ec3Qu_7T2Z8vdgChCBfu2mRAwBxdfitFZvqKTnqyPhL1cAy2Too&amp;_nc_zt=26&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfbP6osQWzJ2gJ2BYIXNo9vSbkMcuNz9jqCfsN2Hw8lhLw&amp;oe=68E34F6F', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YOncqbAWLBsQ7kNvwHUDLRU&amp;_nc_oc=Adl5LqlNtjMtvzgt5b-CId6aQ9fkJwPpCj9c0Px0pUJPE7eCfhFxr-wrOZfmf4UtkYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_Afb0hvQcdexKyq4b2SQPe_xRcVWiGB7xjUx5aT8jChjtTg&amp;oe=68E33BA3', 'profileId': 'pfbid02LHjTuFt3agPwpaebx2jjbQuwXchrDE2BWFmEt2AWZj8MSf122eeTe6UDZimhtQRKl', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=ljMpWtuyqmEQ7kNvwFHP_OB&amp;_nc_oc=AdnYnDSEOgiqzN60FsP58olXdXCagnhumtLa8Riq34i61eKFwH3dyvyVntcwGndwQnA&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Afcb7pa7BLucM1cMgyqzjLnRWWhmqQSvVinuesh--WdkJg&amp;oe=68EC51AF', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mVlWfUWtxfkQ7kNvwGmUGfb&amp;_nc_oc=AdksgpBTiXEyE574O9ruMWQAT1LofGSJ2EOb_ddTfdnsf-lGMHw_z4YGRsaIc4Wy3jo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Aff1bQpSf7lVDFjZNTB0PMsrgUCvGz5pdLCpUK21hwXdGg&amp;oe=68EC7623', 'profileId': 'pfbid0GhanfK1g6bjcgUdivfFTtsAFZrdk1fMTNLwCCfEqYHfHkYiJ5DGy2RcBTD7L6JoDl', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=z5MFalbCZjkQ7kNvwFtxwMC&amp;_nc_oc=Adnry06cdFqnbSLCKAVu1zxlAVAGR53ZbQcuyxbxxSfhf-vEeTkeEPr5N-U7WLTps80&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_Afbot5vQo5mMYsPoKINugtK1CrTdlZ8YY5LSIhG1BmV2Vw&amp;oe=68E34526', 'profileId': 'pfbid02fXkYDZA4RzEGqSLjcDf7iEXXCN2zYU6QjyxQ15EajY166C8cUCHcjcnDgF7175G9l', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Aze0ym6SQ7wQ7kNvwFqIkz-&amp;_nc_oc=AdnnEzHdh1pjFxdBhxeb47-CihIjx29nfK4O1TSbPNbm85nSAMnBt0Bg7tvp7wg8-Ms&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfckYOW807w4n-m5lvYPvKX7Vw13GnWE9xX6sVq042cEqw&amp;oe=68EC7FA6', 'profileId': 'pfbid0bwbrycHgwytN4isFnyr4sy4X16vaxuZzxwz7Xe9R5KVDjARKzcyJjNMk341eohsil', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dculolKVAPIQ7kNvwEV9Zgx&amp;_nc_oc=Adl6tmAGABtGmpnA-u00gTROh87yRJulKzykcdn79PR9hVhBeXJUW5QfLkZlRlzZgFI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfZ_I6_jNGMl-IRuPcZQqKt1Fb10gnozOm3ZOefIAl0YdA&amp;oe=68E3511E', 'profileId': 'pfbid02NdGDQ19TXbWNp9u5axujZC4hGykLstJA6J8yvPVvP8gtjkMa9bmfDT95iV2EEnzPl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-hk7XOX6accQ7kNvwFU8IZn&amp;_nc_oc=AdmDqJp6EDBEimUGKDHS-U64PyJSkKg4CFblLmsOqEUhwA1ae-SMKQUuo-MKNWwUkmA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfdT_MZ8nFw8eeY9KEetNwn-X1W-AJW7wX9fCOSkR3fZXw&amp;oe=68EC535E', 'profileId': 'pfbid0K37YA4H63d6doGf9BBeqecHVzVreKfox7oax1B9TC2YnwQbY3ryYiyjPaUKgFSYLl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PA-MRnseVcEQ7kNvwHIPytB&amp;_nc_oc=Adl79aMLyLptlijalVGR7TLXz7V3iHjecYBrf1fWTnSIBWPBKh3LLD_roy9dkcwuVcc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYWsE0rzKWRspm7aXwpAc49MEsr_Ad1iL4IeNFfmreUVw&amp;oe=68E3439B', 'profileId': 'pfbid02V386QrNxngg8A5BGUiM6qbbGwL86AFHWHAhF8wpyHv3sB4h8Lo5x1Uavxy8sBgAFl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=unrrzbkTNVEQ7kNvwHWX6zS&amp;_nc_oc=Adnd8_Rz4G4j7cYrilfhR2RkoUdcN2KisyiGMBCgXLIixfIEZfuW2aGRjqRNfaEtazA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfcxEO7310HpQq1SIt6FusxdA2gqPYwqseYn3BqmlbqjBQ&amp;oe=68EC7E1B', 'profileId': 'pfbid0RSyRAuWbJcmH2QT6QRrEmG7czo6Gwx2tkdp66y9NMXYUWLuZQ4ZoqEG2G61npRtdl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=zCoWcKR6hSYQ7kNvwGVzxWx&amp;_nc_oc=AdmLfYxxWWrl6AIwxrS5bl96-vGFQa_bh562n5vapX4s-xJrPfB72GjXyuloNmz1lnI&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfZ3X3f2dOkw9XAEsazP-M60nUBVNfO0hWYr-ucGFKPpyw&amp;oe=68E3576E', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VYkDkBEiyysQ7kNvwGlQ07m&amp;_nc_oc=Adnu4Y-XG1ib4_jv8dXbOU5j0bFlUgFT_vqdfvNhosiUgLfbsfvSsD7sRe1x9wRPkrs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfdONUG48gPgQaMJxFjMMlOfDH0nJWiLdyhhl43YIev0Rg&amp;oe=68EC59AE', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid0mgm2e4eNs3C2e4fdK59qr3gDNDJxqSHarmhikg5mSjE8RpLyhZC7C6cMoUBytqFGl/', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AUGaUjhmXHgQ7kNvwErM3au&amp;_nc_oc=Adl3jtRoxnn5U-KbUwKS0RN7NOgRzECl2A34VKWjmrcGmroh50VsrlnsUupJ2-w1OgQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYJTnFNDLr4ZDLZOWcXw_X0tS5uB29s88JsuQdwlxFgwA&amp;oe=68E34317', 'profileId': 'pfbid0mgm2e4eNs3C2e4fdK59qr3gDNDJxqSHarmhikg5mSjE8RpLyhZC7C6cMoUBytqFGl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid02qVhFVxLC5YWU7KjvxCjcJeQUQBTXX2LkoZWknYv3tULRVqhiDxNyP4rNAVHHtodTl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mPmBXjjSh8MQ7kNvwG-mHU9&amp;_nc_oc=Adlj35Uj4ZDg5VjYKgJ0On0C-A_UF8OYnNAqA9L-mJ8xt9PeHpGWqpzePd4rODszLQE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AffMo6vQeAx-QdkBSeXm4g_7JqFOPJz-FEEAY0DDGkhCng&amp;oe=68EC7D97', 'profileId': 'pfbid02qVhFVxLC5YWU7KjvxCjcJeQUQBTXX2LkoZWknYv3tULRVqhiDxNyP4rNAVHHtodTl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HxCSJ97kEu8Q7kNvwEQcyLo&amp;_nc_oc=Adn2sqRDcTDYcZPBD0-IKFoTp-GGLF-7EYH80O65twV5CQ9MMCMh4jsMQiJul-oIZzU&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfbrapOQ4FSvt6B4LbIYggqFF3ft4jmal5MhkCd5Uj720Q&amp;oe=68E35A09', 'profileId': 'pfbid0mTsbU9ayKNioEb5AYUQqWSBxJWW4Xz1LmU8BBJiNunUhJV62oqm9qq7JBZEecmdul', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gp5tGgNVJKIQ7kNvwFDIYcN&amp;_nc_oc=AdlimcIUUsRbo8S6BwVepuoU6b8Fx2hXR7w97CSoavE1GS9QBxXkxmXnknsFFSkeLOg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Afe_nZAC_DO9ICbk1qM7HdQCzux1anDIbkdYdSDxDLeUZw&amp;oe=68EC5C49', 'profileId': 'pfbid02qGopL3GnXtYiUq1UkSYDiKhXYtj5uTpKMMpfSFn5mcma4PPfwwyjRcU7NFoFaJTGl', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KK43fJp7bcZAPhZkvHDU62DqsUgDFrHh2fXnKsPZYUQsuGRZNG3UNFeaD2EETto7l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pA3gB9nHVdcQ7kNvwF5REPT&amp;_nc_oc=Adkhx2hJhYGtWaokIGbL_tUkYBSpVUycjCwWV1WjhVjvJNR2ErDoJKh2zJGbsbJkL5g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_Afbxeq07Xe9Ov5UvOXgaLk7gEPbQ8gpV6iid5QW3ziUnqg&amp;oe=68E343D6', 'profileId': 'pfbid02KK43fJp7bcZAPhZkvHDU62DqsUgDFrHh2fXnKsPZYUQsuGRZNG3UNFeaD2EETto7l', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IdvvzUYcXd8Q7kNvwHEF5-1&amp;_nc_oc=AdmTK6jb9dXGcHcaAsmvK0bqSVkxmFaoZopkcGtETSXQfdgOeLQMFHnaLT2GJjmjD4M&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Afd11Kzv4kguoQcE2jlrQHLlzIAF3zmx6CLYANoKLXxzKw&amp;oe=68EC7E56', 'profileId': 'pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0fGXD5H4RUQQ7kNvwFIPTNE&amp;_nc_oc=AdlvTb6s75ZcrA0lCgx6cCFFsG0IzVGsDegDFfuzBNlAmUiUG6NTkU3D_SndFmGpMPk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYqb2sKfwfgiZW6S5Faq4jOvuTfrUxaY6v6-BjH1KFLYQ&amp;oe=68E3498D', 'profileId': 'pfbid0JG1Gi1BAENcda5dVaNBE4TGygcMEt9ZLqq7Db9AggQgUZh2efPRNhpDVeoZE3fNWl', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQqs5F5E3x4Q7kNvwG-au1h&amp;_nc_oc=AdkJn2oSoNK8ER4ac18UQMVg34TJb6auSerHFWvzDCDc0WOc6RZRRy-AI_XK6DEp6B8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfecSQRR0Ke56BesZbyU3CzT--0u2X_YGZ1SxsWTt8Ebog&amp;oe=68EC840D', 'profileId': 'pfbid02Mayy1FHmdGcbQW4huDHZnvCNYNisovvHGcgWUaaBEZRDVjZaPDsQXxCn7QxsL6qDl', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=fy5Fg9-Oeg8Q7kNvwHWLcfY&amp;_nc_oc=AdmPOodXG15NwGUfdq6_imaPMPlRViEyWRnEl2dHRZsRFHt7Ikfs8d7cLoGAN_0pL24&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=fOFzmZhbv9qCgoWMuKx8NA&amp;oh=00_AfYgoowEIf_fq9BDRzMVdyY4H86bFtsSqf3VvB8pEAgFGw&amp;oe=68E33EDD', 'profileId': 'pfbid0D9idAAabZm86r7aKLKeR9iGxvtG27xrzqa9rH1ZW1KCsnspDDVScEvgvqPAYwi8Tl', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzQdYNZ0yckQ7kNvwGUR44J&amp;_nc_oc=AdkJQOBfvTOysDlQDUma5l0rNaCX-N9qraPwi-89AfVq4h5OznySJb0gq8_GXx8fI-U&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfcJ2w-lcNnN-G8jO4uXiSzFMQ1wXlq3iADDH1-NdQCsNQ&amp;oe=68EC795D', 'profileId': 'pfbid02Gxer24GQnFDrDsqgfi8t2fyYGCmTyhiPvbJsdDrdTRPxQiWEVP9VZqJ5KCcTtdjol', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=Mart9VlSMUgQ7kNvwHXQCag&amp;_nc_oc=AdkZ0SsCjZMO80bKsGQ80ynN0ymD71-u4nudbLmHFa-VOwokNOgc2h68_ag11h8rxxw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfYy1wm2sB27o0ywTyDlH16_HHzK3Ap2LOK72934Wg-sIg&amp;oe=68E361A5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=h50jpm5-DlUQ7kNvwF0fwtj&amp;_nc_oc=AdmLov_XhmqVNmSvbpCW3jFfrjOL7Wnd85EqaOEWUwCBe7VMnneLX_MdicqhhGZ7Mj27Vfwp7rFiA0KhXi4xOjlY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_Afe0PuAYjhgJvZeWZl8X7cFzQ-Oec-zqh-9e493QT-5-4Q&amp;oe=68EC63E5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aumV7R2vyUIQ7kNvwEtJtEI&amp;_nc_oc=Adkr7vHYAX98nW1d_Z9C5aIvNkOj1t_BKX6LhnNbg39QB84SgsrPd_Zl3dFt0JukoYo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfZGFL0WdNyHw0lSewtwVYA7jW9cQOV4v9emcQSuu0rX_A&amp;oe=68E33B0E', 'profileId': 'pfbid032iN8mZvcb67m8oKnB1N3y8dwwJchyfKw7pNEXK3pBwGEmwbp4oESYz2RzJhcA8MPl', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Duep1092PcwQ7kNvwHa_80s&amp;_nc_oc=AdmEaCo4zr7xjY1fBeMRUrcNJYQFzA4DgsDFwB7YtAmTXGE5IOfXG0WcFIjTAFN7IU2xkWtwiaK7jUVN0ztmzw8-&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfeaSqKF3fUKMZyncWL8CMK53kUeUh6iqk_JnplEixvBEQ&amp;oe=68EC758E', 'profileId': 'pfbid0y8DTXd4F6xCX326oJqW4gH27weBn88LckFDmGTVC1uJWtpExQDDCJjCVCKq8jqcsl', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MKSOs2noYM4Q7kNvwGYOrHX&amp;_nc_oc=Adljf-dzab3HqALM5DdsPzzygJDqrLPJ46ZE9mVMxa0j7JMel63XS1HM4128i-9vymg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfYiW666YrNbbccy02-rw6uhmxYfJWAw2TJ3dxuXIQhyUA&amp;oe=68E34569', 'profileId': 'pfbid02An7VMaiQPRGgEr6sjrJvbZDxBp2ByEjzW42zcyff1BaT9uf5EzQKTrNi1sg5cEDGl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3jkhxHVPE2wQ7kNvwEkA8sn&amp;_nc_oc=AdlJFDuCm9zyQeU_D4Kbu9YyljkrGuMrpqprGGccWyh8xeji2CZrYxuOLlq1qXWcgYcayckz5D3xo0totvfMt7gJ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AffvJAL6odhBl8zgLlSIwP4hyIvUfCRfMegdDItcui3akA&amp;oe=68EC7FE9', 'profileId': 'pfbid07Bxp7dr2uS8usaWi7rSfukm8gJP1MNBdpU9G7HjWcPK7jeE38PDNNF8zquNRCyEol', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xOXHHaVeiB0Q7kNvwE3bRYT&amp;_nc_oc=Adms2i3SchYqfEWoiJ3WPCg2F7PbeOkLyeC8h2E-BeI-0l3G9lXahb7VBF9dhjmY8OA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfaCPIMuDQ5yT0b-u1yp0P_UMHzauvjF78IoSQVNvbRs5Q&amp;oe=68E36775', 'profileId': 'pfbid08wXQeEdda1DbokiNUd5BWPa52f696QJsoxMuvFoPkkvEcwxUmpP2ba9S5PiJyNJ1l', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J2-wKOebpM8Q7kNvwG3gVdJ&amp;_nc_oc=AdltLpsP7u8mcNBmYXreYywB1mUwKeVmtIsqMI8LvFUqJY6280EZmGXwbZFQiKxuM3_SNUBOYYy7p6Zt6FmcbaCv&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfdMASY2chAzJfSlw7hHPl6SEmp4q367xr5ixDbZIDZ-Pw&amp;oe=68EC69B5', 'profileId': 'pfbid08u1vKTPcwEqhfyQBgfHJKu9zK66atzigDutrddiuTEa3JwgJWyWQFJvJpfT1z2o3l', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IEmhgO6xfuwQ7kNvwEnQj8g&amp;_nc_oc=AdmzYKCxbqZx7Zp50QwkRiMjxzWIgciAGXzc9o0Qdm3JgVVfO51BDQSjGKhLKw7EkN8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfbKbRJQzJrjRigkOnYzKp_dmbki4SDHyKMBQma1U0WEDQ&amp;oe=68E3664C', 'profileId': 'pfbid023gpwiLPA9dw9CQ4gFbiuX5RvjWwntPhF2vVduvHyo8n6ZqmzkwL2BauFgJgYJoUNl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rkNTtCvz-7EQ7kNvwEVZH82&amp;_nc_oc=AdlQAhCYdXqydFs-Ph9BNPAvF-BSI4d5zzy5wPYvcJVWZue568vabOmG60KF7kOBYt9r_YThiPHub5CnIhLAe2Kk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfcuBkrwsMVKxQjY27FViXIEvWt_rnAlW5DTeVZsLfsvaQ&amp;oe=68EC688C', 'profileId': 'pfbid0371oe1aVmYFfoUZ67huJZmmPc5CQdjwMcjQ6PauBqKtQYhWKNMDedZqghvgqnvh1Al', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02JrBp4DWTNwLPWCppTaxNff1CkV2YDTNbCS5SGzw1h6EHcJf1woEJypi4TP8KUr9Yl?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=dNV8BNvYn9MQ7kNvwHSJ0Uf&amp;_nc_oc=Adk1wcoEL6Xigi4JSA-Y7TcGZP7bTpGklMRC3Iy0yK7C_GC5sbFyE4hdr-hABt70nQs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=mDD-ujrNHNYRFM9Cnzutow&amp;oh=00_AfY42MpWfuMbf7ZN3eFjQKS6JWNrb_VB1xejDP7rwHO7Ug&amp;oe=6904DD65', 'profileId': 'pfbid0MeUUNbwiNPTiWtZAyP9r32dyWpC7iCSQ6f7Phk45vckL9GF1KgveiZ7rNRyk5vJ6l', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlR2Ud6pexQQ7kNvwG3dm8y&amp;_nc_oc=AdlyId-41C6AE9qUEKWeLGm9ucKdn3l4leqz_BtMy0C2Je4t6GFl6z2atwUH0EzuSjb4vCK2v9Sed3WtcTQLWNgi&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfdTxEbqwfem0516_Ifr8IhYHaW17IqSbYxIXOKvvOnzuQ&amp;oe=690E17E5', 'profileId': 'pfbid02QyTAfr4Km7N3EzRnGCqrUsRvQVVNG1jv69Z73ujJq3seEyj3EfK2F8Yww5K6sMPsl', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=enYtzx_8eOMQ7kNvwEMNYAa&amp;_nc_oc=Adll3TKhHVNommRh1w-KHm2jWsYFHueW5PNFdMKnAb3CfMZmz1asVGOXjQEaDvAGbKQ&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfYc4DW_DmsfqAlG909F10866LXsGnWIofYfI8dfIqkpcQ&amp;oe=68E34AE1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=enYtzx_8eOMQ7kNvwEMNYAa&amp;_nc_oc=Adll3TKhHVNommRh1w-KHm2jWsYFHueW5PNFdMKnAb3CfMZmz1asVGOXjQEaDvAGbKQ&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbFYw93CNyIuMz8Xx6f622Vr6FWihWuuYtT4qixlH5TiA&amp;oe=68E34AE1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=tUrb6oPFz08Q7kNvwGiAQEm&amp;_nc_oc=AdnkPC1-ti5TCCFMZi8m4XcQPb5iCp6rI96j5ItnkCGW_IfaPyEFjcHP2ATZMfuP89U&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfaxwMmZ_tW2EYjvXjv9k7k89AKA8gUReObrYK1jf48XIA&amp;oe=68E34500', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFgaP0q&amp;_nc_oc=AdkpynitdAWwJXdGm1aVumXVWCkvLw-cYt7rWDacDFiwMLkfc4m_11yx3FYnwKO0fN0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfcIGvEq994pSMalKUqzBqfJIg4MD2xECtE7kXE8AtUtSg&amp;oe=68EC8561'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFgaP0q&amp;_nc_oc=AdkpynitdAWwJXdGm1aVumXVWCkvLw-cYt7rWDacDFiwMLkfc4m_11yx3FYnwKO0fN0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfeCDqlXR2Z1FD6QvKROvkMtCx7y5WP4u6AydE5_Ef3UUg&amp;oe=68EC8561', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IyTHRNI4mmoQ7kNvwFW9xot&amp;_nc_oc=AdkMFFB3LISlU6h0CPotoL3Bs-KppEC4b9TfMNE2FgR7lwahX92IVn2n3OeDbtinYN4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afd0GlYjMZlDVwlSc_Sd3BYEfnLz4FpmYpfFgt_XZBo0FQ&amp;oe=68EC7F80', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-T9PHIPBKN0Q7kNvwEkPZAg&amp;_nc_oc=Adl9S9L8QWIwLrOcaRKQbl82OuYOt6veYAX6I31BW8j1jngzbWYVxoqxRWsuZN_a7EE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfYoV0awkmr73dEaYN6B29AvNB8OufcLqrl4DoQ1dL_01A&amp;oe=68E3539B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aDlYodaTflMQ7kNvwHGyH0u&amp;_nc_oc=AdmqBwkqp5a6qChDPox-XrkZSLXsWbfbJWznTwYVMijQ10fDuYpBO1WnF6MU3WK47Ug&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AffoPvbO5d0FvLpi6ThOBXrnYdlgu4JP0VZDVltxrMgnCQ&amp;oe=68EC55DB', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=2IwigY4L7LUQ7kNvwHlvX7_&amp;_nc_oc=AdkVuthSbpnuuxnRerXa6eDcekXLE_KXSM61QOFn2BAwwQypy26Qz1rU23wJ4U-3Ky8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfavH1tAgNhJsp7OpSK0tXx7K5xZ1vR9xt_lnzPboNs23Q&amp;oe=68E34087', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-qlG0dPrzGkQ7kNvwGOa-rN&amp;_nc_oc=AdnJw1BBvWQeJqdunmL92EBe0XXcEq4B6K8CwTB1C9LHVzcX3AlZhLDKDnUCjhwsxBk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfccDgpvqS5SFZ7oXp_cmnq7TFTD0GTMia0a4l4Zv0riuw&amp;oe=68EC7B07', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5RjBQlJLdgkQ7kNvwETSmGH&amp;_nc_oc=AdkckExt7O19AsBZkIJ6IQ251Tg9TwESG86HryVnM3glAkv_ZtOVK2ZpfAiyvfreb3M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbHuvyeCKN27Otyx77wuVGHC2ke8G-yCnCtg4XgPQKmmQ&amp;oe=68E3697D', 'profileId': 'pfbid0AyUJdt78NRmSKLqSWQCa7836YHqL6ffMyMUmTqdpvGpCphiVGrxmkoHSg5wSaFYZl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YMfqekhY2RwQ7kNvwEEHcw1&amp;_nc_oc=AdnegPGaZd8XeiVu2dO-Kp5GRFijKb2Hmeh7TgpC6w9IgLmzyPBFIoH305CecZXSpRk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfetlOLYFeN-FJDM43bpVVFIZCLXap3LJXEz9ndq3r16uA&amp;oe=68EC6BBD', 'profileId': 'pfbid02EnQXVmnway5q35DL5cKmK4d9aZ8WDwrBjCtwea5HwF4t2vtq95MjZ4HJARe5xJBvl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEXx5Nm&amp;_nc_oc=AdnHCmiIbSKMIQCGUC42Yq36WSEypFzTJ2RAGCBTQ1K64hFtqVAtiPpDrvZrdQkW0yI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfYzP5fi8BbTudEd569PkQSERxp7oGr8QdLFregeRG4wRw&amp;oe=6904E9BA', 'profileId': 'pfbid0P3HmeaSwMuTKD4WKLNWcvfPbvjiBeFpq2GAfHUWCSjfeQxjEdJceqBBfEdzeJKZcl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEIaGxF&amp;_nc_oc=AdlORqwSCXoAwsOQfT5y5V1BGqztLq9CQudYc6k6VFuAZkAEvb9XKjM7aEVSl-pnT-c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_Afe2vKYxXA_D6Fc9NKK9l40n44XJhRc3H4iOYcokwSMDgA&amp;oe=690E243A', 'profileId': 'pfbid02SrDzWU8kaYBQcschtj9mahEoKRS6ZMktPptK8G7XUAQusK8Api4u5u16iD6qqDBul', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XRvsPgHcatGceUtWTs2MRi8z3rnNcRFppDoLtxvccK4wvoR9piTK1sxXtxJStXgKl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwEXx5Nm&amp;_nc_oc=AdnHCmiIbSKMIQCGUC42Yq36WSEypFzTJ2RAGCBTQ1K64hFtqVAtiPpDrvZrdQkW0yI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfYzP5fi8BbTudEd569PkQSERxp7oGr8QdLFregeRG4wRw&amp;oe=6904E9BA', 'profileId': 'pfbid02XRvsPgHcatGceUtWTs2MRi8z3rnNcRFppDoLtxvccK4wvoR9piTK1sxXtxJStXgKl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XPRP4u3bx4FSep9E1eRWwRQACag9eVJAd2Xi8q9eMsStKD45rPYXHXKx8b8431krl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEIaGxF&amp;_nc_oc=AdlORqwSCXoAwsOQfT5y5V1BGqztLq9CQudYc6k6VFuAZkAEvb9XKjM7aEVSl-pnT-c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_Afe2vKYxXA_D6Fc9NKK9l40n44XJhRc3H4iOYcokwSMDgA&amp;oe=690E243A', 'profileId': 'pfbid02XPRP4u3bx4FSep9E1eRWwRQACag9eVJAd2Xi8q9eMsStKD45rPYXHXKx8b8431krl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QAGaPBFn9ebyt78AFmpdpeDYN4bSXtTMmDxSxhbP6knFqkK7JmEF6u8p6NJLVCALl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sguT9QgREMoQ7kNvwFtBVcp&amp;_nc_oc=AdmgICo8kspGt_jDGRs0tA6VcofXedSlnJ0ZV9JpWnuFJb6W1GIfLWY2Qlz9T7zxe04&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfaQvkSnEQawQHZtNUC142zS3nxQplP8rfEI6yMIxc8jQA&amp;oe=68E3492A', 'profileId': 'pfbid02QAGaPBFn9ebyt78AFmpdpeDYN4bSXtTMmDxSxhbP6knFqkK7JmEF6u8p6NJLVCALl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DQys9GV_DusQ7kNvwGz95b3&amp;_nc_oc=Adl8yx888Gyn_QANCkK3g8td6eM1n4G3EyN34JMth0AVzHeup78Sax3Q6XmYGuDyqBA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afc2LW-efGYHSedSzH7bj8J-T-spF8qxJum91Grd27s83g&amp;oe=68EC83AA', 'profileId': 'pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zA1Ey0cQd54Q7kNvwHuFR-Y&amp;_nc_oc=Adnn2oclm9F2QCpfB3mE_MYVUAYLY9Ri8F373Rn4WQMuk4AOjhyBwZBjRsdsXhDQz7A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbJJTxXY7PiK5O6cFzZXlSpqTvJpIuSbLqQFG0hKxC7aw&amp;oe=68E35CE8', 'profileId': 'pfbid03351GgdvvDB6qRXvjU1hQc8bMRU4FwrdSjpq8J2AbehHApztr7UfB89eQvFnB6mSbl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nr6UB1G_JRIQ7kNvwGMiaCY&amp;_nc_oc=AdnVaam9C3-WkdfL-BsnmC97p4awiRrMjUw5h7XT_4H_oYqZhPFdf7Jh7muF1BX5lvw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfcNJvex8B4iTQPYKUhy_lsOt-WJm5sUCek3g0y7a1JoYw&amp;oe=68EC5F28', 'profileId': 'pfbid0xzu4t3VLuTdjkw4mzuAfYrW9a2R5VuHFaed53PgsjumuW9YbarrXXikYsZYEv13Rl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=XFHqnAwbaJ4Q7kNvwExZi9n&amp;_nc_oc=Adlw5Uf16gCEd_k_njIwk9myAOLgW-2C6MBU2bQea32qyMUn_k_V8cDDwQpsyj_3-z8&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfYtcMomiF7XLMtnTV0B6n8mTm-huZHfc2q3zNWU4duI8A&amp;oe=68E36666'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=XFHqnAwbaJ4Q7kNvwExZi9n&amp;_nc_oc=Adlw5Uf16gCEd_k_njIwk9myAOLgW-2C6MBU2bQea32qyMUn_k_V8cDDwQpsyj_3-z8&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfY6SAuQtW4tIEBMwJaO77eHmo3Bq3BlWIt6qpYAnaGqgw&amp;oe=68E36666', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwG4jziX&amp;_nc_oc=Adn1xaKwyR6jikokHcaH-lWcAhhpQ7F_87SA999PuUDnkRFkeWVF3HadjWsP5FvFtuc&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfY02Qh85Tsi9sJkX_NtH0gQBqY6ISowr29YoQNv-wAiYg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=OXIa7q2xBV0Q7kNvwFvbbwu&amp;_nc_oc=AdlXyku9VxkyLwMwSjpyXFG8tqqQzewipw475l_smfSHVSrE1K00cvFf8Em8B4vfkj4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfdCGEvBWzGhJdSJWY_kR4S13PM15AlgsebMZb8iAW7rhw&amp;oe=68EC68A6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=OXIa7q2xBV0Q7kNvwFvbbwu&amp;_nc_oc=AdlXyku9VxkyLwMwSjpyXFG8tqqQzewipw475l_smfSHVSrE1K00cvFf8Em8B4vfkj4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfcX3AbHcoeZKQOdTSWBFcv_t0kzZ0kbVk4B5KF8YawVhw&amp;oe=68EC68A6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwHaYZvG&amp;_nc_oc=Adn7Rjjc5Il-gmkibKqGvypfJ-EVUj3Q8rK7SGI9pAfMoZjFvsUagDKgNlyKJTPhAUI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afejyu4v38JXVoJs53QsUliLHLowoWwLWTUcnX_Em2_E_A&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl/', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUaR0dVbIXwQ7kNvwFyjd-u&amp;_nc_oc=AdkA3fU-zHpPXgFMbfhZvy12kGxJbI_MdqG8KhBey9T1ipTyrFtoYQLVrF3Xvub9lpI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=Pv3VY8y94wMk--EHXk_R8w&amp;oh=00_AfbwNCgSckyYEuRt3n9T8kDi35QwhEGq3c7Hl-ApfKcRHA&amp;oe=68E33A69', 'profileId': 'pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwFO8gOJ&amp;_nc_oc=AdklKleTpresCKpahaT658Z8qKqYdoSrZG0mSxk1BN9SLgFUdU9vQba0xyf6jo-Bz1o&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afeswl26H6OUMqEGdWe825wm2DSWxJ5kFb2wyp5wVLQucg&amp;oe=68EC74E9', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7Dkby2bYTcUQ7kNvwFlWd1R&amp;_nc_oc=Adnvze4YSDvLKpJT3wH3EpDwYd7p4zBL0w2D-r6R-YfTo4ezI8xGFcfAqFQTLwik_Mg&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfaD_p6JaImwYjQymSR9P9YD3vefhiLThV27tWLfIWkhvA&amp;oe=68E34B6A', 'profileId': 'pfbid0Sgq699NPceaVBPP6kzZQjEZzD8VgcHJAGknHAAfFcXGX9BUB7Lh3JvHT8y1RoJ71l', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1jFLB-UBgoQ7kNvwHydbl4&amp;_nc_oc=AdnMACF2go-gBUcgTZOyFdDkGUlCm2bTqooXFt6Rhnvzh137fEDiAmX1_dEfTMwEWWY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeTrT3ZM7P8tVfGfOCtQ4aVigzvnTDOEqyBEoBb3Tq_Zg&amp;oe=68EC85EA', 'profileId': 'pfbid02WVmK134CqDgkG6gHQN16cbtCme29pK8a75wFJVVeBbhCJwZvUE4eeFzkzTJxzwrXl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oDUcfSqnMR0Q7kNvwH30wj5&amp;_nc_oc=AdkP4L-LN5hvekRr2MLyD7TlBmSWVZWRL1O6kV6-Zoz9XY0Q-C8QsskviVEZ2hHZCZQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afb2CEhT722eXPAeUXJkU2pi4Yj___foIlH_vSQkR5osNQ&amp;oe=68E33E55', 'profileId': 'pfbid032eymuHXbopuQVi53oPHtQ67okpRUmCqRjSDnPNwy4Nw7QYb8oRb35rPkpCRpgrkvl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JzbBZs-R2iMQ7kNvwHs1rjO&amp;_nc_oc=Adn9qnWvkk062Esa-CC4r-AReIP-jmfTVyZFI0I8KXqjiJKUd82v7_UT3--lr_9MgJM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfctZMrBz4JB_jmzxVhFI1vEx97Bo-0i9Gn5G7ejh9gqYg&amp;oe=68EC78D5', 'profileId': 'pfbid0y4q6fLfEKtsfpjKPp1jLre853woBjV78ZZkehKatfTV8YxLSYx34g45dQCX3jch2l', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=saA-kNcyiV4Q7kNvwGDTI62&amp;_nc_oc=AdmUZ9qxes5DbkX-ezwxLe3eB51mJy3nmG--tOHQ5I2O9Siz06-euMZVc0PbcL13WsM&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afb5lVrJRqSjP1116_evjDCTdxC-LNhXDRvMRziSBUxinQ&amp;oe=68E34DE1', 'profileId': 'pfbid025Q6k7o5Psp1BDKLRdA1pNMKcTDAyrsL2MYMp8tj7pZpfEtpA9AF1c4h3XhtjKFGHl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0Cltf0DtpAsQ7kNvwGR2nTg&amp;_nc_oc=Adk9tsW4I9cwVKcfIW3FpOvLBJs51bG3a7C5FPvwzKHQp9Ty4OLFTKFn41DpFSB1Zwc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfcGZzVnbRIZTFTjvu69kDbgYhOdlK28sBcMZhvNRT52XQ&amp;oe=68EC8861', 'profileId': 'pfbid025MbFo1qPEu9BABZmGT4F5cPdUtfjSShq9tuioSX9txpw3nfxXu5aQcg1Hr5nM1rKl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5SzBkNHW5REQ7kNvwGhM7hu&amp;_nc_oc=Adl43ac1JUSnoCto0xu-MuwZsf42S99uDtKcLnGfwQFQTm1zJASnOBXHw7XD0-f-T0w&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afa335VPfe3JC-gwwYPTFvp5Yz0HRiSXEdT9M_VMR5ObiQ&amp;oe=68E34DBA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=G0XsijaWTxwQ7kNvwFcBB36&amp;_nc_oc=AdmS17afzwxCF331fHn155HUiCkym7NEXMpRWMT6kVaHXIYa4oU_iYlFuruKcaXzpnY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeJhAilYULUuLvZRi5x3ln6-Klpqe5hsaNYFfEmPTy27A&amp;oe=68EC883A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=1Uk9_pdbD1UQ7kNvwGuUKHj&amp;_nc_oc=Adn_Bkt3O-Q4zxWICAozcN7pXbEEiszl2sDOZxImXAfv-gBlDW0HRFH5KXf6y474UGc&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfZ6tFtlRDMpj_-RtMxQIUxdF_mjWFiEFDuhM4JF-APfag&amp;oe=68E34172', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=uJ8VD_1R4XAQ7kNvwFEfbZU&amp;_nc_oc=Adn7W2QoSmVZ2jOMpDZRQlcctldmApjbxrMdBui5L69prg2WJPEMucNtR4jMMkoWrtM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfcuHj4ULuePc2BOg31o-DGEfUed_9KJ-xZatYE5vInS7g&amp;oe=68EC7BF2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02GBsc9r4ubNRxfvwK3yBNT9roEPYuc1Z6n36tfepFAYJniz9Rnkoxmzaru2wSCJxJl/', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=6qklYhnvKSUQ7kNvwEACct9&amp;_nc_oc=AdkTQeYVLBi6HnFWJrqPJvLmzcFVPhJBMAab8rxP0TQkm9pXgaAZr7JGWEvgq74FvJ8&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfbkEp8QpobC16St5D05QovM03tKyGPWTcs0ytA0FPRbiQ&amp;oe=68E34AD3', 'profileId': 'pfbid02GBsc9r4ubNRxfvwK3yBNT9roEPYuc1Z6n36tfepFAYJniz9Rnkoxmzaru2wSCJxJl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0C7mQMFdLHahVie45V8ouVRdAtw6zBP2rEKw2tuTUUuT2JE7LtfPERCZ1zER2Dphbl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XfAQ3IgWJDUQ7kNvwENrmps&amp;_nc_oc=AdmznO5ZP4DrGtrxADtzvGkGBACGwEGVgvNJEmMhSrnUzHQ6mIRTqUpy9hxZzdE8fII&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_Afcnyr-ognfFNU9Ny3jsc_OyISjHPrRDOuEjW_eiE2qisw&amp;oe=68EC8553', 'profileId': 'pfbid0C7mQMFdLHahVie45V8ouVRdAtw6zBP2rEKw2tuTUUuT2JE7LtfPERCZ1zER2Dphbl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=V6dc0uxmcqIQ7kNvwGbQu3Q&amp;_nc_oc=Adm1CVhM7PzO5WmGVFsFYQaYr8WQSwk3i9RH8JcYRh6XALKhpXlLJZpkBBC6apTkLYM&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfZ7uxAD9lfoj6bwO1Ztk5egL9bXHv4EXrskYsYV75vRqg&amp;oe=68E33CEF', 'profileId': 'pfbid03ph4k9d6RVMg2MW4eUADybnK6gMThEuSJqZUfG2P25Yig3SYETsc3E4ycuDPuQSYl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8fLgOUnzW9EQ7kNvwGBsve3&amp;_nc_oc=AdmNbYevzG8zK7sz_9NfsB-PUDC1Sh6ukKoyUGKIReskbQ7PvbjZ_0VXKdr2-GdXhKU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfcO88Xm2gqD50lp3SlW6iPjEkpXEsIcKU4TE2Uyl3tqkg&amp;oe=68EC776F', 'profileId': 'pfbid0279fm3PjhpE5Nc5gPEiC64VfqpywqxsHFMmyPSS5Ek2jTmyHGpv5qebLqY8CiejJLl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=OcZtpsK5pHUQ7kNvwFNWLsP&amp;_nc_oc=AdnYF6B8Zr5TskFX51BpMcArzYBH2x4pmsdnVnD96K4-h3aDN5oPhDzi-EO7bTBmVus&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afa5X1xI2UGlxXeKeULCtimvI4wqHtvuzAQLHCQZyI61kg&amp;oe=68E35DB6', 'profileId': 'pfbid02GeQpB6U9BnhgNrwysw5F2pQU6hngvXx3trBrjb8jNvQNspa5cU1kTEiHMBbhXze3l', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=c5ZPwB79XqYQ7kNvwHAXHVb&amp;_nc_oc=AdkusVlUEvJxgiJ0618HBHL0q-_1EjDTMr8O8IKrh_ifesf8Yd4dOD16-XTkvpEHjlU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_Afd-jqae0xHVeJWz4kuU1jpqXOh46vk5GVvEzZEEg-1ZdQ&amp;oe=68EC5FF6', 'profileId': 'pfbid0CaJcNW2Zt1V2LyfD2bKZomPC5P3YeSB2LJ1wNhbtfK9KaSoVLHe3wpvY1eFAMfEal', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1cPJ6g76z8UQ7kNvwHPQZ-w&amp;_nc_oc=AdkXrtvdCrPPpzJSdpD7wjtslEfTZSYOaYCwTc7i61ucCvZ2gYOZvaqBDignWxMKjQc&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_AfbFDCQj_TG-BF-j_sRSeBmreCeuRsbrDPWM-qKeCHrPmg&amp;oe=68E352FC', 'profileId': 'pfbid02n448pMvGTphznojyifNXKz18koDNRvs8Caxm3saxvAqKGFBd6oxY7rJydR5QbnXXl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EL9gJe8AfX0Q7kNvwGpMFeZ&amp;_nc_oc=AdmzHgoOz9ncKDcs2zpYbmYfFEsxgqrWCc3m9kdmGUEiq8zTrLhXS8yaWyNpK-CRDQ8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeGNIDgXHXSVwO_kzmvH0iZVkCV_1zkZWp-wJwj4zT_hw&amp;oe=68EC553C', 'profileId': 'pfbid0hyww1mUhA1QPCYm5TRtSK2sA7nFXx6xEqLahgAP83s8fHjMWyo1P3d4AQMde3Riol', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl/', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUaR0dVbIXwQ7kNvwEsGbIN&amp;_nc_oc=AdkcBKZ2PDfcxMt0usIf8kFiWgVVSHcxjsweyZbBN7Xwz5-gc4cUqE7MMjkc9RHaotE&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=ixQWiPzPieQs2fqJ2BIcJw&amp;oh=00_Afa-YgaDoHVsDSOQtogvSoMVeWpAthFVHmVce58AlnDQxA&amp;oe=68E33A69', 'profileId': 'pfbid033gAuP8bSz5PcbgnrNsT8KbaZjGMb4fRxsWRohytL8Lz51EeG3atrdghJRGPXutXQl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwEzM4lk&amp;_nc_oc=Adluyrd-MIgtD0F3ceNQtdLi416YIUXeBKpd_HaVY8StjhEs-5J9ToozPw0oEeHSfgg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeRKxXuSQOlaHqFBtrOd8c-MYKU7Wzg-e7WEjanrEBU1w&amp;oe=68EC74E9', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BTd46QCb5DwQ7kNvwFld5RU&amp;_nc_oc=Adl1HruexE1mEzEaj1mMxb9wKqRSgsRKuP0I2Q6hU8Ryb823wilJLknx3Dwu1SBj79Q&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfbwROvItooNEJQfznax3qcnI_IFbdgb_Qphm1NhZhbUOA&amp;oe=68E35882', 'profileId': 'pfbid02znKG1dZr5i2iCvkWLMa6nAdSM5gPWwtecFgjyRNifkKQrw4kwBu6frrspSZJq8PAl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UtiJuWh-aaMQ7kNvwEB6tBg&amp;_nc_oc=Adm_3FKUny2fXccotH613Pmhwf98VoXViF2ue7lfZXJW_OHoXzShu1c8Mn1feKCqTks&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfeV2CpSGMjYBB7H_DBzrwltQF-gD1qPB74ygACSyDdVyw&amp;oe=68EC5AC2', 'profileId': 'pfbid0wCAamghUbWXw7hfUzMhNsECRdwxg2TxrMauyMw48Lte9N87FwFtUaZhwXN5wgB2Fl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwFdbGQr&amp;_nc_oc=AdlWuYhJ3HlZBGPHM2OUdqpfVrxJtwg2K6WEsEK1QQbjiTwU9AW9qPyQXQjhsQaCnXw&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AfY0NfP26TmUJnC-jjefGgbm6hL_7dOftpu7Y6VEPk-ISQ&amp;oe=6904E9BA', 'profileId': 'pfbid02dwuTqsnVqKgnHXM5RbgqH9VUE7Lsfo5LPoe4DLw2CY7dWehzZd9ejcjZ5xx6TUQRl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEXblp7&amp;_nc_oc=AdmXTuOlkUYZ3tJHsD03YFt3N9dqIsDFckoc5fdyeor9a72sAPP7PqzzLgGTPQ9Qkn4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afd9Pxnm3sNjyVriTShEjEyRnDUWtI9VfK7EvwxU5hX17g&amp;oe=690E243A', 'profileId': 'pfbid0ZsoG3HLvXPJbE5qMmNwJA3vGUssgYqHWzUkT5i9mCKmajeKXDXkZdkVQALheMnNYl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/539819000_122137429424656379_1116785277329631914_n.jpg?stp=c0.0.1058.1058a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jNn1KVFKt8UQ7kNvwHt-iw8&amp;_nc_oc=AdlD0BiardRxzuZ7HKO8X4QFn4HG-vQKaXda2mVwyge_PSrTyh4qJ8BFzs2ZuANte7s&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfYdyOZNvd-o72MVlSCWgyxEBNiXtqzEuXQxwLDEujsc6A&amp;oe=68E35C1A', 'profileId': 'pfbid02ohPuSXScmh4WHazP2RusZrjhQGtt6nNE8gzjMvDgpbxfSnWxAvJT1H43hyoD9Nm6l', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=htw69oCjIzMQ7kNvwFoOhsw&amp;_nc_oc=Adm-Jra9gpFjLaCsGQaz6ruRwnKVnUC2Hgj4fLBGxm7UisHikFdvYvHYxEYWSQUTGcM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afc3HDAPJYZ1NdVUSeliA7MOITld4hBwREerLFl0zHBqrw&amp;oe=68EC6C82', 'profileId': 'pfbid0k7FECaaFHUTD1uMuibKFqMHr5r1Go1VnVVVewdokR2k3jWFqog8WeE22Q9MKhYXil', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=kl_QISMfI3kQ7kNvwG7dceF&amp;_nc_oc=Adlukq1RyQlAiJhlFsA3tuDEaKS6hH5CvZh_FKh1je1p-OQV2yDqj4kLTMCZh9VBOjE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfZMTqy9qHh8W7-khXkBX3sJlvREZ621H-QOaI0AcMJ1YA&amp;oe=68E34C88'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=kl_QISMfI3kQ7kNvwG7dceF&amp;_nc_oc=Adlukq1RyQlAiJhlFsA3tuDEaKS6hH5CvZh_FKh1je1p-OQV2yDqj4kLTMCZh9VBOjE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfbvoWImjw99UkgqkI-FeKC1KN4gx2XZrZRoc2ybzp4khA&amp;oe=68E34C88', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwH_igs5&amp;_nc_oc=AdkAWwPDBMljeXjbojwwy2LsfRIuYFzyilIgeTYfKrrpqjIzjY_a6n65SSGZUg8whPs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afaqz5BU2nQ3bRNkGqv6phW1cCUlw7q4N0cqT5WbBanurg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwGd8pc7&amp;_nc_oc=AdmuXscpZ_QxScarU9XrglMl7BXLJslNAYKlmVb1jL9hbLOp63G1P-_Qh9A_9eSu_bQ&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Aff0aZ-maDK_vqTULElLmr1XEFwT_xDlzrfs2xWJVmu_oQ&amp;oe=68EC8708'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwGd8pc7&amp;_nc_oc=AdmuXscpZ_QxScarU9XrglMl7BXLJslNAYKlmVb1jL9hbLOp63G1P-_Qh9A_9eSu_bQ&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afd-UPcF9-poIHoY7xSFNN4QWRej1bYMQqLsB5qCaztEIQ&amp;oe=68EC8708', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFXAaXf&amp;_nc_oc=Adk5YhX1MiYwWFi3FftyGsJOZY9OETMBYNTNE44RNT0jE_6cpwAjmqzcCipzghfnqL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcG9YN0cI-4WMj9LET8dY7KR1p7ikdWeNauw28NGkARIQ&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=abfCj-v1dG0Q7kNvwHek35C&amp;_nc_oc=Adm8GVSEV6Y-TIA10r42vbf3N5BKzNX6L1Z7JoLZaDPvXsP2pDUVswAXsEd_APEnHI0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afbmyg0F0ynkJ5XUbHm2Qb6r1GGJFRh3zfDcwayeOLnQcQ&amp;oe=68E36240'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=abfCj-v1dG0Q7kNvwHek35C&amp;_nc_oc=Adm8GVSEV6Y-TIA10r42vbf3N5BKzNX6L1Z7JoLZaDPvXsP2pDUVswAXsEd_APEnHI0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfZmNNZdtJ4kFDGfmalq-DV-xJVsTqJgH1l2q2ONNwtPSQ&amp;oe=68E36240', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwH_igs5&amp;_nc_oc=AdkAWwPDBMljeXjbojwwy2LsfRIuYFzyilIgeTYfKrrpqjIzjY_a6n65SSGZUg8whPs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afaqz5BU2nQ3bRNkGqv6phW1cCUlw7q4N0cqT5WbBanurg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwG2YwxN&amp;_nc_oc=Adk8KO6bLQpIDlnNLO64OiunbYGoByRlQp3YB6VHWvQMa2gB-DeQy5r2p5Erk0PnMCg&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afdpu5uGx-hBJtdTIpEq1UG-sV_J8EVXNW11Pu4XNFKMpQ&amp;oe=68EC6480'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwG2YwxN&amp;_nc_oc=Adk8KO6bLQpIDlnNLO64OiunbYGoByRlQp3YB6VHWvQMa2gB-DeQy5r2p5Erk0PnMCg&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcZLPMXObMXAIyBtArnIqG2IuUl9LG5LUn1GgCJuc7-Yg&amp;oe=68EC6480', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFXAaXf&amp;_nc_oc=Adk5YhX1MiYwWFi3FftyGsJOZY9OETMBYNTNE44RNT0jE_6cpwAjmqzcCipzghfnqL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcG9YN0cI-4WMj9LET8dY7KR1p7ikdWeNauw28NGkARIQ&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kHyeyvSrTZ8Q7kNvwFAZ4UN&amp;_nc_oc=AdnWi_Vybyzd1XjJBERg3bh7GMZr9psXDp_rm98864QKb8Xs6ETZ29zLiWXa8alTxg8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfZQcllt4jjO1gz7MagxF4ZSUZjmWVpcUbZy9aEi3kuOXw&amp;oe=68E36E8D', 'profileId': 'pfbid02SJ1BfZjL9oyyUsqmuR93EhCFB93xYsS6aeaDMnQsLKNYfMCiANtHRJBgfgjzbqjAl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xy-2pdvtof4Q7kNvwEhP4_S&amp;_nc_oc=Adn7b-SUvnRV8i76atSm5pbwoQ6kiak8Wqq9pTCK8uhGVLIcrZfwjIf_h0FOLQam1bQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afd7vIqaHMbYCbm-dM7ZQJUkvxIMSJUvwXZ0DUfWfggL7g&amp;oe=68EC70CD', 'profileId': 'pfbid0NDtyryHkr27b2shdw9iBjCcmjKUsqZ2kjDPcigxsArL6oW6iS6niDAxjP4417DRfl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3bmugLyMi1QQ7kNvwG3m0R0&amp;_nc_oc=AdnDdZ6euhm7oVeYM2fJ4XmaZm13R4dk_OnC44Ul1Bx6S2O2uDzqgLU7GsQBeaD5WtU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfbeCQMc8U34DZLUvfMaePHjtWn5k2gphOSworv5kO7x0A&amp;oe=68E35B0B', 'profileId': 'pfbid0bLS2oEWMTQ1NE9ffBX2ZDzyx7WqP1T2TW52Zb4oVkm7QUW9LMuoJMe8fgLt1tDzRl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1r3H3T8mCyIQ7kNvwGRcPGh&amp;_nc_oc=AdnzdF3ut7ecQVxBkSoOqG6Hwomxu9z0CuI-qwP-sl21gTtah99RXQfGk4q5eHGYiGg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afdna8bRXfhJ2rP4C9B1TEWeZGUlCl3i9rro_7QRiy6_VQ&amp;oe=68EC5D4B', 'profileId': 'pfbid02f9NFf8CAfyZ4fvcicCSRWUKWFhnmdHrkUBuPQBrSxW8LhJfMLnXdDETPXF2quT7el', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=QS1G8uwRLNgQ7kNvwGmClj7&amp;_nc_oc=Adk4eV68oUek0WaYs1pCIm0w1Ic2ZZoHpIQAbUMkIURboHcw25tKBNbaR3Ebn8n6jj4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfYhGVRzj0xQTwrMs3nCQovCUrtLxKE1YqNs0b1vbJwCUg&amp;oe=68E34AFA', 'profileId': 'pfbid0qJ7gup7SPTzms1esXRHN6g3ei3bV8VyjUPBQV1P8WzttMn7DBcHZtw9MSfrfevDdl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A2fLFPWnsLEQ7kNvwEBTeKQ&amp;_nc_oc=AdnrrlrMGT1XfJI4TEsHfmhw0pTH-zT9-YkJIo9Fy08JZ9_wovjgz9-KwVhmZm2plgw&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfdtRjJoqAs7QNSk2qN5A2_e2GBZByHpTF010WNYPgcdKg&amp;oe=68EC857A', 'profileId': 'pfbid02u73umhoFbx9ZgyZdQ7iBPvx1LrQZJ3J72chDYRKSJpKxn2D4uMHNve9QNCaTHxevl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=e0vLCiFIxxwQ7kNvwHJJhBy&amp;_nc_oc=AdmiY4eCW_XC4PLXY8iB0C6dbyl71NgT9sqGlMuqfjSWhmHjUQaLyfbYLjdGY-Q9C3k&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afbeq_VHesCqQsnNT2dVpj7N4rk3ULqzWops6lGtV7ukkg&amp;oe=6904F7CD', 'profileId': 'pfbid0XVeGSZD1k39XTrjweoKxUYDwm16J1kbYX8grsvHg3xA8QPv3DGojKnA74JnUa8qNl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T1-ld1zZC7gQ7kNvwGJZ-1L&amp;_nc_oc=AdkoBfAIsImysPUzIejbMWMq735hB6ZzBfTpA4NxW7PqWoPS5CTzZZWFu3Rs-gDgQcQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Aff0I61Df2XvimJQIbQPT6XvBbpvTHUeDm-5BkoedLyq9g&amp;oe=690DFA0D', 'profileId': 'pfbid02bJaVJStpxZRZy3fjhKJMy4NG4bF2D6kULuhjyhyrBMqCy7UXMRkv1E9mNHfNY3XMl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=v3Fsv1qQg78Q7kNvwE_VNe5&amp;_nc_oc=Adnj7K2qtufEfw4-ma_hMxWlBK-p1JopRJJjkzK7ErtwfcY-cagJ0csxXVS4PFb4tX8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afbe-4MYQLmNCdg-7Y0K18HRawiVQ7_hm-bJh2q4A9Kgfg&amp;oe=68E35566'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=v3Fsv1qQg78Q7kNvwE_VNe5&amp;_nc_oc=Adnj7K2qtufEfw4-ma_hMxWlBK-p1JopRJJjkzK7ErtwfcY-cagJ0csxXVS4PFb4tX8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_AfY2-qeD_NPpu-Ul04ajO95uMS5zvl0rBNRABmsY_5o0ng&amp;oe=68E35566', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=4C2Gflb93BkQ7kNvwH_igs5&amp;_nc_oc=AdkAWwPDBMljeXjbojwwy2LsfRIuYFzyilIgeTYfKrrpqjIzjY_a6n65SSGZUg8whPs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=tjs5fw6gM-0cyyAaOrXlyA&amp;oh=00_Afaqz5BU2nQ3bRNkGqv6phW1cCUlw7q4N0cqT5WbBanurg&amp;oe=68E35331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEBmWup&amp;_nc_oc=Adm_CeiGTV4nSXOd3t5qm5bPec3z2Q1F_9EzTuobkJ16gRWYFtag3X7vwRxBMUnfhhw&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AffYmCYgmDH7yTeCn-Kr1GceJWiBSRXJNFOxGMlOCF-6LA&amp;oe=68EC57A6'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEBmWup&amp;_nc_oc=Adm_CeiGTV4nSXOd3t5qm5bPec3z2Q1F_9EzTuobkJ16gRWYFtag3X7vwRxBMUnfhhw&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afdv06Rx5GhE0g57_1WrAI6dnJYjdh-5TwUFXfspwheksQ&amp;oe=68EC57A6', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFXAaXf&amp;_nc_oc=Adk5YhX1MiYwWFi3FftyGsJOZY9OETMBYNTNE44RNT0jE_6cpwAjmqzcCipzghfnqL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcG9YN0cI-4WMj9LET8dY7KR1p7ikdWeNauw28NGkARIQ&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QapFAkEXI6cQ7kNvwFycNXl&amp;_nc_oc=Adl2v_3XkVbdwBn4jJzVJz2e-W8Gwrfx5Z-5gOv_2-APvRBf0dSkGK96ujPrHvaYYaI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfYqoqXRwTQ58wAeqrVU4hqqnxJoDAknfEZWlNGrZ6FANQ&amp;oe=6904F9DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwF6L9nl&amp;_nc_oc=Adm6AKzaMs0G18zTy4VPolVbg4PfdL219Mo8CGrKnWy50WolDGG38H_GA8uj1TkBG-k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_Aff7Y7nDor5_ERvOE5hZXtC6ygkx1sd3Ts-ccAW2aKXasg&amp;oe=690DFC1D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QapFAkEXI6cQ7kNvwFycNXl&amp;_nc_oc=Adl2v_3XkVbdwBn4jJzVJz2e-W8Gwrfx5Z-5gOv_2-APvRBf0dSkGK96ujPrHvaYYaI&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfYqoqXRwTQ58wAeqrVU4hqqnxJoDAknfEZWlNGrZ6FANQ&amp;oe=6904F9DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwF6L9nl&amp;_nc_oc=Adm6AKzaMs0G18zTy4VPolVbg4PfdL219Mo8CGrKnWy50WolDGG38H_GA8uj1TkBG-k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_Aff7Y7nDor5_ERvOE5hZXtC6ygkx1sd3Ts-ccAW2aKXasg&amp;oe=690DFC1D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=APl0L2xGI-gQ7kNvwFcfRCH&amp;_nc_oc=AdnOCmEfAQsUv13xk4Vbyi-uBOTTK6ALCmTYT-uwm_pnzJvEcxqml4xFSqkoxcH_1FQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfZAdGgp_PSFhgTvTxf_7SQZbacqURKuN-t2L_Md-Q5UGA&amp;oe=68E3430D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwHNV6VQ&amp;_nc_oc=AdkYU2KN2gVDdS-1UMceZP3RWYzeABEbJlTlf3YQUAkzlMUcZPCX6CoaX3vVPygIRig&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_AfcaN5tatNvrCpGrfWNksUgWPdWwlb0qN4DH_b_yWtfiKA&amp;oe=68EC7D8D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZDH2YVpvFQAQ7kNvwGmLdoe&amp;_nc_oc=AdlZNZ7yRBoKsQ3jJ-N0OaRKMNFk3Rnke4yr7y6gVn_lmQmLK2Epy7KuSlv7UgE9DkU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=G6UEcRRv6q4IcBsWgR5yWw&amp;oh=00_AfaLr5UobJOD_TmsKb7MB46gQWEdVFD10dW5XoUI2RFsDQ&amp;oe=68E34210', 'profileId': 'pfbid02UxY5maKXdoSYYdcZv7bbDmomq9o9AVdh8skvo8wrHMEMXn6m3udTCz3f8rbAY7awl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zavw8q2ADdwQ7kNvwFDNxH4&amp;_nc_oc=AdkIiz4Hvgcd9VyOLmOoOojpjvF_5qrQ--9GeN5m8Di6pSrCfJtuxw2-Wxhl5ApcJHY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_AfcRlB0Kud_TaLH3bV5xw3JoAZBeeppTQsBCBaDikmYukg&amp;oe=68EC7C90', 'profileId': 'pfbid0RNPQXdTA9knyeh2TfiwDPgZ4aSXzfG16kCauxuxrJ7LZKp3eYbBqTY8SFQo1Ld2pl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid026uFQAHiSsmX8K5HunLSqz7qUJ9wnnB7XWuViS4PiZvqCRFDt7Q2PBiaTe7XDr31yl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ADoDeqH-9c0Q7kNvwFY06bg&amp;_nc_oc=Adlj2sr_sH1LWhx--i6d6YaCgGpZ0pTFcOkEpji7lEIKHM3H15IXEKoWcx7cLnCJSy4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfbJA8dnxjeAFm-dXBYb_W2h7pfcuyNyQgL7McklydOm5g&amp;oe=68E33ABD', 'profileId': 'pfbid026uFQAHiSsmX8K5HunLSqz7qUJ9wnnB7XWuViS4PiZvqCRFDt7Q2PBiaTe7XDr31yl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid03K6ivLr5PaaUJ2PjTC1GvQEXhDunLqyVU3Zj9GhVUVf2ogpfMAuvuJNRG43GMYEcl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jfa2y7HVGRcQ7kNvwES7BV9&amp;_nc_oc=AdlTBMzIXmxbnlFTioHTlP10vXAxf4rJsy4v7eEs1h0ZlyeHwPlS3LhvuO-2iutHSuU&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_Afehha5qW0BXJCzkCWLufK_WJf7p5R34cmBUdcpv3N6ayQ&amp;oe=68EC753D', 'profileId': 'pfbid03K6ivLr5PaaUJ2PjTC1GvQEXhDunLqyVU3Zj9GhVUVf2ogpfMAuvuJNRG43GMYEcl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=AzMd7V-0VnkQ7kNvwElPWt6&amp;_nc_oc=AdlVYG4ageVZxLahVaHck7ciT7OuwhQuXdaJ0Z-vOqj58FuqjrV9llu7UiDebKiXJl8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfYKI-5iMeDLhIwl-hfhKBXGVHKFZgFSaCf4K6l0D8s9hg&amp;oe=68E35BF1', 'profileId': 'pfbid02t92FUcrxnw7VNY5fHVHPJGqemLrzLgDmAALJYTgokCniDX3vuamtx3oh1uaygLifl', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S7Q1ormNRocQ7kNvwFafE4K&amp;_nc_oc=AdnM38DnlC6R-JZ1u6anKF1DbV4P1wCUivNalrvmX3vjWX8oM-rGxWci3XUfGG_uw1k&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_AfdDEulDqfvAC9MkyjMJSl7USNfzRz77A9Ssw4gfxtsmzw&amp;oe=68EC5E31', 'profileId': 'pfbid02t6Wm9qcxA8GvykJLDKGZgxCv8BqkgXCuaMdzwwu3MmkDeksLsDmhMKAGVKx3c7SQl', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ZvTmlV-TZWYQ7kNvwEY1KT8&amp;_nc_oc=AdlAu9-cnuKLxp3ESC91a9DKbwofyKe8h8OLB2rHbt4hhVxdJo_8BpF4-rXOgssz9TY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfamTRm-ChjxWPBvvryXl8mBOO5C9AKzIaG9k_TaDFfPXQ&amp;oe=68E36F6A', 'profileId': 'pfbid02MKFcxwrKPGNmUpKzouGgfV2yULBH5yGDg417PzxGYQCyZXcgLwAbh7bfGfBfwn7xl', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ulhbo0Y2EcoQ7kNvwEQMjZQ&amp;_nc_oc=AdnutfI22Oxyf6Z6wgRzZyhFW9Zl2MLssHxOxkovrm4uDrwKgYmZWIYofTjwkHRnc78&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_Afer7TRYahLCkWmTk5-PcPIVsBAlLrkUj3Fu14yGdZq9pg&amp;oe=68EC71AA', 'profileId': 'pfbid02MGk8eAcJkHoryTPerBa6d8MU79k7PnvAbvveR2oMRyhGaPy8o71NrpmkZ4AHgZTDl', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jTnP6QUnwS4Q7kNvwHPdW9e&amp;_nc_oc=Adln5VdjMYXyFqFX_zOyghjJoeJTE_cboKC5QKYZgOQ12wJQ8l822G3THaywsGqiecs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfZAw_UJ_4yCBi3gKLw-q9PYaqxULaMwauVSn1952X0poQ&amp;oe=68E35453', 'profileId': 'pfbid02JtGBmJVGrg47JtqBveUbM4Kr5ynZ1QhEtzKe2jMof8oJyuabFJSh7xNY2bXqXrWyl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8jYRYmNxqfEQ7kNvwGVojGP&amp;_nc_oc=AdlVHwdA6zpfh27K_oxGFejsltNM_gAtBXMmQiN1TUcCB9OViIkglQ5lHMRAMVZb38w&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_AffZsTOWc3mpozPF72yO2PLZmUXk_OkJyVBqI5qDtczTuw&amp;oe=68EC5693', 'profileId': 'pfbid02JqkhSXFGDquqW6mRozCVnPSWmLiqLRNg3ubYkHisMKD1dq3C9vEE2VGHx1Qk6Ddtl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Wh7gY-uTdF8Q7kNvwG188kC&amp;_nc_oc=AdlZaucVZ8SR6aALL6ChsdmGD4AsMr8QMMNEMDdGXr0p0t4NDUan7moFTbw5yLIKOYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=0dLKQe5uM_qKK6YoieAYCg&amp;oh=00_AfZj3GsB1sjp-vA7OIPJo6zR4irytCAbEAgJJofsUNxZdw&amp;oe=68E33E0A', 'profileId': 'pfbid027pKqe2A1uKrxxv9njfdUVroZ45q3p52dmYSDadsyw9BCZy9qkp6Xi91h1dzzMDxul', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gHxJHKqTMckQ7kNvwEoda5A&amp;_nc_oc=AdkHV6SZewSsuEEz10mQD2j_WibYIQCJxDHcVnqwJkKAu0VrzHVAIDz3g2iPnube31Y&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_AfeBQl4WBpzUxK1bFOeJxAkJnzBV-dvR_BhbyRLRtzXmeg&amp;oe=68EC788A', 'profileId': 'pfbid027mpMKEv1GS73T7SDqYb5cbYbM7QXnD2p1P5SG1rFJN1VT6Skumg5eg13nCu1MWRPl', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,47 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028HX2XFSoECeyfjqz5Gpn1nn1CtkJwNKXAHmKXtHbY2ir7CJqezByxUBJwBXH37gZl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent.fagc3-2.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=ngyCpViYghwQ7kNvwGqmHHF&amp;_nc_oc=Adl0gH-gGnHvlBM1eORm0eKlyWfcTM7doiOh2fflmvtzvkhSAPk1bXqaz1svrsNAkuI&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-2.fna&amp;oh=00_Afa_q8r2McQxewWpx_K-taxBD258Y2AaUD68SSDi0yAA_Q&amp;oe=6904E9BA', 'profileId': 'pfbid02jSFcieqY2ipFfm5nsz1CxexXUp97to36xranDdo8rFcynY2S6PNJDbcqRhJD6V5ml', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwG1WSPn&amp;_nc_oc=Adn86ppsObEzlWJd8AAAg6DmBC4FWcnuDvmSxHEH7GsBucumj6HJaFQzU-lY7BU5Yio&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfeSQiTbUpBlhKKZDxHCljF7Hl92IH4L5_WBSy9ji6JB7w&amp;oe=690E243A', 'profileId': 'pfbid0fr6wUhyAYWci44tgBX5g7DPyHdDWXuJaPNGcEtZpLivStBmTVLVgmxnnVVfkUNftl', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>21</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://web.facebook.com/100064867445065/posts/1229679052537665/?dco_ad_token=Aaqetf784RumLkbscgHZXNSRF0TZIO9n2Vt1_9uwZO6mpYTzysZ_WfEF3CH19-WBugGRBO39K-5V4ma7&amp;dco_ad_id=120232527495410767&amp;_rdc=1&amp;_rdr#</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://web.facebook.com/100064867445065/posts/1229679052537665/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4714,6 +4754,27 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://web.facebook.com/100064867445065/posts/1229679052537665/?dco_ad_token=Aaqetf784RumLkbscgHZXNSRF0TZIO9n2Vt1_9uwZO6mpYTzysZ_WfEF3CH19-WBugGRBO39K-5V4ma7&amp;dco_ad_id=120232527495410767&amp;_rdc=1&amp;_rdr#</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=ljMpWtuyqmEQ7kNvwFHP_OB&amp;_nc_oc=AdnYnDSEOgiqzN60FsP58olXdXCagnhumtLa8Riq34i61eKFwH3dyvyVntcwGndwQnA&amp;_nc_zt=26&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Afcb7pa7BLucM1cMgyqzjLnRWWhmqQSvVinuesh--WdkJg&amp;oe=68EC51AF', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mVlWfUWtxfkQ7kNvwGmUGfb&amp;_nc_oc=AdksgpBTiXEyE574O9ruMWQAT1LofGSJ2EOb_ddTfdnsf-lGMHw_z4YGRsaIc4Wy3jo&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Aff1bQpSf7lVDFjZNTB0PMsrgUCvGz5pdLCpUK21hwXdGg&amp;oe=68EC7623', 'profileId': 'pfbid0GhanfK1g6bjcgUdivfFTtsAFZrdk1fMTNLwCCfEqYHfHkYiJ5DGy2RcBTD7L6JoDl', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=ljMpWtuyqmEQ7kNvwF0md_d&amp;_nc_oc=AdkdQ7JWNaIyM8uNJDhrQrBo7AbeSqf0kGpb_oi2zmmLPVf_GQBmofjSYB519orh7pc&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfcWOsU4EpKGhMsao_Qp69cc6Gs2h0EnQsfJIRJfImjzxQ&amp;oe=68EDA32F', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oUSOjA-mgBwQ7kNvwFD9rse&amp;_nc_oc=AdmOxPTLcdok45JXwDUDtxEROgvaK_wk8WzJgb1mAMSJhcjJAuYlqDTcopn0bFnsWT4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdkU0hOaz9l8bchDd12Yx7I-1jwd9cY9o-fJQkI9hX3Nw&amp;oe=68ED8F63', 'profileId': 'pfbid02LZ2VqywVwyrFmENxVLhqXZvKipMVCtFL7WPLU68EnYeXZyvyefzzkEVPKLsHy4yyl', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Aze0ym6SQ7wQ7kNvwFqIkz-&amp;_nc_oc=AdnnEzHdh1pjFxdBhxeb47-CihIjx29nfK4O1TSbPNbm85nSAMnBt0Bg7tvp7wg8-Ms&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfckYOW807w4n-m5lvYPvKX7Vw13GnWE9xX6sVq042cEqw&amp;oe=68EC7FA6', 'profileId': 'pfbid0bwbrycHgwytN4isFnyr4sy4X16vaxuZzxwz7Xe9R5KVDjARKzcyJjNMk341eohsil', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Aze0ym6SQ7wQ7kNvwGzkLLe&amp;_nc_oc=AdlcebF-cn-cueRQOTIFaTleVejyDnfMschTOpm1kP7mE5yl_NpoGVzQzA92yqGV3AQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdTwojufhyjp6fWdhogrucQiRmNfBD8VPMfj-YETdzZ_w&amp;oe=68ED98E6', 'profileId': 'pfbid0bwbrycHgwytN4isFnyr4sy4X16vaxuZzxwz7Xe9R5KVDjARKzcyJjNMk341eohsil', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-hk7XOX6accQ7kNvwFU8IZn&amp;_nc_oc=AdmDqJp6EDBEimUGKDHS-U64PyJSkKg4CFblLmsOqEUhwA1ae-SMKQUuo-MKNWwUkmA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfdT_MZ8nFw8eeY9KEetNwn-X1W-AJW7wX9fCOSkR3fZXw&amp;oe=68EC535E', 'profileId': 'pfbid0K37YA4H63d6doGf9BBeqecHVzVreKfox7oax1B9TC2YnwQbY3ryYiyjPaUKgFSYLl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-hk7XOX6accQ7kNvwFIyAO3&amp;_nc_oc=AdlR4wPLR504fFinoIGrCopMN-mvRhhY5nqcNwotlIJALIgiilC9uBcetC4XZzkP0-M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfcKtVIGao3fOBh76JddMsUi78Cj0N6SCRLW8e8BZQDMtQ&amp;oe=68EDA4DE', 'profileId': 'pfbid0K37YA4H63d6doGf9BBeqecHVzVreKfox7oax1B9TC2YnwQbY3ryYiyjPaUKgFSYLl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=unrrzbkTNVEQ7kNvwHWX6zS&amp;_nc_oc=Adnd8_Rz4G4j7cYrilfhR2RkoUdcN2KisyiGMBCgXLIixfIEZfuW2aGRjqRNfaEtazA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfcxEO7310HpQq1SIt6FusxdA2gqPYwqseYn3BqmlbqjBQ&amp;oe=68EC7E1B', 'profileId': 'pfbid0RSyRAuWbJcmH2QT6QRrEmG7czo6Gwx2tkdp66y9NMXYUWLuZQ4ZoqEG2G61npRtdl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=unrrzbkTNVEQ7kNvwH0LsX9&amp;_nc_oc=Adnwi-NwR5JAib-WC6fNliKNb3uvUpqEoig5YsmRKq8deYUmVFRXVlS5ELRXvNBthEI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfcE2s8HCO-xt0BOQpDXmfrzSwpmIOnaJQ6gfOZnga7SkA&amp;oe=68ED975B', 'profileId': 'pfbid02UpTbnvsDLCcK3dXKSGNHDVMat3iCg5BMebYHM28Hx31P4vMPADZP1B9bRjGyv7gLl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VYkDkBEiyysQ7kNvwGlQ07m&amp;_nc_oc=Adnu4Y-XG1ib4_jv8dXbOU5j0bFlUgFT_vqdfvNhosiUgLfbsfvSsD7sRe1x9wRPkrs&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfdONUG48gPgQaMJxFjMMlOfDH0nJWiLdyhhl43YIev0Rg&amp;oe=68EC59AE', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VYkDkBEiyysQ7kNvwFq3NKl&amp;_nc_oc=AdlOceWxYt7LoK63pmzQDQT86KmKdnMAo4hg9Ni0J5H6lqoAfSJZojf7WNQGWz6RptI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AffqKjRUWjmU5cQLo5oVPKHuRAm4woXVkFyi92a8cXXXcw&amp;oe=68ED72EE', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid02qVhFVxLC5YWU7KjvxCjcJeQUQBTXX2LkoZWknYv3tULRVqhiDxNyP4rNAVHHtodTl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mPmBXjjSh8MQ7kNvwG-mHU9&amp;_nc_oc=Adlj35Uj4ZDg5VjYKgJ0On0C-A_UF8OYnNAqA9L-mJ8xt9PeHpGWqpzePd4rODszLQE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AffMo6vQeAx-QdkBSeXm4g_7JqFOPJz-FEEAY0DDGkhCng&amp;oe=68EC7D97', 'profileId': 'pfbid02qVhFVxLC5YWU7KjvxCjcJeQUQBTXX2LkoZWknYv3tULRVqhiDxNyP4rNAVHHtodTl', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid0mU6Y298dQZ1p8uMsABdCZb5PhtHV67aQeiU8dqPC9ViFj4iuitHbvYSxAYtHbWDol/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=womlT-qGI1EQ7kNvwEeivaf&amp;_nc_oc=AdkZ2vVxcQUURuY1oZljjoRfOPVYEjC7ba2Dz877h7L0k3WpuDrqzK5HV9Qtq-UdG9g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_Aff5S8Pdea8mHtPojwUidJMGlEYmjBiomxeoy9GrM5c9oA&amp;oe=68ED96D7', 'profileId': 'pfbid0mU6Y298dQZ1p8uMsABdCZb5PhtHV67aQeiU8dqPC9ViFj4iuitHbvYSxAYtHbWDol', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gp5tGgNVJKIQ7kNvwFDIYcN&amp;_nc_oc=AdlimcIUUsRbo8S6BwVepuoU6b8Fx2hXR7w97CSoavE1GS9QBxXkxmXnknsFFSkeLOg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Afe_nZAC_DO9ICbk1qM7HdQCzux1anDIbkdYdSDxDLeUZw&amp;oe=68EC5C49', 'profileId': 'pfbid02qGopL3GnXtYiUq1UkSYDiKhXYtj5uTpKMMpfSFn5mcma4PPfwwyjRcU7NFoFaJTGl', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gp5tGgNVJKIQ7kNvwGLmdLb&amp;_nc_oc=Adkg9pmKVfUmLnzywabAA-oieMDtiyFoHLWnlLDetD89MmHV8zMac-qKJE1PG7dxNOc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_Afet6pRi3tPc4UBM-UEUrIZn9N1Fd05eP5kLzvmDOXTpVg&amp;oe=68ED7589', 'profileId': 'pfbid0mjAdQseRgXUVNHZJ5T7T69q3TuZtuVKU1N6NACBwutYMCUd1xbVZtxdCSnGBEG57l', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IdvvzUYcXd8Q7kNvwHEF5-1&amp;_nc_oc=AdmTK6jb9dXGcHcaAsmvK0bqSVkxmFaoZopkcGtETSXQfdgOeLQMFHnaLT2GJjmjD4M&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_Afd11Kzv4kguoQcE2jlrQHLlzIAF3zmx6CLYANoKLXxzKw&amp;oe=68EC7E56', 'profileId': 'pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl/', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C-01ysaoh34Q7kNvwG6nISa&amp;_nc_oc=AdnjTtkOJ-WAnHovvUL_MsgLTpKpgt_gvZNkjVM1v2RTeOPdhELGL7keu56WDEz2GRg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdN1UJp7iQ6pPlDUVwd_zzhqTiKCRyI2PJJXlrfYhQ0vQ&amp;oe=68ED9796', 'profileId': 'pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQqs5F5E3x4Q7kNvwG-au1h&amp;_nc_oc=AdkJn2oSoNK8ER4ac18UQMVg34TJb6auSerHFWvzDCDc0WOc6RZRRy-AI_XK6DEp6B8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfecSQRR0Ke56BesZbyU3CzT--0u2X_YGZ1SxsWTt8Ebog&amp;oe=68EC840D', 'profileId': 'pfbid02Mayy1FHmdGcbQW4huDHZnvCNYNisovvHGcgWUaaBEZRDVjZaPDsQXxCn7QxsL6qDl', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQqs5F5E3x4Q7kNvwGf9pJ3&amp;_nc_oc=AdmDa_ff80YzyYqdZbQmHIxqNSea6D8glacc43v5T_4c8cSdVsluE155lX6Iu9bBxXM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AffAbC5mbusgWpQcNjxCsLpdibWo_wgYTZRYXiOeusLsEQ&amp;oe=68ED9D4D', 'profileId': 'pfbid0J3Ln65fQn1UFUeCyzcXQTc9fFccnBc9JR3zneubVs8Ny5or3z2ZZ1dr6U9eocGA1l', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzQdYNZ0yckQ7kNvwGUR44J&amp;_nc_oc=AdkJQOBfvTOysDlQDUma5l0rNaCX-N9qraPwi-89AfVq4h5OznySJb0gq8_GXx8fI-U&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=xYTawOhaZXq2wn6h6zJ8DA&amp;oh=00_AfcJ2w-lcNnN-G8jO4uXiSzFMQ1wXlq3iADDH1-NdQCsNQ&amp;oe=68EC795D', 'profileId': 'pfbid02Gxer24GQnFDrDsqgfi8t2fyYGCmTyhiPvbJsdDrdTRPxQiWEVP9VZqJ5KCcTtdjol', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzQdYNZ0yckQ7kNvwEEDblR&amp;_nc_oc=AdkidWrW5yZYp-KFYXa32fdy9EjndWwVYbX4Y9m6hR0sbrkrpLrwTZpINcCnAQW_b04&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdF8xH0FEc5LshJme4r-GsXKg2E6I8UsxUei3OXYZpNPg&amp;oe=68ED929D', 'profileId': 'pfbid0DR1f6te3w3rqPV1bZNbPd2XcPiKcsB73E95DwLJH3UKsHc4cViFVofquTyoC9pmul', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=h50jpm5-DlUQ7kNvwF0fwtj&amp;_nc_oc=AdmLov_XhmqVNmSvbpCW3jFfrjOL7Wnd85EqaOEWUwCBe7VMnneLX_MdicqhhGZ7Mj27Vfwp7rFiA0KhXi4xOjlY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_Afe0PuAYjhgJvZeWZl8X7cFzQ-Oec-zqh-9e493QT-5-4Q&amp;oe=68EC63E5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=h50jpm5-DlUQ7kNvwENirz1&amp;_nc_oc=AdmsckniUV3dqxUe1mmvTYtKKVeRAXspc6hZtEZJJy0VJIc5YtRpYtg9KPteAdvCXVo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_Affd5-Gtgfau7b4jMDFHqq17wNq2--GT7BEEioiy4HAAwQ&amp;oe=68ED7D25', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Duep1092PcwQ7kNvwHa_80s&amp;_nc_oc=AdmEaCo4zr7xjY1fBeMRUrcNJYQFzA4DgsDFwB7YtAmTXGE5IOfXG0WcFIjTAFN7IU2xkWtwiaK7jUVN0ztmzw8-&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfeaSqKF3fUKMZyncWL8CMK53kUeUh6iqk_JnplEixvBEQ&amp;oe=68EC758E', 'profileId': 'pfbid0y8DTXd4F6xCX326oJqW4gH27weBn88LckFDmGTVC1uJWtpExQDDCJjCVCKq8jqcsl', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aQbxfLhEgcMQ7kNvwGZDq2E&amp;_nc_oc=AdmCoSSEjk6qQA_GO-Mj2PqgWSbwQTW1AeqlkoWRGd8z27HM0a0mBEqcfXUY2cDI1zg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AfcaiJYYjpvpSet2wBitvNGWqNju5e9cVraTwzwXhCk-hg&amp;oe=68ED8ECE', 'profileId': 'pfbid0y8DTXd4F6xCX326oJqW4gH27weBn88LckFDmGTVC1uJWtpExQDDCJjCVCKq8jqcsl', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3jkhxHVPE2wQ7kNvwEkA8sn&amp;_nc_oc=AdlJFDuCm9zyQeU_D4Kbu9YyljkrGuMrpqprGGccWyh8xeji2CZrYxuOLlq1qXWcgYcayckz5D3xo0totvfMt7gJ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AffvJAL6odhBl8zgLlSIwP4hyIvUfCRfMegdDItcui3akA&amp;oe=68EC7FE9', 'profileId': 'pfbid07Bxp7dr2uS8usaWi7rSfukm8gJP1MNBdpU9G7HjWcPK7jeE38PDNNF8zquNRCyEol', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3jkhxHVPE2wQ7kNvwGTOJbV&amp;_nc_oc=AdmS0TklGxA8bN7fzOXLoIeJ-NwrDWNONCLj5dwXHRhijcax297mZAjTRgq1fpTTVLU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AfcAWfHrBCQYe4nGBhCbCPEKsKfWZfUjRemF-RceUeCXtw&amp;oe=68ED9929', 'profileId': 'pfbid02AZSzjfCew1FqgaUtYkWR1R64MtemzJPP4EakmJc9NsVwkAJTqLjuQQK4H2vPiVAtl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J2-wKOebpM8Q7kNvwG3gVdJ&amp;_nc_oc=AdltLpsP7u8mcNBmYXreYywB1mUwKeVmtIsqMI8LvFUqJY6280EZmGXwbZFQiKxuM3_SNUBOYYy7p6Zt6FmcbaCv&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfdMASY2chAzJfSlw7hHPl6SEmp4q367xr5ixDbZIDZ-Pw&amp;oe=68EC69B5', 'profileId': 'pfbid08u1vKTPcwEqhfyQBgfHJKu9zK66atzigDutrddiuTEa3JwgJWyWQFJvJpfT1z2o3l', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J2-wKOebpM8Q7kNvwG7Hyxn&amp;_nc_oc=AdlLgNL334qzctplkpZFxhtA4pGcKUbPeVB_JrVfIjxOhwFR7JEPTL2zT3Kd7ocL3bU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AffEtDiC9UuCtWN0ngPXgKA1rVF1HnvDGalVp8fiW-mJsA&amp;oe=68ED82F5', 'profileId': 'pfbid02CkTdW8KSncR4ogZ1qWMoVtwgpHEwSbeLaHENoj1sZgcW5bj8D6FiHm86itU57YfXl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rkNTtCvz-7EQ7kNvwEVZH82&amp;_nc_oc=AdlQAhCYdXqydFs-Ph9BNPAvF-BSI4d5zzy5wPYvcJVWZue568vabOmG60KF7kOBYt9r_YThiPHub5CnIhLAe2Kk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfcuBkrwsMVKxQjY27FViXIEvWt_rnAlW5DTeVZsLfsvaQ&amp;oe=68EC688C', 'profileId': 'pfbid0371oe1aVmYFfoUZ67huJZmmPc5CQdjwMcjQ6PauBqKtQYhWKNMDedZqghvgqnvh1Al', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HO5AyrhBCxwQ7kNvwGQGEXl&amp;_nc_oc=AdmMc-bUxdFC4RjyfxIGUHCXoLuPD-qO3mpis8uts9iJXZWRj376Ig2leZjZdDsCfJg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_Afe7SeHPW6Wx5Eyc7LwWfkDxGymWG8Yj85NFUTr3CCYVyA&amp;oe=68ED81CC', 'profileId': 'pfbid023UAT6QsQhEmKKUniUBZdTsa43JUJrS6oFFNjMy989hY2HPvnL3Xf6ULjZMiBVqHzl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FG38pGe5u1ddPgyhDNSPdwZMngkMTqcowsyigZLATfnACL9KgcYs8hsbhPqtepJXl?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlR2Ud6pexQQ7kNvwG3dm8y&amp;_nc_oc=AdlyId-41C6AE9qUEKWeLGm9ucKdn3l4leqz_BtMy0C2Je4t6GFl6z2atwUH0EzuSjb4vCK2v9Sed3WtcTQLWNgi&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=38N0g4BHKVXwWH8Vblzobg&amp;oh=00_AfdTxEbqwfem0516_Ifr8IhYHaW17IqSbYxIXOKvvOnzuQ&amp;oe=690E17E5', 'profileId': 'pfbid02QyTAfr4Km7N3EzRnGCqrUsRvQVVNG1jv69Z73ujJq3seEyj3EfK2F8Yww5K6sMPsl', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlR2Ud6pexQQ7kNvwFZg5wJ&amp;_nc_oc=AdnMhToffYPoQV6GQ8SVSNXc_0QcGruA4Ghe3WZ7oUsjoQ8OcEHJUIK9077bZh_91Tg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AfdzCtBwSSc3kHOTFY0NxhtOy3Ui9KmZRnp6PVZY5BrPZw&amp;oe=690F3125', 'profileId': 'pfbid0MRoykgRxurXU2V8orhP1MBk5avCUKbdFRhWZ8RJGhSgXcR1SnCaaHidL8gKn44GPl', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFgaP0q&amp;_nc_oc=AdkpynitdAWwJXdGm1aVumXVWCkvLw-cYt7rWDacDFiwMLkfc4m_11yx3FYnwKO0fN0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfcIGvEq994pSMalKUqzBqfJIg4MD2xECtE7kXE8AtUtSg&amp;oe=68EC8561'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFgaP0q&amp;_nc_oc=AdkpynitdAWwJXdGm1aVumXVWCkvLw-cYt7rWDacDFiwMLkfc4m_11yx3FYnwKO0fN0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfeCDqlXR2Z1FD6QvKROvkMtCx7y5WP4u6AydE5_Ef3UUg&amp;oe=68EC8561', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IyTHRNI4mmoQ7kNvwFW9xot&amp;_nc_oc=AdkMFFB3LISlU6h0CPotoL3Bs-KppEC4b9TfMNE2FgR7lwahX92IVn2n3OeDbtinYN4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afd0GlYjMZlDVwlSc_Sd3BYEfnLz4FpmYpfFgt_XZBo0FQ&amp;oe=68EC7F80', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFsahk1&amp;_nc_oc=Adnj4roGaFV6uFliQWXRbVEK7gd3bBmZ8AAnew_aSjQ0Bv6HtTqBet9qutIuAzx1v9R417wwDIQUWqr-yH4V8fPs&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afe_S82KIgYuxfIO4TxysrCE_W3BshQRXba1S5W5NdBt1w&amp;oe=68ED9EA1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFsahk1&amp;_nc_oc=Adnj4roGaFV6uFliQWXRbVEK7gd3bBmZ8AAnew_aSjQ0Bv6HtTqBet9qutIuAzx1v9R417wwDIQUWqr-yH4V8fPs&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Affn56vf1Dq1IgSig3Bnm0LU0xhvhXdWQu3O6Y5raB977Q&amp;oe=68ED9EA1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vGcS459NY8sQ7kNvwHLM9dC&amp;_nc_oc=AdkzcRyJQfL27745p_2tFno9lItZXnuqdNefY3aFIV2bqhsaadAvmuNTdAm2FvcqVmId2JXy4EaxUefBpNVqkPVu&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afeybk8I9y2b4UKAwgwkeAE3ftpfqxqTl7eazYP09vAJXQ&amp;oe=68ED98C0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aDlYodaTflMQ7kNvwHGyH0u&amp;_nc_oc=AdmqBwkqp5a6qChDPox-XrkZSLXsWbfbJWznTwYVMijQ10fDuYpBO1WnF6MU3WK47Ug&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AffoPvbO5d0FvLpi6ThOBXrnYdlgu4JP0VZDVltxrMgnCQ&amp;oe=68EC55DB', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aDlYodaTflMQ7kNvwFJqe9a&amp;_nc_oc=AdmAKZgDHlMYO1NjWNlv9HiMU3OWu_7n_LJ6g8p61WlstLV1UCw_b4LLocF1JH47OyVz8q2W213AEv8YLC_rgt_6&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afc3IXuA9RGiO6T_Caet00IcZL3e5DnsIqVAmvmwtdkdZQ&amp;oe=68EDA75B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=-qlG0dPrzGkQ7kNvwGOa-rN&amp;_nc_oc=AdnJw1BBvWQeJqdunmL92EBe0XXcEq4B6K8CwTB1C9LHVzcX3AlZhLDKDnUCjhwsxBk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfccDgpvqS5SFZ7oXp_cmnq7TFTD0GTMia0a4l4Zv0riuw&amp;oe=68EC7B07', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5oPp414HpB0Q7kNvwHPHAOa&amp;_nc_oc=AdlmX7YK05Ls45i43p8wAv3HGYRwVacdjCeSclQgH3L_RskB4nwS3-iFqdB5FzEPzbFP95wcFkF6Yad4pqS1A7A_&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfcQ1iHLjFnbDak5JUYktvJcRNu-TGDYsD4atxZlf6A2Xg&amp;oe=68ED9447', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YMfqekhY2RwQ7kNvwEEHcw1&amp;_nc_oc=AdnegPGaZd8XeiVu2dO-Kp5GRFijKb2Hmeh7TgpC6w9IgLmzyPBFIoH305CecZXSpRk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfetlOLYFeN-FJDM43bpVVFIZCLXap3LJXEz9ndq3r16uA&amp;oe=68EC6BBD', 'profileId': 'pfbid02EnQXVmnway5q35DL5cKmK4d9aZ8WDwrBjCtwea5HwF4t2vtq95MjZ4HJARe5xJBvl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YMfqekhY2RwQ7kNvwHJjCv-&amp;_nc_oc=AdnLU5TicQBHGb_yv5J6k3Hf0p5offb_owkE0ZuR9j1vIKlK-OPFhomZSOgjRNapBJ_Xn2tvoN_eWxAf-ri5N8zR&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Aff2bCQ3r3NWzvt1MVq-GXTh2yUIrUsGI1vy5pOCvZARPg&amp;oe=68ED84FD', 'profileId': 'pfbid0Akop1xbNv6gMhsyBCr9y36FVYq1kbNfLkQv35vQcGaigXoHoiiR1HacjbGQpKAbol', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEIaGxF&amp;_nc_oc=AdlORqwSCXoAwsOQfT5y5V1BGqztLq9CQudYc6k6VFuAZkAEvb9XKjM7aEVSl-pnT-c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_Afe2vKYxXA_D6Fc9NKK9l40n44XJhRc3H4iOYcokwSMDgA&amp;oe=690E243A', 'profileId': 'pfbid02SrDzWU8kaYBQcschtj9mahEoKRS6ZMktPptK8G7XUAQusK8Api4u5u16iD6qqDBul', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwH_GWYv&amp;_nc_oc=AdkbOdn58Wu1xSFYLsvriXeYxZYMl3x9rv-3V2QgUqpr2-Qd4xGbQYOhMX-_CfRMLdtVcrRcP9TtivJTnqytGnFl&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;oh=00_AfezeA87fTpm9idH-vb2GPLMUfkWblNIwMe21Hxqzu_H7g&amp;oe=690F3D7A', 'profileId': 'pfbid0NpdH2ewBucfiFXwFWPrzKSDHdbSzguXdsJKwWVYczhDkbSMTuNwzSP6Rz8TQZKp2l', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XPRP4u3bx4FSep9E1eRWwRQACag9eVJAd2Xi8q9eMsStKD45rPYXHXKx8b8431krl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEIaGxF&amp;_nc_oc=AdlORqwSCXoAwsOQfT5y5V1BGqztLq9CQudYc6k6VFuAZkAEvb9XKjM7aEVSl-pnT-c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;oh=00_Afe2vKYxXA_D6Fc9NKK9l40n44XJhRc3H4iOYcokwSMDgA&amp;oe=690E243A', 'profileId': 'pfbid02XPRP4u3bx4FSep9E1eRWwRQACag9eVJAd2Xi8q9eMsStKD45rPYXHXKx8b8431krl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0TqnC9jRF6nda2L4fEmi5nW6tXyxAspGNMvVjy7yi5oYo5qE2stSrotC189ueDocCl/', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwH_GWYv&amp;_nc_oc=AdkbOdn58Wu1xSFYLsvriXeYxZYMl3x9rv-3V2QgUqpr2-Qd4xGbQYOhMX-_CfRMLdtVcrRcP9TtivJTnqytGnFl&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;oh=00_AfezeA87fTpm9idH-vb2GPLMUfkWblNIwMe21Hxqzu_H7g&amp;oe=690F3D7A', 'profileId': 'pfbid0TqnC9jRF6nda2L4fEmi5nW6tXyxAspGNMvVjy7yi5oYo5qE2stSrotC189ueDocCl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DQys9GV_DusQ7kNvwGz95b3&amp;_nc_oc=Adl8yx888Gyn_QANCkK3g8td6eM1n4G3EyN34JMth0AVzHeup78Sax3Q6XmYGuDyqBA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afc2LW-efGYHSedSzH7bj8J-T-spF8qxJum91Grd27s83g&amp;oe=68EC83AA', 'profileId': 'pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l/', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ahh63-1IbWYQ7kNvwFHEj5Y&amp;_nc_oc=AdnFwyiwQwi9fZpSC-xKEEVMQ89GCQbZAIkOa236kBh8k_7wR4LE4fkHbjSQK57jcGQ3iUigswGKysJdleNmwzdj&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afct2c1pQnypnYcCeR0wzgRGmc6HhNqgqICBpYl5LQaJFA&amp;oe=68ED9CEA', 'profileId': 'pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Nr6UB1G_JRIQ7kNvwGMiaCY&amp;_nc_oc=AdnVaam9C3-WkdfL-BsnmC97p4awiRrMjUw5h7XT_4H_oYqZhPFdf7Jh7muF1BX5lvw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfcNJvex8B4iTQPYKUhy_lsOt-WJm5sUCek3g0y7a1JoYw&amp;oe=68EC5F28', 'profileId': 'pfbid0xzu4t3VLuTdjkw4mzuAfYrW9a2R5VuHFaed53PgsjumuW9YbarrXXikYsZYEv13Rl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUHqmUYTgCMQ7kNvwHdD92C&amp;_nc_oc=Adk75D5DZ0dgd73wlpUtvYlIWsZ2VbbINfHhlWDnqtcveQekTqjn2XeNJerLE5dtCWSuumvvhgcZK-xrht5k1rED&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfdiO1AE3dH8Nh9BjZvQMKKpe1fwKL8WOVKqvZWrwULPOQ&amp;oe=68ED7868', 'profileId': 'pfbid032rLn4iRAkkSb5FJKJjnjN7HJaQZfK4TChUYzMmhadXUzEQK73GJ6bPRNp5yzFdgSl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=OXIa7q2xBV0Q7kNvwFvbbwu&amp;_nc_oc=AdlXyku9VxkyLwMwSjpyXFG8tqqQzewipw475l_smfSHVSrE1K00cvFf8Em8B4vfkj4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfdCGEvBWzGhJdSJWY_kR4S13PM15AlgsebMZb8iAW7rhw&amp;oe=68EC68A6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=OXIa7q2xBV0Q7kNvwFvbbwu&amp;_nc_oc=AdlXyku9VxkyLwMwSjpyXFG8tqqQzewipw475l_smfSHVSrE1K00cvFf8Em8B4vfkj4&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_AfcX3AbHcoeZKQOdTSWBFcv_t0kzZ0kbVk4B5KF8YawVhw&amp;oe=68EC68A6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwHaYZvG&amp;_nc_oc=Adn7Rjjc5Il-gmkibKqGvypfJ-EVUj3Q8rK7SGI9pAfMoZjFvsUagDKgNlyKJTPhAUI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afejyu4v38JXVoJs53QsUliLHLowoWwLWTUcnX_Em2_E_A&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwE2a3yL&amp;_nc_oc=Adl4vYG37bmf4DbHfSffhZ0-qtmrA9wbUQO0dyji77ZBP3WwbCtbdxjsPgfxM9h3QseQKjbl4vNjX0cCF3qoFxU9&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfeM0lqsFJj9gFPXeugU-wLX3NuSJ3UwRTRU758vysgJ9g&amp;oe=68ED81E6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwE2a3yL&amp;_nc_oc=Adl4vYG37bmf4DbHfSffhZ0-qtmrA9wbUQO0dyji77ZBP3WwbCtbdxjsPgfxM9h3QseQKjbl4vNjX0cCF3qoFxU9&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfdU5vTwi_pK1ogIJ-epA8CluJtpyR92wANY2YwNfQPzKA&amp;oe=68ED81E6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwH3Yydh&amp;_nc_oc=AdmmCPqmyA7wnpbAdBiiq2ZSXGLLda-VF3iRsCKqfOCilpWjZtzlRZ6bvGkKNmKoRPPI365jPRe5hsQYyXjbYmDw&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AffwwcCOJyh6LY9XcW7L3G_-j28uPpmlwr9gelrzhNC63A&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwFO8gOJ&amp;_nc_oc=AdklKleTpresCKpahaT658Z8qKqYdoSrZG0mSxk1BN9SLgFUdU9vQba0xyf6jo-Bz1o&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=EmwPi8OutpuM1WidGLsxdg&amp;oh=00_Afeswl26H6OUMqEGdWe825wm2DSWxJ5kFb2wyp5wVLQucg&amp;oe=68EC74E9', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwETs1Bf&amp;_nc_oc=AdnU09swWvBh0f7sXzimKW_7UOnQ4-PeIdSIxKZkFk8o2KTfn7iW87i2uN2sa5tAmrTuuy-w9sQuPoEGJZjFNHF4&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afd1gu9iFJFXSmLh0Ix6rEAqPeevu7vcoa-j8ZDDToCK5A&amp;oe=68ED8E29', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1jFLB-UBgoQ7kNvwHydbl4&amp;_nc_oc=AdnMACF2go-gBUcgTZOyFdDkGUlCm2bTqooXFt6Rhnvzh137fEDiAmX1_dEfTMwEWWY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeTrT3ZM7P8tVfGfOCtQ4aVigzvnTDOEqyBEoBb3Tq_Zg&amp;oe=68EC85EA', 'profileId': 'pfbid02WVmK134CqDgkG6gHQN16cbtCme29pK8a75wFJVVeBbhCJwZvUE4eeFzkzTJxzwrXl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1jFLB-UBgoQ7kNvwEYgMAb&amp;_nc_oc=AdkGrawPL0DK-6FrmaZCpTOnF4Ti__WDX7O__FYXwj4-22q5pPmyFNK2dHtE6B3VVew&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_Afd-fN24IlHgIgA6cvYg6t_1OX05jvjFgoeiKR9MJWQuSQ&amp;oe=68ED9F2A', 'profileId': 'pfbid0Sx885sRqyukYeYTNTLeWmkbEUUzSgcbDZZE6i9aLFkkGga1fq6i1wgTWVYyLL38rl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JzbBZs-R2iMQ7kNvwHs1rjO&amp;_nc_oc=Adn9qnWvkk062Esa-CC4r-AReIP-jmfTVyZFI0I8KXqjiJKUd82v7_UT3--lr_9MgJM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfctZMrBz4JB_jmzxVhFI1vEx97Bo-0i9Gn5G7ejh9gqYg&amp;oe=68EC78D5', 'profileId': 'pfbid0y4q6fLfEKtsfpjKPp1jLre853woBjV78ZZkehKatfTV8YxLSYx34g45dQCX3jch2l', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_x8Tpk-FhGcQ7kNvwEQ1kZ2&amp;_nc_oc=AdkQtCsbugqk4gQJJCWFyAXbUjsfWdsri9tojzHfY4LMBnIui-3ZDFPx_iV1wNEc5Bs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AffXHfVEC2KRi5Qk0M_O47pbpEUChZ9Warfb8_XSgLR2nA&amp;oe=68ED9215', 'profileId': 'pfbid032vGor1b4BDjX2EBVPRsR9C1A77hKghRqHRBDGWJqKHaowG6tgzMgTXFAvFT5rHGxl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0Cltf0DtpAsQ7kNvwGR2nTg&amp;_nc_oc=Adk9tsW4I9cwVKcfIW3FpOvLBJs51bG3a7C5FPvwzKHQp9Ty4OLFTKFn41DpFSB1Zwc&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfcGZzVnbRIZTFTjvu69kDbgYhOdlK28sBcMZhvNRT52XQ&amp;oe=68EC8861', 'profileId': 'pfbid025MbFo1qPEu9BABZmGT4F5cPdUtfjSShq9tuioSX9txpw3nfxXu5aQcg1Hr5nM1rKl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0Cltf0DtpAsQ7kNvwEv0txR&amp;_nc_oc=AdkZUi3_-kiyPFd_8aOoFP3jT5i12DN2L4csB3T73_E7DKJJBdKX__Y5D35XM-eLt6c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AffJ156oRxbrh-8cRxIvyspNAUfNpoZWG1ugrD-Xhx3UVg&amp;oe=68EDA1A1', 'profileId': 'pfbid0ox4srD2PbuupYiuCdABfur4TmxGwWrQjiTEvieJmSqLdesXCJsQ55wtRQT4Av3Nl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=G0XsijaWTxwQ7kNvwFcBB36&amp;_nc_oc=AdmS17afzwxCF331fHn155HUiCkym7NEXMpRWMT6kVaHXIYa4oU_iYlFuruKcaXzpnY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeJhAilYULUuLvZRi5x3ln6-Klpqe5hsaNYFfEmPTy27A&amp;oe=68EC883A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=G0XsijaWTxwQ7kNvwEzECiG&amp;_nc_oc=AdlGjqkeM7FsQOTfNH4UfM4HVrHrtmW-2YwYZDSNaAFoTcT20HlycH82Q3fp_HnAli8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfcmXbtp_tuPsp6YCcbCrarzQOfEVVTDJarhgmxmAH72Vg&amp;oe=68EDA17A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=uJ8VD_1R4XAQ7kNvwFEfbZU&amp;_nc_oc=Adn7W2QoSmVZ2jOMpDZRQlcctldmApjbxrMdBui5L69prg2WJPEMucNtR4jMMkoWrtM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfcuHj4ULuePc2BOg31o-DGEfUed_9KJ-xZatYE5vInS7g&amp;oe=68EC7BF2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=jQ4G79ywtv8Q7kNvwE9yq1J&amp;_nc_oc=Adm9gP1HNVPEBMj7VyaxLq-OVd10ho6CsO2ZyheT-PWhCTw_O6JIutoe39XbWVVNwCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdlefaiOIPqrp1qmT2-XYzWI1tdY8mpKqCYhhd_YeO8vA&amp;oe=68ED9532', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0C7mQMFdLHahVie45V8ouVRdAtw6zBP2rEKw2tuTUUuT2JE7LtfPERCZ1zER2Dphbl/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XfAQ3IgWJDUQ7kNvwENrmps&amp;_nc_oc=AdmznO5ZP4DrGtrxADtzvGkGBACGwEGVgvNJEmMhSrnUzHQ6mIRTqUpy9hxZzdE8fII&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_Afcnyr-ognfFNU9Ny3jsc_OyISjHPrRDOuEjW_eiE2qisw&amp;oe=68EC8553', 'profileId': 'pfbid0C7mQMFdLHahVie45V8ouVRdAtw6zBP2rEKw2tuTUUuT2JE7LtfPERCZ1zER2Dphbl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02FyD7XvZA8waFWXXZkv7mJNX6YtAWaK6FPYm6RHWKRAd5GVCRvpzMi8Kyr2GMqUCpl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XfAQ3IgWJDUQ7kNvwGlr7tZ&amp;_nc_oc=AdkeKge5NyPWZaWzoUYcxlLiQjW7ktUfRhUCI0PRhWvNuIwBaZdp4ywHE7jHhZ-ox0Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdGYB6kJAVaUrI_xgZWqI3-w1TU7dcGwGKDBoN4hZArUw&amp;oe=68ED9E93', 'profileId': 'pfbid02FyD7XvZA8waFWXXZkv7mJNX6YtAWaK6FPYm6RHWKRAd5GVCRvpzMi8Kyr2GMqUCpl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8fLgOUnzW9EQ7kNvwGBsve3&amp;_nc_oc=AdmNbYevzG8zK7sz_9NfsB-PUDC1Sh6ukKoyUGKIReskbQ7PvbjZ_0VXKdr2-GdXhKU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfcO88Xm2gqD50lp3SlW6iPjEkpXEsIcKU4TE2Uyl3tqkg&amp;oe=68EC776F', 'profileId': 'pfbid0279fm3PjhpE5Nc5gPEiC64VfqpywqxsHFMmyPSS5Ek2jTmyHGpv5qebLqY8CiejJLl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8fLgOUnzW9EQ7kNvwFf41tO&amp;_nc_oc=AdmkE1IY2ufwF-xzbEm_77xiklVVDGyA9rEqs6wjoMJUZUiC3XMbuFLfEoDDBlVo3KM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdYQ4vuaErCfZpDTIOed6xMV9w8lUTDu4rCEYez7CUjLw&amp;oe=68ED90AF', 'profileId': 'pfbid03c2a8E7Ly3mEtcSoE3XC9zqJimZJFjdYd79MkJqRYbanX63F5Fjvd3et9ou2jDMfl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=c5ZPwB79XqYQ7kNvwHAXHVb&amp;_nc_oc=AdkusVlUEvJxgiJ0618HBHL0q-_1EjDTMr8O8IKrh_ifesf8Yd4dOD16-XTkvpEHjlU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_Afd-jqae0xHVeJWz4kuU1jpqXOh46vk5GVvEzZEEg-1ZdQ&amp;oe=68EC5FF6', 'profileId': 'pfbid0CaJcNW2Zt1V2LyfD2bKZomPC5P3YeSB2LJ1wNhbtfK9KaSoVLHe3wpvY1eFAMfEal', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GfqZsjobRTsQ7kNvwEyqPp6&amp;_nc_oc=AdkZ2YJAlbBGIIzkYvYoGH5KEnLUS5Oey6qGLNn7MiUmA1OmFbjKXYJPzR35RVXWF_Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_Afe6GvF2cabrHnmvb5NLkaA-Fu-mnFqmcHMbDJvIMQJV-w&amp;oe=68ED7936', 'profileId': 'pfbid02GRkKZAxPjMAuBZFsgTQmS1krbHPdCnd7thp6tS4ViBEwCnMcUPzno2vD2H59dmuMl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EL9gJe8AfX0Q7kNvwGpMFeZ&amp;_nc_oc=AdmzHgoOz9ncKDcs2zpYbmYfFEsxgqrWCc3m9kdmGUEiq8zTrLhXS8yaWyNpK-CRDQ8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeGNIDgXHXSVwO_kzmvH0iZVkCV_1zkZWp-wJwj4zT_hw&amp;oe=68EC553C', 'profileId': 'pfbid0hyww1mUhA1QPCYm5TRtSK2sA7nFXx6xEqLahgAP83s8fHjMWyo1P3d4AQMde3Riol', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EL9gJe8AfX0Q7kNvwENYctv&amp;_nc_oc=AdndQPNxv_sYJKcp1rO_MyQp_Q3y5g2e6p_kiXktoFVXnjMRokqk9XgaYmYe3SI6e6U&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdPpbhlwKv3zrAV_evjVZeh9mwLJXY43OVrlYnQu-prMQ&amp;oe=68EDA6BC', 'profileId': 'pfbid02mqPeCSQX1XDwncVLJ6gMAWsPCAnNEUE6KbRRVfRxYR1mXoKDFkip9EezurTgNW3vl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwEzM4lk&amp;_nc_oc=Adluyrd-MIgtD0F3ceNQtdLi416YIUXeBKpd_HaVY8StjhEs-5J9ToozPw0oEeHSfgg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=FFm5fDWQCf4kq1u0HNnm3Q&amp;oh=00_AfeRKxXuSQOlaHqFBtrOd8c-MYKU7Wzg-e7WEjanrEBU1w&amp;oe=68EC74E9', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwEoDMpW&amp;_nc_oc=Adn9xit6Xc-ftRdUDNBqXsPrA3MJ97GI-aPNTh-LthI0PtfbTdpSUxJIuMoJQ_f5PYU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_Afc_vPSL_Nmq-pMNgzD5ImC71H75lt79T-0Rmw2lFuWs7A&amp;oe=68ED8E29', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UtiJuWh-aaMQ7kNvwEB6tBg&amp;_nc_oc=Adm_3FKUny2fXccotH613Pmhwf98VoXViF2ue7lfZXJW_OHoXzShu1c8Mn1feKCqTks&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfeV2CpSGMjYBB7H_DBzrwltQF-gD1qPB74ygACSyDdVyw&amp;oe=68EC5AC2', 'profileId': 'pfbid0wCAamghUbWXw7hfUzMhNsECRdwxg2TxrMauyMw48Lte9N87FwFtUaZhwXN5wgB2Fl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UtiJuWh-aaMQ7kNvwFdXMC9&amp;_nc_oc=AdlD_US-s9pymiIspb72fUH0_3fIuFzIMvNPc-eu4EcydpbkbV0AUfZudgIXksJBJ0A&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfdGy6Cgnr0sKNzbVm_Z9FRvO9LBKtpKk1hKAfzOcQAbDw&amp;oe=68EDAC42', 'profileId': 'pfbid0313cHxMdJT3UHdzxGT2AcSLKETTeMgzNEFaLM7Bk7UNKXZqAq7eBzVcNsgCmZc4z5l', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEXblp7&amp;_nc_oc=AdmXTuOlkUYZ3tJHsD03YFt3N9dqIsDFckoc5fdyeor9a72sAPP7PqzzLgGTPQ9Qkn4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_Afd9Pxnm3sNjyVriTShEjEyRnDUWtI9VfK7EvwxU5hX17g&amp;oe=690E243A', 'profileId': 'pfbid0ZsoG3HLvXPJbE5qMmNwJA3vGUssgYqHWzUkT5i9mCKmajeKXDXkZdkVQALheMnNYl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwGGR7R7&amp;_nc_oc=AdmxK1agJWPAsanELW88Rd-ZXqkeEXJfOLRPMmGS1pqhnbJ6HA1O4UZvY_d-ciFoviM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Affv9ydrPhpeiu7kQjoMHa9Ek7KJfu7x7xi9GCsv7zicNw&amp;oe=690F3D7A', 'profileId': 'pfbid02djEyDxGkNucm21c4znTawpMhwiiDehB4ygZpFqthciuzsmjBaGCgWezpJh6UhGnfl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=htw69oCjIzMQ7kNvwFoOhsw&amp;_nc_oc=Adm-Jra9gpFjLaCsGQaz6ruRwnKVnUC2Hgj4fLBGxm7UisHikFdvYvHYxEYWSQUTGcM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afc3HDAPJYZ1NdVUSeliA7MOITld4hBwREerLFl0zHBqrw&amp;oe=68EC6C82', 'profileId': 'pfbid0k7FECaaFHUTD1uMuibKFqMHr5r1Go1VnVVVewdokR2k3jWFqog8WeE22Q9MKhYXil', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=htw69oCjIzMQ7kNvwGC0NPW&amp;_nc_oc=Adkv7XhAAbDG-7mFaRqHaCoVAgjSJ2RBCjaKYOuPJ5RgPheoGBVqa3tSgoMQoDjUG3o&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Affp-QVbqsTBa2RbOvPR-_aQ3j6k9pgRL4kfZJkaOklKVg&amp;oe=68ED85C2', 'profileId': 'pfbid0k7FECaaFHUTD1uMuibKFqMHr5r1Go1VnVVVewdokR2k3jWFqog8WeE22Q9MKhYXil', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwGd8pc7&amp;_nc_oc=AdmuXscpZ_QxScarU9XrglMl7BXLJslNAYKlmVb1jL9hbLOp63G1P-_Qh9A_9eSu_bQ&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Aff0aZ-maDK_vqTULElLmr1XEFwT_xDlzrfs2xWJVmu_oQ&amp;oe=68EC8708'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwGd8pc7&amp;_nc_oc=AdmuXscpZ_QxScarU9XrglMl7BXLJslNAYKlmVb1jL9hbLOp63G1P-_Qh9A_9eSu_bQ&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afd-UPcF9-poIHoY7xSFNN4QWRej1bYMQqLsB5qCaztEIQ&amp;oe=68EC8708', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFXAaXf&amp;_nc_oc=Adk5YhX1MiYwWFi3FftyGsJOZY9OETMBYNTNE44RNT0jE_6cpwAjmqzcCipzghfnqL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcG9YN0cI-4WMj9LET8dY7KR1p7ikdWeNauw28NGkARIQ&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwFmaJwe&amp;_nc_oc=Adl6Mdxcf5gzwq4nut6cDccVyoLbI21jYxl5LLgTBbKrircuTArcmr4LdSWNiVM-CV8&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcakSBp6MEVWBoLe5c6yL49IGOEqT5CoNuRhj8-ec2_rA&amp;oe=68EDA048'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwFmaJwe&amp;_nc_oc=Adl6Mdxcf5gzwq4nut6cDccVyoLbI21jYxl5LLgTBbKrircuTArcmr4LdSWNiVM-CV8&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AffmhWEJXdypWa0q3ABSr-rsNC623hs9tGE3XtOmotakvA&amp;oe=68EDA048', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFHWx11&amp;_nc_oc=AdlJs2A2o8bTyEWLUV4miqZ4BBBCyF4HjKGJFDLLMIm64iv6apv8mlteuRUbdqP3K-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcjAq7pQ2LjH2lcW5GdetAH5NuwMSKjiZ1VO6zfs6ehmg&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwG2YwxN&amp;_nc_oc=Adk8KO6bLQpIDlnNLO64OiunbYGoByRlQp3YB6VHWvQMa2gB-DeQy5r2p5Erk0PnMCg&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afdpu5uGx-hBJtdTIpEq1UG-sV_J8EVXNW11Pu4XNFKMpQ&amp;oe=68EC6480'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwG2YwxN&amp;_nc_oc=Adk8KO6bLQpIDlnNLO64OiunbYGoByRlQp3YB6VHWvQMa2gB-DeQy5r2p5Erk0PnMCg&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcZLPMXObMXAIyBtArnIqG2IuUl9LG5LUn1GgCJuc7-Yg&amp;oe=68EC6480', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFXAaXf&amp;_nc_oc=Adk5YhX1MiYwWFi3FftyGsJOZY9OETMBYNTNE44RNT0jE_6cpwAjmqzcCipzghfnqL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcG9YN0cI-4WMj9LET8dY7KR1p7ikdWeNauw28NGkARIQ&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwFSs0KZ&amp;_nc_oc=AdlQf8lo_3xzpU6yio4dLRU72TIughcsJqYEDuodDKcZhW7JwiFzsduyOBt86hcyoxo&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfftYrmms6OSIng5W-j6ZT9OmKEcfTvnintI193wiMfAkw&amp;oe=68ED7DC0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwFSs0KZ&amp;_nc_oc=AdlQf8lo_3xzpU6yio4dLRU72TIughcsJqYEDuodDKcZhW7JwiFzsduyOBt86hcyoxo&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcWSpJpUCKyhGHT37hxQ4ZahlPef7B5KuDhJ8aeZF8P9Q&amp;oe=68ED7DC0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFHWx11&amp;_nc_oc=AdlJs2A2o8bTyEWLUV4miqZ4BBBCyF4HjKGJFDLLMIm64iv6apv8mlteuRUbdqP3K-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcjAq7pQ2LjH2lcW5GdetAH5NuwMSKjiZ1VO6zfs6ehmg&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xy-2pdvtof4Q7kNvwEhP4_S&amp;_nc_oc=Adn7b-SUvnRV8i76atSm5pbwoQ6kiak8Wqq9pTCK8uhGVLIcrZfwjIf_h0FOLQam1bQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afd7vIqaHMbYCbm-dM7ZQJUkvxIMSJUvwXZ0DUfWfggL7g&amp;oe=68EC70CD', 'profileId': 'pfbid0NDtyryHkr27b2shdw9iBjCcmjKUsqZ2kjDPcigxsArL6oW6iS6niDAxjP4417DRfl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xy-2pdvtof4Q7kNvwG1Lrlj&amp;_nc_oc=AdnIh32aKWqDOIuoPetLHsfzIkb4TMKaH4-oy2rRHgNghExC2VbUVPrPKNNAlhRfr6E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Afe_fbmrl9JFG0OMOJdzqxW9DJhpv9xGLRBOdA-71Woa4Q&amp;oe=68ED8A0D', 'profileId': 'pfbid02S5Lh3eDahV5EMfx7pE3KUbunVAcBDvWTYTaBdv7gL8fVyKZqSyR96Asttzqozx2bl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1r3H3T8mCyIQ7kNvwGRcPGh&amp;_nc_oc=AdnzdF3ut7ecQVxBkSoOqG6Hwomxu9z0CuI-qwP-sl21gTtah99RXQfGk4q5eHGYiGg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afdna8bRXfhJ2rP4C9B1TEWeZGUlCl3i9rro_7QRiy6_VQ&amp;oe=68EC5D4B', 'profileId': 'pfbid02f9NFf8CAfyZ4fvcicCSRWUKWFhnmdHrkUBuPQBrSxW8LhJfMLnXdDETPXF2quT7el', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1r3H3T8mCyIQ7kNvwEAPyeS&amp;_nc_oc=Adkq2zaXQpCZ6ol7AJMUHtQCmRjAuyFaq3eSyK0csjH8PsqvjUBwQvRoaxTUsQMIvjM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AffvMRBpK_VfKpwFJ4_PAALdDApm_wQglou6ue4C658KKA&amp;oe=68ED768B', 'profileId': 'pfbid02f9NFf8CAfyZ4fvcicCSRWUKWFhnmdHrkUBuPQBrSxW8LhJfMLnXdDETPXF2quT7el', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A2fLFPWnsLEQ7kNvwEBTeKQ&amp;_nc_oc=AdnrrlrMGT1XfJI4TEsHfmhw0pTH-zT9-YkJIo9Fy08JZ9_wovjgz9-KwVhmZm2plgw&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfdtRjJoqAs7QNSk2qN5A2_e2GBZByHpTF010WNYPgcdKg&amp;oe=68EC857A', 'profileId': 'pfbid02u73umhoFbx9ZgyZdQ7iBPvx1LrQZJ3J72chDYRKSJpKxn2D4uMHNve9QNCaTHxevl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A2fLFPWnsLEQ7kNvwHVxZhs&amp;_nc_oc=Adk548TIJwKJZX1kAxQfHRM03AlzvAxUnpnhB5cqJQwGrCzZt2U9onXUqXc7FcekmXY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Afc8L59Bo5lWDWcY2uJq5kk9CJBdKhns9vTlUiT7OOchvQ&amp;oe=68ED9EBA', 'profileId': 'pfbid0qZQirYAtkezmuef3GGRGWGyQ6pn9y3KjDYYUkHAyYtePLDzjtkXpqwZ7zbz7atHil', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T1-ld1zZC7gQ7kNvwGJZ-1L&amp;_nc_oc=AdkoBfAIsImysPUzIejbMWMq735hB6ZzBfTpA4NxW7PqWoPS5CTzZZWFu3Rs-gDgQcQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Aff0I61Df2XvimJQIbQPT6XvBbpvTHUeDm-5BkoedLyq9g&amp;oe=690DFA0D', 'profileId': 'pfbid02bJaVJStpxZRZy3fjhKJMy4NG4bF2D6kULuhjyhyrBMqCy7UXMRkv1E9mNHfNY3XMl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T1-ld1zZC7gQ7kNvwHm3uX_&amp;_nc_oc=AdkviMIGlDDRKdGiOMIRM88gI694r9nzEmmvR73h_1Zkn_726OZyQ7Hm85D75Df2Bxc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfeRAj5YVFNdIQy3AvCTgH943YJKcmOj6ieIGVbZoLqeyA&amp;oe=690F134D', 'profileId': 'pfbid0XkwJPHGU7HYCqTAmouqu3cHKUue3XvBKdpUq4555zz8kAG4R61bHBx1zfNN5LzT5l', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEBmWup&amp;_nc_oc=Adm_CeiGTV4nSXOd3t5qm5bPec3z2Q1F_9EzTuobkJ16gRWYFtag3X7vwRxBMUnfhhw&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AffYmCYgmDH7yTeCn-Kr1GceJWiBSRXJNFOxGMlOCF-6LA&amp;oe=68EC57A6'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEBmWup&amp;_nc_oc=Adm_CeiGTV4nSXOd3t5qm5bPec3z2Q1F_9EzTuobkJ16gRWYFtag3X7vwRxBMUnfhhw&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_Afdv06Rx5GhE0g57_1WrAI6dnJYjdh-5TwUFXfspwheksQ&amp;oe=68EC57A6', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFXAaXf&amp;_nc_oc=Adk5YhX1MiYwWFi3FftyGsJOZY9OETMBYNTNE44RNT0jE_6cpwAjmqzcCipzghfnqL4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=7BOFTiWH3QMeqdPh9GxWLA&amp;oh=00_AfcG9YN0cI-4WMj9LET8dY7KR1p7ikdWeNauw28NGkARIQ&amp;oe=68EC5571', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEOnN4B&amp;_nc_oc=AdlstxuzqXw6u7jYFSJpu40m5iewpdPZ7kUYJo02ievyjEA9MTHBhrHPM0Cm66kpXGA&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcMAuW_rIc0F9TPRs72Ywlazl1c5ajTTL7tbb_RnAuQWQ&amp;oe=68EDA926'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEOnN4B&amp;_nc_oc=AdlstxuzqXw6u7jYFSJpu40m5iewpdPZ7kUYJo02ievyjEA9MTHBhrHPM0Cm66kpXGA&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Aff8BCpawD0OEh3PWD3kJMxVOZVcbXO-mxROq83ItGvHKg&amp;oe=68EDA926', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFHWx11&amp;_nc_oc=AdlJs2A2o8bTyEWLUV4miqZ4BBBCyF4HjKGJFDLLMIm64iv6apv8mlteuRUbdqP3K-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcjAq7pQ2LjH2lcW5GdetAH5NuwMSKjiZ1VO6zfs6ehmg&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwF6L9nl&amp;_nc_oc=Adm6AKzaMs0G18zTy4VPolVbg4PfdL219Mo8CGrKnWy50WolDGG38H_GA8uj1TkBG-k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_Aff7Y7nDor5_ERvOE5hZXtC6ygkx1sd3Ts-ccAW2aKXasg&amp;oe=690DFC1D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwGt4ogE&amp;_nc_oc=AdmZlRL6Or8sNAS3Cd7B6LS8b1BHivaj938SPiMKSlaqp5HKhKXhC8CXfLy8K9tfk-w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_Afcwzr08iW3MZHfCGcJUBerN8iy3UUwrS_FRd4hHyrW98w&amp;oe=690F155D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwF6L9nl&amp;_nc_oc=Adm6AKzaMs0G18zTy4VPolVbg4PfdL219Mo8CGrKnWy50WolDGG38H_GA8uj1TkBG-k&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_Aff7Y7nDor5_ERvOE5hZXtC6ygkx1sd3Ts-ccAW2aKXasg&amp;oe=690DFC1D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwGt4ogE&amp;_nc_oc=AdmZlRL6Or8sNAS3Cd7B6LS8b1BHivaj938SPiMKSlaqp5HKhKXhC8CXfLy8K9tfk-w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_Afcwzr08iW3MZHfCGcJUBerN8iy3UUwrS_FRd4hHyrW98w&amp;oe=690F155D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwHNV6VQ&amp;_nc_oc=AdkYU2KN2gVDdS-1UMceZP3RWYzeABEbJlTlf3YQUAkzlMUcZPCX6CoaX3vVPygIRig&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_AfcaN5tatNvrCpGrfWNksUgWPdWwlb0qN4DH_b_yWtfiKA&amp;oe=68EC7D8D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwEGjIpe&amp;_nc_oc=AdnVLkaYFGutgdtbuZ2Nd-03CHzWv5_HYNY_2vdfaN8kJxo-6ed3IoK6PXI22kyDYsQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_AfftbExyMWg8Jbs0mviIS7A7oHjFu5WRvdjZA7kgqTPFyw&amp;oe=68ED96CD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zavw8q2ADdwQ7kNvwFDNxH4&amp;_nc_oc=AdkIiz4Hvgcd9VyOLmOoOojpjvF_5qrQ--9GeN5m8Di6pSrCfJtuxw2-Wxhl5ApcJHY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=fxFeyDI-U_Zewg5ypTMSjQ&amp;oh=00_AfcRlB0Kud_TaLH3bV5xw3JoAZBeeppTQsBCBaDikmYukg&amp;oe=68EC7C90', 'profileId': 'pfbid0RNPQXdTA9knyeh2TfiwDPgZ4aSXzfG16kCauxuxrJ7LZKp3eYbBqTY8SFQo1Ld2pl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zavw8q2ADdwQ7kNvwErJjNW&amp;_nc_oc=Admggfyn5pUIQuKjK41rzjXxseARa-iJcrRJeZAMxjVUpQSZfRTSIXGTA51IgH8dL0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_Afe0Su9gkClmfcDSHWAIMvHTdfetR0omnhePXKrObXwnRA&amp;oe=68ED95D0', 'profileId': 'pfbid0RNPQXdTA9knyeh2TfiwDPgZ4aSXzfG16kCauxuxrJ7LZKp3eYbBqTY8SFQo1Ld2pl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid03K6ivLr5PaaUJ2PjTC1GvQEXhDunLqyVU3Zj9GhVUVf2ogpfMAuvuJNRG43GMYEcl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jfa2y7HVGRcQ7kNvwES7BV9&amp;_nc_oc=AdlTBMzIXmxbnlFTioHTlP10vXAxf4rJsy4v7eEs1h0ZlyeHwPlS3LhvuO-2iutHSuU&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_Afehha5qW0BXJCzkCWLufK_WJf7p5R34cmBUdcpv3N6ayQ&amp;oe=68EC753D', 'profileId': 'pfbid03K6ivLr5PaaUJ2PjTC1GvQEXhDunLqyVU3Zj9GhVUVf2ogpfMAuvuJNRG43GMYEcl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid026gauYNChRHd9zbReSoVXs5xNv1UWnBDfXs55aCYYUYvgLGpM3vdHvGGMMLmizaAbl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=16RC53--S04Q7kNvwGw8bQS&amp;_nc_oc=AdmEjnY5R1EMC1L4jpJTdmhLVCCid7sFw4rrzimkahxBNnTEuoR-PvQ2htE3lr0hieQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AfdURHc_B8HJaHizqBAtVVqB0tv1p8bDSLm2_lTYLiq3zQ&amp;oe=68ED8E7D', 'profileId': 'pfbid026gauYNChRHd9zbReSoVXs5xNv1UWnBDfXs55aCYYUYvgLGpM3vdHvGGMMLmizaAbl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S7Q1ormNRocQ7kNvwFafE4K&amp;_nc_oc=AdnM38DnlC6R-JZ1u6anKF1DbV4P1wCUivNalrvmX3vjWX8oM-rGxWci3XUfGG_uw1k&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_AfdDEulDqfvAC9MkyjMJSl7USNfzRz77A9Ssw4gfxtsmzw&amp;oe=68EC5E31', 'profileId': 'pfbid02t6Wm9qcxA8GvykJLDKGZgxCv8BqkgXCuaMdzwwu3MmkDeksLsDmhMKAGVKx3c7SQl', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S7Q1ormNRocQ7kNvwFNYilp&amp;_nc_oc=AdkjNva4sPmhaQlcgS4kmn9dWOyke7yBQB6nT6t50fmIcRynbVZkNHMlAZkcb9PQC6M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AffVl3Kxt5FSKa_9srlNnQvAWZ5D6ihuZmlIGQg6rc-Kkg&amp;oe=68ED7771', 'profileId': 'pfbid0pYsaEfzbJqKJKCLXVBHwBcV2gmtmqD2o8buMr7DssgSAaav5v5kDDNK7cw4rsFh9l', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ulhbo0Y2EcoQ7kNvwEQMjZQ&amp;_nc_oc=AdnutfI22Oxyf6Z6wgRzZyhFW9Zl2MLssHxOxkovrm4uDrwKgYmZWIYofTjwkHRnc78&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_Afer7TRYahLCkWmTk5-PcPIVsBAlLrkUj3Fu14yGdZq9pg&amp;oe=68EC71AA', 'profileId': 'pfbid02MGk8eAcJkHoryTPerBa6d8MU79k7PnvAbvveR2oMRyhGaPy8o71NrpmkZ4AHgZTDl', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ulhbo0Y2EcoQ7kNvwEsavS5&amp;_nc_oc=AdlfW4nLnsufd8VTWvh97A4RtaPWgPF7iQ3juF6M4Ue0tQIAxjoe_bFlI4FsIIwZyOI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AffpKLYWtxjioHGLt2ityCIugQoTYoO7o6s7ktAQAJASRw&amp;oe=68ED8AEA', 'profileId': 'pfbid0Hj6wizywu4LgXP95nqLJwoLycwCpfZVBuAweMoXBvg2wgGuaXZ4uaoZQz7eWyAVDl', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8jYRYmNxqfEQ7kNvwGVojGP&amp;_nc_oc=AdlVHwdA6zpfh27K_oxGFejsltNM_gAtBXMmQiN1TUcCB9OViIkglQ5lHMRAMVZb38w&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_AffZsTOWc3mpozPF72yO2PLZmUXk_OkJyVBqI5qDtczTuw&amp;oe=68EC5693', 'profileId': 'pfbid02JqkhSXFGDquqW6mRozCVnPSWmLiqLRNg3ubYkHisMKD1dq3C9vEE2VGHx1Qk6Ddtl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8jYRYmNxqfEQ7kNvwFbcc4N&amp;_nc_oc=Adm9_lVGGeLy4lqIRIgym9RW_S04Zvdfuazgp4fSZv2KFSpBRf7-_BQZ9A6jMnnFfkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_Aff_lWGtJVkhhVmiwLqF6yh9u-nbU2_TOfBocZx7A5gbsA&amp;oe=68EDA813', 'profileId': 'pfbid0FJ7WXMcuNaXF49RQw9cNFYAuMEJiptw1iLPdeMtRZ8S43egtimy2NgJJqCUXQ4PTl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gHxJHKqTMckQ7kNvwEoda5A&amp;_nc_oc=AdkHV6SZewSsuEEz10mQD2j_WibYIQCJxDHcVnqwJkKAu0VrzHVAIDz3g2iPnube31Y&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wmUedrRJFG44sAj7OlQ5YA&amp;oh=00_AfeBQl4WBpzUxK1bFOeJxAkJnzBV-dvR_BhbyRLRtzXmeg&amp;oe=68EC788A', 'profileId': 'pfbid027mpMKEv1GS73T7SDqYb5cbYbM7QXnD2p1P5SG1rFJN1VT6Skumg5eg13nCu1MWRPl', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gHxJHKqTMckQ7kNvwFUze7x&amp;_nc_oc=AdlbhqqZ5RxIUz6GIMfRrw_sWVsnIgVVKNI_EJQnqd-_6hVE4a4me_FRebG8A85V3fA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AffoT63gdKyBrre-7feMugfHH_94lTh_iBxn_NbxaUoy-w&amp;oe=68ED91CA', 'profileId': 'pfbid04EBAQ5HeRB48B344q3NDkaEkcD2qC9UVJeDpzHq6i7fU7Rjoz3ouooNfYNvByDRel', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04hNMHJaRk1TJiBfrqMCsZVuSx5TWMpSWU2dhkx6WLU2KJd2AEBsfMQWFfDK4T4nMl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwG1WSPn&amp;_nc_oc=Adn86ppsObEzlWJd8AAAg6DmBC4FWcnuDvmSxHEH7GsBucumj6HJaFQzU-lY7BU5Yio&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;oh=00_AfeSQiTbUpBlhKKZDxHCljF7Hl92IH4L5_WBSy9ji6JB7w&amp;oe=690E243A', 'profileId': 'pfbid0fr6wUhyAYWci44tgBX5g7DPyHdDWXuJaPNGcEtZpLivStBmTVLVgmxnnVVfkUNftl', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEG4ixC&amp;_nc_oc=Adl5_np8IXPxh1-pEi94iogYStJEzMIFZXI-D4RbTiBgFDcMiO211X-iBTF6b5IBaxI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afe43TgoIptWccavVn3ain_jsfg4zM5-JqtJ6IhWejcm3g&amp;oe=690F3D7A', 'profileId': 'pfbid02jhYefNtzPxUVqA4ojYnKnJAyBthuAdroXEqGnKwHeuqZy7iak9gKPpNqT9fvjGfAl', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=ljMpWtuyqmEQ7kNvwF0md_d&amp;_nc_oc=AdkdQ7JWNaIyM8uNJDhrQrBo7AbeSqf0kGpb_oi2zmmLPVf_GQBmofjSYB519orh7pc&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfcWOsU4EpKGhMsao_Qp69cc6Gs2h0EnQsfJIRJfImjzxQ&amp;oe=68EDA32F', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oUSOjA-mgBwQ7kNvwFD9rse&amp;_nc_oc=AdmOxPTLcdok45JXwDUDtxEROgvaK_wk8WzJgb1mAMSJhcjJAuYlqDTcopn0bFnsWT4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdkU0hOaz9l8bchDd12Yx7I-1jwd9cY9o-fJQkI9hX3Nw&amp;oe=68ED8F63', 'profileId': 'pfbid02LZ2VqywVwyrFmENxVLhqXZvKipMVCtFL7WPLU68EnYeXZyvyefzzkEVPKLsHy4yyl', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=nViYyq0dwFIQ7kNvwGKJz9p&amp;_nc_oc=AdlxfNsowXCN1iPtBiYTurN1fbVR3hYccIpKj6enQyEB3vQkDy8p2QWBGDXZkhJGf1Q&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Affw5gpQbjZL5-i7d4KpnPbJcCH8Z2VzcUqwelnFQk0TBg&amp;oe=68EEF4AF', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oUSOjA-mgBwQ7kNvwHVwGZO&amp;_nc_oc=AdmXoGvmfwUG7_vmIodPmzOwiWQm42gwStqa273imDvq3PdXIgK1GU9lf_CiODForgE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeO_qftu5qvyt5SaaxkynSkh1jgTUmVs933sjxOkjUY_w&amp;oe=68EEE0E3', 'profileId': 'pfbid0GXRnNAjwHAc4AsbUYdMSp1AVPz7pvsqNNq8BKJYbXH2ndAnzzWPiX58iGq4kBUaul', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Aze0ym6SQ7wQ7kNvwGzkLLe&amp;_nc_oc=AdlcebF-cn-cueRQOTIFaTleVejyDnfMschTOpm1kP7mE5yl_NpoGVzQzA92yqGV3AQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdTwojufhyjp6fWdhogrucQiRmNfBD8VPMfj-YETdzZ_w&amp;oe=68ED98E6', 'profileId': 'pfbid0bwbrycHgwytN4isFnyr4sy4X16vaxuZzxwz7Xe9R5KVDjARKzcyJjNMk341eohsil', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Aze0ym6SQ7wQ7kNvwHehfnf&amp;_nc_oc=AdksMd848yyA_0mDee_oDYKPlXZc3olin1c2flTubLlwQuMbgU3AL8UUr_mqXC0arx4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfdkckOAulcoTWHwqsu2JFk6UzwQcXh8ohZqDKVQIJc9pw&amp;oe=68EEEA66', 'profileId': 'pfbid02fo3aAHDWoP4YQtdqCnTp8b6trvqsQdrGN1jZxw5Ty1TaCLTQkY6Lyn87efE8pAJwl', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-hk7XOX6accQ7kNvwFIyAO3&amp;_nc_oc=AdlR4wPLR504fFinoIGrCopMN-mvRhhY5nqcNwotlIJALIgiilC9uBcetC4XZzkP0-M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfcKtVIGao3fOBh76JddMsUi78Cj0N6SCRLW8e8BZQDMtQ&amp;oe=68EDA4DE', 'profileId': 'pfbid0K37YA4H63d6doGf9BBeqecHVzVreKfox7oax1B9TC2YnwQbY3ryYiyjPaUKgFSYLl', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-hk7XOX6accQ7kNvwHgZ-38&amp;_nc_oc=AdlsE6sG1CZYmWpWnBq5RLHHfDy2yclffaNvLs4XGVUPXuNAbUmSMeVkRJmE9l3mJlM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfcflLGufL8EfWYKB8xFB5YEdfE4YZlKRAkiYpYc1dbUAA&amp;oe=68EEF65E', 'profileId': 'pfbid02NtZFLjCutxym4rWYvbYUrQeQv8D3bUDPXvvjnkfNwH4vxgS8Fwbo7ebvGsgWtTk7l', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=unrrzbkTNVEQ7kNvwH0LsX9&amp;_nc_oc=Adnwi-NwR5JAib-WC6fNliKNb3uvUpqEoig5YsmRKq8deYUmVFRXVlS5ELRXvNBthEI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfcE2s8HCO-xt0BOQpDXmfrzSwpmIOnaJQ6gfOZnga7SkA&amp;oe=68ED975B', 'profileId': 'pfbid02UpTbnvsDLCcK3dXKSGNHDVMat3iCg5BMebYHM28Hx31P4vMPADZP1B9bRjGyv7gLl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0AozR4IJLPYQ7kNvwE8DO2A&amp;_nc_oc=AdmzpmDlo11IgiOFYZBx1oR6FUY-cEvV-VvIIoKly8Rk9LaGnxOrG_IwL1PvZscoC_M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Afd6dG2CcRt1dQbQTIz313heTEx3FM6aP6qXhzsu8ZDBWw&amp;oe=68EEE8DB', 'profileId': 'pfbid0RGpQsmErV4tMFXS7cZeVeLrd9Zf51cqHXspVSQtK6p2iEinbmwNj4VPwcBjpVrvJl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=VYkDkBEiyysQ7kNvwFq3NKl&amp;_nc_oc=AdlOceWxYt7LoK63pmzQDQT86KmKdnMAo4hg9Ni0J5H6lqoAfSJZojf7WNQGWz6RptI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AffqKjRUWjmU5cQLo5oVPKHuRAm4woXVkFyi92a8cXXXcw&amp;oe=68ED72EE', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ApJCGBv-fgsQ7kNvwFWzAPC&amp;_nc_oc=AdkSvW9qcMPNXoz4HCM-Vq_8YHZUlb9zlVvdoKsu-7rFh0Yf3DV0_821WtikAMo3nRU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeijsuGK1W5PufRAzLm7lIfypO6VBBmDX9WQn15C_CkRg&amp;oe=68EEC46E', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid0mU6Y298dQZ1p8uMsABdCZb5PhtHV67aQeiU8dqPC9ViFj4iuitHbvYSxAYtHbWDol/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=womlT-qGI1EQ7kNvwEeivaf&amp;_nc_oc=AdkZ2vVxcQUURuY1oZljjoRfOPVYEjC7ba2Dz877h7L0k3WpuDrqzK5HV9Qtq-UdG9g&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_Aff5S8Pdea8mHtPojwUidJMGlEYmjBiomxeoy9GrM5c9oA&amp;oe=68ED96D7', 'profileId': 'pfbid0mU6Y298dQZ1p8uMsABdCZb5PhtHV67aQeiU8dqPC9ViFj4iuitHbvYSxAYtHbWDol', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid02qKYFCp4TG17ixHF5s24coS33BazbiChRUTBXxn6Gm4tgvS4ur7LXcMtse7a8XKx8l/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=womlT-qGI1EQ7kNvwGeWppC&amp;_nc_oc=Admbdm8h78JLry4VMxTVBpb56atoIYERV_1MkFgCZ8TqqQC36WoDRpFiobsTP_lv5pA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Afd2jSwsy-GRwe4YlDTjiE1pJnXoY6uynlbNRxFkiigm-Q&amp;oe=68EEE857', 'profileId': 'pfbid02qKYFCp4TG17ixHF5s24coS33BazbiChRUTBXxn6Gm4tgvS4ur7LXcMtse7a8XKx8l', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gp5tGgNVJKIQ7kNvwGLmdLb&amp;_nc_oc=Adkg9pmKVfUmLnzywabAA-oieMDtiyFoHLWnlLDetD89MmHV8zMac-qKJE1PG7dxNOc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_Afet6pRi3tPc4UBM-UEUrIZn9N1Fd05eP5kLzvmDOXTpVg&amp;oe=68ED7589', 'profileId': 'pfbid0mjAdQseRgXUVNHZJ5T7T69q3TuZtuVKU1N6NACBwutYMCUd1xbVZtxdCSnGBEG57l', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gp5tGgNVJKIQ7kNvwHQZuKE&amp;_nc_oc=Adkkm8Uxl2RW41cMy0yEKwfslk7w1XXsMfEhu7oJ24NMdWfDCfYL_lTFPUSaJDor5m8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Afd8EATt2dlc-4ma_pNa8Fz0DzQazyxb16EZ0f818AAXeA&amp;oe=68EEC709', 'profileId': 'pfbid02q6ep2u13iGH1JKQdopKC9sSNJqJScPR5NebAfhesQ7go8rE8cNLbAGhbVhKjrJi7l', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl/', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C-01ysaoh34Q7kNvwG6nISa&amp;_nc_oc=AdnjTtkOJ-WAnHovvUL_MsgLTpKpgt_gvZNkjVM1v2RTeOPdhELGL7keu56WDEz2GRg&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdN1UJp7iQ6pPlDUVwd_zzhqTiKCRyI2PJJXlrfYhQ0vQ&amp;oe=68ED9796', 'profileId': 'pfbid0FiuNRMwk7dYjLQqv25gviA5ZccxtYSRWn9GyUReiCFoziMAMT1fPDt8HPHqthgYhl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KaM5c2sZy2epLyJNargdKFm867hCgUoWGf18NocvdQuWZ6iXHJhDqHhRS25zkvUPl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C-01ysaoh34Q7kNvwHkdfZC&amp;_nc_oc=AdmsHI0wf1wMTwkjYglzwNBS1LRLV91Bxt3757eMxdPABQAgML5iYaKMYA_xXqeTi1A&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfcUc3l1vKlbHIF_dxaiS0giOo51QsBQOE_nfEXLNLq5sA&amp;oe=68EEE916', 'profileId': 'pfbid02KaM5c2sZy2epLyJNargdKFm867hCgUoWGf18NocvdQuWZ6iXHJhDqHhRS25zkvUPl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQqs5F5E3x4Q7kNvwGf9pJ3&amp;_nc_oc=AdmDa_ff80YzyYqdZbQmHIxqNSea6D8glacc43v5T_4c8cSdVsluE155lX6Iu9bBxXM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AffAbC5mbusgWpQcNjxCsLpdibWo_wgYTZRYXiOeusLsEQ&amp;oe=68ED9D4D', 'profileId': 'pfbid0J3Ln65fQn1UFUeCyzcXQTc9fFccnBc9JR3zneubVs8Ny5or3z2ZZ1dr6U9eocGA1l', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQqs5F5E3x4Q7kNvwEvX9NR&amp;_nc_oc=AdnMBRjckLpd8cAI6lZioB-V9M2sldvZHAyT4CVHW6mszKWCxtRd7K6qqsXAtvH6Jg4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeKU2fZO3toa8LtHm4rXyygtof0jdDB2cZKFeC4wuBE8A&amp;oe=68EEEECD', 'profileId': 'pfbid02MtnVGkbEdKq7cHjHutLFBdmgrM6jXvt56awcoa4Ut5JoXdKYLmUBLwPbJER9VQrWl', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=VzQdYNZ0yckQ7kNvwEEDblR&amp;_nc_oc=AdkidWrW5yZYp-KFYXa32fdy9EjndWwVYbX4Y9m6hR0sbrkrpLrwTZpINcCnAQW_b04&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=W1uCUbcsOudcshx3OR5GqA&amp;oh=00_AfdF8xH0FEc5LshJme4r-GsXKg2E6I8UsxUei3OXYZpNPg&amp;oe=68ED929D', 'profileId': 'pfbid0DR1f6te3w3rqPV1bZNbPd2XcPiKcsB73E95DwLJH3UKsHc4cViFVofquTyoC9pmul', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uzEqlTs-lUwQ7kNvwGNkXGl&amp;_nc_oc=AdmpXMSZkNdTEWp_QJOHeSmco3yJancDkfDP34cr42ATGxPNZ0o0X-wR3_-0oSqd4fk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeldtCKMh-opE60_sT_f4cchNYGJ7Oj61uX1UJEDjWx2A&amp;oe=68EEE41D', 'profileId': 'pfbid02GnVqiuzfxokBQYH3EWjANtWojokz2iK5sAwvdbHQUEUoLFSGoMpLAH6nVEL1Gf7bl', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=h50jpm5-DlUQ7kNvwENirz1&amp;_nc_oc=AdmsckniUV3dqxUe1mmvTYtKKVeRAXspc6hZtEZJJy0VJIc5YtRpYtg9KPteAdvCXVo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_Affd5-Gtgfau7b4jMDFHqq17wNq2--GT7BEEioiy4HAAwQ&amp;oe=68ED7D25', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=gNSpyORQHzEQ7kNvwFVtiPH&amp;_nc_oc=Adn2vo0ZgThcQd57896CLWyK9lRY-ShjPlsfHS0lSA6V1qHYNQHXzMaK3E5HcBa_nM55zv0HzxsibzQ6VYxYDfF6&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AfeDbPBzRm7qBfElvje--ySMf--O_IRSMmIfZAVzb8He4g&amp;oe=68EECEA5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aQbxfLhEgcMQ7kNvwGZDq2E&amp;_nc_oc=AdmCoSSEjk6qQA_GO-Mj2PqgWSbwQTW1AeqlkoWRGd8z27HM0a0mBEqcfXUY2cDI1zg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AfcaiJYYjpvpSet2wBitvNGWqNju5e9cVraTwzwXhCk-hg&amp;oe=68ED8ECE', 'profileId': 'pfbid0y8DTXd4F6xCX326oJqW4gH27weBn88LckFDmGTVC1uJWtpExQDDCJjCVCKq8jqcsl', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aQbxfLhEgcMQ7kNvwGt0QKd&amp;_nc_oc=AdkMftHhfDISQKlETOBYnI9ypP_I_IoJgAdKlUlcvx23gptfBVhWgeJwGWp0rAs3xqdRG2jxf3fB2EoVBwMDEv-N&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AffrwgCBpUQDjcETs7_HzCv2W6WJALWbd14bnl3DnslmHA&amp;oe=68EEE04E', 'profileId': 'pfbid032yfAiHz4xWAFmUrMXUSQgjR4dUAVrA6TvWdJzkiSBMAvzmBkdpbbUW23MvVnjHa1l', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3jkhxHVPE2wQ7kNvwGTOJbV&amp;_nc_oc=AdmS0TklGxA8bN7fzOXLoIeJ-NwrDWNONCLj5dwXHRhijcax297mZAjTRgq1fpTTVLU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AfcAWfHrBCQYe4nGBhCbCPEKsKfWZfUjRemF-RceUeCXtw&amp;oe=68ED9929', 'profileId': 'pfbid02AZSzjfCew1FqgaUtYkWR1R64MtemzJPP4EakmJc9NsVwkAJTqLjuQQK4H2vPiVAtl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3jkhxHVPE2wQ7kNvwE9O0zr&amp;_nc_oc=AdmGDVi0VjT9gijXgCWPX95E8FI5Ctk0zJcsPE_EvhYM3Nkck42JI4EGHgUfyJ9NRlTwVyWmN6yLNZIFYsCXlKYW&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AffbBN3VTZtW4dWdVRDLaqXVxBO_zLJI1bIUHPoEWp7s8g&amp;oe=68EEEAA9', 'profileId': 'pfbid071oopVaJ5sG74AbNaGFpiuEcb3iR4HYjAh5WpVwvadrL9uRPLmcbtrPfDy72tsAYl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J2-wKOebpM8Q7kNvwG7Hyxn&amp;_nc_oc=AdlLgNL334qzctplkpZFxhtA4pGcKUbPeVB_JrVfIjxOhwFR7JEPTL2zT3Kd7ocL3bU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AffEtDiC9UuCtWN0ngPXgKA1rVF1HnvDGalVp8fiW-mJsA&amp;oe=68ED82F5', 'profileId': 'pfbid02CkTdW8KSncR4ogZ1qWMoVtwgpHEwSbeLaHENoj1sZgcW5bj8D6FiHm86itU57YfXl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J2-wKOebpM8Q7kNvwHjfsJS&amp;_nc_oc=AdmsWQ3KnFJjdJyAEfbaWsB8n4pyylBdvg6KdGCyH6YfwENiNX4Nep0_AiUJaWNlEuzVzkhtWpZd9p3qZaSv2kh_&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AfdLEZcAiHZIB9BPDJ-8NsRDeNu-ppqpoH8My2-bJ3eLNA&amp;oe=68EED475', 'profileId': 'pfbid08irv2K7t7adjDJ2af4LmeC3bkWcJ4EwU1pXiiGocjRNuw459kX7JjK7yv1ucRHDUl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HO5AyrhBCxwQ7kNvwGQGEXl&amp;_nc_oc=AdmMc-bUxdFC4RjyfxIGUHCXoLuPD-qO3mpis8uts9iJXZWRj376Ig2leZjZdDsCfJg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_Afe7SeHPW6Wx5Eyc7LwWfkDxGymWG8Yj85NFUTr3CCYVyA&amp;oe=68ED81CC', 'profileId': 'pfbid023UAT6QsQhEmKKUniUBZdTsa43JUJrS6oFFNjMy989hY2HPvnL3Xf6ULjZMiBVqHzl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HO5AyrhBCxwQ7kNvwEOMhvK&amp;_nc_oc=AdlBgnPPj_QwVURXaC_B1YbSyrMrLAw6wTmC4Vq8SIKwk-dAAdyI0m3vNwDf5bWgKBrA9d7Gxv8BB7DzIjnvCMhs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AffvIN4Fd8shemEX_tC5Y1t_kBPAWOC7h9jHJvYElFIqDg&amp;oe=68EED34C', 'profileId': 'pfbid037KcAH5oEYW3cUYPTVjMHYjqtR8ErsEeaYbN65qXmiAAVYhS6WNguVs4xyNDGAhPfl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02K7UqzwZukHP3EH2ruMsPiCkjt8cPfG94n33Jjj5YTos6igLPJkQQjYoqq4kZpHV5l?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlR2Ud6pexQQ7kNvwFZg5wJ&amp;_nc_oc=AdnMhToffYPoQV6GQ8SVSNXc_0QcGruA4Ghe3WZ7oUsjoQ8OcEHJUIK9077bZh_91Tg&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=AmCivEsufakWTnRHaYkBOg&amp;oh=00_AfdzCtBwSSc3kHOTFY0NxhtOy3Ui9KmZRnp6PVZY5BrPZw&amp;oe=690F3125', 'profileId': 'pfbid0MRoykgRxurXU2V8orhP1MBk5avCUKbdFRhWZ8RJGhSgXcR1SnCaaHidL8gKn44GPl', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlR2Ud6pexQQ7kNvwGQye5i&amp;_nc_oc=AdmoaPxRND6D05_qdRSWSpa0tE9GXicw57LgRMsXIIBuhKzWgTRYJoUT13K1H8yp89116JoWxTVd-jNEgjP6X6qq&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AfeYGgNQc-O8HSl-gWXGTovfSehAfIhNXqSOQD4HUxJdLg&amp;oe=691082A5', 'profileId': 'pfbid02RHFgwMMnmKz4TWsqyrnHyVke59zDjApuYHpKMKKiR9vx31JJf4LzyyvAiVFp3k4sl', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFsahk1&amp;_nc_oc=Adnj4roGaFV6uFliQWXRbVEK7gd3bBmZ8AAnew_aSjQ0Bv6HtTqBet9qutIuAzx1v9R417wwDIQUWqr-yH4V8fPs&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afe_S82KIgYuxfIO4TxysrCE_W3BshQRXba1S5W5NdBt1w&amp;oe=68ED9EA1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwFsahk1&amp;_nc_oc=Adnj4roGaFV6uFliQWXRbVEK7gd3bBmZ8AAnew_aSjQ0Bv6HtTqBet9qutIuAzx1v9R417wwDIQUWqr-yH4V8fPs&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Affn56vf1Dq1IgSig3Bnm0LU0xhvhXdWQu3O6Y5raB977Q&amp;oe=68ED9EA1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vGcS459NY8sQ7kNvwHLM9dC&amp;_nc_oc=AdkzcRyJQfL27745p_2tFno9lItZXnuqdNefY3aFIV2bqhsaadAvmuNTdAm2FvcqVmId2JXy4EaxUefBpNVqkPVu&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afeybk8I9y2b4UKAwgwkeAE3ftpfqxqTl7eazYP09vAJXQ&amp;oe=68ED98C0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwGH7ni6&amp;_nc_oc=Adn1oKfsuub7NBHHm0mtJ5eOLCnZehXw2OAaa6Kzh_2j0af4fLLBxUpSHbSzAmjPSXw&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AffjXZxnzEaxjIAnGp-dqnlLrW3xU2toWlZdyDoqnY0wIA&amp;oe=68EEF021'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwGH7ni6&amp;_nc_oc=Adn1oKfsuub7NBHHm0mtJ5eOLCnZehXw2OAaa6Kzh_2j0af4fLLBxUpSHbSzAmjPSXw&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AffOactnOfi_2Jnd0f7XsKat67sukN1KbbDwOwZ1CVFqMQ&amp;oe=68EEF021', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vGcS459NY8sQ7kNvwFqijtz&amp;_nc_oc=Adk-kMQb-e3pZWd4-ZQwGbhVlJAeLTe4Xq1IsjJhM8EnyuBaeoX_rFjq0xKEdJf2fO4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Aff7d1Z0YMnlgMIzuiH7R4eoPSUy3AiQS1v2P-wCszm_Sw&amp;oe=68EEEA40', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aDlYodaTflMQ7kNvwFJqe9a&amp;_nc_oc=AdmAKZgDHlMYO1NjWNlv9HiMU3OWu_7n_LJ6g8p61WlstLV1UCw_b4LLocF1JH47OyVz8q2W213AEv8YLC_rgt_6&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afc3IXuA9RGiO6T_Caet00IcZL3e5DnsIqVAmvmwtdkdZQ&amp;oe=68EDA75B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aDlYodaTflMQ7kNvwGEG9af&amp;_nc_oc=AdnEqXmJxsvCbfw1CLvP_q-8gZPA-OuixYU5ZqQzUM39V_8q-KEr078uGdvVSmLeXnw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afcdd9yZhQm13jnRl1Ifk0evujPH2PVvgcH4MXh2EI7dEg&amp;oe=68EEF8DB', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5oPp414HpB0Q7kNvwHPHAOa&amp;_nc_oc=AdlmX7YK05Ls45i43p8wAv3HGYRwVacdjCeSclQgH3L_RskB4nwS3-iFqdB5FzEPzbFP95wcFkF6Yad4pqS1A7A_&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfcQ1iHLjFnbDak5JUYktvJcRNu-TGDYsD4atxZlf6A2Xg&amp;oe=68ED9447', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5oPp414HpB0Q7kNvwEuLeFW&amp;_nc_oc=AdnrO-JCtEdPyL_trKrnYnqxOho00abocL_Qa8XhvWop2BErH4aCF6rXRcmhPuME8ko&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AfcLufchmVH84xLcyrgsxK_ZltRlcpeXDHoADgT2qs2CUg&amp;oe=68EEE5C7', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YMfqekhY2RwQ7kNvwHJjCv-&amp;_nc_oc=AdnLU5TicQBHGb_yv5J6k3Hf0p5offb_owkE0ZuR9j1vIKlK-OPFhomZSOgjRNapBJ_Xn2tvoN_eWxAf-ri5N8zR&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Aff2bCQ3r3NWzvt1MVq-GXTh2yUIrUsGI1vy5pOCvZARPg&amp;oe=68ED84FD', 'profileId': 'pfbid0Akop1xbNv6gMhsyBCr9y36FVYq1kbNfLkQv35vQcGaigXoHoiiR1HacjbGQpKAbol', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YMfqekhY2RwQ7kNvwE0TUX1&amp;_nc_oc=AdnAE_A0Y0bnaaZvT9wC6G2jXDp4vMz6Se9ichbMNwooGjgWEXbmiRfv69B6SUPOSKc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AffYU1PLknuCXzw1TBxbXUrQy3hR7ZKcErOft_qdpQjiGg&amp;oe=68EED67D', 'profileId': 'pfbid02EcFXCdXCmXuiLXKL3FgpSxJWtLWcAwGJHtHNNWL9ykSKWWJ3wTLwY38wPup8JmEQl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwH_GWYv&amp;_nc_oc=AdkbOdn58Wu1xSFYLsvriXeYxZYMl3x9rv-3V2QgUqpr2-Qd4xGbQYOhMX-_CfRMLdtVcrRcP9TtivJTnqytGnFl&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;oh=00_AfezeA87fTpm9idH-vb2GPLMUfkWblNIwMe21Hxqzu_H7g&amp;oe=690F3D7A', 'profileId': 'pfbid0NpdH2ewBucfiFXwFWPrzKSDHdbSzguXdsJKwWVYczhDkbSMTuNwzSP6Rz8TQZKp2l', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFBqk7M&amp;_nc_oc=AdkqVnW-gw4jE5aYBxke8cQsJoHBc58Oi3Drr753fgv98tcnPGgugnpv_3ZG_9I2y-E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_Afei7UQ4puFPDrkGSLcUdhx_jaa0MH3uCvonreCuBMzZ3w&amp;oe=69108EFA', 'profileId': 'pfbid02Sg4zDKs1m2R3U65ahKxc9TTGKyzntWSeVeSN7ux7xnxWaK8ddXLTgCnpa4vwhYeCl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0TqnC9jRF6nda2L4fEmi5nW6tXyxAspGNMvVjy7yi5oYo5qE2stSrotC189ueDocCl/', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwH_GWYv&amp;_nc_oc=AdkbOdn58Wu1xSFYLsvriXeYxZYMl3x9rv-3V2QgUqpr2-Qd4xGbQYOhMX-_CfRMLdtVcrRcP9TtivJTnqytGnFl&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;oh=00_AfezeA87fTpm9idH-vb2GPLMUfkWblNIwMe21Hxqzu_H7g&amp;oe=690F3D7A', 'profileId': 'pfbid0TqnC9jRF6nda2L4fEmi5nW6tXyxAspGNMvVjy7yi5oYo5qE2stSrotC189ueDocCl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XhDuLQM4xHysb6BiTcEAurR12EzAX3YXDCi9cjBqyDKUCWxB6LFjiZb59wJiqRQRl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFBqk7M&amp;_nc_oc=AdkqVnW-gw4jE5aYBxke8cQsJoHBc58Oi3Drr753fgv98tcnPGgugnpv_3ZG_9I2y-E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_Afei7UQ4puFPDrkGSLcUdhx_jaa0MH3uCvonreCuBMzZ3w&amp;oe=69108EFA', 'profileId': 'pfbid02XhDuLQM4xHysb6BiTcEAurR12EzAX3YXDCi9cjBqyDKUCWxB6LFjiZb59wJiqRQRl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l/', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ahh63-1IbWYQ7kNvwFHEj5Y&amp;_nc_oc=AdnFwyiwQwi9fZpSC-xKEEVMQ89GCQbZAIkOa236kBh8k_7wR4LE4fkHbjSQK57jcGQ3iUigswGKysJdleNmwzdj&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afct2c1pQnypnYcCeR0wzgRGmc6HhNqgqICBpYl5LQaJFA&amp;oe=68ED9CEA', 'profileId': 'pfbid0La7u9EPQfVegGKSzpqyKhCMxSCnXfMgQo41xe5ZGyrrvo9FdhPLSHGYUVfFseCt9l', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QRZcKuKEWz9uB2FCExopcVPVNrsfBQaudLhJeJUKLyq5bptVdJukTcPfmykA8VkQl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ahh63-1IbWYQ7kNvwF5AaUw&amp;_nc_oc=AdmPEMs_ZHYKG-O95whmEf4PknHF-dnCjR2_k-EMRVz1X5yDVI-IpYuXrqfjQxMTCQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AfeN1NfzTpVJMuDPM2N1To2IljKYgJPMEntCsgR_HjGLWg&amp;oe=68EEEE6A', 'profileId': 'pfbid02QRZcKuKEWz9uB2FCExopcVPVNrsfBQaudLhJeJUKLyq5bptVdJukTcPfmykA8VkQl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUHqmUYTgCMQ7kNvwHdD92C&amp;_nc_oc=Adk75D5DZ0dgd73wlpUtvYlIWsZ2VbbINfHhlWDnqtcveQekTqjn2XeNJerLE5dtCWSuumvvhgcZK-xrht5k1rED&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfdiO1AE3dH8Nh9BjZvQMKKpe1fwKL8WOVKqvZWrwULPOQ&amp;oe=68ED7868', 'profileId': 'pfbid032rLn4iRAkkSb5FJKJjnjN7HJaQZfK4TChUYzMmhadXUzEQK73GJ6bPRNp5yzFdgSl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUHqmUYTgCMQ7kNvwGCxjdZ&amp;_nc_oc=Adl2TF-HjdkcvsRnxV02WOORGgAzQJiZ_dTyDtgst1X-LGYl4OqE-RM0-20mSIR-Q9k&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afe_lcThrrjjIfgbUagBxSmAESAWk4_SmE_mJg6AEjqOAQ&amp;oe=68EEC9E8', 'profileId': 'pfbid0yJhb9YnoubUTfNPi6Sv5Q4vfQEwED4pTvusczcw2ccja8HYFbaE1aJtVqHbubSBrl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwE2a3yL&amp;_nc_oc=Adl4vYG37bmf4DbHfSffhZ0-qtmrA9wbUQO0dyji77ZBP3WwbCtbdxjsPgfxM9h3QseQKjbl4vNjX0cCF3qoFxU9&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfeM0lqsFJj9gFPXeugU-wLX3NuSJ3UwRTRU758vysgJ9g&amp;oe=68ED81E6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwE2a3yL&amp;_nc_oc=Adl4vYG37bmf4DbHfSffhZ0-qtmrA9wbUQO0dyji77ZBP3WwbCtbdxjsPgfxM9h3QseQKjbl4vNjX0cCF3qoFxU9&amp;_nc_zt=23&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AfdU5vTwi_pK1ogIJ-epA8CluJtpyR92wANY2YwNfQPzKA&amp;oe=68ED81E6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwH3Yydh&amp;_nc_oc=AdmmCPqmyA7wnpbAdBiiq2ZSXGLLda-VF3iRsCKqfOCilpWjZtzlRZ6bvGkKNmKoRPPI365jPRe5hsQYyXjbYmDw&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_AffwwcCOJyh6LY9XcW7L3G_-j28uPpmlwr9gelrzhNC63A&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwGNmbMj&amp;_nc_oc=AdmzpyWvLM_jJz44s9-ddjYGk48DAPJzWqclGL5QMXuU50mvehoRQLBxnD03cgnkWVE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afe-le-pENEyrXyzjFQ_416JQzXiwwz9jEqihjfZIKT4MA&amp;oe=68EED366'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwGNmbMj&amp;_nc_oc=AdmzpyWvLM_jJz44s9-ddjYGk48DAPJzWqclGL5QMXuU50mvehoRQLBxnD03cgnkWVE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AfeB0HGfrMZGS18rELnFA2pul7MS0C9HqdJ1Ef3GjvaZqQ&amp;oe=68EED366', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEvp09r&amp;_nc_oc=AdlocOb7a2IAFOBCI_Tt5_65TQvchXNJzMtw7i2mPQ-IG5riFsPjPIXJMvsQUOkeQi0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afd_RYywCtQNiGOYx85HqkzLL2rAwEMsjwUbPIctYq0uCw&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwETs1Bf&amp;_nc_oc=AdnU09swWvBh0f7sXzimKW_7UOnQ4-PeIdSIxKZkFk8o2KTfn7iW87i2uN2sa5tAmrTuuy-w9sQuPoEGJZjFNHF4&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=xJc2RnU3f5z3wxJnNCLAXw&amp;oh=00_Afd1gu9iFJFXSmLh0Ix6rEAqPeevu7vcoa-j8ZDDToCK5A&amp;oe=68ED8E29', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwGVCqRg&amp;_nc_oc=Adn-RAlvS-5dwGwyXy5vY4N_tfPZucT1qXxF1nanYiDK5LU4asKd-k8e2qt8bUcgp7w&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afd1TX_RqQpSHnElmGz-XKvwf0AvS-H3CAfLYo1NZoJ4lg&amp;oe=68EEDFA9', 'profileId': 'pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1jFLB-UBgoQ7kNvwEYgMAb&amp;_nc_oc=AdkGrawPL0DK-6FrmaZCpTOnF4Ti__WDX7O__FYXwj4-22q5pPmyFNK2dHtE6B3VVew&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_Afd-fN24IlHgIgA6cvYg6t_1OX05jvjFgoeiKR9MJWQuSQ&amp;oe=68ED9F2A', 'profileId': 'pfbid0Sx885sRqyukYeYTNTLeWmkbEUUzSgcbDZZE6i9aLFkkGga1fq6i1wgTWVYyLL38rl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1jFLB-UBgoQ7kNvwGcs63h&amp;_nc_oc=AdllJSohHEu4oCwjAuRnKnDNmss6p5lFZZ6yG12-5U6krM8OcoSNWil1xldE44MA4y0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_Afe2I_CVlqbdm2n4WfMzTdyGu6FYZ4JqtH156KixcBjzXA&amp;oe=68EEF0AA', 'profileId': 'pfbid02WKcJhtnU1aiuYXFFqeUYT3dCzUxYV1rvhGrjACRY5xPAcC81wKmcFq58A8d1CSndl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_x8Tpk-FhGcQ7kNvwEQ1kZ2&amp;_nc_oc=AdkQtCsbugqk4gQJJCWFyAXbUjsfWdsri9tojzHfY4LMBnIui-3ZDFPx_iV1wNEc5Bs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AffXHfVEC2KRi5Qk0M_O47pbpEUChZ9Warfb8_XSgLR2nA&amp;oe=68ED9215', 'profileId': 'pfbid032vGor1b4BDjX2EBVPRsR9C1A77hKghRqHRBDGWJqKHaowG6tgzMgTXFAvFT5rHGxl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_x8Tpk-FhGcQ7kNvwHYWtqz&amp;_nc_oc=Adkec4XlGoYvw0Nks8ckhqYWW8_h5-4JTOvgbsNTbLLEk2KO58jeGhKPnZ7KBJUp4kM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfccShdP7xpfbCWG45xem9Kru2hEd6xgOwrbit8x2W9b9A&amp;oe=68EEE395', 'profileId': 'pfbid0yNdcvqxhL11rYKNvDk1FToyy56TLkcBU8tMASyPWDZjv4sK5CuVzvfSZk8U5Adcil', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0Cltf0DtpAsQ7kNvwEv0txR&amp;_nc_oc=AdkZUi3_-kiyPFd_8aOoFP3jT5i12DN2L4csB3T73_E7DKJJBdKX__Y5D35XM-eLt6c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AffJ156oRxbrh-8cRxIvyspNAUfNpoZWG1ugrD-Xhx3UVg&amp;oe=68EDA1A1', 'profileId': 'pfbid0ox4srD2PbuupYiuCdABfur4TmxGwWrQjiTEvieJmSqLdesXCJsQ55wtRQT4Av3Nl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0Cltf0DtpAsQ7kNvwEPEebk&amp;_nc_oc=AdnGNd2dAAtITtwYKaUM3XsXyksuaOS2SEIP3BJLrW03yRt3lynuriRmV7qsgmpFFvM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AffiUp0uMC-CQFqDCTx7xFtV_z8fisEZFhl4hKaEBIdMAg&amp;oe=68EEF321', 'profileId': 'pfbid025fPn4X8rEzHiUihFKKPD2kJKHohigY7KeE7RsH3HUZkeyvD5aUv6wmPAHxLSyAVHl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=G0XsijaWTxwQ7kNvwEzECiG&amp;_nc_oc=AdlGjqkeM7FsQOTfNH4UfM4HVrHrtmW-2YwYZDSNaAFoTcT20HlycH82Q3fp_HnAli8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfcmXbtp_tuPsp6YCcbCrarzQOfEVVTDJarhgmxmAH72Vg&amp;oe=68EDA17A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=G0XsijaWTxwQ7kNvwFM1CVf&amp;_nc_oc=Admi8FxspQgWnW6uWSLAocuiprbl2cgWwL0RTRqP_Wp6e-lli_LxW8210EAfBelYm74&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_Afeh-p_KmLt9F2pYS_zrzgixCmijMHFtFgcdsfI7oO7lZA&amp;oe=68EEF2FA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=jQ4G79ywtv8Q7kNvwE9yq1J&amp;_nc_oc=Adm9gP1HNVPEBMj7VyaxLq-OVd10ho6CsO2ZyheT-PWhCTw_O6JIutoe39XbWVVNwCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdlefaiOIPqrp1qmT2-XYzWI1tdY8mpKqCYhhd_YeO8vA&amp;oe=68ED9532', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=jQ4G79ywtv8Q7kNvwFD4qiq&amp;_nc_oc=AdkJsSfdfXfGy7iin0_6GcKXkaPyTRyLWVssBPNjSAXd-1Sp0DMREBKwMcA8J6A-Fks&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfeZWocDoobwpezoPY6JGyl1pHFKGGsqyZNWDTdhC2nu5A&amp;oe=68EEE6B2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02FyD7XvZA8waFWXXZkv7mJNX6YtAWaK6FPYm6RHWKRAd5GVCRvpzMi8Kyr2GMqUCpl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XfAQ3IgWJDUQ7kNvwGlr7tZ&amp;_nc_oc=AdkeKge5NyPWZaWzoUYcxlLiQjW7ktUfRhUCI0PRhWvNuIwBaZdp4ywHE7jHhZ-ox0Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdGYB6kJAVaUrI_xgZWqI3-w1TU7dcGwGKDBoN4hZArUw&amp;oe=68ED9E93', 'profileId': 'pfbid02FyD7XvZA8waFWXXZkv7mJNX6YtAWaK6FPYm6RHWKRAd5GVCRvpzMi8Kyr2GMqUCpl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CRZvckvoHnHcuJvGmYWTGLCmk9ARiEP4Taz9BfeEWuWE2rjCr4wAmJWH3g2McSTjl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q9uVuZDK-r8Q7kNvwELJMRG&amp;_nc_oc=Adn7PWoPoZNbOZ67tfodDERWfL8mGvnbDPt8c8-Xen7SIYLhZdPOfQIOlJRoXS4SQAc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfdC5qUOqhNnh4DF_wXErrje3tWhCK04tvhtBoifwYk4sQ&amp;oe=68EEF013', 'profileId': 'pfbid0CRZvckvoHnHcuJvGmYWTGLCmk9ARiEP4Taz9BfeEWuWE2rjCr4wAmJWH3g2McSTjl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8fLgOUnzW9EQ7kNvwFf41tO&amp;_nc_oc=AdmkE1IY2ufwF-xzbEm_77xiklVVDGyA9rEqs6wjoMJUZUiC3XMbuFLfEoDDBlVo3KM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdYQ4vuaErCfZpDTIOed6xMV9w8lUTDu4rCEYez7CUjLw&amp;oe=68ED90AF', 'profileId': 'pfbid03c2a8E7Ly3mEtcSoE3XC9zqJimZJFjdYd79MkJqRYbanX63F5Fjvd3et9ou2jDMfl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8fLgOUnzW9EQ7kNvwGHnMO4&amp;_nc_oc=AdnGiUYQAqzPVdr5ZXRjeJ4uWj2KVdnsS4BK703NmyU4DfvMoavDNbSD9Hp40EXBOWc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_Afdf0nN47G19InramPt45eSJB8XkPaP3Aml_uhbVq9XVZQ&amp;oe=68EEE22F', 'profileId': 'pfbid027TUHJu3ApWJBGN8hi7cWt86de2D7sms1DcfMDeVHX9s9DeUQkqHLBvq1jdgLNcg4l', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GfqZsjobRTsQ7kNvwEyqPp6&amp;_nc_oc=AdkZ2YJAlbBGIIzkYvYoGH5KEnLUS5Oey6qGLNn7MiUmA1OmFbjKXYJPzR35RVXWF_Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_Afe6GvF2cabrHnmvb5NLkaA-Fu-mnFqmcHMbDJvIMQJV-w&amp;oe=68ED7936', 'profileId': 'pfbid02GRkKZAxPjMAuBZFsgTQmS1krbHPdCnd7thp6tS4ViBEwCnMcUPzno2vD2H59dmuMl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GfqZsjobRTsQ7kNvwEOUFv6&amp;_nc_oc=AdllFccDc1ixb3HHvaJJ6TWpjuVfKGy4iduH4aJSicDkCpQ9yrDvSt2os535bGmWIXU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AffOITZtfrfVyBc8N8bfmQDttNTXWzjPFyz3vxFhiIqgZw&amp;oe=68EECAB6', 'profileId': 'pfbid0Ct78e1L2tAVNEsJAnpH49pCCPozC4cAq4bJTYShbajNRfqdo9voK2oZ1BayfHZojl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EL9gJe8AfX0Q7kNvwENYctv&amp;_nc_oc=AdndQPNxv_sYJKcp1rO_MyQp_Q3y5g2e6p_kiXktoFVXnjMRokqk9XgaYmYe3SI6e6U&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_AfdPpbhlwKv3zrAV_evjVZeh9mwLJXY43OVrlYnQu-prMQ&amp;oe=68EDA6BC', 'profileId': 'pfbid02mqPeCSQX1XDwncVLJ6gMAWsPCAnNEUE6KbRRVfRxYR1mXoKDFkip9EezurTgNW3vl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EL9gJe8AfX0Q7kNvwHMssb4&amp;_nc_oc=Adlb-EMGkHYUCjm3nBwTl8hHDD36P_tmUFwQP7Ln8chYAQD0QcxzMpUm78WrfH2W2nU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfcgTqwcG3gtLy20poWulAzeNzI2jwTgUc-GtES1noiVsg&amp;oe=68EEF83C', 'profileId': 'pfbid0iHkTHGnAA9EvuA4ghcxShYCQkjDtj2T25Sa2mHYgGEX463kyFQJ9SUx4AfH4MJ1fl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwEoDMpW&amp;_nc_oc=Adn9xit6Xc-ftRdUDNBqXsPrA3MJ97GI-aPNTh-LthI0PtfbTdpSUxJIuMoJQ_f5PYU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=nWVlXZrShe3_pw2Dsy_Sww&amp;oh=00_Afc_vPSL_Nmq-pMNgzD5ImC71H75lt79T-0Rmw2lFuWs7A&amp;oe=68ED8E29', 'profileId': 'pfbid0z62E9Bj5W867B5igGexiaFCmpenNDwAupT6JTHadpRBtYgauqfhZiktPbLhfP642l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwF26y0q&amp;_nc_oc=AdlNIQV6rjxk0rwq0YNg4HRR-TZuV0xjiNEZRkLrHRybRAl1TiiDjl3_22PP2XSg-Hk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfcuUNnUjAJX5FSGr3pERwsy5c0ukAhfhPnhGcQRvgS04w&amp;oe=68EEDFA9', 'profileId': 'pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UtiJuWh-aaMQ7kNvwFdXMC9&amp;_nc_oc=AdlD_US-s9pymiIspb72fUH0_3fIuFzIMvNPc-eu4EcydpbkbV0AUfZudgIXksJBJ0A&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfdGy6Cgnr0sKNzbVm_Z9FRvO9LBKtpKk1hKAfzOcQAbDw&amp;oe=68EDAC42', 'profileId': 'pfbid0313cHxMdJT3UHdzxGT2AcSLKETTeMgzNEFaLM7Bk7UNKXZqAq7eBzVcNsgCmZc4z5l', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pVeuVbc6pFoQ7kNvwHV6tLc&amp;_nc_oc=Adl6etr0YCFsJD4HxSP-iGEzMNR_qpC_tsyOwQVRn9Qm--vBsXzInZ4UUeXaA4joApc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afd4Bk7tKuXVsRMNhfuWEdgOJ6i7nHnRZvBgCpV72hXXbQ&amp;oe=68EEC582', 'profileId': 'pfbid0313cHxMdJT3UHdzxGT2AcSLKETTeMgzNEFaLM7Bk7UNKXZqAq7eBzVcNsgCmZc4z5l', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwGGR7R7&amp;_nc_oc=AdmxK1agJWPAsanELW88Rd-ZXqkeEXJfOLRPMmGS1pqhnbJ6HA1O4UZvY_d-ciFoviM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Affv9ydrPhpeiu7kQjoMHa9Ek7KJfu7x7xi9GCsv7zicNw&amp;oe=690F3D7A', 'profileId': 'pfbid02djEyDxGkNucm21c4znTawpMhwiiDehB4ygZpFqthciuzsmjBaGCgWezpJh6UhGnfl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFmbHrO&amp;_nc_oc=AdlxZxahNSaliUoDznSljT4Xf5rNWbXBMWqF1wH9AX7RQg99krY7MpIQQlic1N8V1sI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_Afd0aE-L2ZzZe3hfs-XvhlREdEDQ1WmcIY4j8LHfyI6SdQ&amp;oe=69108EFA', 'profileId': 'pfbid0aBbnJnePXcTMzzVQE77o733rDoCqnhDWNbScVGbYNAm8oeMBEBtvteDzBRxqWQi6l', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=htw69oCjIzMQ7kNvwGC0NPW&amp;_nc_oc=Adkv7XhAAbDG-7mFaRqHaCoVAgjSJ2RBCjaKYOuPJ5RgPheoGBVqa3tSgoMQoDjUG3o&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Affp-QVbqsTBa2RbOvPR-_aQ3j6k9pgRL4kfZJkaOklKVg&amp;oe=68ED85C2', 'profileId': 'pfbid0k7FECaaFHUTD1uMuibKFqMHr5r1Go1VnVVVewdokR2k3jWFqog8WeE22Q9MKhYXil', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lAc8OGWbo84Q7kNvwHLNjOm&amp;_nc_oc=AdlLTqtuRfMSsAnH98nrLIl869_DLoAoTLZtZ3I8GJaRC7jDqsFJEBW7o1bengfmjOw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdfw3HeZQPuKgEkZZF88knOESFbSb4OzVVkDWCf9fkj1Q&amp;oe=68EED742', 'profileId': 'pfbid02oxgwPFW5926abps2GzM9vTdEYPtpKCYG2wtpeheNczfZCz7asqxmWBYLoA9Tv6kcl', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwFmaJwe&amp;_nc_oc=Adl6Mdxcf5gzwq4nut6cDccVyoLbI21jYxl5LLgTBbKrircuTArcmr4LdSWNiVM-CV8&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcakSBp6MEVWBoLe5c6yL49IGOEqT5CoNuRhj8-ec2_rA&amp;oe=68EDA048'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwFmaJwe&amp;_nc_oc=Adl6Mdxcf5gzwq4nut6cDccVyoLbI21jYxl5LLgTBbKrircuTArcmr4LdSWNiVM-CV8&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AffmhWEJXdypWa0q3ABSr-rsNC623hs9tGE3XtOmotakvA&amp;oe=68EDA048', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFHWx11&amp;_nc_oc=AdlJs2A2o8bTyEWLUV4miqZ4BBBCyF4HjKGJFDLLMIm64iv6apv8mlteuRUbdqP3K-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcjAq7pQ2LjH2lcW5GdetAH5NuwMSKjiZ1VO6zfs6ehmg&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwEKCbnt&amp;_nc_oc=Adk0ViOlVj41KtncYtwoXF5-AgXA813OdX5Mr796b1UpYw5dYMssLL_WOJIC9TFZKPQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfetCXhWMlopRg9vlVHDmbQn6IB1IWAmURedDZMutArt2g&amp;oe=68EEF1C8'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwEKCbnt&amp;_nc_oc=Adk0ViOlVj41KtncYtwoXF5-AgXA813OdX5Mr796b1UpYw5dYMssLL_WOJIC9TFZKPQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afc6hiMXTsJ8cOZn2v2YJm166q7DtQ16YHEkwwgrD0DOXg&amp;oe=68EEF1C8', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEuqmI6&amp;_nc_oc=Adm2TtUCOcQs_rIg77tvnSFB5dWG4k16WQffSNbDXhzp8hdg3go1cQ1Oo7qQkE_9mpw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdhs0RUt65GVf2Yqvzi_rWc8Szk-pAiXIp012C5zywGBA&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwFSs0KZ&amp;_nc_oc=AdlQf8lo_3xzpU6yio4dLRU72TIughcsJqYEDuodDKcZhW7JwiFzsduyOBt86hcyoxo&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfftYrmms6OSIng5W-j6ZT9OmKEcfTvnintI193wiMfAkw&amp;oe=68ED7DC0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=rwtbbMFd1rUQ7kNvwFSs0KZ&amp;_nc_oc=AdlQf8lo_3xzpU6yio4dLRU72TIughcsJqYEDuodDKcZhW7JwiFzsduyOBt86hcyoxo&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcWSpJpUCKyhGHT37hxQ4ZahlPef7B5KuDhJ8aeZF8P9Q&amp;oe=68ED7DC0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFHWx11&amp;_nc_oc=AdlJs2A2o8bTyEWLUV4miqZ4BBBCyF4HjKGJFDLLMIm64iv6apv8mlteuRUbdqP3K-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcjAq7pQ2LjH2lcW5GdetAH5NuwMSKjiZ1VO6zfs6ehmg&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFVFfX2&amp;_nc_oc=AdmfvisKfuz_MmvNhncNeSMqoMHojfkotZdQij3-mg5AlScp3kUpJ_v_uiKrhBggA04&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfdJs_5_myyjQGrFCBg4mY_NeF9-WzuMMxWKz2bxqSAiDg&amp;oe=68EECF40'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFVFfX2&amp;_nc_oc=AdmfvisKfuz_MmvNhncNeSMqoMHojfkotZdQij3-mg5AlScp3kUpJ_v_uiKrhBggA04&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfcpMooV1khOVvbNre8Ogqbg0leuKJui8KkiOM5_kTXRHg&amp;oe=68EECF40', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEuqmI6&amp;_nc_oc=Adm2TtUCOcQs_rIg77tvnSFB5dWG4k16WQffSNbDXhzp8hdg3go1cQ1Oo7qQkE_9mpw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdhs0RUt65GVf2Yqvzi_rWc8Szk-pAiXIp012C5zywGBA&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xy-2pdvtof4Q7kNvwG1Lrlj&amp;_nc_oc=AdnIh32aKWqDOIuoPetLHsfzIkb4TMKaH4-oy2rRHgNghExC2VbUVPrPKNNAlhRfr6E&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Afe_fbmrl9JFG0OMOJdzqxW9DJhpv9xGLRBOdA-71Woa4Q&amp;oe=68ED8A0D', 'profileId': 'pfbid02S5Lh3eDahV5EMfx7pE3KUbunVAcBDvWTYTaBdv7gL8fVyKZqSyR96Asttzqozx2bl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7V8nC2CcJ7wQ7kNvwGa67dr&amp;_nc_oc=AdnzU22-V40qfyNxAYrQDoTRA-zPn8wQeyDjgVHlkFQDNO9znb1RnhT9OfisO24cmqY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfdLzYOvC6uHT40jJsGiP69lBAf-S72FEh6wqgTALqQfDw&amp;oe=68EEDB8D', 'profileId': 'pfbid0NXhW8UbDrBQxdknPrDiiKv3rSDm4T5iKQGDVALZxxXFRPHBcL7DvjjXBDqDiXEWEl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1r3H3T8mCyIQ7kNvwEAPyeS&amp;_nc_oc=Adkq2zaXQpCZ6ol7AJMUHtQCmRjAuyFaq3eSyK0csjH8PsqvjUBwQvRoaxTUsQMIvjM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AffvMRBpK_VfKpwFJ4_PAALdDApm_wQglou6ue4C658KKA&amp;oe=68ED768B', 'profileId': 'pfbid02f9NFf8CAfyZ4fvcicCSRWUKWFhnmdHrkUBuPQBrSxW8LhJfMLnXdDETPXF2quT7el', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nRA9SJteOaYQ7kNvwHF6FXI&amp;_nc_oc=AdnPDvc6sLKyf4t0TwOSVNsSaDgya1aHtt4TCB0zyouAyCJKdUUKK23ZZxOSbgIayP8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afe93uAPKoSPz-vQMqrCQDSkcCM23FYeyy_bWhFKxnNbqQ&amp;oe=68EEC80B', 'profileId': 'pfbid0bbj4jxZopeQNttNR3iFe9Zn9KD7nH81wksQyf335cNkdYdEi75X7uQVF3guwdJjCl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A2fLFPWnsLEQ7kNvwHVxZhs&amp;_nc_oc=Adk548TIJwKJZX1kAxQfHRM03AlzvAxUnpnhB5cqJQwGrCzZt2U9onXUqXc7FcekmXY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Afc8L59Bo5lWDWcY2uJq5kk9CJBdKhns9vTlUiT7OOchvQ&amp;oe=68ED9EBA', 'profileId': 'pfbid0qZQirYAtkezmuef3GGRGWGyQ6pn9y3KjDYYUkHAyYtePLDzjtkXpqwZ7zbz7atHil', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A2fLFPWnsLEQ7kNvwFhBqvX&amp;_nc_oc=Adnefao4wiCwAnWFucVdyjsamg-8w-nZ46aFWQZR8XhibAYeexOa4ebl4j7IBU3aIcE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AffJb2LZVbrYj1hS0fhectCUIG1VOmc8hISQUIQnYEBh6A&amp;oe=68EEF03A', 'profileId': 'pfbid0qZQirYAtkezmuef3GGRGWGyQ6pn9y3KjDYYUkHAyYtePLDzjtkXpqwZ7zbz7atHil', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T1-ld1zZC7gQ7kNvwHm3uX_&amp;_nc_oc=AdkviMIGlDDRKdGiOMIRM88gI694r9nzEmmvR73h_1Zkn_726OZyQ7Hm85D75Df2Bxc&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfeRAj5YVFNdIQy3AvCTgH943YJKcmOj6ieIGVbZoLqeyA&amp;oe=690F134D', 'profileId': 'pfbid0XkwJPHGU7HYCqTAmouqu3cHKUue3XvBKdpUq4555zz8kAG4R61bHBx1zfNN5LzT5l', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T1-ld1zZC7gQ7kNvwHO8MBj&amp;_nc_oc=AdnAnwrn8s8H9-ZU88abZKRKWvP0z7lWupZEw2w_6UYzzlXIOmsnFxJGooSywtguGLs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfeaVLqI1D21dGCIWRkuofQZ2sNswYrEpiyxH3jFxpKmiQ&amp;oe=691064CD', 'profileId': 'pfbid02b8RV1Jd68tcjE1rN9cXJThzhEo1z6n7vmSBuym5WvAGQQ1RNkRELVq4B8ejT9NQYl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEOnN4B&amp;_nc_oc=AdlstxuzqXw6u7jYFSJpu40m5iewpdPZ7kUYJo02ievyjEA9MTHBhrHPM0Cm66kpXGA&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcMAuW_rIc0F9TPRs72Ywlazl1c5ajTTL7tbb_RnAuQWQ&amp;oe=68EDA926'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eH3qW-fLXsoQ7kNvwEOnN4B&amp;_nc_oc=AdlstxuzqXw6u7jYFSJpu40m5iewpdPZ7kUYJo02ievyjEA9MTHBhrHPM0Cm66kpXGA&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_Aff8BCpawD0OEh3PWD3kJMxVOZVcbXO-mxROq83ItGvHKg&amp;oe=68EDA926', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwFHWx11&amp;_nc_oc=AdlJs2A2o8bTyEWLUV4miqZ4BBBCyF4HjKGJFDLLMIm64iv6apv8mlteuRUbdqP3K-s&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=gqIeS33zXZS3-P7GfJMD-w&amp;oh=00_AfcjAq7pQ2LjH2lcW5GdetAH5NuwMSKjiZ1VO6zfs6ehmg&amp;oe=68EDA6F1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwG4QVbd&amp;_nc_oc=AdknYkPKyWpCgg22PHFYvCjhIenr6N0Ew2MvRVD7Vmy_cWTOhNdbF5q3oMABzqJHkRs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AffNPptRdE2fXLanvguwm4AApEkwvJlT-5RvT2Z4P_kX4g&amp;oe=68EEC266'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwG4QVbd&amp;_nc_oc=AdknYkPKyWpCgg22PHFYvCjhIenr6N0Ew2MvRVD7Vmy_cWTOhNdbF5q3oMABzqJHkRs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AffXsUPKf7KDN2zdBSgYfIDM_aCZ4V-Uyb4P8RE1REZeHQ&amp;oe=68EEC266', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEuqmI6&amp;_nc_oc=Adm2TtUCOcQs_rIg77tvnSFB5dWG4k16WQffSNbDXhzp8hdg3go1cQ1Oo7qQkE_9mpw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdhs0RUt65GVf2Yqvzi_rWc8Szk-pAiXIp012C5zywGBA&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwGt4ogE&amp;_nc_oc=AdmZlRL6Or8sNAS3Cd7B6LS8b1BHivaj938SPiMKSlaqp5HKhKXhC8CXfLy8K9tfk-w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_Afcwzr08iW3MZHfCGcJUBerN8iy3UUwrS_FRd4hHyrW98w&amp;oe=690F155D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwG7qiL0&amp;_nc_oc=AdmbmViajjBzC7cGbxoywCdYpTIpv-x506XcPhG3LixwfO7X3u-NmcSD7GtlpqHBBK4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_AfcW-Xxp5HmLO_QsvbDiTRd23RdblFHu88ahBl1zDi9Atw&amp;oe=691066DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwGt4ogE&amp;_nc_oc=AdmZlRL6Or8sNAS3Cd7B6LS8b1BHivaj938SPiMKSlaqp5HKhKXhC8CXfLy8K9tfk-w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_Afcwzr08iW3MZHfCGcJUBerN8iy3UUwrS_FRd4hHyrW98w&amp;oe=690F155D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwG7qiL0&amp;_nc_oc=AdmbmViajjBzC7cGbxoywCdYpTIpv-x506XcPhG3LixwfO7X3u-NmcSD7GtlpqHBBK4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_AfcW-Xxp5HmLO_QsvbDiTRd23RdblFHu88ahBl1zDi9Atw&amp;oe=691066DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwEGjIpe&amp;_nc_oc=AdnVLkaYFGutgdtbuZ2Nd-03CHzWv5_HYNY_2vdfaN8kJxo-6ed3IoK6PXI22kyDYsQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_AfftbExyMWg8Jbs0mviIS7A7oHjFu5WRvdjZA7kgqTPFyw&amp;oe=68ED96CD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwEATYjT&amp;_nc_oc=AdnTK3B-4AgiUU5xyt0qPtucYHHq1Clxd6TBHf7RIfeMjSNX5Y_UZt7quB1dKJXxD0A&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_Aff2aN02VBanz4qspRyARhoRXrq0iiJIgBddFAYuiJZJ6g&amp;oe=68EEE84D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zavw8q2ADdwQ7kNvwErJjNW&amp;_nc_oc=Admggfyn5pUIQuKjK41rzjXxseARa-iJcrRJeZAMxjVUpQSZfRTSIXGTA51IgH8dL0Q&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=lFlT3srEI4TOL_1-7oc-lQ&amp;oh=00_Afe0Su9gkClmfcDSHWAIMvHTdfetR0omnhePXKrObXwnRA&amp;oe=68ED95D0', 'profileId': 'pfbid0RNPQXdTA9knyeh2TfiwDPgZ4aSXzfG16kCauxuxrJ7LZKp3eYbBqTY8SFQo1Ld2pl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zavw8q2ADdwQ7kNvwHyZemE&amp;_nc_oc=AdnZmMDmh3hahbuNVCehiXsdtmqhiBVcjuk-a1VC6AaBBLQ4c7PEYtvcM1zGjhxWbGY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_AfftBrfjK2lSIS8gXJHEXXEYdO5FLRDehPeo1M8UXU8lQw&amp;oe=68EEE750', 'profileId': 'pfbid02VDq7iJNz13zkiJ8PsYtdp2f6ZCWL6Q7Cc4UEGN4FU1AoUJZJCrKmr7ebcmeDCVF5l', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid026gauYNChRHd9zbReSoVXs5xNv1UWnBDfXs55aCYYUYvgLGpM3vdHvGGMMLmizaAbl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=16RC53--S04Q7kNvwGw8bQS&amp;_nc_oc=AdmEjnY5R1EMC1L4jpJTdmhLVCCid7sFw4rrzimkahxBNnTEuoR-PvQ2htE3lr0hieQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AfdURHc_B8HJaHizqBAtVVqB0tv1p8bDSLm2_lTYLiq3zQ&amp;oe=68ED8E7D', 'profileId': 'pfbid026gauYNChRHd9zbReSoVXs5xNv1UWnBDfXs55aCYYUYvgLGpM3vdHvGGMMLmizaAbl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid038widCaLZyZho6SezXsFcbpv3Ere24MvQkpbwpbAACwdLc3d6C1T5yavPJs7iYJNl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=16RC53--S04Q7kNvwEq4Jw8&amp;_nc_oc=AdmXeP0sPIjq3RXjVu8wLKQcgfYbnqzdozkwcg3HGCRtnp06E4fCaQdlvDbPjPHOKSw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_Afcy0Wahi-2t2xmMouH3rhoUnQASSK5hBQ7pIcY86jJJCw&amp;oe=68EEDFFD', 'profileId': 'pfbid038widCaLZyZho6SezXsFcbpv3Ere24MvQkpbwpbAACwdLc3d6C1T5yavPJs7iYJNl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=S7Q1ormNRocQ7kNvwFNYilp&amp;_nc_oc=AdkjNva4sPmhaQlcgS4kmn9dWOyke7yBQB6nT6t50fmIcRynbVZkNHMlAZkcb9PQC6M&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AffVl3Kxt5FSKa_9srlNnQvAWZ5D6ihuZmlIGQg6rc-Kkg&amp;oe=68ED7771', 'profileId': 'pfbid0pYsaEfzbJqKJKCLXVBHwBcV2gmtmqD2o8buMr7DssgSAaav5v5kDDNK7cw4rsFh9l', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9qockRViEfoQ7kNvwGuXili&amp;_nc_oc=AdnBHVtsgsiw7dTXi7hHGzL3-T2gDoqzCFWEP46tRW6_Jf8_5-gvS95RfxDnjDgu2Fs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_AfenoRl_skdBA_-EG7K2qgXCs0zRxiDxMM-EN2utC_fKtg&amp;oe=68EEC8F1', 'profileId': 'pfbid02tQKHRLvRANrDhdDLTETAwkZpH6oxbtwmVDco2uHm2uvduaZ1yvzwGeczAe1Q8U1Al', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Ulhbo0Y2EcoQ7kNvwEsavS5&amp;_nc_oc=AdlfW4nLnsufd8VTWvh97A4RtaPWgPF7iQ3juF6M4Ue0tQIAxjoe_bFlI4FsIIwZyOI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AffpKLYWtxjioHGLt2ityCIugQoTYoO7o6s7ktAQAJASRw&amp;oe=68ED8AEA', 'profileId': 'pfbid0Hj6wizywu4LgXP95nqLJwoLycwCpfZVBuAweMoXBvg2wgGuaXZ4uaoZQz7eWyAVDl', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=px24XD9wkqcQ7kNvwGsxvQ1&amp;_nc_oc=AdmJ8cREhbrIWpFstz5A-J0spZr_XzTF4qKH8TUzeEjNVnpXqvAHdPCDKIoV_BEFMTk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_AffCGfax8UGEg0FprPxzQPpOIMDQzvHV-l7SO503SUbDBg&amp;oe=68EEDC6A', 'profileId': 'pfbid02M6b8M2LZvhNQvrPDqEzuRqMCU1LNcBbfhfCT8qDhi9cK3EPzQ6nNCJ78GvNcKDy5l', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8jYRYmNxqfEQ7kNvwFbcc4N&amp;_nc_oc=Adm9_lVGGeLy4lqIRIgym9RW_S04Zvdfuazgp4fSZv2KFSpBRf7-_BQZ9A6jMnnFfkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_Aff_lWGtJVkhhVmiwLqF6yh9u-nbU2_TOfBocZx7A5gbsA&amp;oe=68EDA813', 'profileId': 'pfbid0FJ7WXMcuNaXF49RQw9cNFYAuMEJiptw1iLPdeMtRZ8S43egtimy2NgJJqCUXQ4PTl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2HJ0no3yECMQ7kNvwF5wwW4&amp;_nc_oc=AdnjnG-bcljZa1jcCmjuUMfYVX9-8gPzwWeQgra5tF6eAGcJEsMRrcRnKdTEXUoZ7tU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_Afc8HKqFgz1L9g7wWIibl3yN8psOwJhUffyWK4JhsrZUKA&amp;oe=68EEF993', 'profileId': 'pfbid02K9ZDi2YjE5mUptEjuTfCdwgxVuUzzs1cxqSVHHArATweQpj8mJv1EsJxoiGGUo5rl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gHxJHKqTMckQ7kNvwFUze7x&amp;_nc_oc=AdlbhqqZ5RxIUz6GIMfRrw_sWVsnIgVVKNI_EJQnqd-_6hVE4a4me_FRebG8A85V3fA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=fd8QEhd2TPxFeC2sB--oBg&amp;oh=00_AffoT63gdKyBrre-7feMugfHH_94lTh_iBxn_NbxaUoy-w&amp;oe=68ED91CA', 'profileId': 'pfbid04EBAQ5HeRB48B344q3NDkaEkcD2qC9UVJeDpzHq6i7fU7Rjoz3ouooNfYNvByDRel', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gHxJHKqTMckQ7kNvwGjIEGM&amp;_nc_oc=Adm9xDNLYjGumCVn8b5dYvqlbQ-6iySybzLPWicPI-sLLlOHFD3q9fOiFnTqrC5t0H4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_Affn05WoE7-qPuogsKeNAbhh6xDH_GHe1Ge70jiC1yHQxw&amp;oe=68EEE34A', 'profileId': 'pfbid027bfM26eGStk4tvrzJnWDxKYbTAEkx9iFeyG15NXHH8kjNx1cBAWcy2jE69GYSVwFl', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid028Yp4TyWFbQ72tnbP2b1bPvGfmdma5AJErci7Q4MjCQza5WYmpwY8LvdjMSzzevHnl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwEG4ixC&amp;_nc_oc=Adl5_np8IXPxh1-pEi94iogYStJEzMIFZXI-D4RbTiBgFDcMiO211X-iBTF6b5IBaxI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afe43TgoIptWccavVn3ain_jsfg4zM5-JqtJ6IhWejcm3g&amp;oe=690F3D7A', 'profileId': 'pfbid02jhYefNtzPxUVqA4ojYnKnJAyBthuAdroXEqGnKwHeuqZy7iak9gKPpNqT9fvjGfAl', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwHNoEhu&amp;_nc_oc=AdkbUjjyjGekroBNRkGwp7cYuxcRld0CiYk_eDjMcFtNUQaLqrZluiNFF7wc6r821Tc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AffhmkXTItoCzEtLa-2AaQz_LUhFsAoswq6Wy_rPKEHvlA&amp;oe=69108EFA', 'profileId': 'pfbid0ffwwBZhRiyGmNjJ9H5KzCVw3EZmHq58GJXeYiYCzNWiCqyGXhifPpKPHPbCYuSJal', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,26 +577,12 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Amén</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45929.78123842592</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>18:44:59</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -607,17 +593,17 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=25283506447921513', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI1MjgzNTA2NDQ3OTIxNTEz', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNTI4MzUwNjQ0NzkyMTUxMw==', 'date': '2025-09-29T18:44:59.000Z', 'text': 'Amén', 'attachments': [{'__typename': 'Sticker', 'animated_image': None, 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Love, hand holding flowers', 'pack': {'name': 'Likes', 'id': '722010354492041'}, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/17527812_1652591011433966_4391041969200037888_n.png?stp=cp0_dst-png_s110x80&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=23dd7b&amp;_nc_ohc=nViYyq0dwFIQ7kNvwGKJz9p&amp;_nc_oc=AdlxfNsowXCN1iPtBiYTurN1fbVR3hYccIpKj6enQyEB3vQkDy8p2QWBGDXZkhJGf1Q&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Affw5gpQbjZL5-i7d4KpnPbJcCH8Z2VzcUqwelnFQk0TBg&amp;oe=68EEF4AF', 'width': 80, 'height': 80}, 'id': '1652591004767300'}], 'profileUrl': 'https://www.facebook.com/nora.chaguendo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/327480614_1350697719041502_7859625374793057319_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oUSOjA-mgBwQ7kNvwHVwGZO&amp;_nc_oc=AdmXoGvmfwUG7_vmIodPmzOwiWQm42gwStqa273imDvq3PdXIgK1GU9lf_CiODForgE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeO_qftu5qvyt5SaaxkynSkh1jgTUmVs933sjxOkjUY_w&amp;oe=68EEE0E3', 'profileId': 'pfbid0GXRnNAjwHAc4AsbUYdMSp1AVPz7pvsqNNq8BKJYbXH2ndAnzzWPiX58iGq4kBUaul', 'profileName': 'Nora Gomez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -627,30 +613,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>🌹</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45924.14524305556</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>45924</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>03:29:09</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -658,16 +630,20 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1467264927843947', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0NjcyNjQ5Mjc4NDM5NDc=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDY3MjY0OTI3ODQzOTQ3', 'date': '2025-09-24T03:29:09.000Z', 'text': '🌹', 'profileUrl': 'https://www.facebook.com/flordemaria.mancipebentra', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/518335687_2004636440275763_2393397630453796409_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Aze0ym6SQ7wQ7kNvwHehfnf&amp;_nc_oc=AdksMd848yyA_0mDee_oDYKPlXZc3olin1c2flTubLlwQuMbgU3AL8UUr_mqXC0arx4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfdkckOAulcoTWHwqsu2JFk6UzwQcXh8ohZqDKVQIJc9pw&amp;oe=68EEEA66', 'profileId': 'pfbid02fo3aAHDWoP4YQtdqCnTp8b6trvqsQdrGN1jZxw5Ty1TaCLTQkY6Lyn87efE8pAJwl', 'profileName': 'Flordemaria Mancipe Bentra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -681,30 +657,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Esa es vida feliz viaje y bendiciones 🙏👏</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45922.75929398148</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>45922</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>18:13:23</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -715,17 +677,17 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=2150507188773106', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzIxNTA1MDcxODg3NzMxMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yMTUwNTA3MTg4NzczMTA2', 'date': '2025-09-22T18:13:23.000Z', 'text': 'Esa es vida feliz viaje y bendiciones 🙏👏', 'profileUrl': 'https://www.facebook.com/mariarene.sanchezcifuentes', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/422452326_1055338635775828_1908545714482935649_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-hk7XOX6accQ7kNvwHgZ-38&amp;_nc_oc=AdlsE6sG1CZYmWpWnBq5RLHHfDy2yclffaNvLs4XGVUPXuNAbUmSMeVkRJmE9l3mJlM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfcflLGufL8EfWYKB8xFB5YEdfE4YZlKRAkiYpYc1dbUAA&amp;oe=68EEF65E', 'profileId': 'pfbid02NtZFLjCutxym4rWYvbYUrQeQv8D3bUDPXvvjnkfNwH4vxgS8Fwbo7ebvGsgWtTk7l', 'profileName': 'María Rene Sanchez Cifuentes', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -735,30 +697,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Amén señor gracias por todas las bendiciones que me das todos los días</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45920.65432870371</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>45920</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15:42:14</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -766,16 +714,20 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1092845749251613', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEwOTI4NDU3NDkyNTE2MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMDkyODQ1NzQ5MjUxNjEz', 'date': '2025-09-20T15:42:14.000Z', 'text': 'Amén señor gracias por todas las bendiciones que me das todos los días', 'profileUrl': 'https://www.facebook.com/carmenza.diaz.775858', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/250997091_104072945414344_8591427649371821740_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0AozR4IJLPYQ7kNvwE8DO2A&amp;_nc_oc=AdmzpmDlo11IgiOFYZBx1oR6FUY-cEvV-VvIIoKly8Rk9LaGnxOrG_IwL1PvZscoC_M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Afd6dG2CcRt1dQbQTIz313heTEx3FM6aP6qXhzsu8ZDBWw&amp;oe=68EEE8DB', 'profileId': 'pfbid0RGpQsmErV4tMFXS7cZeVeLrd9Zf51cqHXspVSQtK6p2iEinbmwNj4VPwcBjpVrvJl', 'profileName': 'Carmenza Diaz', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -789,30 +741,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yooo</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45921.6556712963</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>45921</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15:44:10</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -823,17 +761,17 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=999128775639159', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzk5OTEyODc3NTYzOTE1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml85OTkxMjg3NzU2MzkxNTk=', 'date': '2025-09-21T15:44:10.000Z', 'text': 'Yooo', 'profileUrl': 'https://www.facebook.com/doralbamabel.cardonatorres', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/506654840_9896725240382923_1497392616419121739_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=ApJCGBv-fgsQ7kNvwFWzAPC&amp;_nc_oc=AdkSvW9qcMPNXoz4HCM-Vq_8YHZUlb9zlVvdoKsu-7rFh0Yf3DV0_821WtikAMo3nRU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeijsuGK1W5PufRAzLm7lIfypO6VBBmDX9WQn15C_CkRg&amp;oe=68EEC46E', 'profileId': '100001366354447', 'profileName': 'Doralba Mabel Cardona Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -843,30 +781,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rico</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>45919.72311342593</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>45919</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>17:21:17</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -874,16 +798,20 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=2732411290283262', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzI3MzI0MTEyOTAyODMyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8yNzMyNDExMjkwMjgzMjYy', 'date': '2025-09-19T17:21:17.000Z', 'text': 'Rico', 'profileUrl': 'https://www.facebook.com/people/Caridad-Roble/pfbid02qKYFCp4TG17ixHF5s24coS33BazbiChRUTBXxn6Gm4tgvS4ur7LXcMtse7a8XKx8l/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494212630_720760037297632_1207259791400522641_n.jpg?stp=c165.0.990.990a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=womlT-qGI1EQ7kNvwGeWppC&amp;_nc_oc=Admbdm8h78JLry4VMxTVBpb56atoIYERV_1MkFgCZ8TqqQC36WoDRpFiobsTP_lv5pA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Afd2jSwsy-GRwe4YlDTjiE1pJnXoY6uynlbNRxFkiigm-Q&amp;oe=68EEE857', 'profileId': 'pfbid02qKYFCp4TG17ixHF5s24coS33BazbiChRUTBXxn6Gm4tgvS4ur7LXcMtse7a8XKx8l', 'profileName': 'Caridad Roble', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -897,30 +825,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Eso sí es vida</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>45917.72106481482</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>45917</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>17:18:20</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -931,17 +845,17 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1745276896351465', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE3NDUyNzY4OTYzNTE0NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNzQ1Mjc2ODk2MzUxNDY1', 'date': '2025-09-17T17:18:20.000Z', 'text': 'Eso sí es vida', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/272042821_1070400413812262_2455517436817537469_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gp5tGgNVJKIQ7kNvwHQZuKE&amp;_nc_oc=Adkkm8Uxl2RW41cMy0yEKwfslk7w1XXsMfEhu7oJ24NMdWfDCfYL_lTFPUSaJDor5m8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_Afd8EATt2dlc-4ma_pNa8Fz0DzQazyxb16EZ0f818AAXeA&amp;oe=68EEC709', 'profileId': 'pfbid02q6ep2u13iGH1JKQdopKC9sSNJqJScPR5NebAfhesQ7go8rE8cNLbAGhbVhKjrJi7l', 'profileName': 'Beto Villa', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -951,30 +865,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Trueno</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45912.8341087963</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>45912</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>20:01:07</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -982,16 +882,20 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=782578134355854', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzc4MjU3ODEzNDM1NTg1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83ODI1NzgxMzQzNTU4NTQ=', 'date': '2025-09-12T20:01:07.000Z', 'text': 'Trueno', 'profileUrl': 'https://www.facebook.com/people/Jesus-Saldarriaga/pfbid02KaM5c2sZy2epLyJNargdKFm867hCgUoWGf18NocvdQuWZ6iXHJhDqHhRS25zkvUPl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467741496_559750233448308_8381017798912470002_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=C-01ysaoh34Q7kNvwHkdfZC&amp;_nc_oc=AdmsHI0wf1wMTwkjYglzwNBS1LRLV91Bxt3757eMxdPABQAgML5iYaKMYA_xXqeTi1A&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfcUc3l1vKlbHIF_dxaiS0giOo51QsBQOE_nfEXLNLq5sA&amp;oe=68EEE916', 'profileId': 'pfbid02KaM5c2sZy2epLyJNargdKFm867hCgUoWGf18NocvdQuWZ6iXHJhDqHhRS25zkvUPl', 'profileName': 'Jesus Saldarriaga', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1005,30 +909,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Eso jamás la superará  aunque ya no esté  sigue siendo unica</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>45924.59932870371</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>45924</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>14:23:02</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1039,13 +929,13 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1328310964949708', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjgzMTA5NjQ5NDk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzI4MzEwOTY0OTQ5NzA4', 'date': '2025-09-24T14:23:02.000Z', 'text': 'Eso jamás la superará  aunque ya no esté  sigue siendo unica', 'profileUrl': 'https://www.facebook.com/temo.rosero', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/279688536_142230685013633_8214223480401281768_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=BQqs5F5E3x4Q7kNvwEvX9NR&amp;_nc_oc=AdnMBRjckLpd8cAI6lZioB-V9M2sldvZHAyT4CVHW6mszKWCxtRd7K6qqsXAtvH6Jg4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeKU2fZO3toa8LtHm4rXyygtof0jdDB2cZKFeC4wuBE8A&amp;oe=68EEEECD', 'profileId': 'pfbid02MtnVGkbEdKq7cHjHutLFBdmgrM6jXvt56awcoa4Ut5JoXdKYLmUBLwPbJER9VQrWl', 'profileName': 'Temo Rosero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1059,30 +949,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7  66..años</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>45922.97435185185</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>45922</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>23:23:04</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1093,17 +969,17 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=706261685808985', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzcwNjI2MTY4NTgwODk4NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml83MDYyNjE2ODU4MDg5ODU=', 'date': '2025-09-22T23:23:04.000Z', 'text': '7  66..años', 'profileUrl': 'https://www.facebook.com/lucia.rojascastaneda', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/518275714_2712014979189835_7362095053157768840_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=uzEqlTs-lUwQ7kNvwGNkXGl&amp;_nc_oc=AdmpXMSZkNdTEWp_QJOHeSmco3yJancDkfDP34cr42ATGxPNZ0o0X-wR3_-0oSqd4fk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=sFQVkQITWHW58-drdTJdUg&amp;oh=00_AfeldtCKMh-opE60_sT_f4cchNYGJ7Oj61uX1UJEDjWx2A&amp;oe=68EEE41D', 'profileId': 'pfbid02GnVqiuzfxokBQYH3EWjANtWojokz2iK5sAwvdbHQUEUoLFSGoMpLAH6nVEL1Gf7bl', 'profileName': 'Lucia Rojas Castañeda', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1113,30 +989,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Exceso de azúcares y grasas saturadas🥴🥴🥴</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>45918.98391203704</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>45918</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>23:36:50</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1144,20 +1006,24 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1320334036769510', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzEzMjAzMzQwMzY3Njk1MTA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xMzIwMzM0MDM2NzY5NTEw', 'date': '2025-09-18T23:36:50.000Z', 'text': 'Exceso de azúcares y grasas saturadas🥴🥴🥴', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/526895340_10163678864113383_3020472635979805824_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=gNSpyORQHzEQ7kNvwFVtiPH&amp;_nc_oc=Adn2vo0ZgThcQd57896CLWyK9lRY-ShjPlsfHS0lSA6V1qHYNQHXzMaK3E5HcBa_nM55zv0HzxsibzQ6VYxYDfF6&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AfeDbPBzRm7qBfElvje--ySMf--O_IRSMmIfZAVzb8He4g&amp;oe=68EECEA5', 'profileId': '757283382', 'profileName': 'Lilo M ST', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1167,30 +1033,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>No lo esperaba de tiiii😂</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>45928.75578703704</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>18:08:20</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1198,16 +1050,20 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1485702869436678', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0ODU3MDI4Njk0MzY2Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDg1NzAyODY5NDM2Njc4', 'date': '2025-09-28T18:08:20.000Z', 'text': 'No lo esperaba de tiiii😂', 'profileUrl': 'https://www.facebook.com/ariel.antonio.tuiran.polo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/542759887_755566133852666_3240506251015648475_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=aQbxfLhEgcMQ7kNvwGt0QKd&amp;_nc_oc=AdkMftHhfDISQKlETOBYnI9ypP_I_IoJgAdKlUlcvx23gptfBVhWgeJwGWp0rAs3xqdRG2jxf3fB2EoVBwMDEv-N&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AffrwgCBpUQDjcETs7_HzCv2W6WJALWbd14bnl3DnslmHA&amp;oe=68EEE04E', 'profileId': 'pfbid032yfAiHz4xWAFmUrMXUSQgjR4dUAVrA6TvWdJzkiSBMAvzmBkdpbbUW23MvVnjHa1l', 'profileName': 'Ariel Antonio Tuiran Polo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1221,30 +1077,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Ñ0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>45915.73059027778</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>45915</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>17:32:03</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1255,17 +1097,17 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=809740404898568', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgwOTc0MDQwNDg5ODU2OA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MDk3NDA0MDQ4OTg1Njg=', 'date': '2025-09-15T17:32:03.000Z', 'text': 'Ñ0', 'profileUrl': 'https://www.facebook.com/ruben.galarza.31542841', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/469574495_925851212813130_1551547109940827852_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3jkhxHVPE2wQ7kNvwE9O0zr&amp;_nc_oc=AdmGDVi0VjT9gijXgCWPX95E8FI5Ctk0zJcsPE_EvhYM3Nkck42JI4EGHgUfyJ9NRlTwVyWmN6yLNZIFYsCXlKYW&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AffbBN3VTZtW4dWdVRDLaqXVxBO_zLJI1bIUHPoEWp7s8g&amp;oe=68EEEAA9', 'profileId': 'pfbid071oopVaJ5sG74AbNaGFpiuEcb3iR4HYjAh5WpVwvadrL9uRPLmcbtrPfDy72tsAYl', 'profileName': 'Ruben Galarza', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1275,30 +1117,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>De dónde eres</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>45922.55671296296</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>45922</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>13:21:40</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1306,16 +1134,20 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=3984064485188825', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzM5ODQwNjQ0ODUxODg4MjU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8zOTg0MDY0NDg1MTg4ODI1', 'date': '2025-09-22T13:21:40.000Z', 'text': 'De dónde eres', 'profileUrl': 'https://www.facebook.com/cristian.rios.atehortua', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/506347995_122186394584573957_5954885240999349585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J2-wKOebpM8Q7kNvwHjfsJS&amp;_nc_oc=AdmsWQ3KnFJjdJyAEfbaWsB8n4pyylBdvg6KdGCyH6YfwENiNX4Nep0_AiUJaWNlEuzVzkhtWpZd9p3qZaSv2kh_&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AfdLEZcAiHZIB9BPDJ-8NsRDeNu-ppqpoH8My2-bJ3eLNA&amp;oe=68EED475', 'profileId': 'pfbid08irv2K7t7adjDJ2af4LmeC3bkWcJ4EwU1pXiiGocjRNuw459kX7JjK7yv1ucRHDUl', 'profileName': 'Cristian Rios Atehortua', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1329,30 +1161,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AMEN</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>45912.51775462963</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>45912</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>12:25:34</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1363,17 +1181,17 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=1407889856942822', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzE0MDc4ODk4NTY5NDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml8xNDA3ODg5ODU2OTQyODIy', 'date': '2025-09-12T12:25:34.000Z', 'text': 'AMEN', 'profileUrl': 'https://www.facebook.com/jesus.maria.lombana', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/486055081_686855823910981_2584497190812219868_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HO5AyrhBCxwQ7kNvwEOMhvK&amp;_nc_oc=AdlBgnPPj_QwVURXaC_B1YbSyrMrLAw6wTmC4Vq8SIKwk-dAAdyI0m3vNwDf5bWgKBrA9d7Gxv8BB7DzIjnvCMhs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AffvIN4Fd8shemEX_tC5Y1t_kBPAWOC7h9jHJvYElFIqDg&amp;oe=68EED34C', 'profileId': 'pfbid037KcAH5oEYW3cUYPTVjMHYjqtR8ErsEeaYbN65qXmiAAVYhS6WNguVs4xyNDGAhPfl', 'profileName': 'Jesus Maria Lombana', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618253743745/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1383,30 +1201,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600207078883/?dco_ad_token=AaqCuxpQRkElHpDWah_cxlKSxActg7DQPMl0hc0MAYyeOjCaPH_Ru4XNz8IgJeO5w2iT2H68pa7WF1X0&amp;dco_ad_id=120231961149310767</t>
+          <t>https://www.instagram.com/p/DPHbZ51jBH_/#advertiser</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No e</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>45929.12488425926</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>02:59:50</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1414,20 +1218,24 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0F5t8X8NM5JzSskSDzSyG5zmQwFQKA5z7jyQchWz6EuRUy9Ljyuy4tdep8QL4EGaxl?comment_id=820715663731690', 'id': 'Y29tbWVudDoxMjE3NjAwNzUwNDEyMTYyXzgyMDcxNTY2MzczMTY5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzYwMDc1MDQxMjE2Ml84MjA3MTU2NjM3MzE2OTA=', 'date': '2025-09-29T02:59:50.000Z', 'text': 'No e', 'profileUrl': 'https://www.facebook.com/claudiapatricia.castellanos.3', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t1.6435-1/100105927_246872899878031_2386640621180813312_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlR2Ud6pexQQ7kNvwGQye5i&amp;_nc_oc=AdmoaPxRND6D05_qdRSWSpa0tE9GXicw57LgRMsXIIBuhKzWgTRYJoUT13K1H8yp89116JoWxTVd-jNEgjP6X6qq&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=r_EAPQLwbA6ufC5hQApEMg&amp;oh=00_AfeYGgNQc-O8HSl-gWXGTovfSehAfIhNXqSOQD4HUxJdLg&amp;oe=691082A5', 'profileId': 'pfbid02RHFgwMMnmKz4TWsqyrnHyVke59zDjApuYHpKMKKiR9vx31JJf4LzyyvAiVFp3k4sl', 'profileName': 'Claudia Patricia Castellanos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217600750412162', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600207078883/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1437,16 +1245,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJTjIVE/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Comida de peso pa varones 🔥💪💯</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45928.89277777778</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>21:25:36</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1454,20 +1276,16 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwFiqlmd&amp;_nc_oc=AdlpmqtF6wsUpaxaTjRDx5FE53P5QzizWdYufZ9nhQU_HJYQuW81KPjjYT6HGOj7l58&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_Afc7j5hZT67VyT-D1GCSmxPh2LBu4cKs49nMGQ0Hg7Fwag&amp;oe=68F041A1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwFiqlmd&amp;_nc_oc=AdlpmqtF6wsUpaxaTjRDx5FE53P5QzizWdYufZ9nhQU_HJYQuW81KPjjYT6HGOj7l58&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfcgWesPFF5jxPjVanUs5ye0M1vBCRqx9hKmL-ZzEeBDIA&amp;oe=68F041A1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vGcS459NY8sQ7kNvwHlAQ9x&amp;_nc_oc=AdkTFVuFeZGf4D9SIk_9thThPdOrDCPy0UQaFEFhVmTlZsP8mYdJ2lwWV6XXvQFT-ag&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfejUnJ345eX9GZEiuYMOOVO58BPs1Dy9XkOgJfmRLmu5Q&amp;oe=68F03BC0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1481,16 +1299,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618257077078/?dco_ad_token=Aapo8zuvcXtK-zKs3fq54hhriR3rW_eNBkTvSpqpJmFZzN_KxLLBaUVQuVYZP9JCMqteMuXxfnLyMoQ2&amp;dco_ad_id=120231960556670767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Par de MK</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45930.1530324074</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>03:40:22</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1501,17 +1333,17 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618257077078/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IOHOZASovbQQ7kNvwFQvdCl&amp;_nc_oc=AdmYIFhrKfse_eCRqhNZpSAACJBMxQBler6GVCuC9K8IYytZIFhEzF_sGIW5G0hfibo&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_Affpjc7xrtvEZBgjubrV20vebfc_EFPKDUjVYRIOnlCrjw&amp;oe=68F0121B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1521,16 +1353,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIQHDI6q/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bueno primero fueron las chocolatinas jet. ¿Que está pasando?</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45930.61596064815</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>14:46:59</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1538,20 +1384,16 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5oPp414HpB0Q7kNvwGLzwC6&amp;_nc_oc=AdlxyuJAGsZ1_rSRa0C_7QPOgL2RYIJretjCFlPo92uU0ARbxUUXf48nKoRqi0FyYo8&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfdO4m2Anj3vLhLkcvu012pOwvPO5kOnYTV62y15dap3qQ&amp;oe=68F03747', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1565,16 +1407,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600220412215/?dco_ad_token=AaoRhcx8gzva-fvCYY408y211x18z0F_3Biw0iCSA3dWxoO8AjJQJQbXjNtRxpcUm3nMtpJDHjcgRzJV&amp;dco_ad_id=120231961156780767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!
+Isaías 5:20-21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45930.50383101852</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>12:05:31</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1585,17 +1442,17 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600220412215/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FyrMnLicFjwQ7kNvwH9LaeO&amp;_nc_oc=Adl68pLp3UOEmuuBDgyhe7OJjDZO32_bPwiVkomOzathFXF-y9NGYFK5fXppc6jJRdA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AffREjVEFmqArJLMGrXu1_rhCmDSRJ5n-5yHd1mQKx5OOA&amp;oe=68F027FD', 'profileId': 'pfbid0B4cLHTtqv9ZNtLBnHUK9dm979VHHnYWRTWUfccMqyVXp94QfAHHPScjCE9etbq7Ml', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1605,16 +1462,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgKVjL8u/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dos votos más para la Polo poli</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45930.53417824074</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>12:49:13</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1622,20 +1493,16 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwF9oGYi&amp;_nc_oc=AdmwHhXEWPwhUePcGhEvtVjXA5AIQn59tZmn2cXPvRsNFY8Uu5A07CxL4PyW5TCmj6g&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;oh=00_AfeaLfsGqT_9_ZYol4ZH3HHFyxn5hxmxtiLTZxQc3FlVMg&amp;oe=6911E07A', 'profileId': 'pfbid0P8RoJAEeuiy5Vunji55qyTef768H8wDWfnRW5JWrqa6rRA4LFpUGG3mLZ4cMwsMul', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1649,16 +1516,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618263743744/?dco_ad_token=Aap-WxnXyBHXDz7rMydr4nUTndfmSaZlLDifE-L2DqUC4-KJ1gIjBVIuIKSPBApNV4equQoJNGjvueY4&amp;dco_ad_id=120231961490130767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Roscones con éso</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45929.15116898148</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>03:37:41</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1669,17 +1550,17 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618263743744/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0TfdBrb9WHFMrvNcfh7UP6C5CcguSdXF1PjRhjioDfMoDnCERdv5e4LomEdu4EQtPl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwF9oGYi&amp;_nc_oc=AdmwHhXEWPwhUePcGhEvtVjXA5AIQn59tZmn2cXPvRsNFY8Uu5A07CxL4PyW5TCmj6g&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;oh=00_AfeaLfsGqT_9_ZYol4ZH3HHFyxn5hxmxtiLTZxQc3FlVMg&amp;oe=6911E07A', 'profileId': 'pfbid0TfdBrb9WHFMrvNcfh7UP6C5CcguSdXF1PjRhjioDfMoDnCERdv5e4LomEdu4EQtPl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1689,16 +1570,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekId4DBos/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Patos</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45927.96673611111</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>23:12:06</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1706,20 +1601,16 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0LPxtr67fr278Dkk1xsNJHGY2LWgkkpNRJW2mdhRpZFg8R1X43vAyHNwAbD3rRpyzl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ahh63-1IbWYQ7kNvwGZ2Rvp&amp;_nc_oc=AdmrHU6mVLKIUD47gJjvrL-y3o2g82_Fr6nwNcIlGEUukcLr8SQ_vYpJ5NZ8CbBLE3o&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfceZq-Xoeu-IanmGkYsEo7JNEv-oxTaaT6qMTmSPApfCQ&amp;oe=68F03FEA', 'profileId': 'pfbid0LPxtr67fr278Dkk1xsNJHGY2LWgkkpNRJW2mdhRpZFg8R1X43vAyHNwAbD3rRpyzl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1733,16 +1624,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600217078882/?dco_ad_token=AarYFtUT3TEv7kbLxhxPSwTpEuSgdNf8Oaq_BV0Fn8wi240t82uQ1jCWAdzTqETTIeetXL_e5JUMj8PO&amp;dco_ad_id=120231961160580767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cual de los dos muerde la almohada 😅</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45928.13310185185</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>03:11:40</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1753,13 +1658,13 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600217078882/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUHqmUYTgCMQ7kNvwEGjGc0&amp;_nc_oc=Adk576F19iEOcAourXHzLjb5Jy4omn5eza5Aihh18OYLWgYc6IfETzwzkBz_fNIUxtE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfcFmPlxaW_HvM4crflNaNPNkRQQ83iA_UA4ECxAp2k6Lw&amp;oe=68F01B68', 'profileId': 'pfbid032gBmma9RwHSJL9Q5RJbNbYGym9Sv85FdkungVooh5ekAuwDyvYQ5FBEAgQBkb27Gl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1773,16 +1678,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618077077096/?dco_ad_token=AaoYWtSKZUI9Sj3JS6ttVjbb2qJRfctdqSnLprRVeY2aPoN7aTsjcyuOHDMpoczyvuVKR53hPaXEKTSP&amp;dco_ad_id=120231961518270767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0</v>
+      <c r="G27" s="2" t="n">
+        <v>45928.76094907407</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>18:15:46</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1793,17 +1708,17 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618077077096/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwFJeS7M&amp;_nc_oc=Adn6ajvWgVVjZR_l4vgBo1TovFQ2DklrzskmvFGjI96RJwIVGNo8FXXtearNIBatjAI&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfflzMmEE0Py5FgPMsf4UmCswbCm0nAYF-AfAx6LnSijtQ&amp;oe=68F024E6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwFJeS7M&amp;_nc_oc=Adn6ajvWgVVjZR_l4vgBo1TovFQ2DklrzskmvFGjI96RJwIVGNo8FXXtearNIBatjAI&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfczmyRPCsgOzKyT5Fj4Hyhi2zNOnYio3SnVfLBmyhpvHg&amp;oe=68F024E6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFnaAPz&amp;_nc_oc=AdkhHdX_EJjyvDKgh1dYys6CvtvxPxIO_75ohzvtnBtyftBNVX3e5sP4JBezpILo-qE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfcgwrylY9Y1pdqqOugkq0xoYrfSnJyoTrjr1qb5Miz8Ng&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1813,16 +1728,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemd2qDGPk/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45931.5277199074</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12:39:55</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1830,24 +1759,20 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwE-tDlL&amp;_nc_oc=AdmXTgmcl7qIuFViaQtSfUqTHVkG_uY5TM-T521HlRNDBBAXjuOpNV_-Xewi7mvKkQI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AffxRYR0Rs-KaoBTV8hx-xQMvefrxJVTEar82tnCE2nc5Q&amp;oe=68F03129', 'profileId': 'pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1857,16 +1782,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOekIASjMIz/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45929.97519675926</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>23:24:17</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1874,20 +1813,16 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q1SqO_SLzBQQ7kNvwF32KCC&amp;_nc_oc=AdmyLR_bzRD-f7WkdkwjeTZYkXPFJvw3QqMhmfTRJh2Bl0XZaNahug5aLBydKuYVQWE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Afefaz9ZvDB2QeBiv1qSTueItIZBPlEyMopPTOHyGrd09A&amp;oe=68F0422A', 'profileId': 'pfbid0Smy7njA7AQVKkSNtFSt5F2XQvJ4BJqZwtoeDY1315hhLCGMbh1zN81mEojnVmjepl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1901,16 +1836,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217600013745569/?dco_ad_token=AaoF89IFxE22tlbNX0I7jV7QlNZtp-TRp0V3C8Kboi6KvJj3uKPtSlgRZ1HV_nLUCdJ6lpAAZdbbbA7x&amp;dco_ad_id=120231960561750767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Par de mari cones</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45928.03414351852</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>00:49:10</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1921,17 +1870,17 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217600013745569/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_x8Tpk-FhGcQ7kNvwEVLOth&amp;_nc_oc=AdlMPQ-SK0rppaI5s0zcFm4oy7IrriK2Tgbyy2Nspc3xPYLl3cCwDRblf2zueiT9MJ4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfedWUJp64czaEov3hd6FpdFAFGZpTw7tFO5FXUD-_fBGw&amp;oe=68F03515', 'profileId': 'pfbid032k7oYsKKMiiXdMVYL7Q9CfgL5yn7S1XH567n4G4VazZmXqVwrz2DZUjELD5nV19sl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1941,16 +1890,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOemgJYDMpG/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Par de cochinos</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45928.91380787037</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>21:55:53</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1958,20 +1921,16 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iLYJtcGv6sIQ7kNvwH4Ovrp&amp;_nc_oc=Adm_pvecM6S0uBbCaDDjPxSPDKd6arDYuuAgPl0pxJk2rv2UqmSvy_drweh44T_l2B0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfeeSJIeN_0hZSxg9BRhApvcjlopiNEHmNLhGvO_2GJyCg&amp;oe=68F044A1', 'profileId': 'pfbid0do4ahwHaCUgQss2tSNS3L45qth2prPrcZSW39WpjtifRumvwvyoaXZaesBU3hUul', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1985,16 +1944,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217618253743745/?dco_ad_token=Aar6YkXNqqjfbtdLljovvAcbZ2pPFcu_oNBLy_eA0ELHW06fzdym-vbpBhzARthhL-LcPhDssUZTbBmc&amp;dco_ad_id=120231961430560767</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Raros utds par de muerde almohadas 🤢🤮</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45929.46361111111</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>11:07:36</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2005,17 +1978,17 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1217618253743745/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qL6Ft6o-kDcQ7kNvwHOVlSs&amp;_nc_oc=AdkPKU0REnazQZ_vE9Ih_1uOPEcRuNExfXBVDrp2FyUd3szi82Wu9wRGq6KVP4x8kh0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Afc4Wu_6LTfJvURbdQaN2vigKNb5Vv6B_PzHtQTB7D2wAQ&amp;oe=68F0447A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2025,16 +1998,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DPHbZ51jBH_/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>La verdad no</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45927.93817129629</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>22:30:58</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2042,14 +2029,10 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=jQ4G79ywtv8Q7kNvwFtWsGk&amp;_nc_oc=AdmAsp7HvzFRLCT5Bn5vXdlzn4v-dUeiBUYBerUgrMfG8LQmB03IvLrdmf5yTmkBiQg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfclKZ6BhjhejyvudbV-P5OxH5ks0QdKhA8qxpnxy4S-rw&amp;oe=68F03832', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2075,23 +2058,23 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Comida de peso pa varones 🔥💪💯</t>
+          <t>El peor comercial de alpina</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45928.89277777778</v>
+        <v>45928.8809837963</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>21:25:36</t>
+          <t>21:08:37</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2103,7 +2086,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwGH7ni6&amp;_nc_oc=Adn1oKfsuub7NBHHm0mtJ5eOLCnZehXw2OAaa6Kzh_2j0af4fLLBxUpSHbSzAmjPSXw&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AffjXZxnzEaxjIAnGp-dqnlLrW3xU2toWlZdyDoqnY0wIA&amp;oe=68EEF021'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=mtMvvzu5pNcQ7kNvwGH7ni6&amp;_nc_oc=Adn1oKfsuub7NBHHm0mtJ5eOLCnZehXw2OAaa6Kzh_2j0af4fLLBxUpSHbSzAmjPSXw&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AffOactnOfi_2Jnd0f7XsKat67sukN1KbbDwOwZ1CVFqMQ&amp;oe=68EEF021', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vGcS459NY8sQ7kNvwFqijtz&amp;_nc_oc=Adk-kMQb-e3pZWd4-ZQwGbhVlJAeLTe4Xq1IsjJhM8EnyuBaeoX_rFjq0xKEdJf2fO4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Aff7d1Z0YMnlgMIzuiH7R4eoPSUy3AiQS1v2P-wCszm_Sw&amp;oe=68EEEA40', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02Fo47EnHRKU2PiDweBJYqPWtCrLJMGw5pBEJvFYESrx4onXtiiM2USsoNrmyeNVvtl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q9uVuZDK-r8Q7kNvwETuUEO&amp;_nc_oc=AdlMkJ0gaCKef8MXlzpyxflFIm2VnAC9Tj6s00XIMVSq1QYMXz3FLetEHyD1-YZlHDU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfeFUo0xEo5pYAGBWBZyWUkO_OmCjkkDB4vJR-TUzRS7mA&amp;oe=68F04193', 'profileId': 'pfbid02Fo47EnHRKU2PiDweBJYqPWtCrLJMGw5pBEJvFYESrx4onXtiiM2USsoNrmyeNVvtl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2129,23 +2112,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Par de MK</t>
+          <t>Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45930.1530324074</v>
+        <v>45927.92600694444</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>03:40:22</t>
+          <t>22:13:27</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2157,7 +2140,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aDlYodaTflMQ7kNvwGEG9af&amp;_nc_oc=AdnEqXmJxsvCbfw1CLvP_q-8gZPA-OuixYU5ZqQzUM39V_8q-KEr078uGdvVSmLeXnw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afcdd9yZhQm13jnRl1Ifk0evujPH2PVvgcH4MXh2EI7dEg&amp;oe=68EEF8DB', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U8M_PRuSKK8Q7kNvwF84c2r&amp;_nc_oc=AdlHJONEQO31ivhJ7Ptka5aYnJBRicqfAYDZZfOSX6lZttAoyX9Ufl2OQkWhkLZOYdc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfdOBVaQ-0k_g_Wxc6sgPPmnz5yuUHAMg7V5ESYtUWz5oQ&amp;oe=68F033AF', 'profileId': 'pfbid03RsZq5qc9Z67bQ23ZQMTrK9WCHS19q3CayqdNo8DXDgPSKJNoNr5M2D8HCVT3omwl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2183,23 +2166,23 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bueno primero fueron las chocolatinas jet. ¿Que está pasando?</t>
+          <t>Otro par de culiflojos que tristeza</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45930.61596064815</v>
+        <v>45928.1515162037</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45930</v>
+        <v>45928</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>14:46:59</t>
+          <t>03:38:11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2211,7 +2194,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5oPp414HpB0Q7kNvwEuLeFW&amp;_nc_oc=AdnrO-JCtEdPyL_trKrnYnqxOho00abocL_Qa8XhvWop2BErH4aCF6rXRcmhPuME8ko&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AfcLufchmVH84xLcyrgsxK_ZltRlcpeXDHoADgT2qs2CUg&amp;oe=68EEE5C7', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GfqZsjobRTsQ7kNvwGoNyqt&amp;_nc_oc=Adk2vv1HLU1KUeU5wk9WBo-sqoge6Dff31d-TmyhJGw5WCC36w1gYyM4UrTxALco_F8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Afe-SlNnT1o0UUntC4TqS4JX9tQbSe3i974haf5prhmdJQ&amp;oe=68F01C36', 'profileId': 'pfbid02GjYqpgFrjhcAgNuVhNB2q3dmV1se3xyYb1XwXjuqQJbcz7EzQ4AYnA3rrUxPazJPl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2237,19 +2220,18 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!
-Isaías 5:20-21</t>
+          <t>Eres como rarito dice jajajajaja</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45930.50383101852</v>
+        <v>45930.13398148148</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>45930</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12:05:31</t>
+          <t>03:12:56</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2266,7 +2248,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YMfqekhY2RwQ7kNvwE0TUX1&amp;_nc_oc=AdnAE_A0Y0bnaaZvT9wC6G2jXDp4vMz6Se9ichbMNwooGjgWEXbmiRfv69B6SUPOSKc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AffYU1PLknuCXzw1TBxbXUrQy3hR7ZKcErOft_qdpQjiGg&amp;oe=68EED67D', 'profileId': 'pfbid02EcFXCdXCmXuiLXKL3FgpSxJWtLWcAwGJHtHNNWL9ykSKWWJ3wTLwY38wPup8JmEQl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4ad13hX2ekQ7kNvwGmX8Ds&amp;_nc_oc=AdmxA2p-_KW3LyGqRm_iMW2CAO2rPeRkN9NoSLnABVHd3T36AIBxapGd_HxmjGumYzI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Affq9MWgaXLVm5cWRgimWS3qLWwdnMRkPxdQU-V-aAE4OQ&amp;oe=68F0117C', 'profileId': 'pfbid02n9CATwhz1jx9haqWaP2fWvwXpz7BeQKoQp3irWJYwhJiKqJWm8H1M1Ntjtzmenyel', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2292,18 +2274,18 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dos votos más para la Polo poli</t>
+          <t>Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45930.53417824074</v>
+        <v>45931.52835648148</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12:49:13</t>
+          <t>12:40:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2320,7 +2302,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFBqk7M&amp;_nc_oc=AdkqVnW-gw4jE5aYBxke8cQsJoHBc58Oi3Drr753fgv98tcnPGgugnpv_3ZG_9I2y-E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_Afei7UQ4puFPDrkGSLcUdhx_jaa0MH3uCvonreCuBMzZ3w&amp;oe=69108EFA', 'profileId': 'pfbid02Sg4zDKs1m2R3U65ahKxc9TTGKyzntWSeVeSN7ux7xnxWaK8ddXLTgCnpa4vwhYeCl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwHrxXR2&amp;_nc_oc=Adm96Q4CcOXt44a23PGTbLosjHrqULcTj67_TWcBubKYUNvL5JacFOhPuH5p--5Y3v4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfciUFiIhmrAnUo_rKikZcpqEXqz00yd1G4txUArDTwfyg&amp;oe=68F03129', 'profileId': 'pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2346,18 +2328,18 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Roscones con éso</t>
+          <t>Este par de ridículos.. busquen oficio.</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45929.15116898148</v>
+        <v>45930.48481481482</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>03:37:41</t>
+          <t>11:38:08</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2374,7 +2356,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XhDuLQM4xHysb6BiTcEAurR12EzAX3YXDCi9cjBqyDKUCWxB6LFjiZb59wJiqRQRl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFBqk7M&amp;_nc_oc=AdkqVnW-gw4jE5aYBxke8cQsJoHBc58Oi3Drr753fgv98tcnPGgugnpv_3ZG_9I2y-E&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_Afei7UQ4puFPDrkGSLcUdhx_jaa0MH3uCvonreCuBMzZ3w&amp;oe=69108EFA', 'profileId': 'pfbid02XhDuLQM4xHysb6BiTcEAurR12EzAX3YXDCi9cjBqyDKUCWxB6LFjiZb59wJiqRQRl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pVeuVbc6pFoQ7kNvwGeUeCk&amp;_nc_oc=AdnaGBPU3gcMuDyeGLptQsC0Tsc3b8pKIue_nMbsf_CGGzBGRj52a5472Gt_PiYpe3M&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfcjIjrPLCdEgh0u-My1fOspfqQims_EGFS1QrdDKtPLsQ&amp;oe=68F01702', 'profileId': 'pfbid0w21aUYRjnAw6KdHjVdXzpK9cYJG8hJgb6cSH4q6FEMwZAX8JRHUkdQYy9SkFj4bYl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2400,18 +2382,18 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Patos</t>
+          <t>La media tarde será sacando barro de la mina par de mks 😂😂😂</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45927.96673611111</v>
+        <v>45928.5024537037</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>23:12:06</t>
+          <t>12:03:32</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2428,7 +2410,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QRZcKuKEWz9uB2FCExopcVPVNrsfBQaudLhJeJUKLyq5bptVdJukTcPfmykA8VkQl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ahh63-1IbWYQ7kNvwF5AaUw&amp;_nc_oc=AdmPEMs_ZHYKG-O95whmEf4PknHF-dnCjR2_k-EMRVz1X5yDVI-IpYuXrqfjQxMTCQQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AfeN1NfzTpVJMuDPM2N1To2IljKYgJPMEntCsgR_HjGLWg&amp;oe=68EEEE6A', 'profileId': 'pfbid02QRZcKuKEWz9uB2FCExopcVPVNrsfBQaudLhJeJUKLyq5bptVdJukTcPfmykA8VkQl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwEKwP8g&amp;_nc_oc=Adkx2U5IRZSlDeSFQTE6bkukyPcA7xZv6rKKqEmvuxg6YY0XcLCS6vt_57e_7KPDOT8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdT-UCghJEjVitVWBn9qIz1ZFzZlZ9wZoalDCt8G47PaQ&amp;oe=6911E07A', 'profileId': 'pfbid02dZ5xvp11ZMca3yMxcH7LpL7PYonZMwQhixNYxUaeKa74kk7YzoYVQHnneuouPDPal', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2454,23 +2436,23 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cual de los dos muerde la almohada 😅</t>
+          <t>Partida de m47icas</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45928.13310185185</v>
+        <v>45928.94643518519</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>03:11:40</t>
+          <t>22:42:52</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2482,7 +2464,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUHqmUYTgCMQ7kNvwGCxjdZ&amp;_nc_oc=Adl2TF-HjdkcvsRnxV02WOORGgAzQJiZ_dTyDtgst1X-LGYl4OqE-RM0-20mSIR-Q9k&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afe_lcThrrjjIfgbUagBxSmAESAWk4_SmE_mJg6AEjqOAQ&amp;oe=68EEC9E8', 'profileId': 'pfbid0yJhb9YnoubUTfNPi6Sv5Q4vfQEwED4pTvusczcw2ccja8HYFbaE1aJtVqHbubSBrl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lAc8OGWbo84Q7kNvwGiRf1A&amp;_nc_oc=Admw9li-kT1acwtT4aBA3bYqWQOFnXKZgoSJFMHSAROQsDTSIj5F8FipFoxZVZkKlhk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Afd_t5SY-_DD4-M2d0VB6FXqZ8FzH69qdGOd3h2LdMCAbQ&amp;oe=68F028C2', 'profileId': 'pfbid0jw6DuSJWTzrsKkQxD1RKwnu1fAe1H3mU1ZL5SmKGm5jE21aDFVCXuWgKbzzWqC2sl', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2508,19 +2490,19 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" s="2" t="n">
-        <v>45928.76094907407</v>
+        <v>45928.75989583333</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18:15:46</t>
+          <t>18:14:15</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2532,7 +2514,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwGNmbMj&amp;_nc_oc=AdmzpyWvLM_jJz44s9-ddjYGk48DAPJzWqclGL5QMXuU50mvehoRQLBxnD03cgnkWVE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afe-le-pENEyrXyzjFQ_416JQzXiwwz9jEqihjfZIKT4MA&amp;oe=68EED366'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwGNmbMj&amp;_nc_oc=AdmzpyWvLM_jJz44s9-ddjYGk48DAPJzWqclGL5QMXuU50mvehoRQLBxnD03cgnkWVE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_AfeB0HGfrMZGS18rELnFA2pul7MS0C9HqdJ1Ef3GjvaZqQ&amp;oe=68EED366', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEvp09r&amp;_nc_oc=AdlocOb7a2IAFOBCI_Tt5_65TQvchXNJzMtw7i2mPQ-IG5riFsPjPIXJMvsQUOkeQi0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afd_RYywCtQNiGOYx85HqkzLL2rAwEMsjwUbPIctYq0uCw&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwE9LVnV&amp;_nc_oc=AdkGKq759KLdz7E0Nw6Db_ZgLmoJJ8iKzM9vbN-m4uWG1_F93G_3mMGLAfDBnMljHW0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfclnvUKChUOmSqTRYCrG7cllAgHhh4DKaOVbe28TM3KqA&amp;oe=68F04348'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwE9LVnV&amp;_nc_oc=AdkGKq759KLdz7E0Nw6Db_ZgLmoJJ8iKzM9vbN-m4uWG1_F93G_3mMGLAfDBnMljHW0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Afcn6sKDqh1eqD0QM5UB5W_GRpCFHUJqTgVCMbmb7as78w&amp;oe=68F04348', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFL98Qv&amp;_nc_oc=AdmOoh_ulwQNi65uNiOBKH_PU4sjEVMC0g0Luas7aTWBS51Pp6zpi6fGvIcFSimNE7k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AferffLMGmk2qvTHv8KkJLXvtsunFl3Ie71Z9On5lTXIFQ&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2556,20 +2538,16 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" s="2" t="n">
-        <v>45931.5277199074</v>
+        <v>45928.76092592593</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>45931</v>
+        <v>45928</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>12:39:55</t>
+          <t>18:15:44</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2586,7 +2564,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwGVCqRg&amp;_nc_oc=Adn-RAlvS-5dwGwyXy5vY4N_tfPZucT1qXxF1nanYiDK5LU4asKd-k8e2qt8bUcgp7w&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=Gj7FPGgvIMDK1HvSEdHGkg&amp;oh=00_Afd1TX_RqQpSHnElmGz-XKvwf0AvS-H3CAfLYo1NZoJ4lg&amp;oe=68EEDFA9', 'profileId': 'pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwGx6Cpd&amp;_nc_oc=Adlz1PdnswGhce0kP8-YwndRcY6-afP5Hyo2S5NfUaOlMrlCHeuBADluRPKQxzszl_I&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AffDni6cz8bzrR6D77J1ybJrGfCDuWoW7_tZiz962CkQBg&amp;oe=68F020C0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwGx6Cpd&amp;_nc_oc=Adlz1PdnswGhce0kP8-YwndRcY6-afP5Hyo2S5NfUaOlMrlCHeuBADluRPKQxzszl_I&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Affl4wJ5PItVHSqGt4d0YFnKE-gIg6mP2KZXqd9vFzc7Ew&amp;oe=68F020C0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFL98Qv&amp;_nc_oc=AdmOoh_ulwQNi65uNiOBKH_PU4sjEVMC0g0Luas7aTWBS51Pp6zpi6fGvIcFSimNE7k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AferffLMGmk2qvTHv8KkJLXvtsunFl3Ie71Z9On5lTXIFQ&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2612,18 +2590,18 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros</t>
+          <t>Locas cochinas</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45929.97519675926</v>
+        <v>45929.33924768519</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>23:24:17</t>
+          <t>08:08:31</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2640,7 +2618,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Z1jFLB-UBgoQ7kNvwGcs63h&amp;_nc_oc=AdllJSohHEu4oCwjAuRnKnDNmss6p5lFZZ6yG12-5U6krM8OcoSNWil1xldE44MA4y0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_Afe2I_CVlqbdm2n4WfMzTdyGu6FYZ4JqtH156KixcBjzXA&amp;oe=68EEF0AA', 'profileId': 'pfbid02WKcJhtnU1aiuYXFFqeUYT3dCzUxYV1rvhGrjACRY5xPAcC81wKmcFq58A8d1CSndl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7V8nC2CcJ7wQ7kNvwEVowyj&amp;_nc_oc=Adn2zc4S7Wl4k6-790sN9yYv5T1LI-VHJkftnNXXaTD1r5ofBYnA33Hpuy6EmDOzFWQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AffHzvOScauh35Yxik5GVFq9WREyhXN_BJh-T0q24a9Ejg&amp;oe=68F02D0D', 'profileId': 'pfbid02SP9DK9X3hXv1JovDJ7hJ3f6YJ5Su5uUMu7ZjahwVEtD57TCjMYmxgJNs8pdcY3LWl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2666,18 +2644,18 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Par de mari cones</t>
+          <t>🤨?🏳️‍🌈</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45928.03414351852</v>
+        <v>45928.52097222222</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>00:49:10</t>
+          <t>12:30:12</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2694,7 +2672,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_x8Tpk-FhGcQ7kNvwHYWtqz&amp;_nc_oc=Adkec4XlGoYvw0Nks8ckhqYWW8_h5-4JTOvgbsNTbLLEk2KO58jeGhKPnZ7KBJUp4kM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfccShdP7xpfbCWG45xem9Kru2hEd6xgOwrbit8x2W9b9A&amp;oe=68EEE395', 'profileId': 'pfbid0yNdcvqxhL11rYKNvDk1FToyy56TLkcBU8tMASyPWDZjv4sK5CuVzvfSZk8U5Adcil', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nRA9SJteOaYQ7kNvwG6Cn-v&amp;_nc_oc=Adn2-qRjP3fuB6IBKVAHtQapss0ZkVPhw_MaGWu6CKjS-6vE79E_Tazn6WtHLwhqbi8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfdrtWpzDWKVff8ddPtqVyqTQ0sPSV1So1AjhnQgm1BU3Q&amp;oe=68F0198B', 'profileId': 'pfbid02eyDFMyvRrKEnwhZX3BynoecskzVtQFNaLwoNwFm9NdcVHs9w4MnMY3NP6ynMBWBBl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2720,23 +2698,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Par de cochinos</t>
+          <t>Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45928.91380787037</v>
+        <v>45929.02462962963</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>21:55:53</t>
+          <t>00:35:28</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2748,7 +2726,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0Cltf0DtpAsQ7kNvwEPEebk&amp;_nc_oc=AdnGNd2dAAtITtwYKaUM3XsXyksuaOS2SEIP3BJLrW03yRt3lynuriRmV7qsgmpFFvM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AffiUp0uMC-CQFqDCTx7xFtV_z8fisEZFhl4hKaEBIdMAg&amp;oe=68EEF321', 'profileId': 'pfbid025fPn4X8rEzHiUihFKKPD2kJKHohigY7KeE7RsH3HUZkeyvD5aUv6wmPAHxLSyAVHl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8P4LsnblbQQ7kNvwGXBcVC&amp;_nc_oc=Adlz79MQz43NdtttVZTbET-0sZv023KBLtRWPXsH6iCPp_D9U6XKIViwbs2KdoCcFJ0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfchGTxUHb4VTWBrpVbeMNGX1lNZ53OX15RBy0eOvnElbg&amp;oe=68F041BA', 'profileId': 'pfbid02tvtuUZXWnKsQPX8HBwpbHBqLYDqdf6c6wMyHApgFxe4C48CVdnWuWpMpodCJeX6Dl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2774,18 +2752,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Raros utds par de muerde almohadas 🤢🤮</t>
+          <t>Par de mariconas , que boleta.</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45929.46361111111</v>
+        <v>45929.03864583333</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45929</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11:07:36</t>
+          <t>00:55:39</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2802,7 +2780,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=G0XsijaWTxwQ7kNvwFM1CVf&amp;_nc_oc=Admi8FxspQgWnW6uWSLAocuiprbl2cgWwL0RTRqP_Wp6e-lli_LxW8210EAfBelYm74&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_Afeh-p_KmLt9F2pYS_zrzgixCmijMHFtFgcdsfI7oO7lZA&amp;oe=68EEF2FA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7nYDjEWqYGsQ7kNvwEsj-H5&amp;_nc_oc=Adl5czCK3OHydMn3OtRRcOecmf33VOmfa0sfI8JnlnNO-r2-QB2TrPW396T7IX0mfjs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfdMCza3Jlx4Zoppa6ppQvy4S69cyR7wH9-Adq96zRgodw&amp;oe=6911B64D', 'profileId': 'pfbid0XanJ68zjHr6Mn9a2FgMTueGktgscTPxXoLxXBfsRRJigDubtE8HDJRHfcAYmq72Jl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2826,25 +2804,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>La verdad no</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" s="2" t="n">
-        <v>45927.93817129629</v>
+        <v>45928.76074074074</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>22:30:58</t>
+          <t>18:15:28</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -2856,7 +2830,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=jQ4G79ywtv8Q7kNvwFD4qiq&amp;_nc_oc=AdkJsSfdfXfGy7iin0_6GcKXkaPyTRyLWVssBPNjSAXd-1Sp0DMREBKwMcA8J6A-Fks&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfeZWocDoobwpezoPY6JGyl1pHFKGGsqyZNWDTdhC2nu5A&amp;oe=68EEE6B2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwFCijay&amp;_nc_oc=AdmsZWqgZtwjzAw4wurfjrq6usqRMZlt5aCio5icS4z001tMfQWAadNBJFLWEkU47b0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfcgUwpjsCYTxqKjjWdYROlFR03ip6rQH-gPCP1Kly1nmg&amp;oe=68F013E6'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwFCijay&amp;_nc_oc=AdmsZWqgZtwjzAw4wurfjrq6usqRMZlt5aCio5icS4z001tMfQWAadNBJFLWEkU47b0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Afd88wZyeSn5MSyROrnPOydRLRoDCUheIbWwJbWnbIA31A&amp;oe=68F013E6', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFL98Qv&amp;_nc_oc=AdmOoh_ulwQNi65uNiOBKH_PU4sjEVMC0g0Luas7aTWBS51Pp6zpi6fGvIcFSimNE7k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AferffLMGmk2qvTHv8KkJLXvtsunFl3Ie71Z9On5lTXIFQ&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2882,23 +2856,23 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>El peor comercial de alpina</t>
+          <t>La peor publicidad</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45928.8809837963</v>
+        <v>45928.69450231481</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>21:08:37</t>
+          <t>16:40:05</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2910,7 +2884,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CRZvckvoHnHcuJvGmYWTGLCmk9ARiEP4Taz9BfeEWuWE2rjCr4wAmJWH3g2McSTjl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q9uVuZDK-r8Q7kNvwELJMRG&amp;_nc_oc=Adn7PWoPoZNbOZ67tfodDERWfL8mGvnbDPt8c8-Xen7SIYLhZdPOfQIOlJRoXS4SQAc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfdC5qUOqhNnh4DF_wXErrje3tWhCK04tvhtBoifwYk4sQ&amp;oe=68EEF013', 'profileId': 'pfbid0CRZvckvoHnHcuJvGmYWTGLCmk9ARiEP4Taz9BfeEWuWE2rjCr4wAmJWH3g2McSTjl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGagvDH&amp;_nc_oc=AdkBGmvZ2q6yQFIJ_6MlnYI9o2FgfK3NX6ckQLyysnn6vex3D4WipQoZXCl60gvLtP0&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_AfcwHxjUmuYy0LXSHPbOuCRntphZF606jrdRKsVW4Yt0lw&amp;oe=6911B85D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2936,23 +2910,23 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣</t>
+          <t>Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45927.92600694444</v>
+        <v>45928.79291666667</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22:13:27</t>
+          <t>19:01:48</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -2964,7 +2938,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8fLgOUnzW9EQ7kNvwGHnMO4&amp;_nc_oc=AdnGiUYQAqzPVdr5ZXRjeJ4uWj2KVdnsS4BK703NmyU4DfvMoavDNbSD9Hp40EXBOWc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_Afdf0nN47G19InramPt45eSJB8XkPaP3Aml_uhbVq9XVZQ&amp;oe=68EEE22F', 'profileId': 'pfbid027TUHJu3ApWJBGN8hi7cWt86de2D7sms1DcfMDeVHX9s9DeUQkqHLBvq1jdgLNcg4l', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGagvDH&amp;_nc_oc=AdkBGmvZ2q6yQFIJ_6MlnYI9o2FgfK3NX6ckQLyysnn6vex3D4WipQoZXCl60gvLtP0&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_AfcwHxjUmuYy0LXSHPbOuCRntphZF606jrdRKsVW4Yt0lw&amp;oe=6911B85D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2990,23 +2964,23 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Otro par de culiflojos que tristeza</t>
+          <t>Uy no que cochinada de publicidad no apto para menores</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45928.1515162037</v>
+        <v>45928.86114583333</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>45928</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>03:38:11</t>
+          <t>20:40:03</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3018,7 +2992,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GfqZsjobRTsQ7kNvwEOUFv6&amp;_nc_oc=AdllFccDc1ixb3HHvaJJ6TWpjuVfKGy4iduH4aJSicDkCpQ9yrDvSt2os535bGmWIXU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AffOITZtfrfVyBc8N8bfmQDttNTXWzjPFyz3vxFhiIqgZw&amp;oe=68EECAB6', 'profileId': 'pfbid0Ct78e1L2tAVNEsJAnpH49pCCPozC4cAq4bJTYShbajNRfqdo9voK2oZ1BayfHZojl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwEcorh3&amp;_nc_oc=AdlhOLjr4PCEj7vnudAPESmbbHn5UZIsrxESzWID_DrRRR-qX173E6bAV7pJ6LD2OfI&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_Aff1d_2J4JLn2QLSLDPZjKvh-cLDk1ssg8SvoeANVsUyFQ&amp;oe=68F039CD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3044,18 +3018,18 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Eres como rarito dice jajajajaja</t>
+          <t>Locas hp. Malparidos degenerados</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45930.13398148148</v>
+        <v>45929.81305555555</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>03:12:56</t>
+          <t>19:30:48</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3072,17 +3046,17 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EL9gJe8AfX0Q7kNvwHMssb4&amp;_nc_oc=Adlb-EMGkHYUCjm3nBwTl8hHDD36P_tmUFwQP7Ln8chYAQD0QcxzMpUm78WrfH2W2nU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfcgTqwcG3gtLy20poWulAzeNzI2jwTgUc-GtES1noiVsg&amp;oe=68EEF83C', 'profileId': 'pfbid0iHkTHGnAA9EvuA4ghcxShYCQkjDtj2T25Sa2mHYgGEX463kyFQJ9SUx4AfH4MJ1fl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-s6h1pdmql0Q7kNvwGfa9HX&amp;_nc_oc=Adn48dmA93V1Chs-w_4bWoue7N0_P0OEibSm6qLFBxiTpB2mtXMIeyZAXKIzz7JVzYk&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_AfctbXccq-QG_LTRE1vYsYjxmUQ4r_J8aYvYj1ZMjOgwqg&amp;oe=68F038D0', 'profileId': 'pfbid0RCEQEVBRLBMWEo8kRYMozRGdxbkGyYJLuiSqBLPiVNGC5zzoCK4upqxGpVnKrfRSl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3092,30 +3066,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+          <t>https://www.instagram.com/p/DPHW-YyjJlv/#advertiser</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>45931.52835648148</v>
-      </c>
-      <c r="H53" s="3" t="n">
-        <v>45931</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>12:40:50</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3123,16 +3083,20 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pZL9V-B5kgQQ7kNvwF26y0q&amp;_nc_oc=AdlNIQV6rjxk0rwq0YNg4HRR-TZuV0xjiNEZRkLrHRybRAl1TiiDjl3_22PP2XSg-Hk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jtfHPZrVSGgO3wapr8n6_g&amp;oh=00_AfcuUNnUjAJX5FSGr3pERwsy5c0ukAhfhPnhGcQRvgS04w&amp;oe=68EEDFA9', 'profileId': 'pfbid033wTwKreuMTPFfczaqKMRJt87xBfw4X5nSV2Fiy7AJy3NuxxgtrrTukFU7JCoDZ2Ll', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3146,30 +3110,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Este par de ridículos.. busquen oficio.</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>45930.48481481482</v>
-      </c>
-      <c r="H54" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>11:38:08</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3180,13 +3130,13 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pVeuVbc6pFoQ7kNvwHV6tLc&amp;_nc_oc=Adl6etr0YCFsJD4HxSP-iGEzMNR_qpC_tsyOwQVRn9Qm--vBsXzInZ4UUeXaA4joApc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afd4Bk7tKuXVsRMNhfuWEdgOJ6i7nHnRZvBgCpV72hXXbQ&amp;oe=68EEC582', 'profileId': 'pfbid0313cHxMdJT3UHdzxGT2AcSLKETTeMgzNEFaLM7Bk7UNKXZqAq7eBzVcNsgCmZc4z5l', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3200,30 +3150,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
+          <t>https://web.facebook.com/100064867445065/posts/1229679052537665/?dco_ad_token=Aaqetf784RumLkbscgHZXNSRF0TZIO9n2Vt1_9uwZO6mpYTzysZ_WfEF3CH19-WBugGRBO39K-5V4ma7&amp;dco_ad_id=120232527495410767&amp;_rdc=1&amp;_rdr#</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>La media tarde será sacando barro de la mina par de mks 😂😂😂</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>45928.5024537037</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>12:03:32</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3233,1050 +3169,6 @@
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwFmbHrO&amp;_nc_oc=AdlxZxahNSaliUoDznSljT4Xf5rNWbXBMWqF1wH9AX7RQg99krY7MpIQQlic1N8V1sI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_Afd0aE-L2ZzZe3hfs-XvhlREdEDQ1WmcIY4j8LHfyI6SdQ&amp;oe=69108EFA', 'profileId': 'pfbid0aBbnJnePXcTMzzVQE77o733rDoCqnhDWNbScVGbYNAm8oeMBEBtvteDzBRxqWQi6l', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>18</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Partida de m47icas</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>45928.94643518519</v>
-      </c>
-      <c r="H56" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>22:42:52</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lAc8OGWbo84Q7kNvwHLNjOm&amp;_nc_oc=AdlLTqtuRfMSsAnH98nrLIl869_DLoAoTLZtZ3I8GJaRC7jDqsFJEBW7o1bengfmjOw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdfw3HeZQPuKgEkZZF88knOESFbSb4OzVVkDWCf9fkj1Q&amp;oe=68EED742', 'profileId': 'pfbid02oxgwPFW5926abps2GzM9vTdEYPtpKCYG2wtpeheNczfZCz7asqxmWBYLoA9Tv6kcl', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>18</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" s="2" t="n">
-        <v>45928.75989583333</v>
-      </c>
-      <c r="H57" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>18:14:15</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwEKCbnt&amp;_nc_oc=Adk0ViOlVj41KtncYtwoXF5-AgXA813OdX5Mr796b1UpYw5dYMssLL_WOJIC9TFZKPQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfetCXhWMlopRg9vlVHDmbQn6IB1IWAmURedDZMutArt2g&amp;oe=68EEF1C8'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=CjLNBgDp9w8Q7kNvwEKCbnt&amp;_nc_oc=Adk0ViOlVj41KtncYtwoXF5-AgXA813OdX5Mr796b1UpYw5dYMssLL_WOJIC9TFZKPQ&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afc6hiMXTsJ8cOZn2v2YJm166q7DtQ16YHEkwwgrD0DOXg&amp;oe=68EEF1C8', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEuqmI6&amp;_nc_oc=Adm2TtUCOcQs_rIg77tvnSFB5dWG4k16WQffSNbDXhzp8hdg3go1cQ1Oo7qQkE_9mpw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdhs0RUt65GVf2Yqvzi_rWc8Szk-pAiXIp012C5zywGBA&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>18</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" s="2" t="n">
-        <v>45928.76092592593</v>
-      </c>
-      <c r="H58" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>18:15:44</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFVFfX2&amp;_nc_oc=AdmfvisKfuz_MmvNhncNeSMqoMHojfkotZdQij3-mg5AlScp3kUpJ_v_uiKrhBggA04&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfdJs_5_myyjQGrFCBg4mY_NeF9-WzuMMxWKz2bxqSAiDg&amp;oe=68EECF40'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFVFfX2&amp;_nc_oc=AdmfvisKfuz_MmvNhncNeSMqoMHojfkotZdQij3-mg5AlScp3kUpJ_v_uiKrhBggA04&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfcpMooV1khOVvbNre8Ogqbg0leuKJui8KkiOM5_kTXRHg&amp;oe=68EECF40', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEuqmI6&amp;_nc_oc=Adm2TtUCOcQs_rIg77tvnSFB5dWG4k16WQffSNbDXhzp8hdg3go1cQ1Oo7qQkE_9mpw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdhs0RUt65GVf2Yqvzi_rWc8Szk-pAiXIp012C5zywGBA&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>18</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Locas cochinas</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>45929.33924768519</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>08:08:31</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7V8nC2CcJ7wQ7kNvwGa67dr&amp;_nc_oc=AdnzU22-V40qfyNxAYrQDoTRA-zPn8wQeyDjgVHlkFQDNO9znb1RnhT9OfisO24cmqY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfdLzYOvC6uHT40jJsGiP69lBAf-S72FEh6wqgTALqQfDw&amp;oe=68EEDB8D', 'profileId': 'pfbid0NXhW8UbDrBQxdknPrDiiKv3rSDm4T5iKQGDVALZxxXFRPHBcL7DvjjXBDqDiXEWEl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>18</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>🤨?🏳️‍🌈</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>45928.52097222222</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>12:30:12</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nRA9SJteOaYQ7kNvwHF6FXI&amp;_nc_oc=AdnPDvc6sLKyf4t0TwOSVNsSaDgya1aHtt4TCB0zyouAyCJKdUUKK23ZZxOSbgIayP8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afe93uAPKoSPz-vQMqrCQDSkcCM23FYeyy_bWhFKxnNbqQ&amp;oe=68EEC80B', 'profileId': 'pfbid0bbj4jxZopeQNttNR3iFe9Zn9KD7nH81wksQyf335cNkdYdEi75X7uQVF3guwdJjCl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>18</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>45929.02462962963</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>00:35:28</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=A2fLFPWnsLEQ7kNvwFhBqvX&amp;_nc_oc=Adnefao4wiCwAnWFucVdyjsamg-8w-nZ46aFWQZR8XhibAYeexOa4ebl4j7IBU3aIcE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AffJb2LZVbrYj1hS0fhectCUIG1VOmc8hISQUIQnYEBh6A&amp;oe=68EEF03A', 'profileId': 'pfbid0qZQirYAtkezmuef3GGRGWGyQ6pn9y3KjDYYUkHAyYtePLDzjtkXpqwZ7zbz7atHil', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>18</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Par de mariconas , que boleta.</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>45929.03864583333</v>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>00:55:39</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=T1-ld1zZC7gQ7kNvwHO8MBj&amp;_nc_oc=AdnAnwrn8s8H9-ZU88abZKRKWvP0z7lWupZEw2w_6UYzzlXIOmsnFxJGooSywtguGLs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AfeaVLqI1D21dGCIWRkuofQZ2sNswYrEpiyxH3jFxpKmiQ&amp;oe=691064CD', 'profileId': 'pfbid02b8RV1Jd68tcjE1rN9cXJThzhEo1z6n7vmSBuym5WvAGQQ1RNkRELVq4B8ejT9NQYl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>18</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" s="2" t="n">
-        <v>45928.76074074074</v>
-      </c>
-      <c r="H63" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>18:15:28</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwG4QVbd&amp;_nc_oc=AdknYkPKyWpCgg22PHFYvCjhIenr6N0Ew2MvRVD7Vmy_cWTOhNdbF5q3oMABzqJHkRs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AffNPptRdE2fXLanvguwm4AApEkwvJlT-5RvT2Z4P_kX4g&amp;oe=68EEC266'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwG4QVbd&amp;_nc_oc=AdknYkPKyWpCgg22PHFYvCjhIenr6N0Ew2MvRVD7Vmy_cWTOhNdbF5q3oMABzqJHkRs&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_AffXsUPKf7KDN2zdBSgYfIDM_aCZ4V-Uyb4P8RE1REZeHQ&amp;oe=68EEC266', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=y6XZI-zzKG0Q7kNvwEuqmI6&amp;_nc_oc=Adm2TtUCOcQs_rIg77tvnSFB5dWG4k16WQffSNbDXhzp8hdg3go1cQ1Oo7qQkE_9mpw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=MA6-XX416kpe2dbDmwtHyA&amp;oh=00_Afdhs0RUt65GVf2Yqvzi_rWc8Szk-pAiXIp012C5zywGBA&amp;oe=68EEF871', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>18</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>La peor publicidad</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>45928.69450231481</v>
-      </c>
-      <c r="H64" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>16:40:05</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwG7qiL0&amp;_nc_oc=AdmbmViajjBzC7cGbxoywCdYpTIpv-x506XcPhG3LixwfO7X3u-NmcSD7GtlpqHBBK4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_AfcW-Xxp5HmLO_QsvbDiTRd23RdblFHu88ahBl1zDi9Atw&amp;oe=691066DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>18</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>45928.79291666667</v>
-      </c>
-      <c r="H65" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>19:01:48</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=8Us6RB874DIQ7kNvwG7qiL0&amp;_nc_oc=AdmbmViajjBzC7cGbxoywCdYpTIpv-x506XcPhG3LixwfO7X3u-NmcSD7GtlpqHBBK4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_AfcW-Xxp5HmLO_QsvbDiTRd23RdblFHu88ahBl1zDi9Atw&amp;oe=691066DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>18</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Uy no que cochinada de publicidad no apto para menores</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>45928.86114583333</v>
-      </c>
-      <c r="H66" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>20:40:03</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwEATYjT&amp;_nc_oc=AdnTK3B-4AgiUU5xyt0qPtucYHHq1Clxd6TBHf7RIfeMjSNX5Y_UZt7quB1dKJXxD0A&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_Aff2aN02VBanz4qspRyARhoRXrq0iiJIgBddFAYuiJZJ6g&amp;oe=68EEE84D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>18</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231508129021424/</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Locas hp. Malparidos degenerados</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>45929.81305555555</v>
-      </c>
-      <c r="H67" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>19:30:48</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Zavw8q2ADdwQ7kNvwHyZemE&amp;_nc_oc=AdnZmMDmh3hahbuNVCehiXsdtmqhiBVcjuk-a1VC6AaBBLQ4c7PEYtvcM1zGjhxWbGY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=QbFbk7XnlPug8auYQoX0Ow&amp;oh=00_AfftBrfjK2lSIS8gXJHEXXEYdO5FLRDehPeo1M8UXU8lQw&amp;oe=68EEE750', 'profileId': 'pfbid02VDq7iJNz13zkiJ8PsYtdp2f6ZCWL6Q7Cc4UEGN4FU1AoUJZJCrKmr7ebcmeDCVF5l', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>19</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DPHW-YyjJlv/#advertiser</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>20</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Ese yogur me encanta</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>45928.7074074074</v>
-      </c>
-      <c r="H69" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>16:58:40</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1991827134939469', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE5OTE4MjcxMzQ5Mzk0Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xOTkxODI3MTM0OTM5NDY5', 'date': '2025-09-28T16:58:40.000Z', 'text': 'Ese yogur me encanta', 'profileUrl': 'https://www.facebook.com/people/Teresa-Villamizar/pfbid038widCaLZyZho6SezXsFcbpv3Ere24MvQkpbwpbAACwdLc3d6C1T5yavPJs7iYJNl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/473590794_122118777932608738_1551415493589031935_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=16RC53--S04Q7kNvwEq4Jw8&amp;_nc_oc=AdmXeP0sPIjq3RXjVu8wLKQcgfYbnqzdozkwcg3HGCRtnp06E4fCaQdlvDbPjPHOKSw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_Afcy0Wahi-2t2xmMouH3rhoUnQASSK5hBQ7pIcY86jJJCw&amp;oe=68EEDFFD', 'profileId': 'pfbid038widCaLZyZho6SezXsFcbpv3Ere24MvQkpbwpbAACwdLc3d6C1T5yavPJs7iYJNl', 'profileName': 'Teresa Villamizar', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>20</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Quiero mi guía</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>45928.22010416666</v>
-      </c>
-      <c r="H70" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>05:16:57</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="b">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1123250699919059', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzExMjMyNTA2OTk5MTkwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMTIzMjUwNjk5OTE5MDU5', 'date': '2025-09-28T05:16:57.000Z', 'text': 'Quiero mi guía', 'profileUrl': 'https://www.facebook.com/luzesneda.carmonamartinez', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/533253341_24412611801704523_6048022566464573821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9qockRViEfoQ7kNvwGuXili&amp;_nc_oc=AdnBHVtsgsiw7dTXi7hHGzL3-T2gDoqzCFWEP46tRW6_Jf8_5-gvS95RfxDnjDgu2Fs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_AfenoRl_skdBA_-EG7K2qgXCs0zRxiDxMM-EN2utC_fKtg&amp;oe=68EEC8F1', 'profileId': 'pfbid02tQKHRLvRANrDhdDLTETAwkZpH6oxbtwmVDco2uHm2uvduaZ1yvzwGeczAe1Q8U1Al', 'profileName': 'Catisan Martinez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>20</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Todo</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>45929.5749537037</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>13:47:56</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1489199775558052', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzE0ODkxOTk3NzU1NTgwNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xNDg5MTk5Nzc1NTU4MDUy', 'date': '2025-09-29T13:47:56.000Z', 'text': 'Todo', 'profileUrl': 'https://www.facebook.com/leonor.garcia.284929', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/481073715_952379093729516_3059581478045113027_n.jpg?stp=c0.0.521.521a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=px24XD9wkqcQ7kNvwGsxvQ1&amp;_nc_oc=AdmJ8cREhbrIWpFstz5A-J0spZr_XzTF4qKH8TUzeEjNVnpXqvAHdPCDKIoV_BEFMTk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_AffCGfax8UGEg0FprPxzQPpOIMDQzvHV-l7SO503SUbDBg&amp;oe=68EEDC6A', 'profileId': 'pfbid02M6b8M2LZvhNQvrPDqEzuRqMCU1LNcBbfhfCT8qDhi9cK3EPzQ6nNCJ78GvNcKDy5l', 'profileName': 'Leonor Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>20</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Muy espeso demasiado</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>45930.12193287037</v>
-      </c>
-      <c r="H72" s="3" t="n">
-        <v>45930</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>02:55:35</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=4340664556166851', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzQzNDA2NjQ1NTYxNjY4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl80MzQwNjY0NTU2MTY2ODUx', 'date': '2025-09-30T02:55:35.000Z', 'text': 'Muy espeso demasiado', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/346871632_631872858436534_8722635349155131242_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=2HJ0no3yECMQ7kNvwF5wwW4&amp;_nc_oc=AdnjnG-bcljZa1jcCmjuUMfYVX9-8gPzwWeQgra5tF6eAGcJEsMRrcRnKdTEXUoZ7tU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_Afc8HKqFgz1L9g7wWIibl3yN8psOwJhUffyWK4JhsrZUKA&amp;oe=68EEF993', 'profileId': 'pfbid02K9ZDi2YjE5mUptEjuTfCdwgxVuUzzs1cxqSVHHArATweQpj8mJv1EsJxoiGGUo5rl', 'profileName': 'Milton Suarez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>20</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Pvm</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>45928.129375</v>
-      </c>
-      <c r="H73" s="3" t="n">
-        <v>45928</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>03:06:18</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=796708382952309', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzc5NjcwODM4Mjk1MjMwOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl83OTY3MDgzODI5NTIzMDk=', 'date': '2025-09-28T03:06:18.000Z', 'text': 'Pvm', 'profileUrl': 'https://www.facebook.com/gresy.vargasruis', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474780935_28346248975022642_5623195994089599046_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=gHxJHKqTMckQ7kNvwGjIEGM&amp;_nc_oc=Adm9xDNLYjGumCVn8b5dYvqlbQ-6iySybzLPWicPI-sLLlOHFD3q9fOiFnTqrC5t0H4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=dYfW7bu5oyehHd9jjMAC8A&amp;oh=00_Affn05WoE7-qPuogsKeNAbhh6xDH_GHe1Ge70jiC1yHQxw&amp;oe=68EEE34A', 'profileId': 'pfbid027bfM26eGStk4tvrzJnWDxKYbTAEkx9iFeyG15NXHH8kjNx1cBAWcy2jE69GYSVwFl', 'profileName': 'Gresy Vargas Ruis', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>20</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1231479782357592/?dco_ad_token=AaodirgHyfjdrRtg5kbM2UKuwTLaktdQ0eZi1UcYqEqYVNmBNKrkN8I9cMgqskgOxr_VQDBovS29M4Dl&amp;dco_ad_id=120232625186890767</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0@00P</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>45929.93984953704</v>
-      </c>
-      <c r="H74" s="3" t="n">
-        <v>45929</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>22:33:23</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid04XDLzAJgvNtWsRvpK7uPjFfY97GZAZK3b8i3G2UrLigh8ypY7aq9LemntKPV8XLyl?comment_id=1292215505450668', 'id': 'Y29tbWVudDoxMjMxNDgwOTE1NjkwODEyXzEyOTIyMTU1MDU0NTA2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTQ4MDkxNTY5MDgxMl8xMjkyMjE1NTA1NDUwNjY4', 'date': '2025-09-29T22:33:23.000Z', 'text': '⁰@00P', 'profileUrl': 'https://www.facebook.com/jaie.aristizabal', 'profilePicture': 'https://scontent.fagc3-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=Q4EkcjIRW4QQ7kNvwHNoEhu&amp;_nc_oc=AdkbUjjyjGekroBNRkGwp7cYuxcRld0CiYk_eDjMcFtNUQaLqrZluiNFF7wc6r821Tc&amp;_nc_zt=24&amp;_nc_ht=scontent.fagc3-1.fna&amp;oh=00_AffhmkXTItoCzEtLa-2AaQz_LUhFsAoswq6Wy_rPKEHvlA&amp;oe=69108EFA', 'profileId': 'pfbid0ffwwBZhRiyGmNjJ9H5KzCVw3EZmHq58GJXeYiYCzNWiCqyGXhifPpKPHPbCYuSJal', 'profileName': 'Jaie Aristizabal', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231480915690812', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231479782357592/'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>21</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://web.facebook.com/100064867445065/posts/1229679052537665/?dco_ad_token=Aaqetf784RumLkbscgHZXNSRF0TZIO9n2Vt1_9uwZO6mpYTzysZ_WfEF3CH19-WBugGRBO39K-5V4ma7&amp;dco_ad_id=120232527495410767&amp;_rdc=1&amp;_rdr#</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
         <is>
           <t>{'inputUrl': 'https://web.facebook.com/100064867445065/posts/1229679052537665/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -4364,12 +3256,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0036002600101000</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4746,12 +3636,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwFiqlmd&amp;_nc_oc=AdlpmqtF6wsUpaxaTjRDx5FE53P5QzizWdYufZ9nhQU_HJYQuW81KPjjYT6HGOj7l58&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_Afc7j5hZT67VyT-D1GCSmxPh2LBu4cKs49nMGQ0Hg7Fwag&amp;oe=68F041A1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwFiqlmd&amp;_nc_oc=AdlpmqtF6wsUpaxaTjRDx5FE53P5QzizWdYufZ9nhQU_HJYQuW81KPjjYT6HGOj7l58&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfcgWesPFF5jxPjVanUs5ye0M1vBCRqx9hKmL-ZzEeBDIA&amp;oe=68F041A1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=vGcS459NY8sQ7kNvwHlAQ9x&amp;_nc_oc=AdkTFVuFeZGf4D9SIk_9thThPdOrDCPy0UQaFEFhVmTlZsP8mYdJ2lwWV6XXvQFT-ag&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfejUnJ345eX9GZEiuYMOOVO58BPs1Dy9XkOgJfmRLmu5Q&amp;oe=68F03BC0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwH7MNuh&amp;_nc_oc=AdkMk0sIOePEC0zRTR0hu_IuOWjPLO_6KwJsIOq9u-qqFaYTXLQfFkXacq1gLRYB_TY&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfeaIRI78_kc-zG9zlGs8J96uz3BE3fI3cZ9t2kUBA8sPA&amp;oe=68F19321'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwH7MNuh&amp;_nc_oc=AdkMk0sIOePEC0zRTR0hu_IuOWjPLO_6KwJsIOq9u-qqFaYTXLQfFkXacq1gLRYB_TY&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfehMV3Hl6UDGFJlG8qiAoLIMIj6kkx2xDwZCBtPhQStBw&amp;oe=68F19321', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TQqdZsPNNbwQ7kNvwGqAvmE&amp;_nc_oc=AdkxJbKeO1LWXjZQgRWumdDs2EP--nHFYzJkAVQYx0gUINmefacchacr09mkcWVfnCQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afc5EFuFMP1SggmbsYuj0XDJ9hnuFVCx8Cp3L2Rlv6SO7w&amp;oe=68F18D40', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IOHOZASovbQQ7kNvwFQvdCl&amp;_nc_oc=AdmYIFhrKfse_eCRqhNZpSAACJBMxQBler6GVCuC9K8IYytZIFhEzF_sGIW5G0hfibo&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_Affpjc7xrtvEZBgjubrV20vebfc_EFPKDUjVYRIOnlCrjw&amp;oe=68F0121B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IOHOZASovbQQ7kNvwH7i34t&amp;_nc_oc=AdmPrE5RBr7SsvTsuBgZ2dk2fxr8vLAGpBr3o4OQGScHDeDVResmZ4BQLvyyd3S2hoI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afc9cVJWCPBdmSMTJlHUjNT0vxZC80lQlyfIYJ1HUUVTIw&amp;oe=68F1639B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5oPp414HpB0Q7kNvwGLzwC6&amp;_nc_oc=AdlxyuJAGsZ1_rSRa0C_7QPOgL2RYIJretjCFlPo92uU0ARbxUUXf48nKoRqi0FyYo8&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfdO4m2Anj3vLhLkcvu012pOwvPO5kOnYTV62y15dap3qQ&amp;oe=68F03747', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=U9xfUAUpm-wQ7kNvwG9ahNG&amp;_nc_oc=Adn8aThVGIR4XPuHMmiUSMGZsT9VVCm6_y8T_HhPXlKfb-EDrNdx0Qs66UyyR0TKhhA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfevslO8bfaR4xivZKUqUin4mZtwOV7IEarQ9M6fAhGLKw&amp;oe=68F188C7', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FyrMnLicFjwQ7kNvwH9LaeO&amp;_nc_oc=Adl68pLp3UOEmuuBDgyhe7OJjDZO32_bPwiVkomOzathFXF-y9NGYFK5fXppc6jJRdA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AffREjVEFmqArJLMGrXu1_rhCmDSRJ5n-5yHd1mQKx5OOA&amp;oe=68F027FD', 'profileId': 'pfbid0B4cLHTtqv9ZNtLBnHUK9dm979VHHnYWRTWUfccMqyVXp94QfAHHPScjCE9etbq7Ml', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FyrMnLicFjwQ7kNvwFvkX0Q&amp;_nc_oc=Adns3-0a4DHEft0pE8ilLqpgMgWw3Ccc-gU44Y7iIGd7V_u6v8TXhcJGe4CmSxmCWN0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Aff20Lt6sMzf2cbV8jLRjxLAN7jZOD0NRyboJMg6MhaC4Q&amp;oe=68F1797D', 'profileId': 'pfbid02ES6WuVFTwpo4TiiLTGcpg76tpaqNE64H2pshLuh8Bpw2gkPVWcVmW1ZuNTsdGZ1xl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwF9oGYi&amp;_nc_oc=AdmwHhXEWPwhUePcGhEvtVjXA5AIQn59tZmn2cXPvRsNFY8Uu5A07CxL4PyW5TCmj6g&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;oh=00_AfeaLfsGqT_9_ZYol4ZH3HHFyxn5hxmxtiLTZxQc3FlVMg&amp;oe=6911E07A', 'profileId': 'pfbid0P8RoJAEeuiy5Vunji55qyTef768H8wDWfnRW5JWrqa6rRA4LFpUGG3mLZ4cMwsMul', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwHF7pGN&amp;_nc_oc=AdmmYtQi2WwPWcnvtGz5VKI0ao59eatw_jD4dM8GuX0slWp8ejSO6JZEeDYF8uT7pCM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afe6duV7wLzUGYqL-H_-KTqat4n_5gTC94Nwd3KlVH9PlA&amp;oe=691331FA', 'profileId': 'pfbid02SVuyvBbGwNJVcg5PfCMvHZ8jnQkSVdqzSHHPHZ5mbPigYsjiqq7dzBq4y8LdBt4kl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0TfdBrb9WHFMrvNcfh7UP6C5CcguSdXF1PjRhjioDfMoDnCERdv5e4LomEdu4EQtPl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwF9oGYi&amp;_nc_oc=AdmwHhXEWPwhUePcGhEvtVjXA5AIQn59tZmn2cXPvRsNFY8Uu5A07CxL4PyW5TCmj6g&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;oh=00_AfeaLfsGqT_9_ZYol4ZH3HHFyxn5hxmxtiLTZxQc3FlVMg&amp;oe=6911E07A', 'profileId': 'pfbid0TfdBrb9WHFMrvNcfh7UP6C5CcguSdXF1PjRhjioDfMoDnCERdv5e4LomEdu4EQtPl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XX4u3G5L8nBdEACp4u7Xtc9ezPPU9eYe2iLd7zHUCF3xDvd8f31KFbpLUHAiTRmcl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwHF7pGN&amp;_nc_oc=AdmmYtQi2WwPWcnvtGz5VKI0ao59eatw_jD4dM8GuX0slWp8ejSO6JZEeDYF8uT7pCM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afe6duV7wLzUGYqL-H_-KTqat4n_5gTC94Nwd3KlVH9PlA&amp;oe=691331FA', 'profileId': 'pfbid02XX4u3G5L8nBdEACp4u7Xtc9ezPPU9eYe2iLd7zHUCF3xDvd8f31KFbpLUHAiTRmcl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0LPxtr67fr278Dkk1xsNJHGY2LWgkkpNRJW2mdhRpZFg8R1X43vAyHNwAbD3rRpyzl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ahh63-1IbWYQ7kNvwGZ2Rvp&amp;_nc_oc=AdmrHU6mVLKIUD47gJjvrL-y3o2g82_Fr6nwNcIlGEUukcLr8SQ_vYpJ5NZ8CbBLE3o&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfceZq-Xoeu-IanmGkYsEo7JNEv-oxTaaT6qMTmSPApfCQ&amp;oe=68F03FEA', 'profileId': 'pfbid0LPxtr67fr278Dkk1xsNJHGY2LWgkkpNRJW2mdhRpZFg8R1X43vAyHNwAbD3rRpyzl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QFQc2m3VhLmzxXaFm5b3e2Hsxb7A6bLNPWxv1jeqhhUVvEXyFLZS8MNapW3BFm4zl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w1SMc99zNc0Q7kNvwGntyku&amp;_nc_oc=Adkyj4lXV1tgrYldJVmF7JJNIqLf65dv_8K5-dbTrQ0yQgDrrC0bXALNS5PCEiBq2H8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfeHYsBSifwkDllnkhjriAPYCKfZIYFxbUncytOrBDUasg&amp;oe=68F1916A', 'profileId': 'pfbid02QFQc2m3VhLmzxXaFm5b3e2Hsxb7A6bLNPWxv1jeqhhUVvEXyFLZS8MNapW3BFm4zl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=zUHqmUYTgCMQ7kNvwEGjGc0&amp;_nc_oc=Adk576F19iEOcAourXHzLjb5Jy4omn5eza5Aihh18OYLWgYc6IfETzwzkBz_fNIUxtE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfcFmPlxaW_HvM4crflNaNPNkRQQ83iA_UA4ECxAp2k6Lw&amp;oe=68F01B68', 'profileId': 'pfbid032gBmma9RwHSJL9Q5RJbNbYGym9Sv85FdkungVooh5ekAuwDyvYQ5FBEAgQBkb27Gl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1JIil-2kW7YQ7kNvwHcIHi5&amp;_nc_oc=Adl3Q5IrjCzQCqRTTEJEyclVROs_CfU2kRZKp_tGnpVfDg7_vEEvFKhriTvGgVRlb7A&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afe4IGthWfqrmA8S8e4M8BVvCrky_41T6Uei4alKgwWLgg&amp;oe=68F16CE8', 'profileId': 'pfbid0y8YarQX564ecGdG9a1r8Azu4cXYmF1JdtfJXom94txAi3qLuGgojVS6XKibTwx17l', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwFJeS7M&amp;_nc_oc=Adn6ajvWgVVjZR_l4vgBo1TovFQ2DklrzskmvFGjI96RJwIVGNo8FXXtearNIBatjAI&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfflzMmEE0Py5FgPMsf4UmCswbCm0nAYF-AfAx6LnSijtQ&amp;oe=68F024E6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHHPhTJNbM8Q7kNvwFJeS7M&amp;_nc_oc=Adn6ajvWgVVjZR_l4vgBo1TovFQ2DklrzskmvFGjI96RJwIVGNo8FXXtearNIBatjAI&amp;_nc_zt=23&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfczmyRPCsgOzKyT5Fj4Hyhi2zNOnYio3SnVfLBmyhpvHg&amp;oe=68F024E6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFnaAPz&amp;_nc_oc=AdkhHdX_EJjyvDKgh1dYys6CvtvxPxIO_75ohzvtnBtyftBNVX3e5sP4JBezpILo-qE&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AfcgwrylY9Y1pdqqOugkq0xoYrfSnJyoTrjr1qb5Miz8Ng&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwG0-Es4&amp;_nc_oc=Adl5McwVbLQ0GRawAvLCNha_z93mrJfv3cC6qLWL_02hMG1lk9yce95_sfX-naO2-Ic&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfedB-UHsNH2sMY5gR_ey5LtvpRSxz2uAjCjQ5RGGhq7hQ&amp;oe=68F17666'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwG0-Es4&amp;_nc_oc=Adl5McwVbLQ0GRawAvLCNha_z93mrJfv3cC6qLWL_02hMG1lk9yce95_sfX-naO2-Ic&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfcqlCrtNkP-8CJNJpv2t55qK3DIPslbx648XAst8vMkvw&amp;oe=68F17666', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwEvBtdA&amp;_nc_oc=AdnPOycpIG8FsWJDa0-mDbqljiRKmCto9B1fN5u-NCxY5RUatvY1-nNgD2fOSTreUbo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Aff9nIgVrQxlspELhHi8OI_hy--N84ZxN2IQ5WMo9R7nRw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl/', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwE-tDlL&amp;_nc_oc=AdmXTgmcl7qIuFViaQtSfUqTHVkG_uY5TM-T521HlRNDBBAXjuOpNV_-Xewi7mvKkQI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=OgBwaj_hTSSRX02ViJKOfQ&amp;oh=00_AffxRYR0Rs-KaoBTV8hx-xQMvefrxJVTEar82tnCE2nc5Q&amp;oe=68F03129', 'profileId': 'pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwG5YjLH&amp;_nc_oc=Adl3kiyF6SCx-2JHI0rpT2r5m_U2nx7h5RosOIdyO0rqPHyY5MqJJmT3zOZBOZhlme4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afe2UQQQHpCM8KkBpt7cid1IGmEPi_pX_SYa8N6BuikgEA&amp;oe=68F182A9', 'profileId': 'pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q1SqO_SLzBQQ7kNvwF32KCC&amp;_nc_oc=AdmyLR_bzRD-f7WkdkwjeTZYkXPFJvw3QqMhmfTRJh2Bl0XZaNahug5aLBydKuYVQWE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Afefaz9ZvDB2QeBiv1qSTueItIZBPlEyMopPTOHyGrd09A&amp;oe=68F0422A', 'profileId': 'pfbid0Smy7njA7AQVKkSNtFSt5F2XQvJ4BJqZwtoeDY1315hhLCGMbh1zN81mEojnVmjepl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q1SqO_SLzBQQ7kNvwFeT0Cd&amp;_nc_oc=AdkCE4A0XHz875Vc7Zrg5GixKEZgD3fZSZZfbHbpt0QByVNWrzlsPVP3bjWQTy71J6c&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfdWdHLYAjfuSi8tng5N5siBkaGxiYebOOBAnjDFHO9l_Q&amp;oe=68F193AA', 'profileId': 'pfbid02WdQpyQ5w1keDpviiVaAMXxU33UnNEGBJ1VetjucbKqdPgquS6tEJ9MWLbpgtdc7sl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_x8Tpk-FhGcQ7kNvwEVLOth&amp;_nc_oc=AdlMPQ-SK0rppaI5s0zcFm4oy7IrriK2Tgbyy2Nspc3xPYLl3cCwDRblf2zueiT9MJ4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfedWUJp64czaEov3hd6FpdFAFGZpTw7tFO5FXUD-_fBGw&amp;oe=68F03515', 'profileId': 'pfbid032k7oYsKKMiiXdMVYL7Q9CfgL5yn7S1XH567n4G4VazZmXqVwrz2DZUjELD5nV19sl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xExdi74AWukQ7kNvwHe4-Go&amp;_nc_oc=Admy901wHkQpSF_dBA5TBdve1dPhzJo1U1gG52r1vVlowjm5TaVX6LHMg6_LwLDrtnM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfdW3-2FvpWoQ5iRo_pi1eJc25w29H5wPrNJgNA3vmguuQ&amp;oe=68F18695', 'profileId': 'pfbid0yCUcdhgxWSeZFsw5CYoHdqbKF3K4RFinxUsn6ZZYdcrgjzfcue2rry6naqskAYiNl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iLYJtcGv6sIQ7kNvwH4Ovrp&amp;_nc_oc=Adm_pvecM6S0uBbCaDDjPxSPDKd6arDYuuAgPl0pxJk2rv2UqmSvy_drweh44T_l2B0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfeeSJIeN_0hZSxg9BRhApvcjlopiNEHmNLhGvO_2GJyCg&amp;oe=68F044A1', 'profileId': 'pfbid0do4ahwHaCUgQss2tSNS3L45qth2prPrcZSW39WpjtifRumvwvyoaXZaesBU3hUul', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iLYJtcGv6sIQ7kNvwH0lBSd&amp;_nc_oc=AdmSJXLpwRN6yaFL_Gjfgf8W_rKfToFJ6rGsJ1EcyWfc3dJYzBX6f7JejGvtxFXAdvk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_Aff3lvMQnQcdDE2Dc0OQsFzFixWPj3lHxxbIMOirbF7e7Q&amp;oe=68F19621', 'profileId': 'pfbid025VEmmNs7RWh5AWKpdu5oGUR6MKyDkmkkNhRA8xcTCTbEiQ6UeVtjMk5ZjyiVz2Qcl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qL6Ft6o-kDcQ7kNvwHOVlSs&amp;_nc_oc=AdkPKU0REnazQZ_vE9Ih_1uOPEcRuNExfXBVDrp2FyUd3szi82Wu9wRGq6KVP4x8kh0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Afc4Wu_6LTfJvURbdQaN2vigKNb5Vv6B_PzHtQTB7D2wAQ&amp;oe=68F0447A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qL6Ft6o-kDcQ7kNvwHOyxnD&amp;_nc_oc=Adm_9Ysuu3_qiPpzi1Ww_DQvkAKEdiWDHug_r25GMfkOBft5nCEpBwuD8LdwS4fQX14&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfdFU68gV96in1EK2gPPqe4Yhdlk29FanYnF7qjLcou27Q&amp;oe=68F195FA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=jQ4G79ywtv8Q7kNvwFtWsGk&amp;_nc_oc=AdmAsp7HvzFRLCT5Bn5vXdlzn4v-dUeiBUYBerUgrMfG8LQmB03IvLrdmf5yTmkBiQg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfclKZ6BhjhejyvudbV-P5OxH5ks0QdKhA8qxpnxy4S-rw&amp;oe=68F03832', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6Xc9JzkGlYcQ7kNvwGnIhab&amp;_nc_oc=AdnqzHOGYTxrHJb8xFheSFrRUlRoR7WrUCaizcbgQXsFbxbWreetMVyqLebyvi3qJp0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_Afc_HLr1xeUcyE_rn-FpadG4k1n-nJGT0B15HwyJLMvvfQ&amp;oe=68F189B2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02Fo47EnHRKU2PiDweBJYqPWtCrLJMGw5pBEJvFYESrx4onXtiiM2USsoNrmyeNVvtl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q9uVuZDK-r8Q7kNvwETuUEO&amp;_nc_oc=AdlMkJ0gaCKef8MXlzpyxflFIm2VnAC9Tj6s00XIMVSq1QYMXz3FLetEHyD1-YZlHDU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfeFUo0xEo5pYAGBWBZyWUkO_OmCjkkDB4vJR-TUzRS7mA&amp;oe=68F04193', 'profileId': 'pfbid02Fo47EnHRKU2PiDweBJYqPWtCrLJMGw5pBEJvFYESrx4onXtiiM2USsoNrmyeNVvtl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CFQvKcf4UDFrqXMFkMkRMUEh1VihimvWFEc3WNK37Vju5UVukwTEGieBtuMTNpt8l/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q9uVuZDK-r8Q7kNvwEAfnbL&amp;_nc_oc=Admu1NgwtZFEBT53a30yqlNnFzCbSzcx-2SJ5EJL8056G9SmtM0urkYc_MRCRk7McY8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfcMzUuUTl1nD0sjB_yel21ZorTK6zP2kknzfz7SEywdiQ&amp;oe=68F19313', 'profileId': 'pfbid0CFQvKcf4UDFrqXMFkMkRMUEh1VihimvWFEc3WNK37Vju5UVukwTEGieBtuMTNpt8l', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U8M_PRuSKK8Q7kNvwF84c2r&amp;_nc_oc=AdlHJONEQO31ivhJ7Ptka5aYnJBRicqfAYDZZfOSX6lZttAoyX9Ufl2OQkWhkLZOYdc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfdOBVaQ-0k_g_Wxc6sgPPmnz5yuUHAMg7V5ESYtUWz5oQ&amp;oe=68F033AF', 'profileId': 'pfbid03RsZq5qc9Z67bQ23ZQMTrK9WCHS19q3CayqdNo8DXDgPSKJNoNr5M2D8HCVT3omwl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U8M_PRuSKK8Q7kNvwG1ibjX&amp;_nc_oc=Adk3QwLqISJs3d3XUz5-OSmxBoZVdyOr6nXm0DfhRiDEsuVbsLulwKi2GnWAHet2EFw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfcWp8Kz2_8uFt-xY_mZIOL9LkgqQyMKXgjtTg2m5F0umg&amp;oe=68F1852F', 'profileId': 'pfbid027HKH1kmRzrGsLMHTuLgqt15G2Sfu6Q5BWQKqkGWrtGoaxMHTp8zmcyMoJokyYNivl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GfqZsjobRTsQ7kNvwGoNyqt&amp;_nc_oc=Adk2vv1HLU1KUeU5wk9WBo-sqoge6Dff31d-TmyhJGw5WCC36w1gYyM4UrTxALco_F8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Afe-SlNnT1o0UUntC4TqS4JX9tQbSe3i974haf5prhmdJQ&amp;oe=68F01C36', 'profileId': 'pfbid02GjYqpgFrjhcAgNuVhNB2q3dmV1se3xyYb1XwXjuqQJbcz7EzQ4AYnA3rrUxPazJPl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cvH9LMou8-UQ7kNvwHe5uIz&amp;_nc_oc=Adm3xiSBk9q7C_i4Hx5N73fwA09amYG79QX5lRTVQzjz2uAEYQbw5ekwCKd0duf4xF0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfciPxf1HOEYthIvZ4UyDRwGE6egh9831g5JoH3XIFQHRQ&amp;oe=68F16DB6', 'profileId': 'pfbid0Chx8Ls4J4g2spsSekuHfxt4ExPDUENWuQn6yJzHuTrffvP7Vy7Gr7SKAQzdzsUVUl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4ad13hX2ekQ7kNvwGmX8Ds&amp;_nc_oc=AdmxA2p-_KW3LyGqRm_iMW2CAO2rPeRkN9NoSLnABVHd3T36AIBxapGd_HxmjGumYzI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_Affq9MWgaXLVm5cWRgimWS3qLWwdnMRkPxdQU-V-aAE4OQ&amp;oe=68F0117C', 'profileId': 'pfbid02n9CATwhz1jx9haqWaP2fWvwXpz7BeQKoQp3irWJYwhJiKqJWm8H1M1Ntjtzmenyel', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4ad13hX2ekQ7kNvwEaaB8U&amp;_nc_oc=AdnJHIC8mFWGWSMyzNbAOGHAx7VGdqFe23v2KkJzpSfT9hRoLmNdh4l_ygZz8M4FJ-s&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfcybE4eooTJxy34s20drHNbqqYCwvR0DGXTPyjPSWp8Zw&amp;oe=68F162FC', 'profileId': 'pfbid0i7bSz8WRLaYaatF77pfSiMZUC2KKjpwwg6Li4Bw8Z9Z4BcVdUkGvmkK1aATQtY73l', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwHrxXR2&amp;_nc_oc=Adm96Q4CcOXt44a23PGTbLosjHrqULcTj67_TWcBubKYUNvL5JacFOhPuH5p--5Y3v4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=haucGz3NIPm4csD18YTg_A&amp;oh=00_AfciUFiIhmrAnUo_rKikZcpqEXqz00yd1G4txUArDTwfyg&amp;oe=68F03129', 'profileId': 'pfbid0yusDr3TLgW8iCkHEt6Yr7secBrGgzjp3WC8L8jrqEX4MyDKYXQzBeenB9u1sGTJsl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwGFKkxV&amp;_nc_oc=Adk3CUtYdy65VnioOEeFhqNTcwa284jaCwRsaQWvKWxqZHzB4sfq8kBsDSzBWNMgFdU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_Aff1Wakj5_e8bXkdvC1Mk99hynB_EeaffJv-AUGd3FyQAQ&amp;oe=68F182A9', 'profileId': 'pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pVeuVbc6pFoQ7kNvwGeUeCk&amp;_nc_oc=AdnaGBPU3gcMuDyeGLptQsC0Tsc3b8pKIue_nMbsf_CGGzBGRj52a5472Gt_PiYpe3M&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfcjIjrPLCdEgh0u-My1fOspfqQims_EGFS1QrdDKtPLsQ&amp;oe=68F01702', 'profileId': 'pfbid0w21aUYRjnAw6KdHjVdXzpK9cYJG8hJgb6cSH4q6FEMwZAX8JRHUkdQYy9SkFj4bYl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pVeuVbc6pFoQ7kNvwGFwOXP&amp;_nc_oc=AdmzNp3VbuW1f7Iyxw-SQNGTpZEEXhBUZjIB8xrpvMPa8b8gZ3nT7jx4Ptugm9lmoh8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AffqytANr3D5ztsHs1ce2mkRyNIb29Du02111t1BW6UYEQ&amp;oe=68F16882', 'profileId': 'pfbid02zsTHfDMZdZpPRL6sd8EhzNU77gWEkWKpzACmgncq67QQP6BCDNFrrVrQqFTgrzGHl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwEKwP8g&amp;_nc_oc=Adkx2U5IRZSlDeSFQTE6bkukyPcA7xZv6rKKqEmvuxg6YY0XcLCS6vt_57e_7KPDOT8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdT-UCghJEjVitVWBn9qIz1ZFzZlZ9wZoalDCt8G47PaQ&amp;oe=6911E07A', 'profileId': 'pfbid02dZ5xvp11ZMca3yMxcH7LpL7PYonZMwQhixNYxUaeKa74kk7YzoYVQHnneuouPDPal', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFFtfTt&amp;_nc_oc=AdmVy-xz3M3cAzCrbWwUT7OpxK-N79F0OH-Cu01xndMZ3BkRms6srB953QIoW8f0Oyg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfehDPiZ9j0wIAIkZsuoFdRr2TdBvsBHzTD5Be7VmzVLgw&amp;oe=691331FA', 'profileId': 'pfbid0a1Sn1eNei4a9FBNQtLTShLycJeCYyAXBadr7H6c5Udsd2JhfYYGD4cqQWj7yqdApl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lAc8OGWbo84Q7kNvwGiRf1A&amp;_nc_oc=Admw9li-kT1acwtT4aBA3bYqWQOFnXKZgoSJFMHSAROQsDTSIj5F8FipFoxZVZkKlhk&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Afd_t5SY-_DD4-M2d0VB6FXqZ8FzH69qdGOd3h2LdMCAbQ&amp;oe=68F028C2', 'profileId': 'pfbid0jw6DuSJWTzrsKkQxD1RKwnu1fAe1H3mU1ZL5SmKGm5jE21aDFVCXuWgKbzzWqC2sl', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lAc8OGWbo84Q7kNvwHLkjYT&amp;_nc_oc=AdkLaSkMJ7XoQvitoOUevEyubjW6wf1wKUAazRU549a28NBjdhDp0HPvf5Ifs5ReLv4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfcjXLYT8BxKuvNcGwJ7DvAfomxWm7qOjuB9VyzAZgCRtg&amp;oe=68F17A42', 'profileId': 'pfbid02onXw67ELKQ4kfssTgdJ8KRMTH3U9xc3xPtLeUE7WMi2uwCRXdgS3ujQLhqE7RHQ6l', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwE9LVnV&amp;_nc_oc=AdkGKq759KLdz7E0Nw6Db_ZgLmoJJ8iKzM9vbN-m4uWG1_F93G_3mMGLAfDBnMljHW0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfclnvUKChUOmSqTRYCrG7cllAgHhh4DKaOVbe28TM3KqA&amp;oe=68F04348'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwE9LVnV&amp;_nc_oc=AdkGKq759KLdz7E0Nw6Db_ZgLmoJJ8iKzM9vbN-m4uWG1_F93G_3mMGLAfDBnMljHW0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Afcn6sKDqh1eqD0QM5UB5W_GRpCFHUJqTgVCMbmb7as78w&amp;oe=68F04348', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFL98Qv&amp;_nc_oc=AdmOoh_ulwQNi65uNiOBKH_PU4sjEVMC0g0Luas7aTWBS51Pp6zpi6fGvIcFSimNE7k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AferffLMGmk2qvTHv8KkJLXvtsunFl3Ie71Z9On5lTXIFQ&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwGLF6OY&amp;_nc_oc=Adn0F-MazWsQcjT5pSFG5U9FJqPRsaPrIL6PMnHWEQ1kgbDSy5lA-P_ZgfpGavQX2rM&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afd8kdAiSyi1282fUs4_7ybcbJbYo5FHdCCi74VgyK4v5A&amp;oe=68F194C8'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwGLF6OY&amp;_nc_oc=Adn0F-MazWsQcjT5pSFG5U9FJqPRsaPrIL6PMnHWEQ1kgbDSy5lA-P_ZgfpGavQX2rM&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfeWoyPCgKvNAX6p70yrtrWICObnHzrfFUQVD_mQ8Hnpmw&amp;oe=68F194C8', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwHl8V85&amp;_nc_oc=AdmjNWvqMGUFWOJJanKCvshup5xnXwAo-Dh35tOvWDwe68lppOUxwcViAbF-XyhhC3E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afck8aAX_DvZnb4hI1MIGNv4a03hxvYKs00Cqg-c8mQnhw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwGx6Cpd&amp;_nc_oc=Adlz1PdnswGhce0kP8-YwndRcY6-afP5Hyo2S5NfUaOlMrlCHeuBADluRPKQxzszl_I&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AffDni6cz8bzrR6D77J1ybJrGfCDuWoW7_tZiz962CkQBg&amp;oe=68F020C0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwGx6Cpd&amp;_nc_oc=Adlz1PdnswGhce0kP8-YwndRcY6-afP5Hyo2S5NfUaOlMrlCHeuBADluRPKQxzszl_I&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Affl4wJ5PItVHSqGt4d0YFnKE-gIg6mP2KZXqd9vFzc7Ew&amp;oe=68F020C0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFL98Qv&amp;_nc_oc=AdmOoh_ulwQNi65uNiOBKH_PU4sjEVMC0g0Luas7aTWBS51Pp6zpi6fGvIcFSimNE7k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AferffLMGmk2qvTHv8KkJLXvtsunFl3Ie71Z9On5lTXIFQ&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFxaTok&amp;_nc_oc=AdkIQM1Iqx1n9yRFNOcr17G7NbjBY8Q675T4uf1BaKah7zhGDODM7dqAy1-rcv_udLU&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afdf1rYXTvOoAKBcjy35ciYwdUvKI-eRtSbWyYdj4SpQqQ&amp;oe=68F17240'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFxaTok&amp;_nc_oc=AdkIQM1Iqx1n9yRFNOcr17G7NbjBY8Q675T4uf1BaKah7zhGDODM7dqAy1-rcv_udLU&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfetMq47ek1pzF9Ca3i_UCEXrG0Rshyc7rj6d0YIrC5tcQ&amp;oe=68F17240', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwHl8V85&amp;_nc_oc=AdmjNWvqMGUFWOJJanKCvshup5xnXwAo-Dh35tOvWDwe68lppOUxwcViAbF-XyhhC3E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afck8aAX_DvZnb4hI1MIGNv4a03hxvYKs00Cqg-c8mQnhw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/524990325_122139027458700230_6582380799335478874_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7V8nC2CcJ7wQ7kNvwEVowyj&amp;_nc_oc=Adn2zc4S7Wl4k6-790sN9yYv5T1LI-VHJkftnNXXaTD1r5ofBYnA33Hpuy6EmDOzFWQ&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AffHzvOScauh35Yxik5GVFq9WREyhXN_BJh-T0q24a9Ejg&amp;oe=68F02D0D', 'profileId': 'pfbid02SP9DK9X3hXv1JovDJ7hJ3f6YJ5Su5uUMu7ZjahwVEtD57TCjMYmxgJNs8pdcY3LWl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/559672110_122146673306700230_1924597970426222239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b8sumZ7Zer0Q7kNvwHbdXKX&amp;_nc_oc=Adk4cJhy8Qxcjnmwiyrx4zai1wTv5Bbcm72BZZOFZ2XUgcYxOZzH64e-wgp9uwsGRKA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfdEwq5vksrAi9BOJqe7CcKNAQ7NGM1EC3UD8NdrMSqnbA&amp;oe=68F183C8', 'profileId': 'pfbid0NMYVqLKV2fEvKrq9AazHuwqYovy3Zn6M5i7dK18eaKb8hK35Cfnyb8UrzpnaZtFLl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nRA9SJteOaYQ7kNvwG6Cn-v&amp;_nc_oc=Adn2-qRjP3fuB6IBKVAHtQapss0ZkVPhw_MaGWu6CKjS-6vE79E_Tazn6WtHLwhqbi8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfdrtWpzDWKVff8ddPtqVyqTQ0sPSV1So1AjhnQgm1BU3Q&amp;oe=68F0198B', 'profileId': 'pfbid02eyDFMyvRrKEnwhZX3BynoecskzVtQFNaLwoNwFm9NdcVHs9w4MnMY3NP6ynMBWBBl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nRA9SJteOaYQ7kNvwEZqxQA&amp;_nc_oc=AdmLdoKmukxhqW_iYpwuo4pAsVBNgvLrh3IK8dIFGbx-to4N1X4Aq-0qFXBtBQwC0HE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AffIuuu6Hv_78hWvJ3MT-Y_wBM-GG21nOlAq4ugD1kYEJA&amp;oe=68F16B0B', 'profileId': 'pfbid0bRa4SpJ51FwJKzAKAd4KhJ8xvnxLqavhkew2cL6GwscpZaqUUGwDwRaCZm7tAhbwl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8P4LsnblbQQ7kNvwGXBcVC&amp;_nc_oc=Adlz79MQz43NdtttVZTbET-0sZv023KBLtRWPXsH6iCPp_D9U6XKIViwbs2KdoCcFJ0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfchGTxUHb4VTWBrpVbeMNGX1lNZ53OX15RBy0eOvnElbg&amp;oe=68F041BA', 'profileId': 'pfbid02tvtuUZXWnKsQPX8HBwpbHBqLYDqdf6c6wMyHApgFxe4C48CVdnWuWpMpodCJeX6Dl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8P4LsnblbQQ7kNvwG7nQ9l&amp;_nc_oc=Adn7X7FmwrrHVFlTdQFFKmA6bBiU6VFYoblhWBnssW4UMCNKseVZSptbG0DAxhm2dB8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfeHpuaS3hlFL9Z3kYWYzlXezXEeYhzusOHaDthORXbeJw&amp;oe=68F1933A', 'profileId': 'pfbid0qPFiZPu9wDvZkLAuJrW9bKFAGXYW48KuTuF2WDPFbYmSmszZs7VSeuqQTvpzE63Rl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7nYDjEWqYGsQ7kNvwEsj-H5&amp;_nc_oc=Adl5czCK3OHydMn3OtRRcOecmf33VOmfa0sfI8JnlnNO-r2-QB2TrPW396T7IX0mfjs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfdMCza3Jlx4Zoppa6ppQvy4S69cyR7wH9-Adq96zRgodw&amp;oe=6911B64D', 'profileId': 'pfbid0XanJ68zjHr6Mn9a2FgMTueGktgscTPxXoLxXBfsRRJigDubtE8HDJRHfcAYmq72Jl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7nYDjEWqYGsQ7kNvwH0Bdfc&amp;_nc_oc=AdnwdFDFvZl9H-FMf-dj2PChlAv9sE7oUyQthkEjRh2iAwsPuMDjsfZGKAs-PfYEd2M&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfdxZkpA3LK824RV4YvazzAoMJRNFqxyiR1db3WRId-BfA&amp;oe=691307CD', 'profileId': 'pfbid02bSE1GovZ9FxFEWdwZiyd9NS3mV4UtsZRwUnVU6U28oh13J6FdcZyCQswNFhGLjTol', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwFCijay&amp;_nc_oc=AdmsZWqgZtwjzAw4wurfjrq6usqRMZlt5aCio5icS4z001tMfQWAadNBJFLWEkU47b0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AfcgUwpjsCYTxqKjjWdYROlFR03ip6rQH-gPCP1Kly1nmg&amp;oe=68F013E6'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwFCijay&amp;_nc_oc=AdmsZWqgZtwjzAw4wurfjrq6usqRMZlt5aCio5icS4z001tMfQWAadNBJFLWEkU47b0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_Afd88wZyeSn5MSyROrnPOydRLRoDCUheIbWwJbWnbIA31A&amp;oe=68F013E6', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFL98Qv&amp;_nc_oc=AdmOoh_ulwQNi65uNiOBKH_PU4sjEVMC0g0Luas7aTWBS51Pp6zpi6fGvIcFSimNE7k&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=_xN5Sdp3yFGGuuDgGoMGIQ&amp;oh=00_AferffLMGmk2qvTHv8KkJLXvtsunFl3Ie71Z9On5lTXIFQ&amp;oe=68F011B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwEhjtp3&amp;_nc_oc=AdmOllfKIN4jMz6BrVpeCuroLYGKv07_8IkOmNE1vmZ9U2u1R6TMJq7jRhxIFSpls2s&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfdULHGS0QqtmpQRARxq5lckc9vxOTCBDWq_GQT_6fSM-w&amp;oe=68F16566'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwEhjtp3&amp;_nc_oc=AdmOllfKIN4jMz6BrVpeCuroLYGKv07_8IkOmNE1vmZ9U2u1R6TMJq7jRhxIFSpls2s&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Affjt_9AqDwS4awJAKSSeiwMyI6pmJqD0f00K-cpH70Yiw&amp;oe=68F16566', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwHl8V85&amp;_nc_oc=AdmjNWvqMGUFWOJJanKCvshup5xnXwAo-Dh35tOvWDwe68lppOUxwcViAbF-XyhhC3E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afck8aAX_DvZnb4hI1MIGNv4a03hxvYKs00Cqg-c8mQnhw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGagvDH&amp;_nc_oc=AdkBGmvZ2q6yQFIJ_6MlnYI9o2FgfK3NX6ckQLyysnn6vex3D4WipQoZXCl60gvLtP0&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_AfcwHxjUmuYy0LXSHPbOuCRntphZF606jrdRKsVW4Yt0lw&amp;oe=6911B85D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwHI-0Tz&amp;_nc_oc=AdligYRU8XGQzuTtG315Vc3gyGZ6ocYbY7JDaMoY7cY83WK32OD1Td1MGhm3tIVw5aI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_AfdIdyT5hl7oHjj1PbLMRZKRKM6qt9pSxfW72_8D3rJWdQ&amp;oe=691309DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGagvDH&amp;_nc_oc=AdkBGmvZ2q6yQFIJ_6MlnYI9o2FgfK3NX6ckQLyysnn6vex3D4WipQoZXCl60gvLtP0&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_AfcwHxjUmuYy0LXSHPbOuCRntphZF606jrdRKsVW4Yt0lw&amp;oe=6911B85D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwHI-0Tz&amp;_nc_oc=AdligYRU8XGQzuTtG315Vc3gyGZ6ocYbY7JDaMoY7cY83WK32OD1Td1MGhm3tIVw5aI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_AfdIdyT5hl7oHjj1PbLMRZKRKM6qt9pSxfW72_8D3rJWdQ&amp;oe=691309DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=uzhDBvvcGzIQ7kNvwEcorh3&amp;_nc_oc=AdlhOLjr4PCEj7vnudAPESmbbHn5UZIsrxESzWID_DrRRR-qX173E6bAV7pJ6LD2OfI&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_Aff1d_2J4JLn2QLSLDPZjKvh-cLDk1ssg8SvoeANVsUyFQ&amp;oe=68F039CD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=MKpemPoFRecQ7kNvwHMAuDi&amp;_nc_oc=Adm_oVDY-3WVqP7tBX6zoqJFqxgGhUw-ykAmu1vPa744BKE7QAbQJc0J3QJU6PCLaNY&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_Afd617PsV27e7ww274tRnrFU5cb0qdeQZQcVAvWWEdAAyg&amp;oe=68F18B4D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-den2-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-s6h1pdmql0Q7kNvwGfa9HX&amp;_nc_oc=Adn48dmA93V1Chs-w_4bWoue7N0_P0OEibSm6qLFBxiTpB2mtXMIeyZAXKIzz7JVzYk&amp;_nc_zt=24&amp;_nc_ht=scontent-den2-1.xx&amp;_nc_gid=GbuVgMW0kOS6Ug3XABs79A&amp;oh=00_AfctbXccq-QG_LTRE1vYsYjxmUQ4r_J8aYvYj1ZMjOgwqg&amp;oe=68F038D0', 'profileId': 'pfbid0RCEQEVBRLBMWEo8kRYMozRGdxbkGyYJLuiSqBLPiVNGC5zzoCK4upqxGpVnKrfRSl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-s6h1pdmql0Q7kNvwHPT8IN&amp;_nc_oc=Adk5YmqdEKwVj7_fGndO8dmN40bMGXDJinr40tbeN-TD-7e1Dw4Tuxm5M18w6nksvrA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_AffT_hK7lKPKxHKpeBwZD0ASVNvblda40djwLHf2jSru4g&amp;oe=68F18A50', 'profileId': 'pfbid02V3g7RA7FBYuLTGmCBmTMJsrW85XZzzRqEVeJGJQkJCJ7GrM4bKCCxr2AYkSLoysgl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwH7MNuh&amp;_nc_oc=AdkMk0sIOePEC0zRTR0hu_IuOWjPLO_6KwJsIOq9u-qqFaYTXLQfFkXacq1gLRYB_TY&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfeaIRI78_kc-zG9zlGs8J96uz3BE3fI3cZ9t2kUBA8sPA&amp;oe=68F19321'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwH7MNuh&amp;_nc_oc=AdkMk0sIOePEC0zRTR0hu_IuOWjPLO_6KwJsIOq9u-qqFaYTXLQfFkXacq1gLRYB_TY&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfehMV3Hl6UDGFJlG8qiAoLIMIj6kkx2xDwZCBtPhQStBw&amp;oe=68F19321', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TQqdZsPNNbwQ7kNvwGqAvmE&amp;_nc_oc=AdkxJbKeO1LWXjZQgRWumdDs2EP--nHFYzJkAVQYx0gUINmefacchacr09mkcWVfnCQ&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afc5EFuFMP1SggmbsYuj0XDJ9hnuFVCx8Cp3L2Rlv6SO7w&amp;oe=68F18D40', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwGCSRuw&amp;_nc_oc=AdmAtxua-KTWaEXGWGHahHTdZUxeGHbRT45izxSp-rtXq-uapn1x685o8kDBLDXTbhw&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afd0PXL7dbjrJ9s2nbEY0v6TIqEJhyEUAD5OlJxrIKBkGg&amp;oe=68F2E4A1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwGCSRuw&amp;_nc_oc=AdmAtxua-KTWaEXGWGHahHTdZUxeGHbRT45izxSp-rtXq-uapn1x685o8kDBLDXTbhw&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AffjwuS3tV1C1AwQXfbCYDAsjVGpJw0ciaFUWvL1aZnUNQ&amp;oe=68F2E4A1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TQqdZsPNNbwQ7kNvwEwqj7b&amp;_nc_oc=AdmdXdGwiWYJe53hPnhFZKdCUYityLC7-nYm49LV2R-bwTOShuUp8lAHNpYwGK9eojg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afe24HQ-Qyo816Dm-gAdOxkF42J6RkaSRPBTSB7THaH1WA&amp;oe=68F2DEC0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IOHOZASovbQQ7kNvwH7i34t&amp;_nc_oc=AdmPrE5RBr7SsvTsuBgZ2dk2fxr8vLAGpBr3o4OQGScHDeDVResmZ4BQLvyyd3S2hoI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afc9cVJWCPBdmSMTJlHUjNT0vxZC80lQlyfIYJ1HUUVTIw&amp;oe=68F1639B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IOHOZASovbQQ7kNvwFCByTP&amp;_nc_oc=Admxc0lQO813C0GKXCT5A16oTGC9_J-WmVfo1PnrEvs8KyCydJKplarFa0x_4eNGm3A&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AfeK4O6VOaIpuSa9c1Z7mmUZa0XKzeW0oDbShejnNVhu3Q&amp;oe=68F2ED5B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/545766607_24876407161982806_2960757247511555115_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=U9xfUAUpm-wQ7kNvwG9ahNG&amp;_nc_oc=Adn8aThVGIR4XPuHMmiUSMGZsT9VVCm6_y8T_HhPXlKfb-EDrNdx0Qs66UyyR0TKhhA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfevslO8bfaR4xivZKUqUin4mZtwOV7IEarQ9M6fAhGLKw&amp;oe=68F188C7', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=W9MIPProskAQ7kNvwEk4u5s&amp;_nc_oc=Adk0vYQ3faaliOvRrDXDaMzS_dNTWPyldVC6DtJiZNhqADpxk8y-4gVpRhpvRqO8Azg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afd1yJgXtlF1yhedOYAoDvTAV5H9aeIzHXi5_hXggpSMDg&amp;oe=68F2E372', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FyrMnLicFjwQ7kNvwFvkX0Q&amp;_nc_oc=Adns3-0a4DHEft0pE8ilLqpgMgWw3Ccc-gU44Y7iIGd7V_u6v8TXhcJGe4CmSxmCWN0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Aff20Lt6sMzf2cbV8jLRjxLAN7jZOD0NRyboJMg6MhaC4Q&amp;oe=68F1797D', 'profileId': 'pfbid02ES6WuVFTwpo4TiiLTGcpg76tpaqNE64H2pshLuh8Bpw2gkPVWcVmW1ZuNTsdGZ1xl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FyrMnLicFjwQ7kNvwGm7mv6&amp;_nc_oc=AdmNpBb3LY-Gl_MArqHDaSRQgABCF8NVVMeaA0GK-2aoMnVxRjx26xYntYz1rBGZkUs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AfdOBDm7hqY3cDKs_T6drX5on3Xx4d699KDUcSTD_ppZNw&amp;oe=68F2CAFD', 'profileId': 'pfbid0AtTKzKd76d7Hg2vzQCyhQzsFkKjcx3p4N9hMFHh4nH6MeB6GudS2nctmpYLHTk1tl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwHF7pGN&amp;_nc_oc=AdmmYtQi2WwPWcnvtGz5VKI0ao59eatw_jD4dM8GuX0slWp8ejSO6JZEeDYF8uT7pCM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afe6duV7wLzUGYqL-H_-KTqat4n_5gTC94Nwd3KlVH9PlA&amp;oe=691331FA', 'profileId': 'pfbid02SVuyvBbGwNJVcg5PfCMvHZ8jnQkSVdqzSHHPHZ5mbPigYsjiqq7dzBq4y8LdBt4kl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFsnOdo&amp;_nc_oc=Adk3JFG6AbSFBiDBts14hdQzDvMipraYf0PpCKTHEBaqZV2N2-t5OWgx7I9wfuouYpI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfemggBsN03jFqFtesIBn7C7u7cXTk2tOMdglH2ikwpYqw&amp;oe=6914837A', 'profileId': 'pfbid0NxGo11xv6AQLGP7NmjJYbzbN5HuT8SumA5Xrktvqn5w5NK3pkbi96htdzRZ14o4Dl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XX4u3G5L8nBdEACp4u7Xtc9ezPPU9eYe2iLd7zHUCF3xDvd8f31KFbpLUHAiTRmcl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwHF7pGN&amp;_nc_oc=AdmmYtQi2WwPWcnvtGz5VKI0ao59eatw_jD4dM8GuX0slWp8ejSO6JZEeDYF8uT7pCM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;oh=00_Afe6duV7wLzUGYqL-H_-KTqat4n_5gTC94Nwd3KlVH9PlA&amp;oe=691331FA', 'profileId': 'pfbid02XX4u3G5L8nBdEACp4u7Xtc9ezPPU9eYe2iLd7zHUCF3xDvd8f31KFbpLUHAiTRmcl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0TyRi86SyHXQ2wCmjDKQ7gcp2WhbeZfrms2jk8P8i1p2hztfuNggJv9HFZa9fnzuql/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFsnOdo&amp;_nc_oc=Adk3JFG6AbSFBiDBts14hdQzDvMipraYf0PpCKTHEBaqZV2N2-t5OWgx7I9wfuouYpI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfemggBsN03jFqFtesIBn7C7u7cXTk2tOMdglH2ikwpYqw&amp;oe=6914837A', 'profileId': 'pfbid0TyRi86SyHXQ2wCmjDKQ7gcp2WhbeZfrms2jk8P8i1p2hztfuNggJv9HFZa9fnzuql', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QFQc2m3VhLmzxXaFm5b3e2Hsxb7A6bLNPWxv1jeqhhUVvEXyFLZS8MNapW3BFm4zl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w1SMc99zNc0Q7kNvwGntyku&amp;_nc_oc=Adkyj4lXV1tgrYldJVmF7JJNIqLf65dv_8K5-dbTrQ0yQgDrrC0bXALNS5PCEiBq2H8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfeHYsBSifwkDllnkhjriAPYCKfZIYFxbUncytOrBDUasg&amp;oe=68F1916A', 'profileId': 'pfbid02QFQc2m3VhLmzxXaFm5b3e2Hsxb7A6bLNPWxv1jeqhhUVvEXyFLZS8MNapW3BFm4zl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0LhmR7bR8rFjHT6f5Tj6xHDE9KHmsrmCa553mzFJyvnHKwXTSQDtQZXAdWe8gighwl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w1SMc99zNc0Q7kNvwEes7GS&amp;_nc_oc=Adkm1j-jmIcGxyHvQVzhmzuFz5AAkQPTmIHk-9DrSerPXWo2pT9JAousAYimK4T89GQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Affsv0sUPqiqnEQMkOIO0MYVBUMO5ZQoB41noQJcHa0Xcw&amp;oe=68F2E2EA', 'profileId': 'pfbid0LhmR7bR8rFjHT6f5Tj6xHDE9KHmsrmCa553mzFJyvnHKwXTSQDtQZXAdWe8gighwl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1JIil-2kW7YQ7kNvwHcIHi5&amp;_nc_oc=Adl3Q5IrjCzQCqRTTEJEyclVROs_CfU2kRZKp_tGnpVfDg7_vEEvFKhriTvGgVRlb7A&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afe4IGthWfqrmA8S8e4M8BVvCrky_41T6Uei4alKgwWLgg&amp;oe=68F16CE8', 'profileId': 'pfbid0y8YarQX564ecGdG9a1r8Azu4cXYmF1JdtfJXom94txAi3qLuGgojVS6XKibTwx17l', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1JIil-2kW7YQ7kNvwGi355H&amp;_nc_oc=Adnq_SxK_RL0OlF1c5f0MVvm49gz1f08Vtu6vrd1AS77Z7XwMCtzpJKyJPwkFeO3vbg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Aff6sqCqecpIkDg0IzQq9KCTkC6uvFxDEaZVvGBycC9qVA&amp;oe=68F2BE68', 'profileId': 'pfbid032yzJ35StwN9yBB1YQ6iUPuGbVLtjqicFyNWFcNZu9gyJYV7e2VMwYfU5MXBR3FG4l', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwG0-Es4&amp;_nc_oc=Adl5McwVbLQ0GRawAvLCNha_z93mrJfv3cC6qLWL_02hMG1lk9yce95_sfX-naO2-Ic&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfedB-UHsNH2sMY5gR_ey5LtvpRSxz2uAjCjQ5RGGhq7hQ&amp;oe=68F17666'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwG0-Es4&amp;_nc_oc=Adl5McwVbLQ0GRawAvLCNha_z93mrJfv3cC6qLWL_02hMG1lk9yce95_sfX-naO2-Ic&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_AfcqlCrtNkP-8CJNJpv2t55qK3DIPslbx648XAst8vMkvw&amp;oe=68F17666', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwEvBtdA&amp;_nc_oc=AdnPOycpIG8FsWJDa0-mDbqljiRKmCto9B1fN5u-NCxY5RUatvY1-nNgD2fOSTreUbo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Aff9nIgVrQxlspELhHi8OI_hy--N84ZxN2IQ5WMo9R7nRw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwHtPIDH&amp;_nc_oc=Adn3ZT91ipF4IQWIfM2W4YbM-u50OTefcKgI6bG627JBuEi4_RiyLKmzG69ndOtwh5A&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afdbn2-Gi9PIMqzZBKqNPcQF_Ad1DRhLdYH2hNdZ3zmgWw&amp;oe=68F2C7E6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwHtPIDH&amp;_nc_oc=Adn3ZT91ipF4IQWIfM2W4YbM-u50OTefcKgI6bG627JBuEi4_RiyLKmzG69ndOtwh5A&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AffgT_PFr53bp0KR6Hc1jaBy5ekk1G2TBBbeFNppk1P1zw&amp;oe=68F2C7E6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwER03fl&amp;_nc_oc=Adl0mGFUpakjXpYKW8IloyYvzZtFNp5v9UR5Lf86wrlW1OELxYU8x4OgfFqLCr_L_Ro&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afde1mtxEsJ_jup2khT-RGchR-pJTI8WHFoVoJDK_zc1yA&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwG5YjLH&amp;_nc_oc=Adl3kiyF6SCx-2JHI0rpT2r5m_U2nx7h5RosOIdyO0rqPHyY5MqJJmT3zOZBOZhlme4&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=yzC68xiI04Gbd7qSw03aOA&amp;oh=00_Afe2UQQQHpCM8KkBpt7cid1IGmEPi_pX_SYa8N6BuikgEA&amp;oe=68F182A9', 'profileId': 'pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwGewqoz&amp;_nc_oc=AdmsSmsaa74du6Zqr5bLsDZwHPm2vZdoWVij3TVbnISQBUSnom7C-CZ2DkBZ8wwip58&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AfeZvRXq8s1W1Lkm91ghASJJVHQ7uDz8aWdtzSGf45o69g&amp;oe=68F2D429', 'profileId': 'pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q1SqO_SLzBQQ7kNvwFeT0Cd&amp;_nc_oc=AdkCE4A0XHz875Vc7Zrg5GixKEZgD3fZSZZfbHbpt0QByVNWrzlsPVP3bjWQTy71J6c&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfdWdHLYAjfuSi8tng5N5siBkaGxiYebOOBAnjDFHO9l_Q&amp;oe=68F193AA', 'profileId': 'pfbid02WdQpyQ5w1keDpviiVaAMXxU33UnNEGBJ1VetjucbKqdPgquS6tEJ9MWLbpgtdc7sl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q1SqO_SLzBQQ7kNvwHpR98S&amp;_nc_oc=AdmQ85bP_O2AHRbwsGJlM2TkKdyWqDASJLv9GC9Pw3y6wQjmQr6lwR5Jl2l-md3sjRU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Aff-_MISg67W_rf1BxDNm8tPctc6BKok-wwQA4yE9sjmiQ&amp;oe=68F2E52A', 'profileId': 'pfbid0Sbp7VatNLp3c1KivPAT3bUPAdD9jJb1obmxJESdfTvXQWpApiKvgQJan1p1Jmc6Nl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xExdi74AWukQ7kNvwHe4-Go&amp;_nc_oc=Admy901wHkQpSF_dBA5TBdve1dPhzJo1U1gG52r1vVlowjm5TaVX6LHMg6_LwLDrtnM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfdW3-2FvpWoQ5iRo_pi1eJc25w29H5wPrNJgNA3vmguuQ&amp;oe=68F18695', 'profileId': 'pfbid0yCUcdhgxWSeZFsw5CYoHdqbKF3K4RFinxUsn6ZZYdcrgjzfcue2rry6naqskAYiNl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xExdi74AWukQ7kNvwF29gxM&amp;_nc_oc=AdmQiCFIDxuqHZH83RXwz3VBKHu8bcw8HGDcZt96Hg0UAdMdMfGSpo24i95RZYP3lPA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Afc2FOZ_xSyClrp-B-_KKJwh157sv2fqe8HFxzj-s3PHwQ&amp;oe=68F2D815', 'profileId': 'pfbid0333vKpNcnMorYRtihXocoxxjXs7mdZEXTL1Qq17HjfnysYN88ybTqDbv3nV3bWFuml', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iLYJtcGv6sIQ7kNvwH0lBSd&amp;_nc_oc=AdmSJXLpwRN6yaFL_Gjfgf8W_rKfToFJ6rGsJ1EcyWfc3dJYzBX6f7JejGvtxFXAdvk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_Aff3lvMQnQcdDE2Dc0OQsFzFixWPj3lHxxbIMOirbF7e7Q&amp;oe=68F19621', 'profileId': 'pfbid025VEmmNs7RWh5AWKpdu5oGUR6MKyDkmkkNhRA8xcTCTbEiQ6UeVtjMk5ZjyiVz2Qcl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iLYJtcGv6sIQ7kNvwHXyIkh&amp;_nc_oc=AdlEv_kDYn7vv_V6naWzb6wrIJAfA8CnedZwWxePWA8jdR0y57bN6WWD5OoHd3zdcLU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfekS-1TG_iu1UdcHW1w-YvlVzVlAtoRQJeqsRxDGG_aHQ&amp;oe=68F2E7A1', 'profileId': 'pfbid0wbarDEkaRLaq2BD7oFzL6SFVDSod7irKRS7S7r6Kf847La2PtD1hF7eXzfauTfel', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qL6Ft6o-kDcQ7kNvwHOyxnD&amp;_nc_oc=Adm_9Ysuu3_qiPpzi1Ww_DQvkAKEdiWDHug_r25GMfkOBft5nCEpBwuD8LdwS4fQX14&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfdFU68gV96in1EK2gPPqe4Yhdlk29FanYnF7qjLcou27Q&amp;oe=68F195FA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qL6Ft6o-kDcQ7kNvwFtThUA&amp;_nc_oc=Adli68H5BMaZxymJUCgk28rVkffQbMZU3IFRAa-Kz3f2oCCcx93DTx21J9AWy7gxjgw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Affh091jDTixjXOakrx5m6jK4UAz640sUdLNl7UKPrO-vA&amp;oe=68F2E77A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6Xc9JzkGlYcQ7kNvwGnIhab&amp;_nc_oc=AdnqzHOGYTxrHJb8xFheSFrRUlRoR7WrUCaizcbgQXsFbxbWreetMVyqLebyvi3qJp0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_Afc_HLr1xeUcyE_rn-FpadG4k1n-nJGT0B15HwyJLMvvfQ&amp;oe=68F189B2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6Xc9JzkGlYcQ7kNvwG69Bcf&amp;_nc_oc=AdmAlKygDlpeTwW97V3oWuOY66Yl3wHavx1fe2vrDWvFYcXoFxFOBdqa0WlfAsuRkgw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Afc2YT2v3pKGEhQCjeRp9Sjna-VMQCBDI9v2WlihCNOGuw&amp;oe=68F2DB32', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CFQvKcf4UDFrqXMFkMkRMUEh1VihimvWFEc3WNK37Vju5UVukwTEGieBtuMTNpt8l/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q9uVuZDK-r8Q7kNvwEAfnbL&amp;_nc_oc=Admu1NgwtZFEBT53a30yqlNnFzCbSzcx-2SJ5EJL8056G9SmtM0urkYc_MRCRk7McY8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfcMzUuUTl1nD0sjB_yel21ZorTK6zP2kknzfz7SEywdiQ&amp;oe=68F19313', 'profileId': 'pfbid0CFQvKcf4UDFrqXMFkMkRMUEh1VihimvWFEc3WNK37Vju5UVukwTEGieBtuMTNpt8l', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02G6rdWHatKYkkJD46LbaoVFW4YRDiSZWf7HVQ912TDe6GCHtQy1aLL7Ke2XeAnLpzl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PTArX43R3XAQ7kNvwHCLqC6&amp;_nc_oc=Adnye0cQ71WTZaU7gAC06XR8Fuap-X1DYh34yBN_9LSyMCozOZZy3ZVk-ryVCiWVVRU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AffMQM5RDo1759HkJ7lB5lfeIxvoZMdpXbUqv2qPvZ31bA&amp;oe=68F2E493', 'profileId': 'pfbid02G6rdWHatKYkkJD46LbaoVFW4YRDiSZWf7HVQ912TDe6GCHtQy1aLL7Ke2XeAnLpzl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U8M_PRuSKK8Q7kNvwG1ibjX&amp;_nc_oc=Adk3QwLqISJs3d3XUz5-OSmxBoZVdyOr6nXm0DfhRiDEsuVbsLulwKi2GnWAHet2EFw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfcWp8Kz2_8uFt-xY_mZIOL9LkgqQyMKXgjtTg2m5F0umg&amp;oe=68F1852F', 'profileId': 'pfbid027HKH1kmRzrGsLMHTuLgqt15G2Sfu6Q5BWQKqkGWrtGoaxMHTp8zmcyMoJokyYNivl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U8M_PRuSKK8Q7kNvwGE3NFH&amp;_nc_oc=Adk4o4cZfypYz80_O2LOYLg-mFqcOQBAQXIDcYqBWnYEPoYjd040rOWLKeuYXvqxD_Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfcXvJQFzsCSXAqMXkuSmCjUmx04eks5dyzITkvqFdwGEg&amp;oe=68F2D6AF', 'profileId': 'pfbid03jg66b959fRjigqF2pCY93it621yzwLpGVMDhgxVLpAdmmFWfmxtPLg6McZsZfxXl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cvH9LMou8-UQ7kNvwHe5uIz&amp;_nc_oc=Adm3xiSBk9q7C_i4Hx5N73fwA09amYG79QX5lRTVQzjz2uAEYQbw5ekwCKd0duf4xF0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfciPxf1HOEYthIvZ4UyDRwGE6egh9831g5JoH3XIFQHRQ&amp;oe=68F16DB6', 'profileId': 'pfbid0Chx8Ls4J4g2spsSekuHfxt4ExPDUENWuQn6yJzHuTrffvP7Vy7Gr7SKAQzdzsUVUl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cvH9LMou8-UQ7kNvwFIox-J&amp;_nc_oc=Adm1NAHTvERA3s3FpRn72ppMvEOBPxbABFJ7X7qG1GKLgFjKx1BjFuO4mTdANTnsfcY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfdZxrdiFKu_g419F6iRH8JNdR43bscyfM64sQ7LkLryJg&amp;oe=68F2BF36', 'profileId': 'pfbid02GZPqXXz7uznry8eAChkf3NG5sYSUrqhABqnqkngJuyk1h4DtpCERYfuvR5Q7CKZnl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4ad13hX2ekQ7kNvwEaaB8U&amp;_nc_oc=AdnJHIC8mFWGWSMyzNbAOGHAx7VGdqFe23v2KkJzpSfT9hRoLmNdh4l_ygZz8M4FJ-s&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_AfcybE4eooTJxy34s20drHNbqqYCwvR0DGXTPyjPSWp8Zw&amp;oe=68F162FC', 'profileId': 'pfbid0i7bSz8WRLaYaatF77pfSiMZUC2KKjpwwg6Li4Bw8Z9Z4BcVdUkGvmkK1aATQtY73l', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4ad13hX2ekQ7kNvwHO_2v-&amp;_nc_oc=Adk7EMM6YDSZJUVlwREp0ko53i6pfS9eAVEJm2-To1VSWTPkgL1FGgSyzrGHyjb5FCg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfcwSHnUufMLus2LO0O--timpuC2ifHqCetoBK0pZtSbrw&amp;oe=68F2ECBC', 'profileId': 'pfbid02my3AAoSFCCWURnterS7E1bWxHsvUVA9rzGioayJG7mPUXRQrR1TwvkPwrqFjx8EXl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwGFKkxV&amp;_nc_oc=Adk3CUtYdy65VnioOEeFhqNTcwa284jaCwRsaQWvKWxqZHzB4sfq8kBsDSzBWNMgFdU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=ZWT7DXfUn8PY04Kyq8S2Qw&amp;oh=00_Aff1Wakj5_e8bXkdvC1Mk99hynB_EeaffJv-AUGd3FyQAQ&amp;oe=68F182A9', 'profileId': 'pfbid033mJw2iPAXwn8QkJiyQXd5VW6idX8fqWvovHXp7qHmkJXaJjFbPvAj8aNEhuQYceAl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwEh83l3&amp;_nc_oc=AdmTpwS01otbgI6MiD2Q04xz63nCpeLplPfZDsZmCAmwWSm1jiED3Ytt_Ic8dxfarO4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Afckz_gO-EtIXHeoXL3xB2jaVYBFyTuSJge0RhUGLGYMfA&amp;oe=68F2D429', 'profileId': 'pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=pVeuVbc6pFoQ7kNvwGFwOXP&amp;_nc_oc=AdmzNp3VbuW1f7Iyxw-SQNGTpZEEXhBUZjIB8xrpvMPa8b8gZ3nT7jx4Ptugm9lmoh8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AffqytANr3D5ztsHs1ce2mkRyNIb29Du02111t1BW6UYEQ&amp;oe=68F16882', 'profileId': 'pfbid02zsTHfDMZdZpPRL6sd8EhzNU77gWEkWKpzACmgncq67QQP6BCDNFrrVrQqFTgrzGHl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3txKXFsBXhAQ7kNvwFfRy22&amp;_nc_oc=AdkHSjowC3t5MqS_5xWgaSQHNhCsnFcwSE7nnbgZv5oraac65imJMbc2725HuR7ymT4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfcrWObzmf-4Q7YaWsR2fOEWNRi0-ajxb9bh_871sWcNHA&amp;oe=68F2F242', 'profileId': 'pfbid02zhJHN55poxujHpWorcxGgybrMegMA6YoMu8zY7ToJtC9mQXwoP3PA1jm1Vugqprol', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFFtfTt&amp;_nc_oc=AdmVy-xz3M3cAzCrbWwUT7OpxK-N79F0OH-Cu01xndMZ3BkRms6srB953QIoW8f0Oyg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;oh=00_AfehDPiZ9j0wIAIkZsuoFdRr2TdBvsBHzTD5Be7VmzVLgw&amp;oe=691331FA', 'profileId': 'pfbid0a1Sn1eNei4a9FBNQtLTShLycJeCYyAXBadr7H6c5Udsd2JhfYYGD4cqQWj7yqdApl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwGfQfhf&amp;_nc_oc=AdloCNJMLpLLBQG7t_AWotGQPxzayhbUgEKUuO6NjrXROnVoN_Boe31EYJA29YAxsKs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfeyUx483RFJMmysxuZ_IVrgjbc7sm1Gp8WxBNR455eZIw&amp;oe=6914837A', 'profileId': 'pfbid02drtVCKJUZTaXoGZi5dwbLvX8J8FQaQQiSaocqgY1m3k8yvt4ccroKLw1zqFeffvMl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lAc8OGWbo84Q7kNvwHLkjYT&amp;_nc_oc=AdkLaSkMJ7XoQvitoOUevEyubjW6wf1wKUAazRU549a28NBjdhDp0HPvf5Ifs5ReLv4&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfcjXLYT8BxKuvNcGwJ7DvAfomxWm7qOjuB9VyzAZgCRtg&amp;oe=68F17A42', 'profileId': 'pfbid02onXw67ELKQ4kfssTgdJ8KRMTH3U9xc3xPtLeUE7WMi2uwCRXdgS3ujQLhqE7RHQ6l', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YvbVLd4UEcAQ7kNvwGvA9e3&amp;_nc_oc=AdkNkvlLqS4GqIFrzFbQoQIK39Cib4txbpSaZ4cFpb032ZayjEG0wUKStfW3sb2-KOI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AffY0-AsjRzq8f-ar5dH4kbL11qZZTUkv8AVRMCaAnZp5A&amp;oe=68F2CBC2', 'profileId': 'pfbid02ocNvnxxbVwpZDGC7g4Es3Q4rZ8vTdPNeY3xVMCsCZSYPGpkhpynaFTkLWGZWWj3ml', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwGLF6OY&amp;_nc_oc=Adn0F-MazWsQcjT5pSFG5U9FJqPRsaPrIL6PMnHWEQ1kgbDSy5lA-P_ZgfpGavQX2rM&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afd8kdAiSyi1282fUs4_7ybcbJbYo5FHdCCi74VgyK4v5A&amp;oe=68F194C8'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwGLF6OY&amp;_nc_oc=Adn0F-MazWsQcjT5pSFG5U9FJqPRsaPrIL6PMnHWEQ1kgbDSy5lA-P_ZgfpGavQX2rM&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfeWoyPCgKvNAX6p70yrtrWICObnHzrfFUQVD_mQ8Hnpmw&amp;oe=68F194C8', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwHl8V85&amp;_nc_oc=AdmjNWvqMGUFWOJJanKCvshup5xnXwAo-Dh35tOvWDwe68lppOUxwcViAbF-XyhhC3E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afck8aAX_DvZnb4hI1MIGNv4a03hxvYKs00Cqg-c8mQnhw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwEr1am0&amp;_nc_oc=AdkFzhCdVNgKiHMwIaMFDD_WKdrW33-yUqjAkJibd-QovOwSonZp9EHnZAF-AvhI2g0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfdQIvkN87Zf5M1EO5SbYzNt48tt1TBhTI3-g8T9r2aZxg&amp;oe=68F2E648'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwEr1am0&amp;_nc_oc=AdkFzhCdVNgKiHMwIaMFDD_WKdrW33-yUqjAkJibd-QovOwSonZp9EHnZAF-AvhI2g0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfdJ5mU2ZZ3x4diCgl5Ti1wOnvzWSxnnwyb14kDVN5CL6A&amp;oe=68F2E648', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFH0LL0&amp;_nc_oc=AdmosAiqbQwMqkPv4f3imSElBZ9jCU7QAA3nYy25e7eWM4wlY15JJxaTd_BO3o2KFOY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfclMxDU8azl6BtRRcNYoOasNmWJ-70aSWmyujlh4fz64A&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFxaTok&amp;_nc_oc=AdkIQM1Iqx1n9yRFNOcr17G7NbjBY8Q675T4uf1BaKah7zhGDODM7dqAy1-rcv_udLU&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afdf1rYXTvOoAKBcjy35ciYwdUvKI-eRtSbWyYdj4SpQqQ&amp;oe=68F17240'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=bkskv7lSN8oQ7kNvwFxaTok&amp;_nc_oc=AdkIQM1Iqx1n9yRFNOcr17G7NbjBY8Q675T4uf1BaKah7zhGDODM7dqAy1-rcv_udLU&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfetMq47ek1pzF9Ca3i_UCEXrG0Rshyc7rj6d0YIrC5tcQ&amp;oe=68F17240', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwHl8V85&amp;_nc_oc=AdmjNWvqMGUFWOJJanKCvshup5xnXwAo-Dh35tOvWDwe68lppOUxwcViAbF-XyhhC3E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afck8aAX_DvZnb4hI1MIGNv4a03hxvYKs00Cqg-c8mQnhw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwEZ32pT&amp;_nc_oc=AdnNcR3u6r7mGR6nRjCsQJLBGjcCZXANj3jnzkIcjv73hdYpwHWVHbQl77aGryJOq5M&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfejvhlYKRPZ2nRMC385IhxkzGwI0XBel_Nxc6Wo9EGDSw&amp;oe=68F2C3C0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwEZ32pT&amp;_nc_oc=AdnNcR3u6r7mGR6nRjCsQJLBGjcCZXANj3jnzkIcjv73hdYpwHWVHbQl77aGryJOq5M&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_Afdbh9NXBg3nD636Mlx1zvymy93ZBvOkfJlM5cYBSoxohQ&amp;oe=68F2C3C0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFH0LL0&amp;_nc_oc=AdmosAiqbQwMqkPv4f3imSElBZ9jCU7QAA3nYy25e7eWM4wlY15JJxaTd_BO3o2KFOY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfclMxDU8azl6BtRRcNYoOasNmWJ-70aSWmyujlh4fz64A&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/559672110_122146673306700230_1924597970426222239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b8sumZ7Zer0Q7kNvwHbdXKX&amp;_nc_oc=Adk4cJhy8Qxcjnmwiyrx4zai1wTv5Bbcm72BZZOFZ2XUgcYxOZzH64e-wgp9uwsGRKA&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfdEwq5vksrAi9BOJqe7CcKNAQ7NGM1EC3UD8NdrMSqnbA&amp;oe=68F183C8', 'profileId': 'pfbid0NMYVqLKV2fEvKrq9AazHuwqYovy3Zn6M5i7dK18eaKb8hK35Cfnyb8UrzpnaZtFLl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/559672110_122146673306700230_1924597970426222239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b8sumZ7Zer0Q7kNvwFD3_E_&amp;_nc_oc=AdmptQH7m_pqC3s4i6b8FtGrhV4tFC6tPhEBk3CVgRr3idtuBetk89lPQwXi4PEZpQ4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfeSayyf-fuvNX5I5hXDQtKJ-ZdI3jMLji5mrmTlGxmCfg&amp;oe=68F2D548', 'profileId': 'pfbid02SCzD21FJt63kAmpBqaW7QjpxAwTDPbPga9nX4MPHcapgiCR3a6NjfNm5np6LCEf4l', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nRA9SJteOaYQ7kNvwEZqxQA&amp;_nc_oc=AdmLdoKmukxhqW_iYpwuo4pAsVBNgvLrh3IK8dIFGbx-to4N1X4Aq-0qFXBtBQwC0HE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AffIuuu6Hv_78hWvJ3MT-Y_wBM-GG21nOlAq4ugD1kYEJA&amp;oe=68F16B0B', 'profileId': 'pfbid0bRa4SpJ51FwJKzAKAd4KhJ8xvnxLqavhkew2cL6GwscpZaqUUGwDwRaCZm7tAhbwl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0F90YT-5Z-0Q7kNvwHTerPE&amp;_nc_oc=AdlIWMxK8MUSGeAgVBvJQM1V7CmqcrOQ2Un48Yq2Hr4WyoH5yWJmpnMexniAVXPuwaw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfdrORcpZewbsCn-Ig3hv7Lhg7XDvl2EBA0oMRspNtKgug&amp;oe=68F2BC8B', 'profileId': 'pfbid02fH1mdVDtrdpZpi25jyESqHZcRd1vxvgBoMG6YtcAprWcodeU6XBA36cYuFcJEXMjl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8P4LsnblbQQ7kNvwG7nQ9l&amp;_nc_oc=Adn7X7FmwrrHVFlTdQFFKmA6bBiU6VFYoblhWBnssW4UMCNKseVZSptbG0DAxhm2dB8&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfeHpuaS3hlFL9Z3kYWYzlXezXEeYhzusOHaDthORXbeJw&amp;oe=68F1933A', 'profileId': 'pfbid0qPFiZPu9wDvZkLAuJrW9bKFAGXYW48KuTuF2WDPFbYmSmszZs7VSeuqQTvpzE63Rl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8P4LsnblbQQ7kNvwHAiMTq&amp;_nc_oc=AdlvCsA0tj-feiJ61KPyeuk8IJd5Hh9A6-9SptAWxNYIIkTczRjnaoeMZ8nlwmwd1U4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_Afcheqyg_phruW-PU1nUdBtV9Bv0bls2HOKsCVTLoDq8gA&amp;oe=68F2E4BA', 'profileId': 'pfbid0qD6iGFdR7dimz4cFMst1e8vEoNUdxiZkC6xMwMLMGAr8Dq87FdM167YgFRzhbP2dl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7nYDjEWqYGsQ7kNvwH0Bdfc&amp;_nc_oc=AdnwdFDFvZl9H-FMf-dj2PChlAv9sE7oUyQthkEjRh2iAwsPuMDjsfZGKAs-PfYEd2M&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfdxZkpA3LK824RV4YvazzAoMJRNFqxyiR1db3WRId-BfA&amp;oe=691307CD', 'profileId': 'pfbid02bSE1GovZ9FxFEWdwZiyd9NS3mV4UtsZRwUnVU6U28oh13J6FdcZyCQswNFhGLjTol', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7nYDjEWqYGsQ7kNvwHkU_Vk&amp;_nc_oc=AdkhfRXCH2R5MZl9skSalBslZZxN_R91OlCVKKQMQFGkCSU79XUXVN1GOmHSwV_vgwo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfeEAmwRsNM2DxOkbl25rXlHqj7l-OSmVldKrH0BVfcY0A&amp;oe=6914918D', 'profileId': 'pfbid0XQdHnzizU92AaUaC6e1gJCfp4miqaqzf5jAb4pEk2uX9yAZC9hdNtU87GfCCkUt4l', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwEhjtp3&amp;_nc_oc=AdmOllfKIN4jMz6BrVpeCuroLYGKv07_8IkOmNE1vmZ9U2u1R6TMJq7jRhxIFSpls2s&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_AfdULHGS0QqtmpQRARxq5lckc9vxOTCBDWq_GQT_6fSM-w&amp;oe=68F16566'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ueAXCFtoX2kQ7kNvwEhjtp3&amp;_nc_oc=AdmOllfKIN4jMz6BrVpeCuroLYGKv07_8IkOmNE1vmZ9U2u1R6TMJq7jRhxIFSpls2s&amp;_nc_zt=23&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Affjt_9AqDwS4awJAKSSeiwMyI6pmJqD0f00K-cpH70Yiw&amp;oe=68F16566', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwHl8V85&amp;_nc_oc=AdmjNWvqMGUFWOJJanKCvshup5xnXwAo-Dh35tOvWDwe68lppOUxwcViAbF-XyhhC3E&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=BU1ZxgeErRuGtVgkB_Fm0Q&amp;oh=00_Afck8aAX_DvZnb4hI1MIGNv4a03hxvYKs00Cqg-c8mQnhw&amp;oe=68F16331', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFrwjfT&amp;_nc_oc=Adn7OkZRMqtj7WOsEjHDIS2Vqg7gowFsTppFR2iGfZa-jWpm2x-D_2OJZ-rkVx4vJd8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AffxQm9KceC-RfMs4yU7DpBAwKtmLxSZ7xxfhXr8_xpe5A&amp;oe=68F2EF26'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFrwjfT&amp;_nc_oc=Adn7OkZRMqtj7WOsEjHDIS2Vqg7gowFsTppFR2iGfZa-jWpm2x-D_2OJZ-rkVx4vJd8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfcvNaW2imInhOPz8LHJ5sVyYx7geWoGn03kIRW6MBuWDQ&amp;oe=68F2EF26', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFH0LL0&amp;_nc_oc=AdmosAiqbQwMqkPv4f3imSElBZ9jCU7QAA3nYy25e7eWM4wlY15JJxaTd_BO3o2KFOY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfclMxDU8azl6BtRRcNYoOasNmWJ-70aSWmyujlh4fz64A&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwHI-0Tz&amp;_nc_oc=AdligYRU8XGQzuTtG315Vc3gyGZ6ocYbY7JDaMoY7cY83WK32OD1Td1MGhm3tIVw5aI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_AfdIdyT5hl7oHjj1PbLMRZKRKM6qt9pSxfW72_8D3rJWdQ&amp;oe=691309DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGhDJkj&amp;_nc_oc=AdnGwaDqhQmShwZ0aYsgoIyxiUSjUaQDRqO9aI1msWBwSaHPT7_MdffmWDJJHdf7zhQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_Aff3EAxw8L8N1RaCF08JgEr-wg2JpUjwJCOf8v-cEKa2Pw&amp;oe=69145B5D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwHI-0Tz&amp;_nc_oc=AdligYRU8XGQzuTtG315Vc3gyGZ6ocYbY7JDaMoY7cY83WK32OD1Td1MGhm3tIVw5aI&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_AfdIdyT5hl7oHjj1PbLMRZKRKM6qt9pSxfW72_8D3rJWdQ&amp;oe=691309DD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGhDJkj&amp;_nc_oc=AdnGwaDqhQmShwZ0aYsgoIyxiUSjUaQDRqO9aI1msWBwSaHPT7_MdffmWDJJHdf7zhQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_Aff3EAxw8L8N1RaCF08JgEr-wg2JpUjwJCOf8v-cEKa2Pw&amp;oe=69145B5D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=MKpemPoFRecQ7kNvwHMAuDi&amp;_nc_oc=Adm_oVDY-3WVqP7tBX6zoqJFqxgGhUw-ykAmu1vPa744BKE7QAbQJc0J3QJU6PCLaNY&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_Afd617PsV27e7ww274tRnrFU5cb0qdeQZQcVAvWWEdAAyg&amp;oe=68F18B4D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=MKpemPoFRecQ7kNvwFYWIZ0&amp;_nc_oc=AdlDEY8YnfpSoD1Kz5LQ6bkgG8aA0E6Hm7pv-VUobhKVKx67KHMj5NMxmmAzXTY6Jc0&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_AfeSEmeTAP6EfP-lwYdoj8Fq_VrOaMr1Z0Zw4iHtepRm9g&amp;oe=68F2DCCD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-s6h1pdmql0Q7kNvwHPT8IN&amp;_nc_oc=Adk5YmqdEKwVj7_fGndO8dmN40bMGXDJinr40tbeN-TD-7e1Dw4Tuxm5M18w6nksvrA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=xo8hhkF07F6SpouCMc8YYQ&amp;oh=00_AffT_hK7lKPKxHKpeBwZD0ASVNvblda40djwLHf2jSru4g&amp;oe=68F18A50', 'profileId': 'pfbid02V3g7RA7FBYuLTGmCBmTMJsrW85XZzzRqEVeJGJQkJCJ7GrM4bKCCxr2AYkSLoysgl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-s6h1pdmql0Q7kNvwGfK5w-&amp;_nc_oc=AdllPLTYYu3b_ktsgJWE0sGQp2i2HQfwuOw_0Nu_DGNxTWFLlft9A-KbETXXuqhiGE0&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_AfeNVkXkUIofPKUYwCIWosg2O8EsDS-LB_WQeBUcXCBQRQ&amp;oe=68F2DBD0', 'profileId': 'pfbid0RW2vVzUtLLRryTdw1ApPVdMFZ7txvuEViWmMrn9GmH5vvRMGvV6qGeVGnNby5WuVl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwGCSRuw&amp;_nc_oc=AdmAtxua-KTWaEXGWGHahHTdZUxeGHbRT45izxSp-rtXq-uapn1x685o8kDBLDXTbhw&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afd0PXL7dbjrJ9s2nbEY0v6TIqEJhyEUAD5OlJxrIKBkGg&amp;oe=68F2E4A1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=jNTbV2ALo1oQ7kNvwGCSRuw&amp;_nc_oc=AdmAtxua-KTWaEXGWGHahHTdZUxeGHbRT45izxSp-rtXq-uapn1x685o8kDBLDXTbhw&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AffjwuS3tV1C1AwQXfbCYDAsjVGpJw0ciaFUWvL1aZnUNQ&amp;oe=68F2E4A1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TQqdZsPNNbwQ7kNvwEwqj7b&amp;_nc_oc=AdmdXdGwiWYJe53hPnhFZKdCUYityLC7-nYm49LV2R-bwTOShuUp8lAHNpYwGK9eojg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afe24HQ-Qyo816Dm-gAdOxkF42J6RkaSRPBTSB7THaH1WA&amp;oe=68F2DEC0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHd-dFF&amp;_nc_oc=AdlcCa1A2tVEedI7J8DSOpO_UxpXG8vfDOS5MphjYyvO0xYh09ITlg-EC0A-F0c8ctE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_Afea9fREevdX3FgYzgoOFskzflVIPo5YK2UHogAj_Ymjyw&amp;oe=68F3FDE1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHd-dFF&amp;_nc_oc=AdlcCa1A2tVEedI7J8DSOpO_UxpXG8vfDOS5MphjYyvO0xYh09ITlg-EC0A-F0c8ctE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AffxR8SPqNTIx6BJ6j11hg-V13Xta-YHGYhVwTnubmu24g&amp;oe=68F3FDE1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TQqdZsPNNbwQ7kNvwGdhCRO&amp;_nc_oc=Adl9lCjYPNgWkCPi4MKpUXwgCBZwuEmzcjfD8tFwrAp4Uj2Lxsj1QawKxAkktAtn_gI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AffannOCBWDBO1m4_il5jbFJcMUpL5tgYzkvKn08np8WxQ&amp;oe=68F43040', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IOHOZASovbQQ7kNvwFCByTP&amp;_nc_oc=Admxc0lQO813C0GKXCT5A16oTGC9_J-WmVfo1PnrEvs8KyCydJKplarFa0x_4eNGm3A&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AfeK4O6VOaIpuSa9c1Z7mmUZa0XKzeW0oDbShejnNVhu3Q&amp;oe=68F2ED5B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aScErAeirtMQ7kNvwHDRWEQ&amp;_nc_oc=Adml7MnwQExpaL5DMumZ9WmeWSTYoIFQdTnX21PASrSOq91Zx8E5LKwORbnL5n0x9pU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_Afc7SmgzNpYfL3CELWqDRXFC1jkP5t3-QtrZtjk12ikJGA&amp;oe=68F4069B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=W9MIPProskAQ7kNvwEk4u5s&amp;_nc_oc=Adk0vYQ3faaliOvRrDXDaMzS_dNTWPyldVC6DtJiZNhqADpxk8y-4gVpRhpvRqO8Azg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afd1yJgXtlF1yhedOYAoDvTAV5H9aeIzHXi5_hXggpSMDg&amp;oe=68F2E372', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=W9MIPProskAQ7kNvwG9Fmz_&amp;_nc_oc=Adm3RpeqHgMAHMhR_3BUGPKKthF6W727unGQSE05SU9RrA-AJwf5HY8oX6PyA0q5j54&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcTjKf_CuNhHtk9s2XjevhgPoFjni6zMW6DcjQQyH_HLg&amp;oe=68F3FCB2', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FyrMnLicFjwQ7kNvwGm7mv6&amp;_nc_oc=AdmNpBb3LY-Gl_MArqHDaSRQgABCF8NVVMeaA0GK-2aoMnVxRjx26xYntYz1rBGZkUs&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AfdOBDm7hqY3cDKs_T6drX5on3Xx4d699KDUcSTD_ppZNw&amp;oe=68F2CAFD', 'profileId': 'pfbid0AtTKzKd76d7Hg2vzQCyhQzsFkKjcx3p4N9hMFHh4nH6MeB6GudS2nctmpYLHTk1tl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7QD9crfJx-IQ7kNvwFMNrfe&amp;_nc_oc=AdkM4OMXHKqtQcFR0HWf3aK-Ub5_8GhLaqXcbVl2Z3UHU2UKUqHtTJqsUuKBLXGtZ8Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfeW5fLdBRKoayKwMA3uOfomsVjGTZ6xpDRefWRpTSPXxA&amp;oe=68F41C7D', 'profileId': 'pfbid02Eju3AzYvx9DZKc9ZXs4F3tKkrSfoeFMjFob8GMmm5oSq8gF4BAPM5WEpidtEZCzhl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFsnOdo&amp;_nc_oc=Adk3JFG6AbSFBiDBts14hdQzDvMipraYf0PpCKTHEBaqZV2N2-t5OWgx7I9wfuouYpI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfemggBsN03jFqFtesIBn7C7u7cXTk2tOMdglH2ikwpYqw&amp;oe=6914837A', 'profileId': 'pfbid0NxGo11xv6AQLGP7NmjJYbzbN5HuT8SumA5Xrktvqn5w5NK3pkbi96htdzRZ14o4Dl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwGfhxX1&amp;_nc_oc=AdkPxzBaBey6wmbFIPgnrlF3Qp_pO0wA8xI8WAuny9vgpXwqkKxuGqROBLuDYxsh6B0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfczWgX3Cz3I-g661cfJ9iWQzxN7cPcJ5CczM39JqlfMbA&amp;oe=69159CBA', 'profileId': 'pfbid02SoiWBgtjwZCT5tQumQ7pppYmdTRJx7vdCtXUCiG2qHG2V4hNpi7JxkmQrjhNLzHDl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0TyRi86SyHXQ2wCmjDKQ7gcp2WhbeZfrms2jk8P8i1p2hztfuNggJv9HFZa9fnzuql/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwFsnOdo&amp;_nc_oc=Adk3JFG6AbSFBiDBts14hdQzDvMipraYf0PpCKTHEBaqZV2N2-t5OWgx7I9wfuouYpI&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;oh=00_AfemggBsN03jFqFtesIBn7C7u7cXTk2tOMdglH2ikwpYqw&amp;oe=6914837A', 'profileId': 'pfbid0TyRi86SyHXQ2wCmjDKQ7gcp2WhbeZfrms2jk8P8i1p2hztfuNggJv9HFZa9fnzuql', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XLutk7obK8LJ5JgvPAdyuckm7aRdZpHyYsY6tzZzJw6tTzp1BNqyrnaDjCfzmWQcl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwGfhxX1&amp;_nc_oc=AdkPxzBaBey6wmbFIPgnrlF3Qp_pO0wA8xI8WAuny9vgpXwqkKxuGqROBLuDYxsh6B0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfczWgX3Cz3I-g661cfJ9iWQzxN7cPcJ5CczM39JqlfMbA&amp;oe=69159CBA', 'profileId': 'pfbid02XLutk7obK8LJ5JgvPAdyuckm7aRdZpHyYsY6tzZzJw6tTzp1BNqyrnaDjCfzmWQcl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0LhmR7bR8rFjHT6f5Tj6xHDE9KHmsrmCa553mzFJyvnHKwXTSQDtQZXAdWe8gighwl/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w1SMc99zNc0Q7kNvwEes7GS&amp;_nc_oc=Adkm1j-jmIcGxyHvQVzhmzuFz5AAkQPTmIHk-9DrSerPXWo2pT9JAousAYimK4T89GQ&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Affsv0sUPqiqnEQMkOIO0MYVBUMO5ZQoB41noQJcHa0Xcw&amp;oe=68F2E2EA', 'profileId': 'pfbid0LhmR7bR8rFjHT6f5Tj6xHDE9KHmsrmCa553mzFJyvnHKwXTSQDtQZXAdWe8gighwl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02Q5FbjcmkszYGWnMG1tgewy7jSUaJDzYJMhhmNFce8M4dFWJoERqQRkbZ3XqEyiDZl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w1SMc99zNc0Q7kNvwEpnmnM&amp;_nc_oc=AdkZVnNbN_U6uHwAhOtGlPgrRuXe7TaWXYDIM8vE-DPzBZz73g_wafofhTorV5EOELw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcMBkm19SSaOYEwircxXz07Cse90kjV-8n7eOgxqe8xWA&amp;oe=68F3FC2A', 'profileId': 'pfbid02Q5FbjcmkszYGWnMG1tgewy7jSUaJDzYJMhhmNFce8M4dFWJoERqQRkbZ3XqEyiDZl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1JIil-2kW7YQ7kNvwGi355H&amp;_nc_oc=Adnq_SxK_RL0OlF1c5f0MVvm49gz1f08Vtu6vrd1AS77Z7XwMCtzpJKyJPwkFeO3vbg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Aff6sqCqecpIkDg0IzQq9KCTkC6uvFxDEaZVvGBycC9qVA&amp;oe=68F2BE68', 'profileId': 'pfbid032yzJ35StwN9yBB1YQ6iUPuGbVLtjqicFyNWFcNZu9gyJYV7e2VMwYfU5MXBR3FG4l', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1JIil-2kW7YQ7kNvwFORi-N&amp;_nc_oc=Adl0WUMly60bsX2eqhDy-ZWGclBeD34LVRMsSBNK9LppLJPEg8R316Qghk5OHAUCuxI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfdAzBKKmhrauXfhblk6suHBtOmqG4ZCFjbtsICcA25O6A&amp;oe=68F40FE8', 'profileId': 'pfbid0xxPaZGFLGWoUQgv4743BoeNL9wSTng7Q5Zwi41nfqUZmgw6BAF8vJX5Ubrm5fFAJl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwHtPIDH&amp;_nc_oc=Adn3ZT91ipF4IQWIfM2W4YbM-u50OTefcKgI6bG627JBuEi4_RiyLKmzG69ndOtwh5A&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afdbn2-Gi9PIMqzZBKqNPcQF_Ad1DRhLdYH2hNdZ3zmgWw&amp;oe=68F2C7E6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwHtPIDH&amp;_nc_oc=Adn3ZT91ipF4IQWIfM2W4YbM-u50OTefcKgI6bG627JBuEi4_RiyLKmzG69ndOtwh5A&amp;_nc_zt=23&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AffgT_PFr53bp0KR6Hc1jaBy5ekk1G2TBBbeFNppk1P1zw&amp;oe=68F2C7E6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwER03fl&amp;_nc_oc=Adl0mGFUpakjXpYKW8IloyYvzZtFNp5v9UR5Lf86wrlW1OELxYU8x4OgfFqLCr_L_Ro&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_Afde1mtxEsJ_jup2khT-RGchR-pJTI8WHFoVoJDK_zc1yA&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwGSKdPG&amp;_nc_oc=AdnDt-crNcwlcuRbFZm0TFRIFW1Pb52n-i-SRnWhdw7Fc3mLkkx6pQgFI_WJz5Tj0mg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcLBijZZHalxJvLAPHDcDXQsuidkTVO5M5-RCgRAJrZug&amp;oe=68F41966'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwGSKdPG&amp;_nc_oc=AdnDt-crNcwlcuRbFZm0TFRIFW1Pb52n-i-SRnWhdw7Fc3mLkkx6pQgFI_WJz5Tj0mg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcZyYyzCohJ2GsxmEVW_gomSEKoRV7NW5cQsvYhfJNqCA&amp;oe=68F41966', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwGrmp1C&amp;_nc_oc=AdljK2IkFSC6IjG6tbzLKwwmfVKLlWs4uOyRDM_lQ1Zf243fY-WYhPrARsqGICbfno8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfeLs3mCPMDDl4HP4AZE7se10svZcofYT7WGWsdN9f7ZOQ&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l/', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwGewqoz&amp;_nc_oc=AdmsSmsaa74du6Zqr5bLsDZwHPm2vZdoWVij3TVbnISQBUSnom7C-CZ2DkBZ8wwip58&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=kpZWHyGBqXLv28yZukOEtA&amp;oh=00_AfeZvRXq8s1W1Lkm91ghASJJVHQ7uDz8aWdtzSGf45o69g&amp;oe=68F2D429', 'profileId': 'pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwHe91Uc&amp;_nc_oc=AdlCmyH0bMd06O4ZBuLDF3Sg1-udx6MrrX1WEZjgSXnFvGDOZeCoqQczK1605hTvjXA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcN0_miEoRm9sOtGHna7c2DKsx4vwIGbCjCjccNpu-OpQ&amp;oe=68F425A9', 'profileId': 'pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Q1SqO_SLzBQQ7kNvwHpR98S&amp;_nc_oc=AdmQ85bP_O2AHRbwsGJlM2TkKdyWqDASJLv9GC9Pw3y6wQjmQr6lwR5Jl2l-md3sjRU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Aff-_MISg67W_rf1BxDNm8tPctc6BKok-wwQA4yE9sjmiQ&amp;oe=68F2E52A', 'profileId': 'pfbid0Sbp7VatNLp3c1KivPAT3bUPAdD9jJb1obmxJESdfTvXQWpApiKvgQJan1p1Jmc6Nl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TdeD9jys0qwQ7kNvwGWp_Ah&amp;_nc_oc=AdmdKX9AoDT7OGnSIJ2RhxCJ8wXHbyWKHuOpg1W_appvzuH2DGFH86-iZgeEmtkCESk&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfcZB_cp-McOVUVmX-CWjzbDmpDw5T18E7w-LY2NYf427Q&amp;oe=68F3FE6A', 'profileId': 'pfbid02WTFpgFpCCEzhHMwnkR6TeHP4dcwrAawQZp8izFT8NAo4Zsp4nAPDeDKDBadix1iHl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xExdi74AWukQ7kNvwF29gxM&amp;_nc_oc=AdmQiCFIDxuqHZH83RXwz3VBKHu8bcw8HGDcZt96Hg0UAdMdMfGSpo24i95RZYP3lPA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Afc2FOZ_xSyClrp-B-_KKJwh157sv2fqe8HFxzj-s3PHwQ&amp;oe=68F2D815', 'profileId': 'pfbid0333vKpNcnMorYRtihXocoxxjXs7mdZEXTL1Qq17HjfnysYN88ybTqDbv3nV3bWFuml', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xExdi74AWukQ7kNvwGiZ7cS&amp;_nc_oc=Admhsk_pi0yH9eOlT9RDRQlcBv-b2PiokUU_nNrK8YAcD11Z2Y2FbEEf1G9TVnekqRE&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfcH2OBQP3QzJDoXaNgoldK5zknaJ9yOD1iYyDRPiJDPlA&amp;oe=68F42995', 'profileId': 'pfbid0y2KcLZRDguKzjGCb1gNS55tuPMt9VTF88J6mCprPcY7xyGoUz4zTSRKFZ8CeenGCl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=iLYJtcGv6sIQ7kNvwHXyIkh&amp;_nc_oc=AdlEv_kDYn7vv_V6naWzb6wrIJAfA8CnedZwWxePWA8jdR0y57bN6WWD5OoHd3zdcLU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfekS-1TG_iu1UdcHW1w-YvlVzVlAtoRQJeqsRxDGG_aHQ&amp;oe=68F2E7A1', 'profileId': 'pfbid0wbarDEkaRLaq2BD7oFzL6SFVDSod7irKRS7S7r6Kf847La2PtD1hF7eXzfauTfel', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J53fkY2YnZEQ7kNvwFjaF1G&amp;_nc_oc=Adn05iT1jq5T-GMKc9xbtNPu5S0f0BFhNKpgKVZ6F6LuelOWj4-6Jo_sP8EZECS_xIo&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfdD5aM0myUjKgQh4jM6NwQT2yYx8gjkC-B1-mfZY6aEVQ&amp;oe=68F400E1', 'profileId': 'pfbid025K5mUEbNc1UJcvMovC9MVBzwm1s2mpaYoANeiQYVubwn5oSBia9Dk6EWZUhAdq3sl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qL6Ft6o-kDcQ7kNvwFtThUA&amp;_nc_oc=Adli68H5BMaZxymJUCgk28rVkffQbMZU3IFRAa-Kz3f2oCCcx93DTx21J9AWy7gxjgw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Affh091jDTixjXOakrx5m6jK4UAz640sUdLNl7UKPrO-vA&amp;oe=68F2E77A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=n5ljeBBNROMQ7kNvwGa2YUq&amp;_nc_oc=Admz9DsFep7DyAZzZ7G5E2iEPyuPCTa87Us1zKJv7wjw3nhqB4bNOjWpQsf8fsfXFbk&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afdnu5kW9YEXsw1UrR7ZFA-vJgpI3h9KsQ6ms9JCoP1TWQ&amp;oe=68F400BA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6Xc9JzkGlYcQ7kNvwG69Bcf&amp;_nc_oc=AdmAlKygDlpeTwW97V3oWuOY66Yl3wHavx1fe2vrDWvFYcXoFxFOBdqa0WlfAsuRkgw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Afc2YT2v3pKGEhQCjeRp9Sjna-VMQCBDI9v2WlihCNOGuw&amp;oe=68F2DB32', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6Xc9JzkGlYcQ7kNvwEvvDzq&amp;_nc_oc=AdmCuQaJ032J65bn4ghVj9ser8F44EdGORpyYESFqkyJUxx4Ln-_1agncWg5p4d_Eww&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afcyi3ZWMywdezssLxRq6M41ru96ryNS8EeXaHj5cYQE4w&amp;oe=68F42CB2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02G6rdWHatKYkkJD46LbaoVFW4YRDiSZWf7HVQ912TDe6GCHtQy1aLL7Ke2XeAnLpzl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PTArX43R3XAQ7kNvwHCLqC6&amp;_nc_oc=Adnye0cQ71WTZaU7gAC06XR8Fuap-X1DYh34yBN_9LSyMCozOZZy3ZVk-ryVCiWVVRU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AffMQM5RDo1759HkJ7lB5lfeIxvoZMdpXbUqv2qPvZ31bA&amp;oe=68F2E493', 'profileId': 'pfbid02G6rdWHatKYkkJD46LbaoVFW4YRDiSZWf7HVQ912TDe6GCHtQy1aLL7Ke2XeAnLpzl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CZDSb7xXUKtioxoWF6a3oKHEGcJY6hSWtnSHfiBFNf7mVJMQwSrZKCPKoSeVv5Zkl/', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PTArX43R3XAQ7kNvwHVjadb&amp;_nc_oc=Adlg1F-Q0Xl67n5tGW1mRYWm28P85aPiwRq_YfCqyiX3iv_pEPyDTowTcR62nlTxYio&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afc2iXtC2lc7PC29POGUHqcI6FvlQvOr1TbuXq3Y7aSBRA&amp;oe=68F3FDD3', 'profileId': 'pfbid0CZDSb7xXUKtioxoWF6a3oKHEGcJY6hSWtnSHfiBFNf7mVJMQwSrZKCPKoSeVv5Zkl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=U8M_PRuSKK8Q7kNvwGE3NFH&amp;_nc_oc=Adk4o4cZfypYz80_O2LOYLg-mFqcOQBAQXIDcYqBWnYEPoYjd040rOWLKeuYXvqxD_Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfcXvJQFzsCSXAqMXkuSmCjUmx04eks5dyzITkvqFdwGEg&amp;oe=68F2D6AF', 'profileId': 'pfbid03jg66b959fRjigqF2pCY93it621yzwLpGVMDhgxVLpAdmmFWfmxtPLg6McZsZfxXl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y0_N9ZXW6hgQ7kNvwE5-Vgv&amp;_nc_oc=AdlzYEXKuCcMUKhGCN1OeqDylvMX6ZZV-N9vT5sA8k13OYACqEDijdBK1oFJ-wJl4d0&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afdw6r-DLuMIZRFU_583GiKrMrDZ64Bo9lu5JFhhikSQ7A&amp;oe=68F4282F', 'profileId': 'pfbid027b7oHG4u155GdqzDMaKYh87wNWbCJ69VvTGW4VQTocTbfKeN2aufFGXoEs2xSYpcl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cvH9LMou8-UQ7kNvwFIox-J&amp;_nc_oc=Adm1NAHTvERA3s3FpRn72ppMvEOBPxbABFJ7X7qG1GKLgFjKx1BjFuO4mTdANTnsfcY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfdZxrdiFKu_g419F6iRH8JNdR43bscyfM64sQ7LkLryJg&amp;oe=68F2BF36', 'profileId': 'pfbid02GZPqXXz7uznry8eAChkf3NG5sYSUrqhABqnqkngJuyk1h4DtpCERYfuvR5Q7CKZnl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cvH9LMou8-UQ7kNvwF7JTMl&amp;_nc_oc=AdksuIzy2aWu0GKB6kKGqxORhRCJnk0weSX4hIn7o1Y5F43bCEp5vPmhD0IAE1TwCfQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AffiGnx3r8ZRAnLq9bLHnuqXmS0_d7yvcq17_M1DzZ-sGw&amp;oe=68F410B6', 'profileId': 'pfbid0D1kecNMm4nWXXajyDdQQLxCHozJdu7GRmpZJgVYVop4sVWciMPMR4KM6UBMVcv4al', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=t4ad13hX2ekQ7kNvwHO_2v-&amp;_nc_oc=Adk7EMM6YDSZJUVlwREp0ko53i6pfS9eAVEJm2-To1VSWTPkgL1FGgSyzrGHyjb5FCg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_AfcwSHnUufMLus2LO0O--timpuC2ifHqCetoBK0pZtSbrw&amp;oe=68F2ECBC', 'profileId': 'pfbid02my3AAoSFCCWURnterS7E1bWxHsvUVA9rzGioayJG7mPUXRQrR1TwvkPwrqFjx8EXl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qPKwjN9eKVIQ7kNvwEHZilC&amp;_nc_oc=Adml82I6Oz2BsVaHdu0qEHWw2emkQcvv1-X1O_3_ygSJ9AU1Zh7ccesbdXvjjFHzmdc&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfeeCXQUP5pxB0wLhlhr2Ua6Ko7x2Rmf4q2tv1UJEpRU6A&amp;oe=68F405FC', 'profileId': 'pfbid0iRPyFdotLrkGRDhJsUqZyzjjCtdtd5XUhbcMWi5WfQLLPWEXMEAA99dPwCFAaUkXl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FqveQvPvXUwQ7kNvwEh83l3&amp;_nc_oc=AdmTpwS01otbgI6MiD2Q04xz63nCpeLplPfZDsZmCAmwWSm1jiED3Ytt_Ic8dxfarO4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=EZNb2xEh3mKYty0ifNSwDA&amp;oh=00_Afckz_gO-EtIXHeoXL3xB2jaVYBFyTuSJge0RhUGLGYMfA&amp;oe=68F2D429', 'profileId': 'pfbid0zDfk7YkogmeZvutiEauYkJaXrFn3kx8u5KSTEUgv6cWNw6SAbVZZX6TRYu1YRHY8l', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl/', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwEMbtQH&amp;_nc_oc=Adl-0np6ZH8G_CyrybBgwEg78BKKkM4auue21YTgPfNh8SG6JY7CPFPthby4xG7m5rc&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AffHkPbynHE5hch7OQ4D2nQUK9qo2603hnqBEleAHfRcnA&amp;oe=68F425A9', 'profileId': 'pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3txKXFsBXhAQ7kNvwFfRy22&amp;_nc_oc=AdkHSjowC3t5MqS_5xWgaSQHNhCsnFcwSE7nnbgZv5oraac65imJMbc2725HuR7ymT4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfcrWObzmf-4Q7YaWsR2fOEWNRi0-ajxb9bh_871sWcNHA&amp;oe=68F2F242', 'profileId': 'pfbid02zhJHN55poxujHpWorcxGgybrMegMA6YoMu8zY7ToJtC9mQXwoP3PA1jm1Vugqprol', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3txKXFsBXhAQ7kNvwHMQ2Ts&amp;_nc_oc=AdmjKuqLoix2dul5BeZ95cU2-hVNchghqVnuPZD6q54ch_D1UmDz0BVFuAppaMAcjN_atHOVdzcVIB_zBshFtBkG&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfeITWqrASfeJaLf_d3uL06c1tLwEUTRqIVVQSt-s9nhSA&amp;oe=68F40B82', 'profileId': 'pfbid02zhJHN55poxujHpWorcxGgybrMegMA6YoMu8zY7ToJtC9mQXwoP3PA1jm1Vugqprol', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=vGen7IsXkP8Q7kNvwGfQfhf&amp;_nc_oc=AdloCNJMLpLLBQG7t_AWotGQPxzayhbUgEKUuO6NjrXROnVoN_Boe31EYJA29YAxsKs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfeyUx483RFJMmysxuZ_IVrgjbc7sm1Gp8WxBNR455eZIw&amp;oe=6914837A', 'profileId': 'pfbid02drtVCKJUZTaXoGZi5dwbLvX8J8FQaQQiSaocqgY1m3k8yvt4ccroKLw1zqFeffvMl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwE0ygu5&amp;_nc_oc=AdkgKWW5g6uozmT0bm2c5HH0vnbz1-T5dGFFc5EzBXBo1W_JUfYm9xGK7sWO8H2kzHB27Dm77a8MucpQ4LJp2cX3&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfciqMl_eJsC9Wc_1KVm-e633J9GdlFLl4UqH3dGHbfiCw&amp;oe=69159CBA', 'profileId': 'pfbid0ZqHmiW6utSkRwbfBBWVhWZLhKuT7Xzd3eoVEZo7f5RuKe474A5ZDx5EX1BsyiLbwl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YvbVLd4UEcAQ7kNvwGvA9e3&amp;_nc_oc=AdkNkvlLqS4GqIFrzFbQoQIK39Cib4txbpSaZ4cFpb032ZayjEG0wUKStfW3sb2-KOI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AffY0-AsjRzq8f-ar5dH4kbL11qZZTUkv8AVRMCaAnZp5A&amp;oe=68F2CBC2', 'profileId': 'pfbid02ocNvnxxbVwpZDGC7g4Es3Q4rZ8vTdPNeY3xVMCsCZSYPGpkhpynaFTkLWGZWWj3ml', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YvbVLd4UEcAQ7kNvwFIzUVL&amp;_nc_oc=AdmWW_xgWd722clhI7Y7feTYY9eZ1-p11nojciBJ6mEhCl_rNGYm0aqNwjhm704dyVmK-lpI4c1tzU2zRwXmTMgt&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AffCxYYqBC9ndfPxQ20ZsSGh97Y-sQCCFXDyMRFdTx_tpQ&amp;oe=68F41D42', 'profileId': 'pfbid02ocNvnxxbVwpZDGC7g4Es3Q4rZ8vTdPNeY3xVMCsCZSYPGpkhpynaFTkLWGZWWj3ml', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwEr1am0&amp;_nc_oc=AdkFzhCdVNgKiHMwIaMFDD_WKdrW33-yUqjAkJibd-QovOwSonZp9EHnZAF-AvhI2g0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfdQIvkN87Zf5M1EO5SbYzNt48tt1TBhTI3-g8T9r2aZxg&amp;oe=68F2E648'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=eHk-sM6MW9AQ7kNvwEr1am0&amp;_nc_oc=AdkFzhCdVNgKiHMwIaMFDD_WKdrW33-yUqjAkJibd-QovOwSonZp9EHnZAF-AvhI2g0&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfdJ5mU2ZZ3x4diCgl5Ti1wOnvzWSxnnwyb14kDVN5CL6A&amp;oe=68F2E648', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFH0LL0&amp;_nc_oc=AdmosAiqbQwMqkPv4f3imSElBZ9jCU7QAA3nYy25e7eWM4wlY15JJxaTd_BO3o2KFOY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfclMxDU8azl6BtRRcNYoOasNmWJ-70aSWmyujlh4fz64A&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwFvQwVS&amp;_nc_oc=AdmryzGb0K0kJMLkQIGAI1dq3Xr_wu-Oqsku6QBZB9_9CAz7uxM3yeIXWTnHQ4f9ApGDGSnjiIajxPR_opir8nn4&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfeaMz4VqcIPACiHauStHLFMcxzb1TYR3fT3fyE6oNQP4g&amp;oe=68F3FF88'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwFvQwVS&amp;_nc_oc=AdmryzGb0K0kJMLkQIGAI1dq3Xr_wu-Oqsku6QBZB9_9CAz7uxM3yeIXWTnHQ4f9ApGDGSnjiIajxPR_opir8nn4&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afc8EMs8vTs3T5pC7wymdMLvTyoy6q7u7pM1hz1VioXq3A&amp;oe=68F3FF88', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE_RTVG&amp;_nc_oc=AdlxPWs2vHxOj-z-cgBxu5nenFNps8bZa1_p9Ic1Otg5tHpwYxEtx1rOO3g9_u1OQoSmpiHVk_EWtVLrjncXITqA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afd7BGpdhdbka7g1MiUtCN7VNkkDwmuQZfxPI8jL7S2jVg&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwEZ32pT&amp;_nc_oc=AdnNcR3u6r7mGR6nRjCsQJLBGjcCZXANj3jnzkIcjv73hdYpwHWVHbQl77aGryJOq5M&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfejvhlYKRPZ2nRMC385IhxkzGwI0XBel_Nxc6Wo9EGDSw&amp;oe=68F2C3C0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwEZ32pT&amp;_nc_oc=AdnNcR3u6r7mGR6nRjCsQJLBGjcCZXANj3jnzkIcjv73hdYpwHWVHbQl77aGryJOq5M&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_Afdbh9NXBg3nD636Mlx1zvymy93ZBvOkfJlM5cYBSoxohQ&amp;oe=68F2C3C0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFH0LL0&amp;_nc_oc=AdmosAiqbQwMqkPv4f3imSElBZ9jCU7QAA3nYy25e7eWM4wlY15JJxaTd_BO3o2KFOY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfclMxDU8azl6BtRRcNYoOasNmWJ-70aSWmyujlh4fz64A&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwG5fbF2&amp;_nc_oc=AdmMquSPdZ_zcRF06oVSvdQ8W5m357yXfk8Ca98qoqUOI11sRh_yj-u6uyAnkIyB387ZHr0R_TkPaT1C7KPlmAKz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afch_bvGEr_JMpQw26xahF1HrssvR2RKeWXHeHrTVDkU8g&amp;oe=68F41540'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwG5fbF2&amp;_nc_oc=AdmMquSPdZ_zcRF06oVSvdQ8W5m357yXfk8Ca98qoqUOI11sRh_yj-u6uyAnkIyB387ZHr0R_TkPaT1C7KPlmAKz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Aff2IzICcvGuRTnh-Fe60MIQeB7QO6IGyTo9hiJIsVW_yQ&amp;oe=68F41540', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE_RTVG&amp;_nc_oc=AdlxPWs2vHxOj-z-cgBxu5nenFNps8bZa1_p9Ic1Otg5tHpwYxEtx1rOO3g9_u1OQoSmpiHVk_EWtVLrjncXITqA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afd7BGpdhdbka7g1MiUtCN7VNkkDwmuQZfxPI8jL7S2jVg&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/559672110_122146673306700230_1924597970426222239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b8sumZ7Zer0Q7kNvwFD3_E_&amp;_nc_oc=AdmptQH7m_pqC3s4i6b8FtGrhV4tFC6tPhEBk3CVgRr3idtuBetk89lPQwXi4PEZpQ4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfeSayyf-fuvNX5I5hXDQtKJ-ZdI3jMLji5mrmTlGxmCfg&amp;oe=68F2D548', 'profileId': 'pfbid02SCzD21FJt63kAmpBqaW7QjpxAwTDPbPga9nX4MPHcapgiCR3a6NjfNm5np6LCEf4l', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/559672110_122146673306700230_1924597970426222239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b8sumZ7Zer0Q7kNvwFHS9D7&amp;_nc_oc=AdlZQ9aN7gqmxZTB4AQGnOKXhAAntu04GGXNXQD0BCeFEOn_FxmQGLiXgfI7U-fEmsnUoJKJknM3psQJ5wI1RMwl&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfdCCQ9j4h0C6D66tyzOCQtioG95ER7pKLc5Lq1sQmXtVA&amp;oe=68F426C8', 'profileId': 'pfbid0NfM26qcx2r7qd9bgL8wC3Xzwu9AvV3n8QcJuN2C8qgT891G4JaTud11Wn879NWpCl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0F90YT-5Z-0Q7kNvwHTerPE&amp;_nc_oc=AdlIWMxK8MUSGeAgVBvJQM1V7CmqcrOQ2Un48Yq2Hr4WyoH5yWJmpnMexniAVXPuwaw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfdrORcpZewbsCn-Ig3hv7Lhg7XDvl2EBA0oMRspNtKgug&amp;oe=68F2BC8B', 'profileId': 'pfbid02fH1mdVDtrdpZpi25jyESqHZcRd1vxvgBoMG6YtcAprWcodeU6XBA36cYuFcJEXMjl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0F90YT-5Z-0Q7kNvwHWc3iT&amp;_nc_oc=AdlCF-idNhfreQrB1q5uE-kX6WV895BHxf-oMybQ7_1GDdUlpWy7oSTTE46rrdsY4Xt7ophyiQcoJpEB1GhBPUb8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afem9s8ss6rB3XYBdsNl-0p0olejvzB5ROLXaInmDWbXIg&amp;oe=68F40E0B', 'profileId': 'pfbid0bFR49g2LBZnzTX5mn7qTbVYVitXx1DC7oNBM77Yc6u1gv1MsS3Mbu5AFgoe3WQo6l', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=_8P4LsnblbQQ7kNvwHAiMTq&amp;_nc_oc=AdlvCsA0tj-feiJ61KPyeuk8IJd5Hh9A6-9SptAWxNYIIkTczRjnaoeMZ8nlwmwd1U4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_Afcheqyg_phruW-PU1nUdBtV9Bv0bls2HOKsCVTLoDq8gA&amp;oe=68F2E4BA', 'profileId': 'pfbid0qD6iGFdR7dimz4cFMst1e8vEoNUdxiZkC6xMwMLMGAr8Dq87FdM167YgFRzhbP2dl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlmIf7gMySwQ7kNvwF7aaCq&amp;_nc_oc=AdlxYHKZxrMhOEkZmQ_0tqi1u7wo031u57zekBFeIs15gfLznwKqBXeoTIizmIVhZNYhV_Oe0OyaJISjqUv8OchO&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afev2PTbj3rGsjOzOsM5bEhgLXrfr1Er61mdhc6rycJd2A&amp;oe=68F3FDFA', 'profileId': 'pfbid0qD6iGFdR7dimz4cFMst1e8vEoNUdxiZkC6xMwMLMGAr8Dq87FdM167YgFRzhbP2dl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7nYDjEWqYGsQ7kNvwHkU_Vk&amp;_nc_oc=AdkhfRXCH2R5MZl9skSalBslZZxN_R91OlCVKKQMQFGkCSU79XUXVN1GOmHSwV_vgwo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfeEAmwRsNM2DxOkbl25rXlHqj7l-OSmVldKrH0BVfcY0A&amp;oe=6914918D', 'profileId': 'pfbid0XQdHnzizU92AaUaC6e1gJCfp4miqaqzf5jAb4pEk2uX9yAZC9hdNtU87GfCCkUt4l', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yKEu2CzNlv8Q7kNvwFJO3oR&amp;_nc_oc=Adl_wlozs9DLSXNZnEMqMNr1LZ2QWTF6llZejOt0dt-9146GcRhMjRAao-ocNrn0SbhLvHuA5B-5tWLv2z2PvRdm&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfeDvZy2vpSawbU2Ww4NaKxCjT6VhvLinvgskqLIcDIsYw&amp;oe=6915AACD', 'profileId': 'pfbid02bG4zyfepKdtHXDYHKrdxT1suzuqxzhqqMp61Gq2N9oXFvBtwad258LKnRi8DNFCMl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFrwjfT&amp;_nc_oc=Adn7OkZRMqtj7WOsEjHDIS2Vqg7gowFsTppFR2iGfZa-jWpm2x-D_2OJZ-rkVx4vJd8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AffxQm9KceC-RfMs4yU7DpBAwKtmLxSZ7xxfhXr8_xpe5A&amp;oe=68F2EF26'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFrwjfT&amp;_nc_oc=Adn7OkZRMqtj7WOsEjHDIS2Vqg7gowFsTppFR2iGfZa-jWpm2x-D_2OJZ-rkVx4vJd8&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfcvNaW2imInhOPz8LHJ5sVyYx7geWoGn03kIRW6MBuWDQ&amp;oe=68F2EF26', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=dEE2j8CBowkQ7kNvwFH0LL0&amp;_nc_oc=AdmosAiqbQwMqkPv4f3imSElBZ9jCU7QAA3nYy25e7eWM4wlY15JJxaTd_BO3o2KFOY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=SsS4C-xVvqTsTo1zS2MHwQ&amp;oh=00_AfclMxDU8azl6BtRRcNYoOasNmWJ-70aSWmyujlh4fz64A&amp;oe=68F2ECF1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFkVpLk&amp;_nc_oc=AdnhaSLvNXdKUAMGKNjYNKRl38hEptlnSnaKQQ6YSKxUsD3G-bo5DZL3k1bUMXmNcAhj4nZgk5jqIE8U2VWTu2yz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afe-Erpbsh3i1rYa2Rlf6FNpZaoblbfE_goB927pTfNcMg&amp;oe=68F40866'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFkVpLk&amp;_nc_oc=AdnhaSLvNXdKUAMGKNjYNKRl38hEptlnSnaKQQ6YSKxUsD3G-bo5DZL3k1bUMXmNcAhj4nZgk5jqIE8U2VWTu2yz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Affe4QMjIubzKzp6Yis_sKpM18KReRFYTeOTYl8pUQ5Y1Q&amp;oe=68F40866', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE_RTVG&amp;_nc_oc=AdlxPWs2vHxOj-z-cgBxu5nenFNps8bZa1_p9Ic1Otg5tHpwYxEtx1rOO3g9_u1OQoSmpiHVk_EWtVLrjncXITqA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afd7BGpdhdbka7g1MiUtCN7VNkkDwmuQZfxPI8jL7S2jVg&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGhDJkj&amp;_nc_oc=AdnGwaDqhQmShwZ0aYsgoIyxiUSjUaQDRqO9aI1msWBwSaHPT7_MdffmWDJJHdf7zhQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_Aff3EAxw8L8N1RaCF08JgEr-wg2JpUjwJCOf8v-cEKa2Pw&amp;oe=69145B5D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwG4oU5G&amp;_nc_oc=AdlmIecvh05ri0URnUmwcL6LS30G0FJJojnphSUOGUh52sGqwWDHNFfeeKNwVyIxaR8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_Afeo9DJ_D7MOMAfXzjgtxbMKipAZsNSojXexL0_4Cgivcw&amp;oe=6915ACDD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5voq5NEwqO4Q7kNvwGhDJkj&amp;_nc_oc=AdnGwaDqhQmShwZ0aYsgoIyxiUSjUaQDRqO9aI1msWBwSaHPT7_MdffmWDJJHdf7zhQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_Aff3EAxw8L8N1RaCF08JgEr-wg2JpUjwJCOf8v-cEKa2Pw&amp;oe=69145B5D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwG4oU5G&amp;_nc_oc=AdlmIecvh05ri0URnUmwcL6LS30G0FJJojnphSUOGUh52sGqwWDHNFfeeKNwVyIxaR8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_Afeo9DJ_D7MOMAfXzjgtxbMKipAZsNSojXexL0_4Cgivcw&amp;oe=6915ACDD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=MKpemPoFRecQ7kNvwFYWIZ0&amp;_nc_oc=AdlDEY8YnfpSoD1Kz5LQ6bkgG8aA0E6Hm7pv-VUobhKVKx67KHMj5NMxmmAzXTY6Jc0&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_AfeSEmeTAP6EfP-lwYdoj8Fq_VrOaMr1Z0Zw4iHtepRm9g&amp;oe=68F2DCCD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=MKpemPoFRecQ7kNvwEOOr7K&amp;_nc_oc=Adnkg6PEXA4GklH0qRt936-j76iRt6T4GqwwsdTUoFNjYp0m-_PZddaIovlaKYHOcUI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_AfeobYczSdHp2IE8Sg-q0emYTtDITwIpB7FfVHRCtqyiUg&amp;oe=68F42E4D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-s6h1pdmql0Q7kNvwGfK5w-&amp;_nc_oc=AdllPLTYYu3b_ktsgJWE0sGQp2i2HQfwuOw_0Nu_DGNxTWFLlft9A-KbETXXuqhiGE0&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=am1FsN_7n3fcURJRrA8hKg&amp;oh=00_AfeNVkXkUIofPKUYwCIWosg2O8EsDS-LB_WQeBUcXCBQRQ&amp;oe=68F2DBD0', 'profileId': 'pfbid0RW2vVzUtLLRryTdw1ApPVdMFZ7txvuEViWmMrn9GmH5vvRMGvV6qGeVGnNby5WuVl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UcdoNt2E0i8Q7kNvwHWwbiK&amp;_nc_oc=AdkXHq1tCM9NsRqemj1c2DsAcD3rrX_zAtYrpmuMzHEBfP2sMQRn-iypi-JsA9y201o&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_Afe5jq9lD8t5c5wJlGx0F7xULt0P7tkzOFjLotPwLndMXQ&amp;oe=68F42D50', 'profileId': 'pfbid02UsX781qWN5ZEkmT9esQF6xokVz7DHBu43z1VACteR1Ca9tvzPSCT2MF8TgeANiV7l', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://instagram.com/p/DOekIj5DPYE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJTjIVE/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIQHDI6q/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgKVjL8u/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekId4DBos/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemd2qDGPk/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOekIASjMIz/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DOemgJYDMpG/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHbZ51jBH_/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHd-dFF&amp;_nc_oc=AdlcCa1A2tVEedI7J8DSOpO_UxpXG8vfDOS5MphjYyvO0xYh09ITlg-EC0A-F0c8ctE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_Afea9fREevdX3FgYzgoOFskzflVIPo5YK2UHogAj_Ymjyw&amp;oe=68F3FDE1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHd-dFF&amp;_nc_oc=AdlcCa1A2tVEedI7J8DSOpO_UxpXG8vfDOS5MphjYyvO0xYh09ITlg-EC0A-F0c8ctE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AffxR8SPqNTIx6BJ6j11hg-V13Xta-YHGYhVwTnubmu24g&amp;oe=68F3FDE1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=TQqdZsPNNbwQ7kNvwGdhCRO&amp;_nc_oc=Adl9lCjYPNgWkCPi4MKpUXwgCBZwuEmzcjfD8tFwrAp4Uj2Lxsj1QawKxAkktAtn_gI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AffannOCBWDBO1m4_il5jbFJcMUpL5tgYzkvKn08np8WxQ&amp;oe=68F43040', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwG1yb9y&amp;_nc_oc=AdkGmtQgWRZPNqwLoVsm3UtBpnQ3YFmEsZw1-1nmhK4FKqAUgCaaMLfty49swIrMa_8&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AffFkauiS7iEOHRWy9cu36050Ea1jBu1N4_YL9Ahpclvvw&amp;oe=68F54F61'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwG1yb9y&amp;_nc_oc=AdkGmtQgWRZPNqwLoVsm3UtBpnQ3YFmEsZw1-1nmhK4FKqAUgCaaMLfty49swIrMa_8&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AfcFgAXGdKPNI-aRNxJjWHfR0yUNOsK2tfYEQ04bDa5JUw&amp;oe=68F54F61', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wqgRXCvOM9YQ7kNvwFiNVeF&amp;_nc_oc=Adn2XA421uzg_vldm2vaVwBzghx8Dttx-w8sI84WqqbW2ujOYY8AWQNj5Qm3VqKS3UA&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AfeZPRo5ackDPrDwIDhKi00OkuuscUu4Fq6IwRBFXPxXlQ&amp;oe=68F581C0', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aScErAeirtMQ7kNvwHDRWEQ&amp;_nc_oc=Adml7MnwQExpaL5DMumZ9WmeWSTYoIFQdTnX21PASrSOq91Zx8E5LKwORbnL5n0x9pU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_Afc7SmgzNpYfL3CELWqDRXFC1jkP5t3-QtrZtjk12ikJGA&amp;oe=68F4069B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/540919597_781828288122095_839809211170908872_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aScErAeirtMQ7kNvwHoIiFS&amp;_nc_oc=Adke_uyvFka_fkUZNimH9wuSUduJWJ_rG3nKQyjUurVaBPbfxBrtHjNlK3i6TAWyA5g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AfcFfIlRaciwZU19dLhB7FSvk5I63wflc7Ityi_c2u8ZcA&amp;oe=68F5581B', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=W9MIPProskAQ7kNvwG9Fmz_&amp;_nc_oc=Adm3RpeqHgMAHMhR_3BUGPKKthF6W727unGQSE05SU9RrA-AJwf5HY8oX6PyA0q5j54&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcTjKf_CuNhHtk9s2XjevhgPoFjni6zMW6DcjQQyH_HLg&amp;oe=68F3FCB2', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GgsydT1uH1YQ7kNvwGus_lL&amp;_nc_oc=AdkosD9PcvcxgVnb0hDMRZKyKBTaAHb098SskasYSU1gWimEGprIOe1S1xm9nGPrBB8&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_Afd5zZSkMxH_-AXas82dOqPb6AjhIX7rtdyuyRkRRoTZ0g&amp;oe=68F54E32', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7QD9crfJx-IQ7kNvwFMNrfe&amp;_nc_oc=AdkM4OMXHKqtQcFR0HWf3aK-Ub5_8GhLaqXcbVl2Z3UHU2UKUqHtTJqsUuKBLXGtZ8Y&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfeW5fLdBRKoayKwMA3uOfomsVjGTZ6xpDRefWRpTSPXxA&amp;oe=68F41C7D', 'profileId': 'pfbid02Eju3AzYvx9DZKc9ZXs4F3tKkrSfoeFMjFob8GMmm5oSq8gF4BAPM5WEpidtEZCzhl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7QD9crfJx-IQ7kNvwF1_1Ho&amp;_nc_oc=Adk0lTNghoGohnDLVyL2DKQmCkr7KDqy0svHAwiMlv-XhJ8e38XkZcmpWmyuJXj_KHo&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AfdBH3HMZ1bcMj5VhNF0EVZsW6KIR-cYmXkoqqd_r03f8g&amp;oe=68F56DFD', 'profileId': 'pfbid0AiJKhBMNH9CvNcBBaP7xTKnDiPbXxmbkXgq3dNqiKnoViA3fHmesUyip26h86StQl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwGfhxX1&amp;_nc_oc=AdkPxzBaBey6wmbFIPgnrlF3Qp_pO0wA8xI8WAuny9vgpXwqkKxuGqROBLuDYxsh6B0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfczWgX3Cz3I-g661cfJ9iWQzxN7cPcJ5CczM39JqlfMbA&amp;oe=69159CBA', 'profileId': 'pfbid02SoiWBgtjwZCT5tQumQ7pppYmdTRJx7vdCtXUCiG2qHG2V4hNpi7JxkmQrjhNLzHDl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwFvcrc8&amp;_nc_oc=AdnYSuOLSfd53-me5mD43F0j-xTik4-6_Evak6a9czrAI2ejR0rYljZE8rVomTvDVIc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdstG3BkptkZkh7jXF2-xnGIjBwtqCSBEvOoplGK_LH6g&amp;oe=6916EE3A', 'profileId': 'pfbid0Nn7nhshBGkFRJGeQQXE1ua1dZPj7hS5aH8YabfUsTAwRGaZpNhbvJdaRwEX9ZemUl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XLutk7obK8LJ5JgvPAdyuckm7aRdZpHyYsY6tzZzJw6tTzp1BNqyrnaDjCfzmWQcl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwGfhxX1&amp;_nc_oc=AdkPxzBaBey6wmbFIPgnrlF3Qp_pO0wA8xI8WAuny9vgpXwqkKxuGqROBLuDYxsh6B0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;oh=00_AfczWgX3Cz3I-g661cfJ9iWQzxN7cPcJ5CczM39JqlfMbA&amp;oe=69159CBA', 'profileId': 'pfbid02XLutk7obK8LJ5JgvPAdyuckm7aRdZpHyYsY6tzZzJw6tTzp1BNqyrnaDjCfzmWQcl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0ToGhpxBETuVp7fb7yTWDRDJ2BRzomhyfPoAYCnhSBuyqyEHk6UJs6KrxbDbB5kZ2l/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwFvcrc8&amp;_nc_oc=AdnYSuOLSfd53-me5mD43F0j-xTik4-6_Evak6a9czrAI2ejR0rYljZE8rVomTvDVIc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;oh=00_AfdstG3BkptkZkh7jXF2-xnGIjBwtqCSBEvOoplGK_LH6g&amp;oe=6916EE3A', 'profileId': 'pfbid0ToGhpxBETuVp7fb7yTWDRDJ2BRzomhyfPoAYCnhSBuyqyEHk6UJs6KrxbDbB5kZ2l', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02Q5FbjcmkszYGWnMG1tgewy7jSUaJDzYJMhhmNFce8M4dFWJoERqQRkbZ3XqEyiDZl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w1SMc99zNc0Q7kNvwEpnmnM&amp;_nc_oc=AdkZVnNbN_U6uHwAhOtGlPgrRuXe7TaWXYDIM8vE-DPzBZz73g_wafofhTorV5EOELw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcMBkm19SSaOYEwircxXz07Cse90kjV-8n7eOgxqe8xWA&amp;oe=68F3FC2A', 'profileId': 'pfbid02Q5FbjcmkszYGWnMG1tgewy7jSUaJDzYJMhhmNFce8M4dFWJoERqQRkbZ3XqEyiDZl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid0LXcQpT9Q2eZ3qoWf1cGm6iyrHrB18sLYZ9bt3YiUVxrH4cMtYJEfaAxqKVkekQEql/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Fl-s05LND3kQ7kNvwEGTbar&amp;_nc_oc=Adn1rUmyT4VoT5If_9Bv8SeSXJdiA_j02s_LP8YCjAltKlsYLHepWfG3g7PAAWOH0Rc&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_Affqb_LkGXzyUY-lX_XTNYIfe42bU-PzvT2W5eLmWdNU0A&amp;oe=68F54DAA', 'profileId': 'pfbid0LXcQpT9Q2eZ3qoWf1cGm6iyrHrB18sLYZ9bt3YiUVxrH4cMtYJEfaAxqKVkekQEql', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1JIil-2kW7YQ7kNvwFORi-N&amp;_nc_oc=Adl0WUMly60bsX2eqhDy-ZWGclBeD34LVRMsSBNK9LppLJPEg8R316Qghk5OHAUCuxI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfdAzBKKmhrauXfhblk6suHBtOmqG4ZCFjbtsICcA25O6A&amp;oe=68F40FE8', 'profileId': 'pfbid0xxPaZGFLGWoUQgv4743BoeNL9wSTng7Q5Zwi41nfqUZmgw6BAF8vJX5Ubrm5fFAJl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lc4QD7NFPPkQ7kNvwGlQFf6&amp;_nc_oc=Adl8Kfb7DvEUUPTq3iD4m0JkTCvDtMu9HWhJ52hr4LXx5mu4GwT6GU2LHOizxRC2RHE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_Afeeq-_eHuvLCNoFpdAKIcGCiNPkG2_7hkpWxTcOJaFZJA&amp;oe=68F56168', 'profileId': 'pfbid032oqHjwBA7quRuZGKAkdTdfRF711DzTHPys4xWpYTYnsg9wvgfjBxBqEvzQtqUaRjl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwGSKdPG&amp;_nc_oc=AdnDt-crNcwlcuRbFZm0TFRIFW1Pb52n-i-SRnWhdw7Fc3mLkkx6pQgFI_WJz5Tj0mg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcLBijZZHalxJvLAPHDcDXQsuidkTVO5M5-RCgRAJrZug&amp;oe=68F41966'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=yZPuO7ifl4YQ7kNvwGSKdPG&amp;_nc_oc=AdnDt-crNcwlcuRbFZm0TFRIFW1Pb52n-i-SRnWhdw7Fc3mLkkx6pQgFI_WJz5Tj0mg&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcZyYyzCohJ2GsxmEVW_gomSEKoRV7NW5cQsvYhfJNqCA&amp;oe=68F41966', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwGrmp1C&amp;_nc_oc=AdljK2IkFSC6IjG6tbzLKwwmfVKLlWs4uOyRDM_lQ1Zf243fY-WYhPrARsqGICbfno8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfeLs3mCPMDDl4HP4AZE7se10svZcofYT7WGWsdN9f7ZOQ&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=h2QX5hWjaokQ7kNvwFK8aA9&amp;_nc_oc=Adki9kOFidnYY__iInjNyvYfM0YU9Aiv9FHC8olnUdQUS2S16sKMT_7LcSINw2g4Bm8&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AfdXrMDHcUNlLwHRIIAPq4WzZvOAgzgnRDjC_U4UC6jsRw&amp;oe=68F56AE6'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=h2QX5hWjaokQ7kNvwFK8aA9&amp;_nc_oc=Adki9kOFidnYY__iInjNyvYfM0YU9Aiv9FHC8olnUdQUS2S16sKMT_7LcSINw2g4Bm8&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_Affi12Rub0qfKlFuzFuwDMWnpdLLvdGFu_PW7RV7POt2Rw&amp;oe=68F56AE6', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE1o9Lr&amp;_nc_oc=AdmodMfPx76C9s1D_KGenQarPS5vkn4pjacLxb51pEe9Yw2l2hBIwLIGD1GMvnLLX0g&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AffnaUZWVwOHzBoHSHfsJt221VQcb6jO7ovumY1mWKYR_Q&amp;oe=68F557B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwHe91Uc&amp;_nc_oc=AdlCmyH0bMd06O4ZBuLDF3Sg1-udx6MrrX1WEZjgSXnFvGDOZeCoqQczK1605hTvjXA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=6GIzEaoBu2My_tUTuUsRjQ&amp;oh=00_AfcN0_miEoRm9sOtGHna7c2DKsx4vwIGbCjCjccNpu-OpQ&amp;oe=68F425A9', 'profileId': 'pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z3WjpQV4s5cUa7Gyv9NVdpgCVzWwcLySToNZXUdqzXaoGBGZFmX1rTLonEY63qYDl/', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwGW7_NS&amp;_nc_oc=AdnByxb2plTwAZbNVhItTMZ2i8DnP5l8t3rt21QiL24k7mMl68sArvqe0cN6iEYnqeY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=B9VDoQyLashai2MT-dJ4Iw&amp;oh=00_AfeRsRfp7kDa24m29ZqvOk-KDBy10j28XF-IWNd78XpqIQ&amp;oe=68F57729', 'profileId': 'pfbid0z3WjpQV4s5cUa7Gyv9NVdpgCVzWwcLySToNZXUdqzXaoGBGZFmX1rTLonEY63qYDl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TdeD9jys0qwQ7kNvwGWp_Ah&amp;_nc_oc=AdmdKX9AoDT7OGnSIJ2RhxCJ8wXHbyWKHuOpg1W_appvzuH2DGFH86-iZgeEmtkCESk&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfcZB_cp-McOVUVmX-CWjzbDmpDw5T18E7w-LY2NYf427Q&amp;oe=68F3FE6A', 'profileId': 'pfbid02WTFpgFpCCEzhHMwnkR6TeHP4dcwrAawQZp8izFT8NAo4Zsp4nAPDeDKDBadix1iHl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TdeD9jys0qwQ7kNvwGTa4aQ&amp;_nc_oc=AdlGofjxIR3L5LCbVys748CmZ5HeiLczKRcUXh_0QV4RS74XPm0Lr6Fdl8VVKtWSxac&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_AfccrUVIPt5LcTZ4Pby5XlcymlwO9pleqXT8WAWn-aK6oQ&amp;oe=68F54FEA', 'profileId': 'pfbid0Sucdm6BqLx16zmC3Py8sy4SsiYGnVQj5aX7VADfShqQVaCPLjw6kCtADXMP38sSSl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xExdi74AWukQ7kNvwGiZ7cS&amp;_nc_oc=Admhsk_pi0yH9eOlT9RDRQlcBv-b2PiokUU_nNrK8YAcD11Z2Y2FbEEf1G9TVnekqRE&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfcH2OBQP3QzJDoXaNgoldK5zknaJ9yOD1iYyDRPiJDPlA&amp;oe=68F42995', 'profileId': 'pfbid0y2KcLZRDguKzjGCb1gNS55tuPMt9VTF88J6mCprPcY7xyGoUz4zTSRKFZ8CeenGCl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SgoAUNEKOVYQ7kNvwEdP_sN&amp;_nc_oc=Admkiz-bqLrdhtkE0YeEDbskTaX6hag3R8CNdY4PZQxZm7eioTp8gpg6gK-cevx_oJw&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_AffyLyrbJXFpC6jWZpOQ13SypqT8lVGu13nnKzEvuxTGlg&amp;oe=68F57B15', 'profileId': 'pfbid032smKXEM3YMUPrbTNDi3cEpdKzDtQfUMv1WgUNJZgSiu2Sgx1N2mzGUTK5qyNRwDjl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J53fkY2YnZEQ7kNvwFjaF1G&amp;_nc_oc=Adn05iT1jq5T-GMKc9xbtNPu5S0f0BFhNKpgKVZ6F6LuelOWj4-6Jo_sP8EZECS_xIo&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfdD5aM0myUjKgQh4jM6NwQT2yYx8gjkC-B1-mfZY6aEVQ&amp;oe=68F400E1', 'profileId': 'pfbid025K5mUEbNc1UJcvMovC9MVBzwm1s2mpaYoANeiQYVubwn5oSBia9Dk6EWZUhAdq3sl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J53fkY2YnZEQ7kNvwHveryo&amp;_nc_oc=AdnaCV5iTyUhpOU0DDHEi9CRPvGUWQ6zjE2NYI7AfE24isrBRFspMSrAhAmj76QNMrk&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_Afdvb4-WGKuUksQsECdePCmi-1_SixJbZS1i-V2lasVwkg&amp;oe=68F55261', 'profileId': 'pfbid0mSaZ4y1ksqxvdhgcqYLgRLYXLEBqZiAN3gNxesEfivd67GLY1A6SwXy7tV4HS8Dl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=n5ljeBBNROMQ7kNvwGa2YUq&amp;_nc_oc=Admz9DsFep7DyAZzZ7G5E2iEPyuPCTa87Us1zKJv7wjw3nhqB4bNOjWpQsf8fsfXFbk&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afdnu5kW9YEXsw1UrR7ZFA-vJgpI3h9KsQ6ms9JCoP1TWQ&amp;oe=68F400BA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=n5ljeBBNROMQ7kNvwHlx-Hx&amp;_nc_oc=Adl15M5LQl_i2X29xSBnw--Rsov5uDiB58e_3c6fP8rhU21pRnDksV-o0ri8kpdp6IU&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_Afcl2yl8vfuZOdocSmZREZXuxgjyX9kdD_BsQWmHyeQKig&amp;oe=68F5523A', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6Xc9JzkGlYcQ7kNvwEvvDzq&amp;_nc_oc=AdmCuQaJ032J65bn4ghVj9ser8F44EdGORpyYESFqkyJUxx4Ln-_1agncWg5p4d_Eww&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afcyi3ZWMywdezssLxRq6M41ru96ryNS8EeXaHj5cYQE4w&amp;oe=68F42CB2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_ymL_Ok0W90Q7kNvwFdMiiI&amp;_nc_oc=AdkzIpji4eO9VMcmcoYJ3gEegclxMMAbB_8qzWBEo8KcijbHJyWllylVzWbLtG5QJ-g&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_AfeTSVvuSw0k-NzQIU2snrtYPMeWXAej2zU4RXEGNIo6cw&amp;oe=68F57E32', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CZDSb7xXUKtioxoWF6a3oKHEGcJY6hSWtnSHfiBFNf7mVJMQwSrZKCPKoSeVv5Zkl/', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PTArX43R3XAQ7kNvwHVjadb&amp;_nc_oc=Adlg1F-Q0Xl67n5tGW1mRYWm28P85aPiwRq_YfCqyiX3iv_pEPyDTowTcR62nlTxYio&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afc2iXtC2lc7PC29POGUHqcI6FvlQvOr1TbuXq3Y7aSBRA&amp;oe=68F3FDD3', 'profileId': 'pfbid0CZDSb7xXUKtioxoWF6a3oKHEGcJY6hSWtnSHfiBFNf7mVJMQwSrZKCPKoSeVv5Zkl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02FvhdD9K9W3vqBgKfPB2tafQsRbptq2HQBCxC21yDk7JMuidS1oHD5bEXRNwCb7gUl/', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PTArX43R3XAQ7kNvwEaY8qP&amp;_nc_oc=AdneOOVlYrkSyQMizGtPhFXB3hrqBNiuIi31EHMLD7NAi9c_eZB3IFEip-8zn6Lf1CY&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_AfcnaPWNEN4-81pHzqgdm3Kgp3NIK5avdLhSPiTR4UtXYw&amp;oe=68F54F53', 'profileId': 'pfbid02FvhdD9K9W3vqBgKfPB2tafQsRbptq2HQBCxC21yDk7JMuidS1oHD5bEXRNwCb7gUl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y0_N9ZXW6hgQ7kNvwE5-Vgv&amp;_nc_oc=AdlzYEXKuCcMUKhGCN1OeqDylvMX6ZZV-N9vT5sA8k13OYACqEDijdBK1oFJ-wJl4d0&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_Afdw6r-DLuMIZRFU_583GiKrMrDZ64Bo9lu5JFhhikSQ7A&amp;oe=68F4282F', 'profileId': 'pfbid027b7oHG4u155GdqzDMaKYh87wNWbCJ69VvTGW4VQTocTbfKeN2aufFGXoEs2xSYpcl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y0_N9ZXW6hgQ7kNvwExGj1u&amp;_nc_oc=AdmBWZJswOJRQndssf7UG8ww0OSJXuSFilKuuGp4tyPUA1himJXnS2maQ4JxNOsQ8NU&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_Afd6cuDnzNpXmDFGP3d3NW22HkWF5RoR1DqyAog9cB9Kzg&amp;oe=68F579AF', 'profileId': 'pfbid03ZX5oSsLLCWHasQsimC1psTUEnzDpKn8YCK5LCjcUFqaXQd3tUZWCAdwarhnURPYl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cvH9LMou8-UQ7kNvwF7JTMl&amp;_nc_oc=AdksuIzy2aWu0GKB6kKGqxORhRCJnk0weSX4hIn7o1Y5F43bCEp5vPmhD0IAE1TwCfQ&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AffiGnx3r8ZRAnLq9bLHnuqXmS0_d7yvcq17_M1DzZ-sGw&amp;oe=68F410B6', 'profileId': 'pfbid0D1kecNMm4nWXXajyDdQQLxCHozJdu7GRmpZJgVYVop4sVWciMPMR4KM6UBMVcv4al', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent.ffcm1-2.fna.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sn9DADQ3iYgQ7kNvwGT-Dbl&amp;_nc_oc=AdkNK3MBOoYrBQzxzyVOQ1sKRF8a-D2w5FYz3V-ayF5qCvNVGaxYrZYtegytmBDP_sU&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-2.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_AffSOQhZTYcPOVF2fO0lmwq9QZLzd6tyKG3gnOr_RlmcOg&amp;oe=68F56236', 'profileId': 'pfbid02GPEqEPiP6ZUV4Q2k6xn9KRkjSH5YsdWLFAZ6GaEqpEYCsUfGfqaZKFJ16X8HhKfdl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qPKwjN9eKVIQ7kNvwEHZilC&amp;_nc_oc=Adml82I6Oz2BsVaHdu0qEHWw2emkQcvv1-X1O_3_ygSJ9AU1Zh7ccesbdXvjjFHzmdc&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AfeeCXQUP5pxB0wLhlhr2Ua6Ko7x2Rmf4q2tv1UJEpRU6A&amp;oe=68F405FC', 'profileId': 'pfbid0iRPyFdotLrkGRDhJsUqZyzjjCtdtd5XUhbcMWi5WfQLLPWEXMEAA99dPwCFAaUkXl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qPKwjN9eKVIQ7kNvwGMdBq5&amp;_nc_oc=AdnWX6cwJ_Y7qKIM5bx6uUl-xX_ek5wn_VY-ZPt7qYtLdu9EPy4l7_jVk51ASMfF-8w&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_AffwCa5ofL_fT06EdapM4yzefUW7SmhRthFo_Bzkde_ujQ&amp;oe=68F5577C', 'profileId': 'pfbid02mnt9sfAWNWR8TwKJHE3Siqj3qPcULtFzqaDdU31mZ332RLK2nL1egznwe1qBqo2xl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl/', 'profilePicture': 'https://scontent.fjan1-1.fna.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwEMbtQH&amp;_nc_oc=Adl-0np6ZH8G_CyrybBgwEg78BKKkM4auue21YTgPfNh8SG6JY7CPFPthby4xG7m5rc&amp;_nc_zt=24&amp;_nc_ht=scontent.fjan1-1.fna&amp;_nc_gid=LMZ28zdQwy0W0m0nAB8lwA&amp;oh=00_AffHkPbynHE5hch7OQ4D2nQUK9qo2603hnqBEleAHfRcnA&amp;oe=68F425A9', 'profileId': 'pfbid033b9vja7RiNn8aLxJLm4SvrhpU55yRQyvW8T6NCpPPqura6dTos3xfwxr6S9JpsSzl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid0z3WjpQV4s5cUa7Gyv9NVdpgCVzWwcLySToNZXUdqzXaoGBGZFmX1rTLonEY63qYDl/', 'profilePicture': 'https://scontent.ffcm1-1.fna.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwGqO16n&amp;_nc_oc=Adky37coB3Ywe2Q2ylaQ7v8Yu_Ne2M0fKMu0iLXkTRqsk0fs2bktQtyESfF_aheaGP8&amp;_nc_zt=24&amp;_nc_ht=scontent.ffcm1-1.fna&amp;_nc_gid=v_wsz07F2q_vAREeLXH9Uw&amp;oh=00_Afc3E8yh2TRHqrOLmxiqLiEbe4B0SeMDbPVhR2nY6nIXQQ&amp;oe=68F57729', 'profileId': 'pfbid0z3WjpQV4s5cUa7Gyv9NVdpgCVzWwcLySToNZXUdqzXaoGBGZFmX1rTLonEY63qYDl', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3txKXFsBXhAQ7kNvwHMQ2Ts&amp;_nc_oc=AdmjKuqLoix2dul5BeZ95cU2-hVNchghqVnuPZD6q54ch_D1UmDz0BVFuAppaMAcjN_atHOVdzcVIB_zBshFtBkG&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfeITWqrASfeJaLf_d3uL06c1tLwEUTRqIVVQSt-s9nhSA&amp;oe=68F40B82', 'profileId': 'pfbid02zhJHN55poxujHpWorcxGgybrMegMA6YoMu8zY7ToJtC9mQXwoP3PA1jm1Vugqprol', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3txKXFsBXhAQ7kNvwG0lnVq&amp;_nc_oc=AdlKkS77S-Lw1SVQjXAVLUBTFMPOE9n147ZCWtXdAElulmwJ3EtKAYoIt-SiXrrKWwA&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_Afe9CANlQGwTHAKD2P5gkRIPUqdK81oydXIm7jos4LYxeA&amp;oe=68F55D02', 'profileId': 'pfbid0w9f6SuTTxkaBkKJ7sEsaAw84ZdstiBxbnWmy9hWFQhm6hRhFbyFQCvXFux2vK1mzl', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwE0ygu5&amp;_nc_oc=AdkgKWW5g6uozmT0bm2c5HH0vnbz1-T5dGFFc5EzBXBo1W_JUfYm9xGK7sWO8H2kzHB27Dm77a8MucpQ4LJp2cX3&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfciqMl_eJsC9Wc_1KVm-e633J9GdlFLl4UqH3dGHbfiCw&amp;oe=69159CBA', 'profileId': 'pfbid0ZqHmiW6utSkRwbfBBWVhWZLhKuT7Xzd3eoVEZo7f5RuKe474A5ZDx5EX1BsyiLbwl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwG7_EJw&amp;_nc_oc=Adl-sCCH8ttC6qNGMnQVg72O3L5COSiAdxTcdHnjGIwkrWci5plbCZW8zOPn_W3CkWI&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;oh=00_AffCLSz8-up9X2Jxmp97FEB9VS06p4XkDQERuMqjKxoUGA&amp;oe=6916EE3A', 'profileId': 'pfbid02dgjUuB2jjuNiGFniz72m2Nc9sGfZoYaRFS1hMogFgHrhimZwAnHJtu1h5J3g55z9l', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YvbVLd4UEcAQ7kNvwFIzUVL&amp;_nc_oc=AdmWW_xgWd722clhI7Y7feTYY9eZ1-p11nojciBJ6mEhCl_rNGYm0aqNwjhm704dyVmK-lpI4c1tzU2zRwXmTMgt&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AffCxYYqBC9ndfPxQ20ZsSGh97Y-sQCCFXDyMRFdTx_tpQ&amp;oe=68F41D42', 'profileId': 'pfbid02ocNvnxxbVwpZDGC7g4Es3Q4rZ8vTdPNeY3xVMCsCZSYPGpkhpynaFTkLWGZWWj3ml', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YvbVLd4UEcAQ7kNvwGz5Vyy&amp;_nc_oc=AdluyrBJoAeHABalSlJO9z-f1Y0NfWbU6eZ70_nR56SV1yALCezTwxvu6IYfzJMWGRU&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AffpstqXiV7rraY6Vc0F_ZqPK8N-T4chA8stVC1_0Pv3Rg&amp;oe=68F56EC2', 'profileId': 'pfbid0k4jjsoLEeeJzzoEPsKMPoU73W7CLj4mtVwTyXo2gHhhcwsxrQtrDqiUr14KmDXYXl', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwFvQwVS&amp;_nc_oc=AdmryzGb0K0kJMLkQIGAI1dq3Xr_wu-Oqsku6QBZB9_9CAz7uxM3yeIXWTnHQ4f9ApGDGSnjiIajxPR_opir8nn4&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfeaMz4VqcIPACiHauStHLFMcxzb1TYR3fT3fyE6oNQP4g&amp;oe=68F3FF88'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwFvQwVS&amp;_nc_oc=AdmryzGb0K0kJMLkQIGAI1dq3Xr_wu-Oqsku6QBZB9_9CAz7uxM3yeIXWTnHQ4f9ApGDGSnjiIajxPR_opir8nn4&amp;_nc_zt=23&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afc8EMs8vTs3T5pC7wymdMLvTyoy6q7u7pM1hz1VioXq3A&amp;oe=68F3FF88', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE_RTVG&amp;_nc_oc=AdlxPWs2vHxOj-z-cgBxu5nenFNps8bZa1_p9Ic1Otg5tHpwYxEtx1rOO3g9_u1OQoSmpiHVk_EWtVLrjncXITqA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afd7BGpdhdbka7g1MiUtCN7VNkkDwmuQZfxPI8jL7S2jVg&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwH3ZdPk&amp;_nc_oc=Adkco0QLUc779gekxd2i-edzdLAskPK0m3LI1r-InAtJt4Wviww2pOpVptv5e4dUb0g&amp;_nc_zt=23&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfdVPlWW-ZwD8CR-N-9gvo7llv2W7Dl6D-lBb8_uoNIozA&amp;oe=68F55108'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwH3ZdPk&amp;_nc_oc=Adkco0QLUc779gekxd2i-edzdLAskPK0m3LI1r-InAtJt4Wviww2pOpVptv5e4dUb0g&amp;_nc_zt=23&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfddkPfKfTV9z4sDWjEcuCJI0HYHRadb8MfmzqqRSupbTw&amp;oe=68F55108', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE0ozsT&amp;_nc_oc=Adl9wGBHc72SvzGUzxfRvRv6-Vd-8wbXM8v3TQXqvnjjUlx8TSkaGJFZopBfenOwOYg&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeMA8OJGTW-_0nm5uLphTITsxAGvfY1m9jST8o9Lt4UMg&amp;oe=68F557B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwG5fbF2&amp;_nc_oc=AdmMquSPdZ_zcRF06oVSvdQ8W5m357yXfk8Ca98qoqUOI11sRh_yj-u6uyAnkIyB387ZHr0R_TkPaT1C7KPlmAKz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afch_bvGEr_JMpQw26xahF1HrssvR2RKeWXHeHrTVDkU8g&amp;oe=68F41540'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwG5fbF2&amp;_nc_oc=AdmMquSPdZ_zcRF06oVSvdQ8W5m357yXfk8Ca98qoqUOI11sRh_yj-u6uyAnkIyB387ZHr0R_TkPaT1C7KPlmAKz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Aff2IzICcvGuRTnh-Fe60MIQeB7QO6IGyTo9hiJIsVW_yQ&amp;oe=68F41540', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE_RTVG&amp;_nc_oc=AdlxPWs2vHxOj-z-cgBxu5nenFNps8bZa1_p9Ic1Otg5tHpwYxEtx1rOO3g9_u1OQoSmpiHVk_EWtVLrjncXITqA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afd7BGpdhdbka7g1MiUtCN7VNkkDwmuQZfxPI8jL7S2jVg&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwElXr1g&amp;_nc_oc=AdksbgEG2JP0ZBbSri2pE0QJdGVCtIyygHSM8RQis4YCFNkrU-UgOGoBhVz6ND_an94&amp;_nc_zt=23&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeOebZ5CLbn2NqkM6C0yW0S_aoxQkOwkhOfZa2hHbQNYw&amp;oe=68F566C0'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwElXr1g&amp;_nc_oc=AdksbgEG2JP0ZBbSri2pE0QJdGVCtIyygHSM8RQis4YCFNkrU-UgOGoBhVz6ND_an94&amp;_nc_zt=23&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeuSdjKuZsv4CV_9LWrLc8C3i-axOK48zSmv__CPTBr7Q&amp;oe=68F566C0', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE0ozsT&amp;_nc_oc=Adl9wGBHc72SvzGUzxfRvRv6-Vd-8wbXM8v3TQXqvnjjUlx8TSkaGJFZopBfenOwOYg&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeMA8OJGTW-_0nm5uLphTITsxAGvfY1m9jST8o9Lt4UMg&amp;oe=68F557B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/559672110_122146673306700230_1924597970426222239_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=b8sumZ7Zer0Q7kNvwFHS9D7&amp;_nc_oc=AdlZQ9aN7gqmxZTB4AQGnOKXhAAntu04GGXNXQD0BCeFEOn_FxmQGLiXgfI7U-fEmsnUoJKJknM3psQJ5wI1RMwl&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfdCCQ9j4h0C6D66tyzOCQtioG95ER7pKLc5Lq1sQmXtVA&amp;oe=68F426C8', 'profileId': 'pfbid0NfM26qcx2r7qd9bgL8wC3Xzwu9AvV3n8QcJuN2C8qgT891G4JaTud11Wn879NWpCl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/560344069_122146980734700230_6426573476943952853_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5q0wFrdkkekQ7kNvwFil5uj&amp;_nc_oc=Adnf29HJV-Egqz3eVEAeBnqSV9ca_p-fJ-hur_lsuURrTUScOGhg72Cjju0k4WKZkWE&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AffbN7q6gsWikT0YfKTNegtqzUgvY4jzUexDVUvC9BFPqw&amp;oe=68F57BC8', 'profileId': 'pfbid02S2qCirya4cqP8HrnfQ4rkX8ya2s7gA7azRAEcRKv9ZNHLhTMhRpKFLsD5VfNCBu4l', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0F90YT-5Z-0Q7kNvwHWc3iT&amp;_nc_oc=AdlCF-idNhfreQrB1q5uE-kX6WV895BHxf-oMybQ7_1GDdUlpWy7oSTTE46rrdsY4Xt7ophyiQcoJpEB1GhBPUb8&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afem9s8ss6rB3XYBdsNl-0p0olejvzB5ROLXaInmDWbXIg&amp;oe=68F40E0B', 'profileId': 'pfbid0bFR49g2LBZnzTX5mn7qTbVYVitXx1DC7oNBM77Yc6u1gv1MsS3Mbu5AFgoe3WQo6l', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0F90YT-5Z-0Q7kNvwHsmGHo&amp;_nc_oc=Adkbgni8E5ap0B1xyLEGsuxCij0RejwoS6R29tdywrxdCiPkVLCoYuiUm4cfAJK-WRc&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeeGL3XLJ2ToMquu3c1_-DfDWfx8_B8Q6I5VegKGCi3UQ&amp;oe=68F55F8B', 'profileId': 'pfbid02f6rmLLxA31Rv6b22wTGkqLTaSWBtwV1HC5wWLAebzvkhsYyA8LBZNW9RtcnFwhFDl', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlmIf7gMySwQ7kNvwF7aaCq&amp;_nc_oc=AdlxYHKZxrMhOEkZmQ_0tqi1u7wo031u57zekBFeIs15gfLznwKqBXeoTIizmIVhZNYhV_Oe0OyaJISjqUv8OchO&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afev2PTbj3rGsjOzOsM5bEhgLXrfr1Er61mdhc6rycJd2A&amp;oe=68F3FDFA', 'profileId': 'pfbid0qD6iGFdR7dimz4cFMst1e8vEoNUdxiZkC6xMwMLMGAr8Dq87FdM167YgFRzhbP2dl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlmIf7gMySwQ7kNvwGFKq93&amp;_nc_oc=Adm_nG6qdFeGNtihlRKHosQzsJYtqsasXDLpu_1In7MJEqCafLIgJeaQT_BOTP1IjJg&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_Afd3gMK9XIs6TRwXCumy8eQ4xcoqrKJ2Tr1YP4qO747-zQ&amp;oe=68F54F7A', 'profileId': 'pfbid02u4YRSvZEy9GXpyhTEPAQNtKPFfaah6jJBHTFoLEVBJzeU44q8vLhtaDMEbDopaCyl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yKEu2CzNlv8Q7kNvwFJO3oR&amp;_nc_oc=Adl_wlozs9DLSXNZnEMqMNr1LZ2QWTF6llZejOt0dt-9146GcRhMjRAao-ocNrn0SbhLvHuA5B-5tWLv2z2PvRdm&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_AfeDvZy2vpSawbU2Ww4NaKxCjT6VhvLinvgskqLIcDIsYw&amp;oe=6915AACD', 'profileId': 'pfbid02bG4zyfepKdtHXDYHKrdxT1suzuqxzhqqMp61Gq2N9oXFvBtwad258LKnRi8DNFCMl', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yKEu2CzNlv8Q7kNvwF-G8el&amp;_nc_oc=Adm9Fu2UHaf4FVt5HT16pH_pz2V_NF9J-sP7-r6nOhR72BsRXXFhipQBazXLpgBxBWA&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_Afd_rlznHA7_c95ax39wOz2Flt6ZQhFsbf2DM0tids7Gug&amp;oe=6916FC4D', 'profileId': 'pfbid0XiRp4W2TUSn41HCSeqfgwkafdE6BiZQ5qTzUXWTuA3gZgyekc2wjttPfRwHhAN73l', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFkVpLk&amp;_nc_oc=AdnhaSLvNXdKUAMGKNjYNKRl38hEptlnSnaKQQ6YSKxUsD3G-bo5DZL3k1bUMXmNcAhj4nZgk5jqIE8U2VWTu2yz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afe-Erpbsh3i1rYa2Rlf6FNpZaoblbfE_goB927pTfNcMg&amp;oe=68F40866'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwFkVpLk&amp;_nc_oc=AdnhaSLvNXdKUAMGKNjYNKRl38hEptlnSnaKQQ6YSKxUsD3G-bo5DZL3k1bUMXmNcAhj4nZgk5jqIE8U2VWTu2yz&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Affe4QMjIubzKzp6Yis_sKpM18KReRFYTeOTYl8pUQ5Y1Q&amp;oe=68F40866', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE_RTVG&amp;_nc_oc=AdlxPWs2vHxOj-z-cgBxu5nenFNps8bZa1_p9Ic1Otg5tHpwYxEtx1rOO3g9_u1OQoSmpiHVk_EWtVLrjncXITqA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=ae5rkNFqzwkBHOZKS_zdJw&amp;oh=00_Afd7BGpdhdbka7g1MiUtCN7VNkkDwmuQZfxPI8jL7S2jVg&amp;oe=68F40631', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwEyhuVe&amp;_nc_oc=AdnpSvKu1v8dU5E9Q7wojCAFaYlEZsdYi9RrhIJw33GO5slmY-omiTy0Awu2xqjG00g&amp;_nc_zt=23&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeXna8W7-AaHfpmYtxCPuVZ_iYT5KLhz8Y_mqueXBPgmQ&amp;oe=68F559E6'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwEyhuVe&amp;_nc_oc=AdnpSvKu1v8dU5E9Q7wojCAFaYlEZsdYi9RrhIJw33GO5slmY-omiTy0Awu2xqjG00g&amp;_nc_zt=23&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AffGuQ1v408DceyrFHdbLsteaEHYKDdcM0mppW6wM3N3KA&amp;oe=68F559E6', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent.fsac1-1.fna.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE0ozsT&amp;_nc_oc=Adl9wGBHc72SvzGUzxfRvRv6-Vd-8wbXM8v3TQXqvnjjUlx8TSkaGJFZopBfenOwOYg&amp;_nc_zt=24&amp;_nc_ht=scontent.fsac1-1.fna&amp;_nc_gid=a146FH4wMj1HxCCquo39vA&amp;oh=00_AfeMA8OJGTW-_0nm5uLphTITsxAGvfY1m9jST8o9Lt4UMg&amp;oe=68F557B1', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwG4oU5G&amp;_nc_oc=AdlmIecvh05ri0URnUmwcL6LS30G0FJJojnphSUOGUh52sGqwWDHNFfeeKNwVyIxaR8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_Afeo9DJ_D7MOMAfXzjgtxbMKipAZsNSojXexL0_4Cgivcw&amp;oe=6915ACDD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwGQJ-BI&amp;_nc_oc=AdmOUcfM3jyc24EjvWdXjxuqV_mRXBvsOCl36i0sffwytwsZHxCIzLqRDgXLsP-nWpE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=QemQhk9G1KSBIaF4a9P3Wg&amp;oh=00_AffDKMU11zbwU_RtsALr9fSg0AQy-27FIG5x7Sb75Ed-RQ&amp;oe=6916FE5D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwG4oU5G&amp;_nc_oc=AdlmIecvh05ri0URnUmwcL6LS30G0FJJojnphSUOGUh52sGqwWDHNFfeeKNwVyIxaR8&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_Afeo9DJ_D7MOMAfXzjgtxbMKipAZsNSojXexL0_4Cgivcw&amp;oe=6915ACDD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwGQJ-BI&amp;_nc_oc=AdmOUcfM3jyc24EjvWdXjxuqV_mRXBvsOCl36i0sffwytwsZHxCIzLqRDgXLsP-nWpE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=QemQhk9G1KSBIaF4a9P3Wg&amp;oh=00_AffDKMU11zbwU_RtsALr9fSg0AQy-27FIG5x7Sb75Ed-RQ&amp;oe=6916FE5D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=MKpemPoFRecQ7kNvwEOOr7K&amp;_nc_oc=Adnkg6PEXA4GklH0qRt936-j76iRt6T4GqwwsdTUoFNjYp0m-_PZddaIovlaKYHOcUI&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_AfeobYczSdHp2IE8Sg-q0emYTtDITwIpB7FfVHRCtqyiUg&amp;oe=68F42E4D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=qNoN44kRO6YQ7kNvwGJl85g&amp;_nc_oc=AdlTqLFtQneplIQj3PCAmclSX36CfViRNw3cNPSlQ6K6md3wSSARj6s6qZyNNkWdmVY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=QemQhk9G1KSBIaF4a9P3Wg&amp;oh=00_AfcglmdBc036RAWp-Yw3tsYVp73l9qwh0mejYwurrOZlMw&amp;oe=68F57FCD', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UcdoNt2E0i8Q7kNvwHWwbiK&amp;_nc_oc=AdkXHq1tCM9NsRqemj1c2DsAcD3rrX_zAtYrpmuMzHEBfP2sMQRn-iypi-JsA9y201o&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=DIyO1xjTmb_sjW5S5O-xzQ&amp;oh=00_Afe5jq9lD8t5c5wJlGx0F7xULt0P7tkzOFjLotPwLndMXQ&amp;oe=68F42D50', 'profileId': 'pfbid02UsX781qWN5ZEkmT9esQF6xokVz7DHBu43z1VACteR1Ca9tvzPSCT2MF8TgeANiV7l', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UcdoNt2E0i8Q7kNvwHtIPyV&amp;_nc_oc=Adlxdku0oLobx8KpJrEo38AQfmAg4vCXCU3ZPArMEdp3etWa3BHtPi-D1XAxfqu0U4s&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=QemQhk9G1KSBIaF4a9P3Wg&amp;oh=00_AfcM4DXAcMq2JZNMSdfTUtgCQfxez0PWYZs1JUMgInvBkQ&amp;oe=68F57ED0', 'profileId': 'pfbid0RKsvCrD9WwEfPAWjBus7x3eaUND5CQ6SewjKzWfs5L7EyzyAguQtVpzLddjx24uLl', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DPHW-YyjJlv/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,7 +963,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHW1wJ9&amp;_nc_oc=AdkTHZF2frGaY1UrZLcvLcYIFL7MuCutNMSZG36KLsrZEHVBfFuRhJIDuEah5vqMRyE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AfeUAoqjWzA7L6U9jk_iDhEu0Q6pdWtfObv72NmTiNkRWw&amp;oe=68F5BFE1'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHW1wJ9&amp;_nc_oc=AdkTHZF2frGaY1UrZLcvLcYIFL7MuCutNMSZG36KLsrZEHVBfFuRhJIDuEah5vqMRyE&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AfflIh7tZFy-7f1UsPo1WCkEI8ppM2oiX2bomUnJ90jOBg&amp;oe=68F5BFE1', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wqgRXCvOM9YQ7kNvwHVNprB&amp;_nc_oc=AdlALCP0txlc1Fi6BGsL_2on4I-WLadFVkAXPMWd2TZSaLgeAOjRbdt8dNNyqipgxL0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AfeDFD2YfbDOwA0l5vqKky441EzGdFly_TTwfF2usSPUnQ&amp;oe=68F5BA00', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1363892925161096', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzNjM4OTI5MjUxNjEwOTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzYzODkyOTI1MTYxMDk2', 'date': '2025-09-28T21:25:36.000Z', 'text': 'Comida de peso pa varones 🔥💪💯', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHTtBz1&amp;_nc_oc=AdkDFpjQBchrpMaL0FHeWGqhxbrV8JLZao1tMTjkfpo_pY_kAjRHQ6lpE15SbdV4NGw&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AfdMdB06SUrAYWdHRspP19riEeadxE0onZ7Lm32jLamarQ&amp;oe=68F6D921'}, 'id': '3232352003590127', 'cix_screen': None, 'massive_image': {'width': 720, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/556077801_3232352006923460_82653773677041068_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=gNHWp4Z4YicQ7kNvwHTtBz1&amp;_nc_oc=AdkDFpjQBchrpMaL0FHeWGqhxbrV8JLZao1tMTjkfpo_pY_kAjRHQ6lpE15SbdV4NGw&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_Afc_vR2sqfYHOTyi_s994DqC6Ea3CkhYpbEsWgPo66U8Hw&amp;oe=68F6D921', 'width': 160, 'height': 213}, 'ocrText': 'May be an image of anchovies'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wqgRXCvOM9YQ7kNvwERrbm5&amp;_nc_oc=AdniXQrnGIEuzpt-3Fwe8mYa4BVk4CWOiEXZZlrtxM1XSFNc2tnB9xJL9gwdbRYMYnY&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AffyopfnzQE795s4ZlqO1THZiIhYXuYtCwP0ghgIhWkkrg&amp;oe=68F6D340', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '7', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/564536660_818875161084074_6083105793063063400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mRl1OMwza6UQ7kNvwG98rfr&amp;_nc_oc=Adkmp9EW6n9UXeMEud88Tj74yrmzOkCPneCsccWB5-r4U5zgwTrM40gMhEFaw0GGmRQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_Aff4COWAUSlVQYkJAeID_bC4x01CBDSg5efxsBLy6t8S_A&amp;oe=68F5BC58', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1800440637278031', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE4MDA0NDA2MzcyNzgwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xODAwNDQwNjM3Mjc4MDMx', 'date': '2025-09-30T03:40:22.000Z', 'text': 'Par de MK', 'profileUrl': 'https://www.facebook.com/jhon.lopez.higuera', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/564536660_818875161084074_6083105793063063400_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mRl1OMwza6UQ7kNvwHfGCvs&amp;_nc_oc=AdkHHrMFWlf8AlhGyque5JbawvOELyH6f897wEyyi-SwUcwCT_dHexlpmvYk_zV4fDk&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_Aff-VEX42ie-Butdkqw1-VV6vBqLJsxHqbohksFvvGrRvg&amp;oe=68F6D598', 'profileId': '100088847929832', 'profileName': 'Jhon López Higuera', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GgsydT1uH1YQ7kNvwE0cpAA&amp;_nc_oc=AdnQLqlRUwYUMqtDFW-BrVrBmXC1SUANbHY3_7b9l4Kaa8tW5QquoteFeQD4iGSi0zc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_Afc00qQ7untT3fKTf954yRw82qmBgPmNAju36yxnZhniPA&amp;oe=68F5BEB2', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4158304764449552', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTgzMDQ3NjQ0NDk1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU4MzA0NzY0NDQ5NTUy', 'date': '2025-09-30T14:46:59.000Z', 'text': 'Bueno primero fueron las chocolatinas jet. ¿Que está pasando?', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/563437397_25182001948089991_5002817306161476331_n.jpg?stp=cp0_dst-jpg_p32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=GgsydT1uH1YQ7kNvwEbitxZ&amp;_nc_oc=Adlp1vvHe0MDNxatUicEmvDkVUy1PSxQCzfrGgBcTcRM-O5BLe4NWkiYkTfGN3lVDGA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AffEYHU1NURbOllzcPPSy47GUby8up7aLLXxlwkm0AOm0w&amp;oe=68F6D7F2', 'profileId': '100001205993744', 'profileName': 'Samir Villacoth', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7QD9crfJx-IQ7kNvwEZbJTN&amp;_nc_oc=AdltJXTRY8U6gUO0hACvPasHGahIC7MaRJACFNrqJx2a3GGDj6Z5mKAqf57oncQjiLs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AfcM4IGE7m42x04Uq01jpKOf2t5vcT-6-IvtfRA_Qb2CPg&amp;oe=68F5A63D', 'profileId': 'pfbid0AiJKhBMNH9CvNcBBaP7xTKnDiPbXxmbkXgq3dNqiKnoViA3fHmesUyip26h86StQl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=580159021851623', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzU4MDE1OTAyMTg1MTYyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF81ODAxNTkwMjE4NTE2MjM=', 'date': '2025-09-30T12:05:31.000Z', 'text': 'Así dice El Señor: ¡Ay de los que a lo malo dicen bueno, y a lo bueno malo; que hacen de la luz tinieblas, y de las tinieblas luz; que ponen lo amargo por dulce, y lo dulce por amargo! ¡Ay de los sabios en sus propios ojos, y de los que son prudentes delante de sí mismos!\nIsaías 5:20-21', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/415001755_10232411633695105_9157600189259474910_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7QD9crfJx-IQ7kNvwHqApPN&amp;_nc_oc=AdmVUai-F6JFBbpCBSQT36OXCdMKgBTSiNXZWYtj7lVgZaw0y-Ar4EkXQugxbGfH1II&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_Afet6rrTMc5dlvytI-QaCNpXb99GGCDhDVaoN091r7zQ0w&amp;oe=68F6BF7D', 'profileId': 'pfbid02EZk2srHC8YabR3R7i1RQ82oPTNiZvQJozuo7MbgCUQnPQUxcjuZP95J6zzLZdCVAl', 'profileName': 'Elizabeth Ramos R.', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwEQWzGG&amp;_nc_oc=AdnF7FhSt_A425cDciqrkvOe37YgPVPruzriGNdNnmSEo9A16fSqgnCEK3o0YW5z6Qg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfdWs2ATC2fCLCpaYnQDaVWrAKPXbDjQdqOud3pmUHFXWQ&amp;oe=69175EBA', 'profileId': 'pfbid0Nn7nhshBGkFRJGeQQXE1ua1dZPj7hS5aH8YabfUsTAwRGaZpNhbvJdaRwEX9ZemUl', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1161630362509453', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNjE2MzAzNjI1MDk0NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTYxNjMwMzYyNTA5NDUz', 'date': '2025-09-30T12:49:13.000Z', 'text': 'Dos votos más para la Polo poli', 'profileUrl': 'https://www.facebook.com/hernando.ramos.932348', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwHhvduR&amp;_nc_oc=AdlodtyXU5xSESqfnnWuoIx9Nhwx90VxrxzGQFGr7PKS5KmlQGHeUrVFrN2ibSEm2Co&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfenWsPv__EoTolKU3-A-CNbZd1QZ7DobOrlwZwAw37kGA&amp;oe=691877FA', 'profileId': 'pfbid02SdZVtYd188sQDYYEHdwmQNpLeE6qd8jAbyyRvY6qnMP4VocCSfLdhDfU71UsKTq4l', 'profileName': 'Hernando Ramos', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid0ToGhpxBETuVp7fb7yTWDRDJ2BRzomhyfPoAYCnhSBuyqyEHk6UJs6KrxbDbB5kZ2l/', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwEQWzGG&amp;_nc_oc=AdnF7FhSt_A425cDciqrkvOe37YgPVPruzriGNdNnmSEo9A16fSqgnCEK3o0YW5z6Qg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfdWs2ATC2fCLCpaYnQDaVWrAKPXbDjQdqOud3pmUHFXWQ&amp;oe=69175EBA', 'profileId': 'pfbid0ToGhpxBETuVp7fb7yTWDRDJ2BRzomhyfPoAYCnhSBuyqyEHk6UJs6KrxbDbB5kZ2l', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2543932329306326', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NDM5MzIzMjkzMDYzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTQzOTMyMzI5MzA2MzI2', 'date': '2025-09-29T03:37:41.000Z', 'text': 'Roscones con éso', 'profileUrl': 'https://www.facebook.com/people/Luis-Roa/pfbid02XeiR1d74KJWfNpVoPGmFG2d7vumWqVmpr4niXTJMUEbggS9Ard7viwM8hMoP5jTsl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwHhvduR&amp;_nc_oc=AdlodtyXU5xSESqfnnWuoIx9Nhwx90VxrxzGQFGr7PKS5KmlQGHeUrVFrN2ibSEm2Co&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfenWsPv__EoTolKU3-A-CNbZd1QZ7DobOrlwZwAw37kGA&amp;oe=691877FA', 'profileId': 'pfbid02XeiR1d74KJWfNpVoPGmFG2d7vumWqVmpr4niXTJMUEbggS9Ard7viwM8hMoP5jTsl', 'profileName': 'Luis Roa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QP48185Dt4FPz3cbaLzzVoi28YikPFm96pRzqzJA66GjL1ukNDVK8JYLYQBJC4EWl/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Fl-s05LND3kQ7kNvwEpJ3tv&amp;_nc_oc=Adk92o81c19eVR4T12bfvxSuIAoAqagtwskymhFWqJjgCpux3tKkCtLHmOL4Zga9ZEg&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_Afdng1oo13RuoEVpE7D2RRPH0BHs3acN9wKvhTnf_jJGWA&amp;oe=68F5BE2A', 'profileId': 'pfbid02QP48185Dt4FPz3cbaLzzVoi28YikPFm96pRzqzJA66GjL1ukNDVK8JYLYQBJC4EWl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1442625613493921', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0NDI2MjU2MTM0OTM5MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDQyNjI1NjEzNDkzOTIx', 'date': '2025-09-27T23:12:06.000Z', 'text': 'Patos', 'profileUrl': 'https://www.facebook.com/people/Jaime-Castro/pfbid02QP48185Dt4FPz3cbaLzzVoi28YikPFm96pRzqzJA66GjL1ukNDVK8JYLYQBJC4EWl/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/326149205_8732240523513437_8409393845843100742_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Fl-s05LND3kQ7kNvwHZoVrJ&amp;_nc_oc=AdnGi16si9r3LG3NVv_WirxA8IiZdS4vjzdhvQElb3MgVlg2QUiIDL9WW_4lRjhBwjA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_Afcv7tVHXSLCGWN_Qi0OUPw3A6FBDHPrJc5Q6dPtWt0OLw&amp;oe=68F6D76A', 'profileId': 'pfbid02QP48185Dt4FPz3cbaLzzVoi28YikPFm96pRzqzJA66GjL1ukNDVK8JYLYQBJC4EWl', 'profileName': 'Jaime Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lc4QD7NFPPkQ7kNvwEWce8J&amp;_nc_oc=Adl4yEYl0wK6eqPzVMmJdSGDmjnDa-ojjy1i9Yct_j0Cz-aWlrV4YrCTQQzlsvPN_8E&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AfcZxXGLVJkqppYLmbTRyMGJTsVu_AktQpzhWB3-dn-ctA&amp;oe=68F599A8', 'profileId': 'pfbid032oqHjwBA7quRuZGKAkdTdfRF711DzTHPys4xWpYTYnsg9wvgfjBxBqEvzQtqUaRjl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=727327836985353', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNzMyNzgzNjk4NTM1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjczMjc4MzY5ODUzNTM=', 'date': '2025-09-28T03:11:40.000Z', 'text': 'Cual de los dos muerde la almohada 😅', 'profileUrl': 'https://www.facebook.com/luisenrique.avilaacosta', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/543147188_24249985471340791_4273761486751380526_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lc4QD7NFPPkQ7kNvwGHU2Og&amp;_nc_oc=AdmWqrTtdOTuTJy-1iFkKfdob_BwfocGH00ZbfrCXDNGNnRmHLnqM9lNnVmt9G6ku7o&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AfdzWkBJJPvQzRzkgM_BhRIpRyhvaAr55NU_CnKfIUhxBQ&amp;oe=68F6B2E8', 'profileId': 'pfbid0yGC6pmYoGbZLnuhTgmeYqg2JqfG9xVwgao63nGD1x6EvLYgQgHX3xLixyCmXzg4kl', 'profileName': 'Luis Enrique Ávila Acosta', 'likesCount': '11', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=h2QX5hWjaokQ7kNvwGaJ8SE&amp;_nc_oc=AdkhWB94VrRxFjKwU3p6xunpmEdgMnUXtgMvF8YEME7hKfA524lVDSczszzhe0btraU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AffMyQN5l_mIMtFYL_KlGohJP4z_hcNDFiFjGTOi05B2OQ&amp;oe=68F5A326'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=h2QX5hWjaokQ7kNvwGaJ8SE&amp;_nc_oc=AdkhWB94VrRxFjKwU3p6xunpmEdgMnUXtgMvF8YEME7hKfA524lVDSczszzhe0btraU&amp;_nc_zt=23&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_AfdjwRrsle5mo2RWVKBNKoYr4weGFy5uw7MFrJM4Ggx4PQ&amp;oe=68F5A326', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwHVDsvj&amp;_nc_oc=AdkN1rpdvxS5b5TPAhPmpZtc7FRJ6U4bkr1FOnCrinNfaO1dVZ7X5-MopkRQeDIcWA8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_Affhgosk9dQEQhv-gMlS-ofQFWfEBRHYzUi8w8eJ44hPsw&amp;oe=68F5C831', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=698948325822929', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzY5ODk0ODMyNTgyMjkyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82OTg5NDgzMjU4MjI5Mjk=', 'date': '2025-09-28T18:15:46.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=h2QX5hWjaokQ7kNvwFwm4SY&amp;_nc_oc=AdlKQeYH0nlNceQPCBWfx99ig74AYIWkDiHQmrUeg7hpZcfYynO8IL4P-FaDSbe2HQs&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AfetzE6kfdSjkeFwLnSCEvxVCFV_jXj0pzlOllJt9Q5xZQ&amp;oe=68F6BC66'}, 'id': '1497924108145776', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 821}, 'image': {'uri': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-6/557476599_1497924111479109_1753603434634307172_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=h2QX5hWjaokQ7kNvwFwm4SY&amp;_nc_oc=AdlKQeYH0nlNceQPCBWfx99ig74AYIWkDiHQmrUeg7hpZcfYynO8IL4P-FaDSbe2HQs&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AfcKgsoDQ7eZlDEZi3laEQjzogqqgJ7jpCUQedeGkigmJQ&amp;oe=68F6BC66', 'width': 261, 'height': 223}, 'ocrText': "May be an image of \u200e1 person and \u200etext that says '\u200eَ SALIO MAS C ان QUE QUICO\u200e'\u200e\u200e"}], 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwFTFOyx&amp;_nc_oc=Admxc9ClEgTC8j_TLWm5lkFbWH5W7zxU5mCoeV0_K7BjVjqhxC-tGSGTtXHJWJp-EX4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_AfcpQW7ZFsl0iU2gAOqivkw6r-g1fiJbY4DZx2I6bbYODQ&amp;oe=68F6A931', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwFOv15B&amp;_nc_oc=Adl-vHT1SN_eE0-HWLcPxU07W3QruKjx8SQ8FMlyml4uHCT3Po6fcSci5aOUNqyZtXM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=PGGaBDTITKaoDgXEIINw8g&amp;oh=00_Afdm9ElJK8COF2WZlzldkO8IMOc13XSmlwqfCnTcOT6iOQ&amp;oe=68F5AF69', 'profileId': 'pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1719898285372186', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3MTk4OTgyODUzNzIxODY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzE5ODk4Mjg1MzcyMTg2', 'date': '2025-10-01T12:39:55.000Z', 'text': 'Que asco como las marcas quieren que nos convertir en esto, hay nos damos cuentas quienes son', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwHUSYYH&amp;_nc_oc=AdkvNbDESuIXMmYESECh3W9RwqTdvq9lrGikarB8B3jRYT_uFbA5Q3enuq7pK59u_e8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=scS_F2YCDzdv86bTSbxg8g&amp;oh=00_Afc5y_42ojUzCDjj4VpTisJE9IRd82D8tYuyx4oZof3n8g&amp;oe=68F6C8A9', 'profileId': 'pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TdeD9jys0qwQ7kNvwGylp0C&amp;_nc_oc=AdnmmIx74IBqjDs2AfHKYX9jGBtGyqvlY0CUNrnIdAh6urCoqTqz1fAxEDWTEFEJV0Zi3gIjq9mMh1o0ar7W7Nq8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AfcbOGgGU8nHzJIja37hkzjD0Q_jSId5OaCX3rq2IDO0mw&amp;oe=68F5C06A', 'profileId': 'pfbid0Sucdm6BqLx16zmC3Py8sy4SsiYGnVQj5aX7VADfShqQVaCPLjw6kCtADXMP38sSSl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1491053745429834', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE0OTEwNTM3NDU0Mjk4MzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNDkxMDUzNzQ1NDI5ODM0', 'date': '2025-09-29T23:24:17.000Z', 'text': 'Un ratito diciendo q si no lames tapa eres raro 🤣 Naguevo e loco estos becerros', 'profileUrl': 'https://www.facebook.com/LeonelMVP1', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/494147519_4372906652953994_1086409470732738288_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TdeD9jys0qwQ7kNvwH1JaD0&amp;_nc_oc=Adnszl3crguC8aybdeF8r-159meIzXEr3BAYQA1QuIDP-sylMntVDm3qxUHYwGAoFNE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_AfcCacPpWxMzTBNM7UQ1iqSLLLyf33HypYSMUMO2q_lyyQ&amp;oe=68F6D9AA', 'profileId': 'pfbid02WH6pP7YTNbr6R7EMT4s1PNgto45Z9nxUmJ3yJu3dQXc4bopDbbva76UVDK1iQkMsl', 'profileName': 'Leo Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SgoAUNEKOVYQ7kNvwGP0U_c&amp;_nc_oc=AdnEQARpJEPNcJyy0QSaEzIdEYiZho8iH_OzZhcIJJ_DmStTyZaL1L3d4pXrpEwzUocBuIUnshy22K2MK08tNbVS&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_Affb--rBz-A1R8dzxDCmgX3eAA79wat-_yYOY8pF8cFLDg&amp;oe=68F5B355', 'profileId': 'pfbid032smKXEM3YMUPrbTNDi3cEpdKzDtQfUMv1WgUNJZgSiu2Sgx1N2mzGUTK5qyNRwDjl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1175424014635878', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExNzU0MjQwMTQ2MzU4Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTc1NDI0MDE0NjM1ODc4', 'date': '2025-09-28T00:49:10.000Z', 'text': 'Par de mari cones', 'profileUrl': 'https://www.facebook.com/humberto.ruedauribe.5', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/499151544_2752429561618730_1381468448308157810_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SgoAUNEKOVYQ7kNvwHBRqb3&amp;_nc_oc=AdlWBhgAq2XFoAAU15Tczbujlfu2uTkh3O-1Fmv4WUigqgV1YohmSRYOD-wTPshKuLI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_Afd9T_kMvWdBzrNk1MAkpJAfQLLonO6Up0enU9gQsn5tGw&amp;oe=68F6CC95', 'profileId': 'pfbid0yL88c4igh3W9AMEmKTHsBAKsfNgjx7Ze1mHzkEbe5KwJVBvuteaG6qo1HS8XtNngl', 'profileName': 'Rueda Humberto', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J53fkY2YnZEQ7kNvwG0aC8C&amp;_nc_oc=AdlcXha2FVnpEBwPcYGNOaX1-zSlGQjLqYl8csaQ8MgW5lqRuAtQXqpRRmr1yOA4JPwwOSPWmD0JrqvINLfH39Hb&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_Afc472_pACX9gnlAVfXYjC0usUneDCFmXDZD4xdd8Ei6AA&amp;oe=68F5C2E1', 'profileId': 'pfbid0mSaZ4y1ksqxvdhgcqYLgRLYXLEBqZiAN3gNxesEfivd67GLY1A6SwXy7tV4HS8Dl', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1562019038057155', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1NjIwMTkwMzgwNTcxNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTYyMDE5MDM4MDU3MTU1', 'date': '2025-09-28T21:55:53.000Z', 'text': 'Par de cochinos', 'profileUrl': 'https://www.facebook.com/maximo.munoz.608254', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/345894774_250954184173489_2037287813528263017_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=J53fkY2YnZEQ7kNvwH41uzY&amp;_nc_oc=AdmozBvFcZlWj8-ZatkNkgRBfV0U4UXQestghGOkFKQxtl7o4CEsSDmx-LjsG6riX_U&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_AffHEeDCse6Oqn-PvOtDpcRS3ZlceHfM2ZlYZGIj2EJSwQ&amp;oe=68F6DC21', 'profileId': 'pfbid025ctHjjtqc94ZRy8xDyczYNZj96yXdUvVMU2iBK6AypNMfHcd3R6qaYcYsfdRyfa8l', 'profileName': 'Maximo Munoz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=n5ljeBBNROMQ7kNvwGinLfQ&amp;_nc_oc=AdkU0gKe6K6Rkg0EW4AnjsFFogBEKTVEEpV5OKgWnhhiQvZoCCMcy4cHQVRoWrpcVqEmo0nUKU3UIm9ipILbqky4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_Afdy9LE8ZcEweDA-W5lDJxRSNpBsf02z0PhVsUywc2o72g&amp;oe=68F5C2BA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=823686330631329', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzgyMzY4NjMzMDYzMTMyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF84MjM2ODYzMzA2MzEzMjk=', 'date': '2025-09-29T11:07:36.000Z', 'text': 'Raros utds par de muerde almohadas 🤢🤮', 'profileUrl': 'https://www.facebook.com/julian.rodriguez.72391', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/271870423_6918191594889387_2197545374398453585_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=n5ljeBBNROMQ7kNvwFgCTbx&amp;_nc_oc=AdlXZ4PXnZOJE3HUiCxeFvSN_GqV60A__cfA32Xpn3c4T7_qlMpJTwJxDqJCl8JAPTo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_Afd5eOb6wzh8MSZ0Fb_roZKuviFmUr8LCbkVRWhODcfftA&amp;oe=68F6DBFA', 'profileId': '100000958454912', 'profileName': 'Julian Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_ymL_Ok0W90Q7kNvwGcdhor&amp;_nc_oc=AdlE0wrY3Za6P7CV88hcu84D8-ZgOhruDGtMQ0HwYDLeJnbsr2DPv2QbPM83JK-p1Hqyl967koxiHb5IY6VRftxw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AfeBQinCJgB0XpK20SQKgdPrnmxxHCeI0_4C3AFgwe1WVg&amp;oe=68F5B672', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1737624850230763', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3Mzc2MjQ4NTAyMzA3NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzM3NjI0ODUwMjMwNzYz', 'date': '2025-09-27T22:30:58.000Z', 'text': 'La verdad no', 'profileUrl': 'https://www.facebook.com/leandro.robayo', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/475768227_10234654073430327_3475098545684109598_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=_ymL_Ok0W90Q7kNvwGy1X1O&amp;_nc_oc=AdlCPL5Ua2AePjqhPgA5UlNyM1KZOyVnAJJLyuYfgjPeVF-A3-exkYxoTCUP8GuNpLQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_AffIOQ5uTSLqMcRwLuS3OBqJ60jI_IbsaM4JoEizSgQazQ&amp;oe=68F6CFB2', 'profileId': '1152691640', 'profileName': 'MarLon RoBayo', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid02FvhdD9K9W3vqBgKfPB2tafQsRbptq2HQBCxC21yDk7JMuidS1oHD5bEXRNwCb7gUl/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=PTArX43R3XAQ7kNvwENyhn4&amp;_nc_oc=Adl62yHDlSRhnLCxJr7R-kVpbm30aIi7HYeYaXS6rkxiDOplcRb8IEfkYsa66qyzqPIh8j1znOpCUYBhv_LeT4jf&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AffdWTtjMYXHcPwgQSqGBe7_GVxX0GK4To1TEjxLa7KXuQ&amp;oe=68F5BFD3', 'profileId': 'pfbid02FvhdD9K9W3vqBgKfPB2tafQsRbptq2HQBCxC21yDk7JMuidS1oHD5bEXRNwCb7gUl', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1986087595479156', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5ODYwODc1OTU0NzkxNTY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTg2MDg3NTk1NDc5MTU2', 'date': '2025-09-28T21:08:37.000Z', 'text': 'El peor comercial de alpina', 'profileUrl': 'https://www.facebook.com/people/V%C3%A1z-Pnich-J-Diego/pfbid0CP4SHygneqohxBmBvX3Ci6FibAuEbUzJnSx9qbbK6EpGHVpe7XP2xXioceAnNSpil/', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/332504082_1262428971036105_7460853424401437348_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=57R1fPJH1r4Q7kNvwHR6LH1&amp;_nc_oc=AdnvV2j25T2Y1s1mT5wxenQ2-uOBJW3PYlqlulCVwWIteDi1m00I7ABHl7pUaC3bGj0&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_AfczmGHreLib92VzY092VKoB52IXDNasZcwOWnn8Pnkkhw&amp;oe=68F6D913', 'profileId': 'pfbid0CP4SHygneqohxBmBvX3Ci6FibAuEbUzJnSx9qbbK6EpGHVpe7XP2xXioceAnNSpil', 'profileName': 'Váz Pnich J Diego', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y0_N9ZXW6hgQ7kNvwH9gPVN&amp;_nc_oc=AdlSx28kUpLwQtr8KI2Q5bGNe9xwtFVH70KBZgUhRuv0D7GhylmsxLVdiCojWMn69_vXIEgtewLlbvFMcLfdKYsE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AfctQJ7VftgGUYDjj-Vr4T12R0nGovC2JHt2LacvNtRVsg&amp;oe=68F5B1EF', 'profileId': 'pfbid03ZX5oSsLLCWHasQsimC1psTUEnzDpKn8YCK5LCjcUFqaXQd3tUZWCAdwarhnURPYl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2010699663098467', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIwMTA2OTk2NjMwOTg0Njc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMDEwNjk5NjYzMDk4NDY3', 'date': '2025-09-27T22:13:27.000Z', 'text': 'Por eso es que se les tuerce la rosca. Comen es pura Purina 🤣🤣🤣', 'profileUrl': 'https://www.facebook.com/brian.puerta.398844', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/467402452_122140922432325048_4444966547373250672_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Y0_N9ZXW6hgQ7kNvwH-fceX&amp;_nc_oc=AdlrN75ARKNW0BnsPgKP09vkktWqMqwoXCBG7LIIL9y21XY7QwghWE-ZEtVLid8Vc_8&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_Aff9ezJQiZZlkdo3ySWvu2Nq8nf9bfoBHZPpvDZ4Yw451w&amp;oe=68F6CB2F', 'profileId': 'pfbid027Qxnz7oABXX2mRHYPnucdc1gEYe9rG6EjAeJSUXXXQ95iyfpas2oQybtBmmZLNBAl', 'profileName': 'Brian Puerta', 'likesCount': '6', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sn9DADQ3iYgQ7kNvwHwou3a&amp;_nc_oc=AdkJ6uEawinqL4Gt6HpBkp0X8qXAD0SPFHob4FKTU4OiuvTnwooUz0t6QVg-ASO2ctOUY_DElP5TTcLIDhDF3I4K&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AffI0UqqOleZg283Zip2uZi6_7ojsL9j1A6bw5QAOnu15Q&amp;oe=68F59A76', 'profileId': 'pfbid02GPEqEPiP6ZUV4Q2k6xn9KRkjSH5YsdWLFAZ6GaEqpEYCsUfGfqaZKFJ16X8HhKfdl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1531087754739006', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE1MzEwODc3NTQ3MzkwMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNTMxMDg3NzU0NzM5MDA2', 'date': '2025-09-28T03:38:11.000Z', 'text': 'Otro par de culiflojos que tristeza', 'profileUrl': 'https://www.facebook.com/omar.herrera.332152', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/325399246_575947741014083_9017354617010704221_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=sn9DADQ3iYgQ7kNvwFbepWW&amp;_nc_oc=Adn79eBqjNEonf3jU2fyymunScCrRJb1i2m9vN6S90G6r3Z8v1Mr2qYrM4o-f4pqRBo&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_AfehWK7xroKf156XOWPtWV9_c5Q-9QvcUZnV5y1bQPQ5WQ&amp;oe=68F6B3B6', 'profileId': 'pfbid0CqbeKE62FGUP2Uqcwv6XjAuT7fDn8petg5SAiQnAqpySeDeTKPFziNXnJz1pbx8gl', 'profileName': 'Omar Herrera', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qPKwjN9eKVIQ7kNvwG9N7Mx&amp;_nc_oc=AdlWYjLGwnvzmLSxWzPDVudwDBQtWG_6PBgOw5KaTN8f3jEcf5qrsjyfbcsxzNm0I4aFhyPEF8DoiUXqEHbv5t7_&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AffeGAvPolxy2YFbkIR3evQbtefuCx2EMaiJjZ0iqy8BUg&amp;oe=68F5C7FC', 'profileId': 'pfbid02mnt9sfAWNWR8TwKJHE3Siqj3qPcULtFzqaDdU31mZ332RLK2nL1egznwe1qBqo2xl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1781922755782143', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE3ODE5MjI3NTU3ODIxNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xNzgxOTIyNzU1NzgyMTQz', 'date': '2025-09-30T03:12:56.000Z', 'text': 'Eres como rarito dice jajajajaja', 'profileUrl': 'https://www.facebook.com/nico.duran.579670', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/514372481_645302711894998_2987660457772849705_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=qPKwjN9eKVIQ7kNvwEYlXk0&amp;_nc_oc=AdkWSYTbVKnAVzL4o1-W19F7meWOTQzonV5Hi6qCMfOs53YvqFvW0ZjiW36iGbGzfPU&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_Affmykq2nuJok35KZe7UVt_RE5daZ38S1MXlnCrKBbcFEQ&amp;oe=68F6A8FC', 'profileId': 'pfbid0iFExxVY9XRCqrQ2YcPBsponqv2waPxVhNxcfJ5UNb6QE18h8KvrfcoVY43iqiy7Jl', 'profileName': 'Nico Duran', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwGkTmmj&amp;_nc_oc=Adl9GO9UiBSzLFU0vwHZzuuzJANIyu3XmwphpYxef7lCmrITWIztv3YEaBEokQtS_1Dsol-STwb2-aDJNRctBnLL&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=OxsHLirjGcVGB6XcNMS9AA&amp;oh=00_AffctwjbYQojL7V0VxyRU5ukEUZtFdD2IFcCUAFaXKlVzA&amp;oe=68F5AF69', 'profileId': 'pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4151489721798793', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTE0ODk3MjE3OTg3OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTUxNDg5NzIxNzk4Nzkz', 'date': '2025-10-01T12:40:50.000Z', 'text': 'Y esta publicidad es apta para menores de edad que están en las redes sociales porque no la suprimen', 'profileUrl': 'https://www.facebook.com/people/Pepito-Perez/pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal/', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/479181481_940155188269359_8538337222111634110_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=MDYEzFloVcIQ7kNvwFLFcx7&amp;_nc_oc=AdmfWDkni4xDpFetfX64yxCKbXnQprhmhYrLWiEJOE1DJ4KPFO_l056QOwSlhOmlylk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RgJ_eZuewmIlCq2AWoxZCw&amp;oh=00_AfeGR4mFIpl7yByhyZM3Sr0J2zhKXXGcPd9bN9nd75USRg&amp;oe=68F6C8A9', 'profileId': 'pfbid033txT15QtidaCTbrQzYtdNT3jFV5rYcKshPL6ckxZT4epq74iViDZQmeghgsFdLAal', 'profileName': 'Pepito Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=3txKXFsBXhAQ7kNvwH68w2J&amp;_nc_oc=Adl4keVGX-cgLmOB6TqcBPmrWtByUpapJndNEZPdqOWLhbuz4KNMq0u7bWkYMq-Lz-0&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Afd11jv0kmmQssmcdm9DMbYQZlprpbmGjdmGnHr_PtJmzg&amp;oe=68F59542', 'profileId': 'pfbid03116odaPHpEj9iGiNzbWmqw414EBs91BVzArjUNHwUuoeVJgp7Z9F7WTM7u41QrWel', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1124021699820162', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMjQwMjE2OTk4MjAxNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTI0MDIxNjk5ODIwMTYy', 'date': '2025-09-30T11:38:08.000Z', 'text': 'Este par de ridículos.. busquen oficio.', 'profileUrl': 'https://www.facebook.com/luzamparo.pinedapacheco', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/468471881_9076482259079018_1743899354802296752_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DErJfVKqWM4Q7kNvwG4PupM&amp;_nc_oc=Adnx4lYGkGQbzRvWKSL2FHBtcBAWYo6_mxhBkMre4irNx7Oh35QkEMsPxhTU6Yyji5g&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfdPrOIzjXJCPtZJYCN_U5m4L3r-mrq3rJ3j_XA-WiZeWw&amp;oe=68F6AE82', 'profileId': 'pfbid03116odaPHpEj9iGiNzbWmqw414EBs91BVzArjUNHwUuoeVJgp7Z9F7WTM7u41QrWel', 'profileName': 'Luz Amparo Pineda Pacheco', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwF5ueuO&amp;_nc_oc=Adm9LKmTdw-l5MIRv4NerjVvZmYLcm71uBkg3zcpTopxztC36_TDF5h-LgPVDV_Owt4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;oh=00_AfeePBzgSYRWNoId7xBJOctWwfstzfFmr5Ev59mlsxHJdg&amp;oe=69175EBA', 'profileId': 'pfbid02dgjUuB2jjuNiGFniz72m2Nc9sGfZoYaRFS1hMogFgHrhimZwAnHJtu1h5J3g55z9l', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1313885737197377', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMTM4ODU3MzcxOTczNzc=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzEzODg1NzM3MTk3Mzc3', 'date': '2025-09-28T12:03:32.000Z', 'text': 'La media tarde será sacando barro de la mina par de mks 😂😂😂', 'profileUrl': 'https://www.facebook.com/mont.ayala.776061', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwEj6Sh3&amp;_nc_oc=AdlgPzAuKSnwzh6dWth_D21IrqdvF82rhy6DVhdSw8FM9s7N4eRa7l5A2zpQApZH3D0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;oh=00_Afc9ot0RoUvUSl6t3BdWULfAzy6SnYcUXd5u5x2yAPZ4rg&amp;oe=691877FA', 'profileId': 'pfbid0a96Hz1QNtpuoEDzmebx1gqazuXDiB7HrR1aTtVzhW4JdfmRxWfAJdC3BcskpiWYCl', 'profileName': 'Mont Ayala', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-ord5-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YvbVLd4UEcAQ7kNvwHsRvUt&amp;_nc_oc=Adnmb_k3Os1CZcQX3A_oLIbBvQ31_1YnPs_V1ALWAqeRPKj4RIWpCuOT0hdrOf-5nJE&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-1.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Afc64RGEIok6lX7Y597Qg0l5IJtAGUbDX4YNtkzsKPKlAw&amp;oe=68F5A702', 'profileId': 'pfbid02ovBT4UG4W49qjumQi5HRpvoPYKYWKypbG9Lc27vxfXdABd6oVgaP48UDDGEwp3Fal', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1323169516095114', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzEzMjMxNjk1MTYwOTUxMTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMzIzMTY5NTE2MDk1MTE0', 'date': '2025-09-28T22:42:52.000Z', 'text': 'Partida de m47icas', 'profileUrl': 'https://www.facebook.com/miguel.angel.forero.rodriguez.2025', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/558917846_122141232866656379_4624763040287254714_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IBPiTepCeEUQ7kNvwGalmob&amp;_nc_oc=AdkJPl-IDetJ_mt7PoF2EK_9Q4MX3HmLRMU1MXIj92PiKM2VJef_9IEpbANdEqzf_Kw&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_Afe0DfQ_esh678ERzgfVJ0b27b0YWZneUSXbFNS9sf3qiA&amp;oe=68F6C042', 'profileId': 'pfbid02ovBT4UG4W49qjumQi5HRpvoPYKYWKypbG9Lc27vxfXdABd6oVgaP48UDDGEwp3Fal', 'profileName': 'Miguel Angel Forero Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwHmIUO6&amp;_nc_oc=Adm9WSNeEkQOb6Cwz3ii9r-iHSHHmR1KUzlyAPdygNGUyowydbO6tU8vS2N2ZjRThqY&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Afd5ROivswyTGNNEqDzbU_4gYlhMSUwtGneg2GwubX3TQg&amp;oe=68F5C188'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwHmIUO6&amp;_nc_oc=Adm9WSNeEkQOb6Cwz3ii9r-iHSHHmR1KUzlyAPdygNGUyowydbO6tU8vS2N2ZjRThqY&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_AffTzhYdmLo0eXR2xdMgiRymZ-WS7InYNoRrG_haWtcCNg&amp;oe=68F5C188', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwHBW3nR&amp;_nc_oc=AdmkSHW4Vh59ocRabMbm7aLglGemrens2YQbT-2iymNJej89H-bBlJmpXKs7GuoQ3Vs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Affz3Kw4H8esyRWlmHYYOGKXFd0-EI2SY0bvAVd48uEfzQ&amp;oe=68F5C831', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1990267261808828', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzE5OTAyNjcyNjE4MDg4Mjg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xOTkwMjY3MjYxODA4ODI4', 'date': '2025-09-28T18:14:15.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwFhSNhq&amp;_nc_oc=AdnJbdPmYDOmCpkJt8NDEw1e_e7feO3wzcm4SPqw5ufciq7mCGRDaz8BWZq27WDBvNI&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfepOut1ij5n5UCJznj4MZZqdNzQylOUcrM3Fp6-z8ZQRg&amp;oe=68F6DAC8'}, 'id': '1497923131479207', 'cix_screen': None, 'massive_image': {'width': 480, 'height': 619}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556103083_1497923134812540_7983573168685660312_n.jpg?stp=dst-jpg_p168x128_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-grzSRntgLkQ7kNvwFhSNhq&amp;_nc_oc=AdnJbdPmYDOmCpkJt8NDEw1e_e7feO3wzcm4SPqw5ufciq7mCGRDaz8BWZq27WDBvNI&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_Afdt0bG1K7BRiZIpOEew8_98kUStj8PU3gpIzQ8b43EOcA&amp;oe=68F6DAC8', 'width': 168, 'height': 217}, 'ocrText': "May be an image of 1 person and text that says 'El COVID no fue suficiente'"}], 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE6o73d&amp;_nc_oc=AdlD4YwcEhq7LK3EtL_CHW9-bWF50QDKeyOTMjLucgWReYvskLUkGpz26VhFHWIcr1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfdNE3fDalz4hr4bF1XeZ00do-E0FM0si-U0dZhxnNbl0Q&amp;oe=68F6A931', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwGdnGCy&amp;_nc_oc=Adn34CpUKdkXQQHu1DTO-maBCty4vpcY--UMB5Fsej-yWeU16rH3zLLI_T3UJXsm6QI&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Afdmhr6Ipt-VpN1gpxq-p17P7ZAxgzSJSNQ5cMJzbVdogA&amp;oe=68F59F00'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=elffA-7hmo8Q7kNvwGdnGCy&amp;_nc_oc=Adn34CpUKdkXQQHu1DTO-maBCty4vpcY--UMB5Fsej-yWeU16rH3zLLI_T3UJXsm6QI&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_AfcJ0SelCEBF0uLEmObZcj867lY6aem6AzYiCMWsDfHEng&amp;oe=68F59F00', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwHBW3nR&amp;_nc_oc=AdmkSHW4Vh59ocRabMbm7aLglGemrens2YQbT-2iymNJej89H-bBlJmpXKs7GuoQ3Vs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Affz3Kw4H8esyRWlmHYYOGKXFd0-EI2SY0bvAVd48uEfzQ&amp;oe=68F5C831', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2975824905936058', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI5NzU4MjQ5MDU5MzYwNTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yOTc1ODI0OTA1OTM2MDU4', 'date': '2025-09-28T18:15:44.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ehi04exF4wgQ7kNvwGAUMlM&amp;_nc_oc=AdkRe3NA9zdJCHXMZ4W0QRWyKY8p-8l4wnE0oAvRYt5XzgQw8KbEn9RrbTsDa_g_-aA&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AffpoDYIeP-6kfx8XZVhiQzjw1IiJDqnG7YME4SreYwpIA&amp;oe=68F6B840'}, 'id': '1497924078145779', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 667}, 'image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/555432204_1497924081479112_8264987040095509090_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ehi04exF4wgQ7kNvwGAUMlM&amp;_nc_oc=AdkRe3NA9zdJCHXMZ4W0QRWyKY8p-8l4wnE0oAvRYt5XzgQw8KbEn9RrbTsDa_g_-aA&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfcvYAh3GnxQIhNa6Ow_4HUWsEfwE_Wk_-EAyrjk6zd5pQ&amp;oe=68F6B840', 'width': 261, 'height': 181}, 'ocrText': "May be an image of 1 person and text that says 'sigues publicando pendejadas y te te hecho agua bendlta hirvlendo enel enelcuio cuiO 一包編'"}], 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE6o73d&amp;_nc_oc=AdlD4YwcEhq7LK3EtL_CHW9-bWF50QDKeyOTMjLucgWReYvskLUkGpz26VhFHWIcr1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfdNE3fDalz4hr4bF1XeZ00do-E0FM0si-U0dZhxnNbl0Q&amp;oe=68F6A931', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/560344069_122146980734700230_6426573476943952853_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5q0wFrdkkekQ7kNvwHLb62p&amp;_nc_oc=Adm3FMuvqfq3bFwxmbeMIyNpFDC6zhbSTmP5_StdWmRdXD-aLoqcv16sCkr7Uo025nY&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_AfdQsQdS4R0qGqQ2Tuna2rycQ2Y-uGjbPm_5mhQlWEUU_A&amp;oe=68F5B408', 'profileId': 'pfbid02S2qCirya4cqP8HrnfQ4rkX8ya2s7gA7azRAEcRKv9ZNHLhTMhRpKFLsD5VfNCBu4l', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=4159936777653773', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzQxNTk5MzY3Nzc2NTM3NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF80MTU5OTM2Nzc3NjUzNzcz', 'date': '2025-09-29T08:08:31.000Z', 'text': 'Locas cochinas', 'profileUrl': 'https://www.facebook.com/Grupo.adulto.mayor.alas.de.libertad', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/560344069_122146980734700230_6426573476943952853_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5q0wFrdkkekQ7kNvwFLHsFm&amp;_nc_oc=Adm-goVty606lH8spApWGXGrD2hmc8CXnuxFixT_NGMUIWbo-HfZrylOA7ydKQZkfpg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_Aff3H4sQ7jyiGD3HSxhS4H8wR8QRwyX_7cCFBfFdBMunKQ&amp;oe=68F6CD48', 'profileId': 'pfbid0NVC1ohMDDH47aZemp1FfGsZbJBEVBcS7of6ANwtKrotQiWneF8k11qKXDzYJAj5Rl', 'profileName': 'Alas Libertad', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-ord5-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0F90YT-5Z-0Q7kNvwEGZgtR&amp;_nc_oc=AdlIxFCnXwPYgz_ohipAuJ35gEofx7xkwoCkFy1cfLoswNzz4Yii9VuCvK1SAZourEw&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-2.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Afc6B7SiwDzOxZwslOYviU_Q-u0pWb-F7_BQphBlHhXO4w&amp;oe=68F597CB', 'profileId': 'pfbid0bZDaRBKoBu31docuQSjRSx1HmjrUC9fqHt1x2eff4XVFFSAEVySmk8TyQBsEVx6Ml', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25180456701560224', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1MTgwNDU2NzAxNTYwMjI0', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTE4MDQ1NjcwMTU2MDIyNA==', 'date': '2025-09-28T12:30:12.000Z', 'text': '🤨?🏳️\u200d🌈', 'profileUrl': 'https://www.facebook.com/jarol15', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/487491524_3002130706628593_3340997093877985612_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=cJeoKynQ4GEQ7kNvwHXuvWj&amp;_nc_oc=Adl8nv0H5MXkWWmRIRO9KeJ4GNOSnwSv2itl-tLM5lQRGdv9U9NUMddUOGELgV-EIu4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfcwTuywslOY24wGWxGpupU6ce682HrEtiv3sw2MKatTDA&amp;oe=68F6B10B', 'profileId': 'pfbid0bZDaRBKoBu31docuQSjRSx1HmjrUC9fqHt1x2eff4XVFFSAEVySmk8TyQBsEVx6Ml', 'profileName': 'Nando Padilla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlmIf7gMySwQ7kNvwG2WB25&amp;_nc_oc=AdkNmuuzWXbymst7relA9CpACQf3D-RMlHj_A_tOEzCBb4rFjUjlgvW_OtAwS5sTVow&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_AfdOsYuy2Xw4mDSbxLotT4cSuHJFs6mLtw2cpit-5ilWLQ&amp;oe=68F5BFFA', 'profileId': 'pfbid0qWuEXkvt7xRW5dgfn7EvS5tfNcimG7T4HySnVs2UmmfKfEgomkKh5iE3DegPD35Jl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=725389530547523', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzcyNTM4OTUzMDU0NzUyMw==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83MjUzODk1MzA1NDc1MjM=', 'date': '2025-09-29T00:35:28.000Z', 'text': 'Maricones , definitivamente ya quedamos muy pocos hombres ,que asco estos manes', 'profileUrl': 'https://www.facebook.com/william.useche3', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/528072836_24208963275433409_3356479788623005324_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=HlmIf7gMySwQ7kNvwF2KxLN&amp;_nc_oc=AdmpxESC84GbwKPgDd7heXH5vHoduMTS4X_sHRW5-_4MqAWKG536suvXluGCxfVX2M0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_Aff0CdmXdVCh8XPNd3M-A2IEIIWvdFgefRWAlJkkokmC_Q&amp;oe=68F6D93A', 'profileId': 'pfbid0qWuEXkvt7xRW5dgfn7EvS5tfNcimG7T4HySnVs2UmmfKfEgomkKh5iE3DegPD35Jl', 'profileName': 'Narvaez Alexander', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yKEu2CzNlv8Q7kNvwGWTBn9&amp;_nc_oc=AdmWHoCKHk51YgspxTxwa4G9XXYb2nr6JQgA_vuQ6o3c--UpMiCJdUi_S2mvf9j9XV4&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_AfeGOs6lK37APRPSCueMBpTcR26HZwVcL2UG4aw1xidftQ&amp;oe=6917348D', 'profileId': 'pfbid0XiRp4W2TUSn41HCSeqfgwkafdE6BiZQ5qTzUXWTuA3gZgyekc2wjttPfRwHhAN73l', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2592420294424241', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1OTI0MjAyOTQ0MjQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTkyNDIwMjk0NDI0MjQx', 'date': '2025-09-29T00:55:39.000Z', 'text': 'Par de mariconas , que boleta.', 'profileUrl': 'https://www.facebook.com/salcedogil', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.6435-1/81860981_3300188499997069_4486761332640579584_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yKEu2CzNlv8Q7kNvwG9V8EG&amp;_nc_oc=AdlTYAVZfyJf4HteH78bKS3OMlPHd0SviepSzT2TXVO29wn5QMYeCW5P9XpS7WNPShI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AffPtkQunuGYYxDy8R1a6GPxxvH0Jziu6SITUzufPK8efw&amp;oe=69184DCD', 'profileId': 'pfbid02b5uzgXP5W4oVjrkoiqzgR8rQiPFNeeTENfyjz6RohD8xqgnBYKH1tedtSYQuZ2Zul', 'profileName': 'Francisco Javier Salcedo Gil', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwHyGe4I&amp;_nc_oc=AdmiUlPi42nOufllE2wV-k9rykN9jBNGRmR-jlxJBW9Kh2NXgAZcjHe_shScS0qwTQ0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Afe5XMlz9p1dtArz2G8ik1hvYb6LGOwV8uWL419RQSvxGQ&amp;oe=68F59226'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=8YOVOXNn10AQ7kNvwHyGe4I&amp;_nc_oc=AdmiUlPi42nOufllE2wV-k9rykN9jBNGRmR-jlxJBW9Kh2NXgAZcjHe_shScS0qwTQ0&amp;_nc_zt=23&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_AfefWVIjMxi-2sZc6JZ_E3RbIzrOVHlv7dOM3dLPjOyCYw&amp;oe=68F59226', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-ord5-3.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwHBW3nR&amp;_nc_oc=AdmkSHW4Vh59ocRabMbm7aLglGemrens2YQbT-2iymNJej89H-bBlJmpXKs7GuoQ3Vs&amp;_nc_zt=24&amp;_nc_ht=scontent-ord5-3.xx&amp;_nc_gid=EHRGZS8v0Pv6Wc29bPQZOw&amp;oh=00_Affz3Kw4H8esyRWlmHYYOGKXFd0-EI2SY0bvAVd48uEfzQ&amp;oe=68F5C831', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=1115450127448803', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzExMTU0NTAxMjc0NDg4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8xMTE1NDUwMTI3NDQ4ODAz', 'date': '2025-09-28T18:15:28.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=YCgruPAF2LwQ7kNvwGkARvC&amp;_nc_oc=AdncPOzPZVT73w3AhTBMFhc4H1Qt05iFncj8zByo4W-bl9lYwG8V1XL1COhw7dP5lTE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_Afd3x0E1eUB1x8prxigpg6rKtx4WHCVYez1pWeW7CsH_8w&amp;oe=68F6AB66'}, 'id': '1497923898145797', 'cix_screen': None, 'massive_image': {'width': 705, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/556461967_1497923901479130_8452422155750105080_n.jpg?stp=dst-jpg_p160x160_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=YCgruPAF2LwQ7kNvwGkARvC&amp;_nc_oc=AdncPOzPZVT73w3AhTBMFhc4H1Qt05iFncj8zByo4W-bl9lYwG8V1XL1COhw7dP5lTE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_Affl3Yn3QjMrEnn0UTLO6AwH2GzGZsKCPZThjIuJh7USyg&amp;oe=68F6AB66', 'width': 160, 'height': 218}, 'ocrText': "May be an image of 1 person and text that says 'DISCULPEN AMINIETO MI su tío abuso de él y quedó así'"}], 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/306545369_800974784507382_6898363066056846875_n.jpg?stp=c0.0.966.966a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=SEg5kfZ-x58Q7kNvwE6o73d&amp;_nc_oc=AdlD4YwcEhq7LK3EtL_CHW9-bWF50QDKeyOTMjLucgWReYvskLUkGpz26VhFHWIcr1Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=lISuslps2sXSRc9HA8pSuw&amp;oh=00_AfdNE3fDalz4hr4bF1XeZ00do-E0FM0si-U0dZhxnNbl0Q&amp;oe=68F6A931', 'profileId': '100037846043818', 'profileName': 'Delio Villegas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwFL_O-C&amp;_nc_oc=AdnzRfpOot8_4OmaBTIVvEShSvUMoPluJUmA0F1uSmP61h-vq_orY-Qx79FDbLNsj4I&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=GWoF53exXhHTWvt4NLYNJA&amp;oh=00_AfcKm065AlnN2zPz04gER1uSoz0x8M5xU0dXTtbnerW5ig&amp;oe=6917369D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=25621412470782072', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzI1NjIxNDEyNDcwNzgyMDcy', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yNTYyMTQxMjQ3MDc4MjA3Mg==', 'date': '2025-09-28T16:40:05.000Z', 'text': 'La peor publicidad', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwGVE1ZU&amp;_nc_oc=Adkm4eWWES0sPHIDhDoobhXkFgiZox4dszJ7VZRIk40SsVq8mWR-qhkaczNuVcBZUgM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=NX06nZjNi1mIV0BZHRefgQ&amp;oh=00_AfegrjXixsVn06ttbYb4nH15GOqDc0dm1zcVLSQyRvCwxA&amp;oe=69184FDD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwFL_O-C&amp;_nc_oc=AdnzRfpOot8_4OmaBTIVvEShSvUMoPluJUmA0F1uSmP61h-vq_orY-Qx79FDbLNsj4I&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=GWoF53exXhHTWvt4NLYNJA&amp;oh=00_AfcKm065AlnN2zPz04gER1uSoz0x8M5xU0dXTtbnerW5ig&amp;oe=6917369D', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=2361151597635860', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzIzNjExNTE1OTc2MzU4NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF8yMzYxMTUxNTk3NjM1ODYw', 'date': '2025-09-28T19:01:48.000Z', 'text': 'Por favor Alpina invierta mejor en su publicidad más creativo esto da asquito verlo', 'profileUrl': 'https://www.facebook.com/carlos.espinel.353', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.6435-1/191529701_1724111601094945_2815804267996123810_n.jpg?stp=c0.152.1080.1076a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=5Fe3kXuXJQIQ7kNvwGVE1ZU&amp;_nc_oc=Adkm4eWWES0sPHIDhDoobhXkFgiZox4dszJ7VZRIk40SsVq8mWR-qhkaczNuVcBZUgM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=NX06nZjNi1mIV0BZHRefgQ&amp;oh=00_AfegrjXixsVn06ttbYb4nH15GOqDc0dm1zcVLSQyRvCwxA&amp;oe=69184FDD', 'profileId': '100004883645805', 'profileName': 'Carlos Espinel', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=qNoN44kRO6YQ7kNvwFoojPW&amp;_nc_oc=AdntX6A1a-P50SCzemCpyxeuqWRYNG9-XSm2n5-AdVgHK13HS8wDMYk60Hfr36dlabM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=GWoF53exXhHTWvt4NLYNJA&amp;oh=00_AffbQAIcoyo-447y4b2fS2X_cODz3umFlTwyPMhJQZPvVg&amp;oe=68F5B80D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=788280133990231', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0Xzc4ODI4MDEzMzk5MDIzMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF83ODgyODAxMzM5OTAyMzE=', 'date': '2025-09-28T20:40:03.000Z', 'text': 'Uy no que cochinada de publicidad no apto para menores', 'profileUrl': 'https://www.facebook.com/juan.camilo.824336', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/547470750_122131490924921611_2860918326319525390_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=qNoN44kRO6YQ7kNvwE7ybhm&amp;_nc_oc=AdnU-Py6qzb9ULwE1KJEUiGu4lpCrlMXLfzLOH1TZxyZ9cF11UQJ_MrO3KS9FE6S8qs&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=NX06nZjNi1mIV0BZHRefgQ&amp;oh=00_Afd1DRvO8eJgAH6vDmD3NdhBTS4uR0TroAGUOnrPRmQMMQ&amp;oe=68F6D14D', 'profileId': '61577648330448', 'profileName': 'Juan Camilo ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UcdoNt2E0i8Q7kNvwFUDtr9&amp;_nc_oc=AdlN1i7P8F8KbmZL699qu0HOnEDBNle6GYqv6kWXowkkkJYq0APPFvSuYMxtPB4hwOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=GWoF53exXhHTWvt4NLYNJA&amp;oh=00_AfcQoNhf-q3_dCRJpl5QKiygiCtk3R7zHI59tx_jwQwPTg&amp;oe=68F5B710', 'profileId': 'pfbid02VBKdPX8yNDYruZAWNKFd8r3zQZpRgoHf27inhFFVKMBFenes8BxtY4Xuxtf8Vg4Ul', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/', 'commentUrl': 'https://www.facebook.com/reel/807363345206946/?comment_id=609155595498829', 'id': 'Y29tbWVudDoxMjMxNTA4MTI5MDIxNDI0XzYwOTE1NTU5NTQ5ODgyOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIzMTUwODEyOTAyMTQyNF82MDkxNTU1OTU0OTg4Mjk=', 'date': '2025-09-29T19:30:48.000Z', 'text': 'Locas hp. Malparidos degenerados', 'profileUrl': 'https://www.facebook.com/alveiro.vanegas.pena', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/406421525_334717535928045_5626261459106709321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=UcdoNt2E0i8Q7kNvwEaBx5G&amp;_nc_oc=Adleo4vFsUlLZYbIVSOyaRSgk0CaRpRlClejiaiUdrB6DiifOJxNm7VImxiE7SLsJ9w&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=NX06nZjNi1mIV0BZHRefgQ&amp;oh=00_AfczRFmIqMUgUI9n5wd4UslSH8r6h9oQuJnGf2b9I8JYiw&amp;oe=68F6D050', 'profileId': 'pfbid02VBKdPX8yNDYruZAWNKFd8r3zQZpRgoHf27inhFFVKMBFenes8BxtY4Xuxtf8Vg4Ul', 'profileName': 'Alveiro Vanegas Peña', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1231508129021424', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1231508129021424/'}</t>
         </is>
       </c>
     </row>
@@ -2756,18 +2756,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cuando cogen un bandido  que no tenga  apellido URIBE</t>
+          <t>Positivo para cueco</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45945.10621527778</v>
+        <v>45946.03341435185</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02:32:57</t>
+          <t>00:48:07</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2784,13 +2784,13 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl', 'commentUrl': 'https://www.facebook.com/reel/1257949836377625/?comment_id=4003781556434574', 'id': 'Y29tbWVudDoxMjQ0OTcwOTU0MzQxODA4XzQwMDM3ODE1NTY0MzQ1NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDk1NDM0MTgwOF80MDAzNzgxNTU2NDM0NTc0', 'date': '2025-10-15T02:32:57.000Z', 'text': 'Cuando cogen un bandido  que no tenga  apellido URIBE', 'profileUrl': 'https://www.facebook.com/jairodejesus.uribenarvaez', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/427451769_1087975292443767_4380092123789027321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nHxC9Y_xTPIQ7kNvwEaWum_&amp;_nc_oc=AdmDOEIm23nANH_nbOvZYyEmR_5pl29FhPjm6EYRu740R6H2IN6c2x7U5gf2rvbrOQE&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=x904_KxmK8J59YJjbGTpeQ&amp;oh=00_Afc06Br_4Xh7aBrdrRI1CJEt2oaG8sMctakAcQmgAQhsYA&amp;oe=68F5B0C2', 'profileId': 'pfbid0iVL3uQFySocbFv8iCg8c4rwY5MpkBynjGQAPHbdESJtozucun71rGZivB8T6TWFKl', 'profileName': 'Jairo De Jesus Uribe Narvaez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970954341808', 'postTitle': 'Un plan distinto diario 🤭 pero siempre con Avena @Alpina 🐮. ¡Pruébala ya!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl', 'commentUrl': 'https://www.facebook.com/reel/1257949836377625/?comment_id=1139709747702822', 'id': 'Y29tbWVudDoxMjQ0OTcwOTU0MzQxODA4XzExMzk3MDk3NDc3MDI4MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDk1NDM0MTgwOF8xMTM5NzA5NzQ3NzAyODIy', 'date': '2025-10-16T00:48:07.000Z', 'text': 'Positivo para cueco', 'profileUrl': 'https://www.facebook.com/sinpelosenlalenguaColombia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/561488139_122107488027037551_816626799129182987_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=2d3e12&amp;_nc_ohc=QjDZOMPoNuYQ7kNvwFCkidd&amp;_nc_oc=AdnZDmsKoogoMFLqH35XJYlkrD91pfO7Y15Ovgv3AFFSJ4yqlrRdyEoWHBiXvVVQ8gE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Vd99-apkNh3-eHflOgGb6A&amp;oh=00_AffUWihRly-WVxBio-CDJpb7xYINpY10UUctc-utYKLAgQ&amp;oe=68F6CB48', 'profileId': '61581126556144', 'profileName': 'Sin pelos en la legua Colombia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970954341808', 'postTitle': 'Un plan distinto diario 🤭 pero siempre con Avena @Alpina 🐮. ¡Pruébala ya!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl'}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2804,16 +2804,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02J5RGNbDmhZQPmwZ49LQe9a1PYixZYfa47ur3cPRFH6SB7zmn7cKUEzXAKu4uPxZ6l?dco_ad_id=120233417640000767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl?dco_ad_id=120233417640040767</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cuando cogen un bandido  que no tenga  apellido URIBE</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45945.10621527778</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>02:32:57</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2824,13 +2838,13 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02J5RGNbDmhZQPmwZ49LQe9a1PYixZYfa47ur3cPRFH6SB7zmn7cKUEzXAKu4uPxZ6l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl', 'commentUrl': 'https://www.facebook.com/reel/1257949836377625/?comment_id=4003781556434574', 'id': 'Y29tbWVudDoxMjQ0OTcwOTU0MzQxODA4XzQwMDM3ODE1NTY0MzQ1NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDk1NDM0MTgwOF80MDAzNzgxNTU2NDM0NTc0', 'date': '2025-10-15T02:32:57.000Z', 'text': 'Cuando cogen un bandido  que no tenga  apellido URIBE', 'profileUrl': 'https://www.facebook.com/jairodejesus.uribenarvaez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/427451769_1087975292443767_4380092123789027321_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=nHxC9Y_xTPIQ7kNvwE8X_yr&amp;_nc_oc=Adm8BoAjNWKgQLuA5j0DxGdTYnUGE5IneO3Jp7YsYUeWC4GmzaynlutPpkx42ZUn3yE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Vd99-apkNh3-eHflOgGb6A&amp;oh=00_AfeZFejKyfiRSzz61xjyJa54KHkKM1c2imn2jTq9Xcna2w&amp;oe=68F6CA02', 'profileId': 'pfbid02nLmm65BoJ8L6XES1939pCmjrC2bE3ggbZj5VxjtSmux5A771ZYcvd7Xty3ksXhYLl', 'profileName': 'Jairo De Jesus Uribe Narvaez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970954341808', 'postTitle': 'Un plan distinto diario 🤭 pero siempre con Avena @Alpina 🐮. ¡Pruébala ya!', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid022RtBGRNcwvtaFeqPpAZNM1zoPWsxoSyvTpX3iDUzDbuo9DATtjD1fxRewU7zbfnjl'}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2844,7 +2858,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02FeY97uyQGMgPn2dTL7zhj9K1PsNxcY9rYYykTDsoi2LUQdnaJA1rfaoUHKHY9m5sl?dco_ad_id=120233417640070767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02J5RGNbDmhZQPmwZ49LQe9a1PYixZYfa47ur3cPRFH6SB7zmn7cKUEzXAKu4uPxZ6l?dco_ad_id=120233417640000767</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2864,13 +2878,13 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/pfbid02FeY97uyQGMgPn2dTL7zhj9K1PsNxcY9rYYykTDsoi2LUQdnaJA1rfaoUHKHY9m5sl', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02J5RGNbDmhZQPmwZ49LQe9a1PYixZYfa47ur3cPRFH6SB7zmn7cKUEzXAKu4uPxZ6l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2884,30 +2898,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02nRaSVkknJakMLr1pbahBdWB3YrFGzcB9nGPfyvYM6JdpjygctLCTrL1WwsavLunpl?dco_ad_id=120233417640540767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02FeY97uyQGMgPn2dTL7zhj9K1PsNxcY9rYYykTDsoi2LUQdnaJA1rfaoUHKHY9m5sl?dco_ad_id=120233417640070767</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Yigurt Alpina melocoton y chocorramo</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>45945.00184027778</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>45945</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>00:02:39</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02nRaSVkknJakMLr1pbahBdWB3YrFGzcB9nGPfyvYM6JdpjygctLCTrL1WwsavLunpl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02VW77ENxD3hbfvcMjxNv35hqYeAQodeqdJKv5R4Qmg5E8NnfYwcG9zdfJDgzYjif4l?comment_id=2387978008302707', 'id': 'Y29tbWVudDoxMjQ0OTcxMjkxMDA4NDQxXzIzODc5NzgwMDgzMDI3MDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTI5MTAwODQ0MV8yMzg3OTc4MDA4MzAyNzA3', 'date': '2025-10-15T00:02:39.000Z', 'text': 'Yigurt Alpina melocoton y chocorramo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/449108218_10231816313247241_8833707168164067190_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bHMjcLx-i1MQ7kNvwEvRtcK&amp;_nc_oc=AdkZSIbjixDiCpkcyOCdgTW2lrIE7wi154oueM5SvE7HCKAl4JW8iD5ymHnQjntBZZKxToYzVtbcwH1I8Z3LQkhw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=oxS-z-EhLE4LR_EObqeU_w&amp;oh=00_AfcWzp2FajWqGckcJ0XKbRnE7slIotqyx61I-scEYGqL4A&amp;oe=68F59500', 'profileId': '1127056541', 'profileName': 'Gloris Dossa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971291008441', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02nRaSVkknJakMLr1pbahBdWB3YrFGzcB9nGPfyvYM6JdpjygctLCTrL1WwsavLunpl'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/pfbid02FeY97uyQGMgPn2dTL7zhj9K1PsNxcY9rYYykTDsoi2LUQdnaJA1rfaoUHKHY9m5sl', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2938,16 +2938,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ybCAXaLKY9ubQ7eLNEvefGr6ur7WbezUmgbUmxtmGKx5a67zRM3s39cNLSBDfAQHl?dco_ad_id=120233417640110767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02nRaSVkknJakMLr1pbahBdWB3YrFGzcB9nGPfyvYM6JdpjygctLCTrL1WwsavLunpl?dco_ad_id=120233417640540767</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yigurt Alpina melocoton y chocorramo</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45945.00184027778</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>00:02:39</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2958,13 +2972,13 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ybCAXaLKY9ubQ7eLNEvefGr6ur7WbezUmgbUmxtmGKx5a67zRM3s39cNLSBDfAQHl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02nRaSVkknJakMLr1pbahBdWB3YrFGzcB9nGPfyvYM6JdpjygctLCTrL1WwsavLunpl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0RxTvKDKrCQB3BHiJ1iLbN3Qr24KuXGEBxNV21L2c4hQea1G8rKX7VWsFEYLBnajml?comment_id=2387978008302707', 'id': 'Y29tbWVudDoxMjQ0OTcxMjkxMDA4NDQxXzIzODc5NzgwMDgzMDI3MDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTI5MTAwODQ0MV8yMzg3OTc4MDA4MzAyNzA3', 'date': '2025-10-15T00:02:39.000Z', 'text': 'Yigurt Alpina melocoton y chocorramo', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/449108218_10231816313247241_8833707168164067190_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bHMjcLx-i1MQ7kNvwG08aqE&amp;_nc_oc=AdmLqCRYLTd7w2QxnPSDu0egFBpbs6I_szOU02R9HeaXJN0AHbigEW3VGaNcJ6wMaCM&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=jnw8tFuNx-VcsSMZ35ciUw&amp;oh=00_Afeu1g3g2Nu0eP_NRLvyGTGHEiI5FIpFiMZB_RW5kEp6eg&amp;oe=68F6AE40', 'profileId': '1127056541', 'profileName': 'Gloris Dossa', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971291008441', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02nRaSVkknJakMLr1pbahBdWB3YrFGzcB9nGPfyvYM6JdpjygctLCTrL1WwsavLunpl'}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2978,7 +2992,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid034hb9Tcgf8fNPvajC1QAoyuS7i91FdvBQCMSrvCkhrLda5uBX7FP3ensWhnoBJgbPl?dco_ad_id=120233417640090767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ybCAXaLKY9ubQ7eLNEvefGr6ur7WbezUmgbUmxtmGKx5a67zRM3s39cNLSBDfAQHl?dco_ad_id=120233417640110767</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2998,13 +3012,13 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/pfbid034hb9Tcgf8fNPvajC1QAoyuS7i91FdvBQCMSrvCkhrLda5uBX7FP3ensWhnoBJgbPl', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ybCAXaLKY9ubQ7eLNEvefGr6ur7WbezUmgbUmxtmGKx5a67zRM3s39cNLSBDfAQHl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3018,30 +3032,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid035nVdxMQqsW9NxddtJYAVd1LLrBaS8dgk1bBGhF9Y3uQiLNvqTCcPd6cYutzPPd9gl?dco_ad_id=120233372422600767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid034hb9Tcgf8fNPvajC1QAoyuS7i91FdvBQCMSrvCkhrLda5uBX7FP3ensWhnoBJgbPl?dco_ad_id=120233417640090767</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>M encanta la marca  de. el producto  por q llena mi nombre 🤣</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>45941.03737268518</v>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>45941</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>00:53:49</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3052,13 +3052,13 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid035nVdxMQqsW9NxddtJYAVd1LLrBaS8dgk1bBGhF9Y3uQiLNvqTCcPd6cYutzPPd9gl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02Jk5ZtLPzLpBG4MtxEtCzJzCV4tMwJhqQiUASH9ytRgQar2mHxdg5rJJ5fBgyZ4UNl?comment_id=2548260652224257', 'id': 'Y29tbWVudDoxMjQ0MTk4MTAxMDg1NzYwXzI1NDgyNjA2NTIyMjQyNTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE5ODEwMTA4NTc2MF8yNTQ4MjYwNjUyMjI0MjU3', 'date': '2025-10-11T00:53:49.000Z', 'text': 'M encanta la marca  de. el producto  por q llena mi nombre 🤣', 'profileUrl': 'https://www.facebook.com/people/Alpina-Cuervo/pfbid02aSM1Za7WJacjVpr6NPp6pyYg3K4FfNH1xmStYBC5RCL7gZpRE7KeMg1er13PgWLgl/', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwFx_n0a&amp;_nc_oc=AdlSa0xzpM3E-zwKyCS22wCUlXt3rV_Wre1DRaAnpiFR9S8n2vn7xpRcMBWQb2K3FZU&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Afclq4fqM-cYNqe_EyWhmmCiteAG8z3K2Vt12AL-b6DdNQ&amp;oe=69175EBA', 'profileId': 'pfbid02aSM1Za7WJacjVpr6NPp6pyYg3K4FfNH1xmStYBC5RCL7gZpRE7KeMg1er13PgWLgl', 'profileName': 'Alpina Cuervo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244198101085760', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid035nVdxMQqsW9NxddtJYAVd1LLrBaS8dgk1bBGhF9Y3uQiLNvqTCcPd6cYutzPPd9gl'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/pfbid034hb9Tcgf8fNPvajC1QAoyuS7i91FdvBQCMSrvCkhrLda5uBX7FP3ensWhnoBJgbPl', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3072,24 +3072,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid051W5BJG2FNRJ64njCDbs5m9oSVoaPp9mcbh6aaUqovRYCge1xi7BnNWGzxx3PUpHl?dco_ad_id=120233417640430767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid035nVdxMQqsW9NxddtJYAVd1LLrBaS8dgk1bBGhF9Y3uQiLNvqTCcPd6cYutzPPd9gl?dco_ad_id=120233372422600767</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Denle buena agua de carbón que eso los ayuda</t>
+          <t>M encanta la marca  de. el producto  por q llena mi nombre 🤣</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45942.28994212963</v>
+        <v>45941.03737268518</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>06:57:31</t>
+          <t>00:53:49</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3106,13 +3106,13 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid051W5BJG2FNRJ64njCDbs5m9oSVoaPp9mcbh6aaUqovRYCge1xi7BnNWGzxx3PUpHl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02J38Du6jQN6Gucrun5YfdV65p9QUjDaqD6SMGt15FXzZGNNQrSNj4qkSBGAosWn4rl?comment_id=1143127990592361', 'id': 'Y29tbWVudDoxMjQ0OTcwNzU0MzQxODI4XzExNDMxMjc5OTA1OTIzNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDc1NDM0MTgyOF8xMTQzMTI3OTkwNTkyMzYx', 'date': '2025-10-12T06:57:31.000Z', 'text': 'Denle buena agua de carbón que eso los ayuda', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/338535481_3359807297615376_6779200380394018853_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=X_vd5uB809QQ7kNvwGVj0Qu&amp;_nc_oc=AdlrlPIm9vylVdcEMDNRQ6RauK3VkKWob8H6GxQHo_wQ867T78P3DDo0heBMgVIUIsM&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=uDWP2FNkdeQp90ax406EAg&amp;oh=00_Aff02nJGVJSNiZ-h6SryJf4PYyzumvvYLTe1HFujxGseBw&amp;oe=68F5976D', 'profileId': 'pfbid0h5XkBbxn6VXtGozYiCA9d1zchw4P2SQeWGFtV7Y3CT9QdZNDhEfCWCke8q7nBzjHl', 'profileName': 'Yenis Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970754341828', 'postTitle': 'En la mañana, en las onces o en la pausa, Kumis siempre va con todo y nunca falla. #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid051W5BJG2FNRJ64njCDbs5m9oSVoaPp9mcbh6aaUqovRYCge1xi7BnNWGzxx3PUpHl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid035nVdxMQqsW9NxddtJYAVd1LLrBaS8dgk1bBGhF9Y3uQiLNvqTCcPd6cYutzPPd9gl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0FCSNyAmdVdwZzocDaaYXd3UrVCu8CMusvrWtexFQf788kVABYQUfPYLbJKeREfXol?comment_id=2548260652224257', 'id': 'Y29tbWVudDoxMjQ0MTk4MTAxMDg1NzYwXzI1NDgyNjA2NTIyMjQyNTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDE5ODEwMTA4NTc2MF8yNTQ4MjYwNjUyMjI0MjU3', 'date': '2025-10-11T00:53:49.000Z', 'text': 'M encanta la marca  de. el producto  por q llena mi nombre 🤣', 'profileUrl': 'https://www.facebook.com/people/Alpina-Cuervo/pfbid02aSM1Za7WJacjVpr6NPp6pyYg3K4FfNH1xmStYBC5RCL7gZpRE7KeMg1er13PgWLgl/', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwFNUt0y&amp;_nc_oc=AdmnhyGkQ5bD_7mUbzPbBY1pm7proUC07o-q9OaX6rGJPMgIEyGLA_Tg05iDw3ZQvgfsj8Rs6_JcWp2r_3DWIBg3&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;oh=00_AfdBK4xB4Qjx4JdBICfOxXiIGNDYdhW2FhMqrT8KVRH--Q&amp;oe=691877FA', 'profileId': 'pfbid02aSM1Za7WJacjVpr6NPp6pyYg3K4FfNH1xmStYBC5RCL7gZpRE7KeMg1er13PgWLgl', 'profileName': 'Alpina Cuervo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244198101085760', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid035nVdxMQqsW9NxddtJYAVd1LLrBaS8dgk1bBGhF9Y3uQiLNvqTCcPd6cYutzPPd9gl'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3126,16 +3126,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid07bStLKsV4VPYjTQT6qqHSgXnfrkMLQShTpX5PgJjjDHVjsqZQLm9CALjsG6nxUMxl?dco_ad_id=120233417640450767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid051W5BJG2FNRJ64njCDbs5m9oSVoaPp9mcbh6aaUqovRYCge1xi7BnNWGzxx3PUpHl?dco_ad_id=120233417640430767</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Denle buena agua de carbón que eso los ayuda</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45942.28994212963</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>06:57:31</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3146,13 +3160,13 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid07bStLKsV4VPYjTQT6qqHSgXnfrkMLQShTpX5PgJjjDHVjsqZQLm9CALjsG6nxUMxl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid051W5BJG2FNRJ64njCDbs5m9oSVoaPp9mcbh6aaUqovRYCge1xi7BnNWGzxx3PUpHl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EVV2yw73Wwu9KiwjBPPpdWyfaBdqguWqmzAUh9DUkVqoZP89mVnKYdPPFUyk5hNbl?comment_id=1143127990592361', 'id': 'Y29tbWVudDoxMjQ0OTcwNzU0MzQxODI4XzExNDMxMjc5OTA1OTIzNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDc1NDM0MTgyOF8xMTQzMTI3OTkwNTkyMzYx', 'date': '2025-10-12T06:57:31.000Z', 'text': 'Denle buena agua de carbón que eso los ayuda', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/338535481_3359807297615376_6779200380394018853_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1I-x7b47VJcQ7kNvwGEm-Gl&amp;_nc_oc=AdnnPerrORDptC44ZixSFQFHENp38BUP6HG45CZy0EVP3X3U-y3o4cUIKfJUYiZmMUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sea5-1.xx&amp;_nc_gid=-R8AptVJUfMlaEEJh192Qg&amp;oh=00_AfcH2YfdpxEIVMAiwl8G-HEIH3z-tWQGUdlls1-ZtZmuxA&amp;oe=68F6B0AD', 'profileId': 'pfbid02kvyTNGtbwpotHX3WYcy4HYXWTjk3DArxFvV4pkyGuVqybCYpge5PgfR79kLqC6LYl', 'profileName': 'Yenis Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970754341828', 'postTitle': 'En la mañana, en las onces o en la pausa, Kumis siempre va con todo y nunca falla. #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid051W5BJG2FNRJ64njCDbs5m9oSVoaPp9mcbh6aaUqovRYCge1xi7BnNWGzxx3PUpHl'}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3166,30 +3180,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl?dco_ad_id=120233417640060767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid07bStLKsV4VPYjTQT6qqHSgXnfrkMLQShTpX5PgJjjDHVjsqZQLm9CALjsG6nxUMxl?dco_ad_id=120233417640450767</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Hola</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>45945.12643518519</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>45945</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>03:02:04</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02xsaqgMnBpvHHPJ4JRmrdcEgF7mxoo22y6Lt42MNFsRnEYvane89963eT7mFBJHbnl?comment_id=1165678045454401', 'id': 'Y29tbWVudDoxMjQ0OTcxODA3Njc1MDU2XzExNjU2NzgwNDU0NTQ0MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTgwNzY3NTA1Nl8xMTY1Njc4MDQ1NDU0NDAx', 'date': '2025-10-15T03:02:04.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/mauricio.hernandez.536614', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/311241660_163321083014826_7170316242357934315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Lejj120FXLIQ7kNvwELwSnW&amp;_nc_oc=Adk5FpzgR0J94eRGbpvVUDqukClsq6hXFQmkWFC6iYp_7kSGvDQH1DWYJbj-5eQPmkQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=6Zl5oceAm-zpbvXAIp6-Kw&amp;oh=00_AfdO9pXpmWcVuInJh9RwcWJpnx-NfVUyK7VNOL64mN-p4A&amp;oe=68F5AD70', 'profileId': 'pfbid02sncCixEvJWKTcnu5WQXNT2zRn39wayHpmDUqSV9g8HnwVyy7PWdKkeQsSWyk7CCHl', 'profileName': 'Mauricio Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971807675056', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid07bStLKsV4VPYjTQT6qqHSgXnfrkMLQShTpX5PgJjjDHVjsqZQLm9CALjsG6nxUMxl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -3226,18 +3226,18 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ay con azúcar que pereza el azúcar ya no se usa</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45944.05842592593</v>
+        <v>45945.12643518519</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>01:24:08</t>
+          <t>03:02:04</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3254,7 +3254,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02xsaqgMnBpvHHPJ4JRmrdcEgF7mxoo22y6Lt42MNFsRnEYvane89963eT7mFBJHbnl?comment_id=781416441389443', 'id': 'Y29tbWVudDoxMjQ0OTcxODA3Njc1MDU2Xzc4MTQxNjQ0MTM4OTQ0Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTgwNzY3NTA1Nl83ODE0MTY0NDEzODk0NDM=', 'date': '2025-10-14T01:24:08.000Z', 'text': 'Ay con azúcar que pereza el azúcar ya no se usa', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/557098423_24781218384874439_2437772652752004087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kwmBr7rLa3wQ7kNvwHq7w-F&amp;_nc_oc=Adm0wejV9MchBUPf-U8un0-y8oey2jiV9RGMnTF6lt0rNynRk1WJDHD3UTSvuB2zoRI&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=6Zl5oceAm-zpbvXAIp6-Kw&amp;oh=00_Afd-_wEhCfLCmiBCvimyjzIQM0u56oE3Tde2GDXqPtLp6A&amp;oe=68F5A2FA', 'profileId': '100002388602090', 'profileName': 'Mary Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971807675056', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uKwemC9pyikuK9geZqmq3JwfFagaLu2Vc7cD53YRVCWHuJUz4skyP2WhHusz7MCol?comment_id=1165678045454401', 'id': 'Y29tbWVudDoxMjQ0OTcxODA3Njc1MDU2XzExNjU2NzgwNDU0NTQ0MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTgwNzY3NTA1Nl8xMTY1Njc4MDQ1NDU0NDAx', 'date': '2025-10-15T03:02:04.000Z', 'text': 'Hola', 'profileUrl': 'https://www.facebook.com/mauricio.hernandez.536614', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/311241660_163321083014826_7170316242357934315_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mQW61H5pWLgQ7kNvwG2ktc8&amp;_nc_oc=AdnGaiE7w4Qlp1G9ECSPi_9LX9mX2pw9ny83NVmpKKzsLY5WTsTdYZfroKNL1QTOwxw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=D1_56ThLwsfehUixvtehjg&amp;oh=00_Afe5PRmjum2HQVg2V_NYVkoZpEGMSRN96SgqOzjdPo8RJQ&amp;oe=68F6C6B0', 'profileId': 'pfbid02sncCixEvJWKTcnu5WQXNT2zRn39wayHpmDUqSV9g8HnwVyy7PWdKkeQsSWyk7CCHl', 'profileName': 'Mauricio Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971807675056', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl'}</t>
         </is>
       </c>
     </row>
@@ -3280,18 +3280,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Ay con azúcar que pereza el azúcar ya no se usa</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45943.95517361111</v>
+        <v>45944.05842592593</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>22:55:27</t>
+          <t>01:24:08</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3308,13 +3308,13 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02xsaqgMnBpvHHPJ4JRmrdcEgF7mxoo22y6Lt42MNFsRnEYvane89963eT7mFBJHbnl?comment_id=25373765325564730', 'id': 'Y29tbWVudDoxMjQ0OTcxODA3Njc1MDU2XzI1MzczNzY1MzI1NTY0NzMw', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTgwNzY3NTA1Nl8yNTM3Mzc2NTMyNTU2NDczMA==', 'date': '2025-10-13T22:55:27.000Z', 'text': 'A', 'profileUrl': 'https://www.facebook.com/santiago.millonarienxe', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/557546715_4733409200138826_7965418028079700470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=c__cKTbyKmAQ7kNvwHCHpo3&amp;_nc_oc=Adk8RGRdsn5eCn7JugonCepOGPYpEI5Ftc8BJMo2FGUp4uWpWYsSM5K4OGAZ7JFcSJE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=6Zl5oceAm-zpbvXAIp6-Kw&amp;oh=00_AfclCNHcGh5u3-BdlUtcYt3nlmI8xDs3fTAlTMYSSSETFw&amp;oe=68F5AFBF', 'profileId': '100004093772779', 'profileName': 'Santiago Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971807675056', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uKwemC9pyikuK9geZqmq3JwfFagaLu2Vc7cD53YRVCWHuJUz4skyP2WhHusz7MCol?comment_id=781416441389443', 'id': 'Y29tbWVudDoxMjQ0OTcxODA3Njc1MDU2Xzc4MTQxNjQ0MTM4OTQ0Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTgwNzY3NTA1Nl83ODE0MTY0NDEzODk0NDM=', 'date': '2025-10-14T01:24:08.000Z', 'text': 'Ay con azúcar que pereza el azúcar ya no se usa', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/557098423_24781218384874439_2437772652752004087_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=kwmBr7rLa3wQ7kNvwHjCzaf&amp;_nc_oc=Adl-kwfCoMvIrXdwzALvlM3_C3E8-Hjw20RcBbpuKAAhbMtuMOh2ZiD3mZ9Ua9imA5o&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=D1_56ThLwsfehUixvtehjg&amp;oh=00_AffTlwdSVDkYMdKqudgrBgpl8i8SZjCVG9KwPM1o2DXAuQ&amp;oe=68F6BC3A', 'profileId': '100002388602090', 'profileName': 'Mary Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971807675056', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl'}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3328,16 +3328,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0Le48QQg6oZjcCdieicDexGNW6VRmx5mKyL1j5VvHqxAofD54W7nHFUvyL2ENPfXFl?dco_ad_id=120233417640410767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl?dco_ad_id=120233417640060767</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45943.95517361111</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45943</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>22:55:27</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3348,13 +3362,13 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0Le48QQg6oZjcCdieicDexGNW6VRmx5mKyL1j5VvHqxAofD54W7nHFUvyL2ENPfXFl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0uKwemC9pyikuK9geZqmq3JwfFagaLu2Vc7cD53YRVCWHuJUz4skyP2WhHusz7MCol?comment_id=25373765325564730', 'id': 'Y29tbWVudDoxMjQ0OTcxODA3Njc1MDU2XzI1MzczNzY1MzI1NTY0NzMw', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MTgwNzY3NTA1Nl8yNTM3Mzc2NTMyNTU2NDczMA==', 'date': '2025-10-13T22:55:27.000Z', 'text': 'A', 'profileUrl': 'https://www.facebook.com/santiago.millonarienxe', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/557546715_4733409200138826_7965418028079700470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=c__cKTbyKmAQ7kNvwEsHWKS&amp;_nc_oc=Adn-x-VXKjyh_mztxK4Ln3is0vGH64_TVmjmFEImGJxPLKZv6lCs10Qt5nbX5vNGds4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=D1_56ThLwsfehUixvtehjg&amp;oh=00_Afe_0F1MEGmZy_Th54vPSkj08J7qgz0On8OruYqw2IlJQw&amp;oe=68F6C8FF', 'profileId': '100004093772779', 'profileName': 'Santiago Gonzalez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244971807675056', 'postTitle': 'Lo que parecía un break normal, pasó a ser un muuuy buen parche cuando destapaste una Avena Alpina. 🌞 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0azzzVPgHKPkqDmoKFVWumSvkMzkMPXwxG3AptAmqteBwVG6bfPnaMoAV8sZnijSZl'}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3368,30 +3382,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0LP6NPsv5TQKFjy3ySQhpKz7uDuprTZRAE26G9Eya6ip8YhY3vtrwVAwpzSyZW7wgl?dco_ad_id=120233417640030767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0Le48QQg6oZjcCdieicDexGNW6VRmx5mKyL1j5VvHqxAofD54W7nHFUvyL2ENPfXFl?dco_ad_id=120233417640410767</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>45945.21777777778</v>
-      </c>
-      <c r="H59" s="3" t="n">
-        <v>45945</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>05:13:36</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0LP6NPsv5TQKFjy3ySQhpKz7uDuprTZRAE26G9Eya6ip8YhY3vtrwVAwpzSyZW7wgl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02Gh9caPrKWPt55qYQbCfqHvLnMg8c6XnrcowZPi2KzCzcdDkx5zhbciJRxPPwF6Ctl?comment_id=1801948250513433', 'id': 'Y29tbWVudDoxMjQ0OTcwNDg3Njc1MTg4XzE4MDE5NDgyNTA1MTM0MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDQ4NzY3NTE4OF8xODAxOTQ4MjUwNTEzNDMz', 'date': '2025-10-15T05:13:36.000Z', 'text': 'Si', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/441019209_2232135163808227_4695644400957501903_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=N_nBi9I4-18Q7kNvwEZtrf6&amp;_nc_oc=Adn3REwR3K2H9H04r7OwXG8TYxRzeODCol0NuYGQ56n0nxAEZsUR6o8O3h5kRUVlETs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Awyqh7696LF46lw0EQH0Kg&amp;oh=00_AffosHEzmaVqRrVtAInmGzqY15AFg_AsXahc24G7B99UPw&amp;oe=68F5C2B1', 'profileId': 'pfbid022NVpQ8ycAoFSSNhtzLyPbCyJW2Ti71ddT1pGpazu2Pemnjj6mmzDRzmHhU1cxxRfl', 'profileName': 'Carmen Mesias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970487675188', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0LP6NPsv5TQKFjy3ySQhpKz7uDuprTZRAE26G9Eya6ip8YhY3vtrwVAwpzSyZW7wgl'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0Le48QQg6oZjcCdieicDexGNW6VRmx5mKyL1j5VvHqxAofD54W7nHFUvyL2ENPfXFl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3422,24 +3422,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl?dco_ad_id=120233417640010767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0LP6NPsv5TQKFjy3ySQhpKz7uDuprTZRAE26G9Eya6ip8YhY3vtrwVAwpzSyZW7wgl?dco_ad_id=120233417640030767</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bendiciones 🙏🏻🙏🏻</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45943.93525462963</v>
+        <v>45945.21777777778</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>22:26:46</t>
+          <t>05:13:36</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3456,7 +3456,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02rskS1dJu8bLWkNgMxKN7JDXgQvQ7dHVjSae9bN3JpdtiBpuqSMeneixKhp8dmZsel?comment_id=677794778278865', 'id': 'Y29tbWVudDoxMjQ0OTcwMzY0MzQxODY3XzY3Nzc5NDc3ODI3ODg2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDM2NDM0MTg2N182Nzc3OTQ3NzgyNzg4NjU=', 'date': '2025-10-13T22:26:46.000Z', 'text': 'Bendiciones 🙏🏻🙏🏻', 'profileUrl': 'https://www.facebook.com/jhonjairo.gonzaleznavarro.39', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.6435-1/155930639_757656271820503_3301477297858178447_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wtD0smkiE9kQ7kNvwHTlYCU&amp;_nc_oc=AdmYZaQDJMNRj96k_DXRKbj7u3BNw5J74OUUEBbI7WueBc9S1u_zj4W2t_HfyZO18LM&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=t9kMwdPlqjllkt_yPmTosA&amp;oh=00_AfdfvXZFD4R6uhgfBSOCNCuIkUyM5kni82knAX6jMZAXAA&amp;oe=69173453', 'profileId': 'pfbid0iq6YC5sBUgguanQybJypqodZYEqHfcTyQC4DK8h8fHrcMdBbka8AD57M3D8iXQyPl', 'profileName': 'Jhon Jairo Gonzalez Navarro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970364341867', 'postTitle': 'Si tus antojos pudieran hablar, elegirían Alpin una y otra vez 😋 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0LP6NPsv5TQKFjy3ySQhpKz7uDuprTZRAE26G9Eya6ip8YhY3vtrwVAwpzSyZW7wgl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0CfYu6aekqey1tvVf5mTgN7hkiWY6dUrrdPwfECa1NkVCnCBKePegzfY3GUZe6hYnl?comment_id=1801948250513433', 'id': 'Y29tbWVudDoxMjQ0OTcwNDg3Njc1MTg4XzE4MDE5NDgyNTA1MTM0MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDQ4NzY3NTE4OF8xODAxOTQ4MjUwNTEzNDMz', 'date': '2025-10-15T05:13:36.000Z', 'text': 'Si', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/441019209_2232135163808227_4695644400957501903_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=brM2K5GyrQIQ7kNvwFb47G7&amp;_nc_oc=Adl7nHVM5WUFuC8e1zcCjxZRXeyGzkJsf27MtGV1lmx6v86w6violZGG-jluBYCGzrc&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Nfh3X09LIKTtptUC97KgNg&amp;oh=00_AfeAKjm_Pz_2o2e2YxlB_AGpSB4k3thRRKCK-YlqEUXkHQ&amp;oe=68F6DBF1', 'profileId': 'pfbid036DwXaouS2B4mGzLqHFWAv3zD2FLFUtdPST8Ewcj4rHnxWr4pYxFmaeCoW4AnPoyol', 'profileName': 'Carmen Mesias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970487675188', 'postTitle': 'Un solo cambio y el combo ahora sí está bueno, con Yogurt Alpina te va a encantar🙌 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0LP6NPsv5TQKFjy3ySQhpKz7uDuprTZRAE26G9Eya6ip8YhY3vtrwVAwpzSyZW7wgl'}</t>
         </is>
       </c>
     </row>
@@ -3482,18 +3482,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Si Amén</t>
+          <t>Bendiciones 🙏🏻🙏🏻</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45945.0749537037</v>
+        <v>45943.93525462963</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>01:47:56</t>
+          <t>22:26:46</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3510,13 +3510,13 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02rskS1dJu8bLWkNgMxKN7JDXgQvQ7dHVjSae9bN3JpdtiBpuqSMeneixKhp8dmZsel?comment_id=938101915308552', 'id': 'Y29tbWVudDoxMjQ0OTcwMzY0MzQxODY3XzkzODEwMTkxNTMwODU1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDM2NDM0MTg2N185MzgxMDE5MTUzMDg1NTI=', 'date': '2025-10-15T01:47:56.000Z', 'text': 'Si Amén', 'profileUrl': 'https://www.facebook.com/mariadilia.riosperdomo.16', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/451773302_1655152915267910_6212915859102275755_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SQ9A1Q2r9doQ7kNvwFoWgKJ&amp;_nc_oc=Adk1v4rPTzM3UOnUFLSHsUeMFcLd9R6WDKrJ5sLHbfjZ40rpkVaGxgU76tUQTfR1XJ0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=t9kMwdPlqjllkt_yPmTosA&amp;oh=00_Afd3alVnqqzgV5QlgxuN7jmSgSrk-mAcrSo0FssV-4DWvA&amp;oe=68F59F0D', 'profileId': 'pfbid02ne8sX4Ys4sSnZ3tb6BxjbYsZRMRAfa8kw8JEzNfZvKtEFey5s1TAXabSnn4GGhS6l', 'profileName': 'Maria Dilia Rios Perdomo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970364341867', 'postTitle': 'Si tus antojos pudieran hablar, elegirían Alpin una y otra vez 😋 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nr9iXp7LTVEQuvcNgBXz6rbyQHYudTLyATMdKhvgoFynC2rRiXgo9QoXi3wTeXPSl?comment_id=677794778278865', 'id': 'Y29tbWVudDoxMjQ0OTcwMzY0MzQxODY3XzY3Nzc5NDc3ODI3ODg2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDM2NDM0MTg2N182Nzc3OTQ3NzgyNzg4NjU=', 'date': '2025-10-13T22:26:46.000Z', 'text': 'Bendiciones 🙏🏻🙏🏻', 'profileUrl': 'https://www.facebook.com/jhonjairo.gonzaleznavarro.39', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/155930639_757656271820503_3301477297858178447_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wtD0smkiE9kQ7kNvwHKR-Mf&amp;_nc_oc=Adn3M-_jB15seoxfH8c4US-RJXJM5e7yqqsw-XeIrZcx4CJZ2hbClfq8PAywOj8FAh8&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=qmzR-FUt_FkP8AwVVRSKZQ&amp;oh=00_Afdtk8maD2c2viu3PkkvCGb__Kgez3Nmfp-rAxllqLqduw&amp;oe=69184D93', 'profileId': 'pfbid0iq6YC5sBUgguanQybJypqodZYEqHfcTyQC4DK8h8fHrcMdBbka8AD57M3D8iXQyPl', 'profileName': 'Jhon Jairo Gonzalez Navarro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970364341867', 'postTitle': 'Si tus antojos pudieran hablar, elegirían Alpin una y otra vez 😋 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl'}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3530,16 +3530,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl?dco_ad_id=120233372150830767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl?dco_ad_id=120233417640010767</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Si Amén</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45945.0749537037</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>45945</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>01:47:56</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3550,13 +3564,13 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nr9iXp7LTVEQuvcNgBXz6rbyQHYudTLyATMdKhvgoFynC2rRiXgo9QoXi3wTeXPSl?comment_id=938101915308552', 'id': 'Y29tbWVudDoxMjQ0OTcwMzY0MzQxODY3XzkzODEwMTkxNTMwODU1Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDM2NDM0MTg2N185MzgxMDE5MTUzMDg1NTI=', 'date': '2025-10-15T01:47:56.000Z', 'text': 'Si Amén', 'profileUrl': 'https://www.facebook.com/mariadilia.riosperdomo.16', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/451773302_1655152915267910_6212915859102275755_n.jpg?stp=c0.0.600.600a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SQ9A1Q2r9doQ7kNvwEQO1xt&amp;_nc_oc=AdlpCkqQhXJDAe9DtRQKXYlRmjyemW-EYjkZFcT7V0ryGVNt4bJrHoOvHl7yMbbCF_U&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=qmzR-FUt_FkP8AwVVRSKZQ&amp;oh=00_AfdEsB4eg1sHsJn2ooUUjEnVlGt9kpPMHJZHEvyzEIq44w&amp;oe=68F6B84D', 'profileId': 'pfbid0j6VgbtvWDj927ZbDA8hr8QyqWpZx1hRC72bL9Ubm281vhaerckXHcm51UVXvxGZml', 'profileName': 'Maria Dilia Rios Perdomo', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970364341867', 'postTitle': 'Si tus antojos pudieran hablar, elegirían Alpin una y otra vez 😋 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl'}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3570,16 +3584,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0nPPpJvZTAk9Ji92nyy34A1mekB9HjbL2ojotiqjdG1MQrBvyuDyFc9UHst9yLneUl?dco_ad_id=120233371761820767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl?dco_ad_id=120233417640010767</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Deberían sacar al fin chocolate en litro 🤪🤪 para más placer</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45946.20787037037</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>45946</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>04:59:20</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3590,13 +3618,13 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0nPPpJvZTAk9Ji92nyy34A1mekB9HjbL2ojotiqjdG1MQrBvyuDyFc9UHst9yLneUl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0nr9iXp7LTVEQuvcNgBXz6rbyQHYudTLyATMdKhvgoFynC2rRiXgo9QoXi3wTeXPSl?comment_id=1334034468447031', 'id': 'Y29tbWVudDoxMjQ0OTcwMzY0MzQxODY3XzEzMzQwMzQ0Njg0NDcwMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDk3MDM2NDM0MTg2N18xMzM0MDM0NDY4NDQ3MDMx', 'date': '2025-10-16T04:59:20.000Z', 'text': 'Deberían sacar al fin chocolate en litro 🤪🤪 para más placer', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/556653020_24640341428951528_6453013673121431378_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tuHjTmWEXT4Q7kNvwEbFuXs&amp;_nc_oc=AdkzEHDEnT1BdQsKNjoOBo2ZKLIpqJQyF_Y00v4veNAxu6tOqhxR8KOQ0Ppx3pT2nQE&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=qmzR-FUt_FkP8AwVVRSKZQ&amp;oh=00_AfcRqSIRz36XAB5ngTtlNKkeSQ6cjel0R4l0fEjHKo3P_w&amp;oe=68F6C365', 'profileId': 'pfbid0opWA4PZ3Vr9v1QRZ4v5FHuSoSxsbozTEzKPu9ZidnuvuYKF7Vi4yuWCVfxC6pwLQl', 'profileName': 'Jaramillo Arango Montallantas Baterías Stiven', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244970364341867', 'postTitle': 'Si tus antojos pudieran hablar, elegirían Alpin una y otra vez 😋 #HazComboConAlpina', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MdHEzcA1GYXEEJipVD7xxvDhQSyEXJ6AvpS4XUgFjYhYFBdfMPZPbSTbL47BjAxNl'}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3610,7 +3638,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0tUoDdXF3XnyK9y7Yyzc2JZSBKoz7bFZ6chWnARxhbqRRAiLx4heaCjCKx2G6FS4Fl?dco_ad_id=120233417640020767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl?dco_ad_id=120233372150830767</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -3630,13 +3658,13 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0tUoDdXF3XnyK9y7Yyzc2JZSBKoz7bFZ6chWnARxhbqRRAiLx4heaCjCKx2G6FS4Fl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0N3R82dbJH8TK4stdDiYZPingWQpJ7eRMfk2XATEGWg2GpKDfFTJmbQ1mRbMbi9Pvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3650,7 +3678,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0upLVRR72g8wYmQfhFkEBZVGX3hVqV4gQp3VahAes9gWWFdkjLhpordeQjcTAReW6l?dco_ad_id=120233417640080767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0nPPpJvZTAk9Ji92nyy34A1mekB9HjbL2ojotiqjdG1MQrBvyuDyFc9UHst9yLneUl?dco_ad_id=120233371761820767</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -3670,13 +3698,13 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0upLVRR72g8wYmQfhFkEBZVGX3hVqV4gQp3VahAes9gWWFdkjLhpordeQjcTAReW6l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0nPPpJvZTAk9Ji92nyy34A1mekB9HjbL2ojotiqjdG1MQrBvyuDyFc9UHst9yLneUl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3690,7 +3718,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0WMUCHyMQGEqhQ1MSKyf3fWkmxkNWKTd32jngqUDKwmDTmVcQbEbdguriMpj9cSfAl?dco_ad_id=120233417640100767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0tUoDdXF3XnyK9y7Yyzc2JZSBKoz7bFZ6chWnARxhbqRRAiLx4heaCjCKx2G6FS4Fl?dco_ad_id=120233417640020767</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -3710,13 +3738,13 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/pfbid0WMUCHyMQGEqhQ1MSKyf3fWkmxkNWKTd32jngqUDKwmDTmVcQbEbdguriMpj9cSfAl', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0tUoDdXF3XnyK9y7Yyzc2JZSBKoz7bFZ6chWnARxhbqRRAiLx4heaCjCKx2G6FS4Fl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3730,7 +3758,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0YZApPYi3eGapbpDvHzvoGpQinZxZH5Hk8i4BTd7M3YE6LzCFdsNhuK5UFLLEUNjl?dco_ad_id=120233372061270767</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0upLVRR72g8wYmQfhFkEBZVGX3hVqV4gQp3VahAes9gWWFdkjLhpordeQjcTAReW6l?dco_ad_id=120233417640080767</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -3750,13 +3778,13 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0YZApPYi3eGapbpDvHzvoGpQinZxZH5Hk8i4BTd7M3YE6LzCFdsNhuK5UFLLEUNjl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0upLVRR72g8wYmQfhFkEBZVGX3hVqV4gQp3VahAes9gWWFdkjLhpordeQjcTAReW6l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3770,30 +3798,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1178692000784865/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0WMUCHyMQGEqhQ1MSKyf3fWkmxkNWKTd32jngqUDKwmDTmVcQbEbdguriMpj9cSfAl?dco_ad_id=120233417640100767</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Que delicia😋😋😋</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>45941.97695601852</v>
-      </c>
-      <c r="H68" s="3" t="n">
-        <v>45941</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>23:26:49</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3804,13 +3818,13 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1544446103578266', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1NDQ0NDYxMDM1NzgyNjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTQ0NDQ2MTAzNTc4MjY2', 'date': '2025-10-11T23:26:49.000Z', 'text': 'Que delicia😋😋😋', 'profileUrl': 'https://www.facebook.com/elizabeth.morales.72896', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/377510118_1359750654967074_7724562501414256119_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ve_bIezcI4MQ7kNvwG_kBaS&amp;_nc_oc=Adn8sM76YNjD_YdhSpxLeVLOzNwlu8oi1p2d6GRxMGTdcQLKTXNW9ybdoC7fwxxTePU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AfccyEgwJc-moTh3KpnNeS-3CJjoaodaOuJfmLEt4bPnIA&amp;oe=68F5CB9E', 'profileId': 'pfbid031pPWPLBhoAGd4jwj4UzV9MTFyfGzMmQgG57y4QjAFx9bTzhxmx9EN9AQeRbw7uArl', 'profileName': 'Elizabeth Morales', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/pfbid0WMUCHyMQGEqhQ1MSKyf3fWkmxkNWKTd32jngqUDKwmDTmVcQbEbdguriMpj9cSfAl', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3824,30 +3838,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1178692000784865/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0YZApPYi3eGapbpDvHzvoGpQinZxZH5Hk8i4BTd7M3YE6LzCFdsNhuK5UFLLEUNjl?dco_ad_id=120233372061270767</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Muy rico aquí hacemos lo mismo</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>45941.56002314815</v>
-      </c>
-      <c r="H69" s="3" t="n">
-        <v>45941</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>13:26:26</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=842629108120481', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzg0MjYyOTEwODEyMDQ4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184NDI2MjkxMDgxMjA0ODE=', 'date': '2025-10-11T13:26:26.000Z', 'text': 'Muy rico aquí hacemos lo mismo', 'profileUrl': 'https://www.facebook.com/alba.yaneth.lozano.farfan', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/537306050_779739685008021_4850422786715044767_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7zcNspDVJqoQ7kNvwE2UOx5&amp;_nc_oc=AdmXgoxtmDR_96hsvStWMMEpVF96DC54F0Fi_ZK1p7ci-RHLnFhR_QbidAslECV3vKQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AfcbPHIrrwumHDqhM5k2mCpnioDS2df9E0otMAsT0c2Wpw&amp;oe=68F59CE4', 'profileId': 'pfbid0RsfAbpqZfrSrHih9e52u91xXDm7VjDRM8sMj3Cg6aT1ZpV3Nwt1CL3Yr4gbQcRMpl', 'profileName': 'Alba Yaneth Lozano Farfan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0YZApPYi3eGapbpDvHzvoGpQinZxZH5Hk8i4BTd7M3YE6LzCFdsNhuK5UFLLEUNjl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -3884,23 +3884,23 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Amén</t>
+          <t>Que delicia😋😋😋</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45942.52907407407</v>
+        <v>45941.97695601852</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>12:41:52</t>
+          <t>23:26:49</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -3912,7 +3912,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=783140414502764', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzc4MzE0MDQxNDUwMjc2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183ODMxNDA0MTQ1MDI3NjQ=', 'date': '2025-10-12T12:41:52.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Ana-Arrieta-Ramirez/pfbid02EBaAjURqq7wUm5375yUb4hjFTVXP6xZyKq8nmdoYSUZPpvT5Hcyo1RxfqYERiQgKl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/558092926_122108635449004435_7260945072971592328_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=576YRcjg8ZoQ7kNvwHchdfD&amp;_nc_oc=Adk5eNX8J-itflgG1qzuq-tUgsnJZmz7GiPLQHHA-3A_ReuYBB20Gae0boQX3ofemfE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AfdXhCtwn8--RRV2oS8IQFNKb_1uKFxJNfqCTBeB19jYUw&amp;oe=68F5A921', 'profileId': 'pfbid02EBaAjURqq7wUm5375yUb4hjFTVXP6xZyKq8nmdoYSUZPpvT5Hcyo1RxfqYERiQgKl', 'profileName': 'Ana Arrieta Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1544446103578266', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1NDQ0NDYxMDM1NzgyNjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTQ0NDQ2MTAzNTc4MjY2', 'date': '2025-10-11T23:26:49.000Z', 'text': 'Que delicia😋😋😋', 'profileUrl': 'https://www.facebook.com/elizabeth.morales.72896', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/377510118_1359750654967074_7724562501414256119_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=ve_bIezcI4MQ7kNvwGW-nIF&amp;_nc_oc=AdnHPn0Us00gWOuYIKA9LdFe6Cv7sJGDqbbCW-227p_4YvogDV9ZD1MYkuKpqRe5ETI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AfcI9-NwDQfSo4ZpE6hYNLEMIkWMyesKjHJpW785yJoTsQ&amp;oe=68F6AC9E', 'profileId': 'pfbid0xGkKUAZLx27xHpfYEC6KNUKUVyNA84cUzHTcnCe4NFSq4XWu1c9rurNh8ofHBUD8l', 'profileName': 'Elizabeth Morales', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -3938,18 +3938,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Que uñas mas lindas tienen</t>
+          <t>Muy rico aquí hacemos lo mismo</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45943.64201388889</v>
+        <v>45941.56002314815</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>45943</v>
+        <v>45941</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>15:24:30</t>
+          <t>13:26:26</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3966,7 +3966,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1552414922415803', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1NTI0MTQ5MjI0MTU4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTUyNDE0OTIyNDE1ODAz', 'date': '2025-10-13T15:24:30.000Z', 'text': 'Que uñas mas lindas tienen', 'profileUrl': 'https://www.facebook.com/luisa.valenciagarcia.73', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t1.6435-1/94092730_674170903378221_2460992389179768832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=usAzJLAcCCQQ7kNvwEghcFd&amp;_nc_oc=AdlM4ArC4jyLa_bgzlDZhT36rt43MGEU8JLd5urH1eJ3EhAJFWnytun0-XjbdZ2tv4U&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_Afdv0mDKNArA732aYC2koG14BHiCDYOzyqiS2DQxT4yVgg&amp;oe=69176810', 'profileId': 'pfbid037N1fJxEt1GKBapVYSrQeGtvPZCH1HjQcC7WnsF7w4MVz1QZZxR7p6RFeFQme6vfkl', 'profileName': 'Luisa Valencia Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=842629108120481', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzg0MjYyOTEwODEyMDQ4MQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184NDI2MjkxMDgxMjA0ODE=', 'date': '2025-10-11T13:26:26.000Z', 'text': 'Muy rico aquí hacemos lo mismo', 'profileUrl': 'https://www.facebook.com/alba.yaneth.lozano.farfan', 'profilePicture': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-1/537306050_779739685008021_4850422786715044767_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7zcNspDVJqoQ7kNvwFXKZeY&amp;_nc_oc=Adk4itCTMQDwEJlPAX-47rfp65cZ56egxKCLvO1zuHtLpQIZbC8MtA1H3yLCQV8vaWM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AfeGegjqnst1kpFVLSw1PykRnVlBmf6eC5_7YGJRiA_djQ&amp;oe=68F6B624', 'profileId': 'pfbid02Vj6snVmPXCsV34JCbSCKUG95c2TbFS5h9uCzGao1LdYYggHGcz6eJktbwr2LqZUhl', 'profileName': 'Alba Yaneth Lozano Farfan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -3992,18 +3992,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>☺️☺️🫶🤗🤗😋😋</t>
+          <t>Amén</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45942.53140046296</v>
+        <v>45942.52907407407</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12:45:13</t>
+          <t>12:41:52</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4020,7 +4020,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=3295479787301568', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzMyOTU0Nzk3ODczMDE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18zMjk1NDc5Nzg3MzAxNTY4', 'date': '2025-10-12T12:45:13.000Z', 'text': '☺️☺️🫶🤗🤗😋😋', 'profileUrl': 'https://www.facebook.com/enith.torres.737', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/488049617_3878653239041836_5885240365111372758_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rfY7HmPxlCsQ7kNvwGAF57f&amp;_nc_oc=AdkNj_Ih5pnzzc7iK6fd7AU2ktaLP9kJ2Ea7n53Vd5a_ZtF-hk905ckuo0F0L9vHnNs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AfcAYA5Kuqo2tSYnJfiHRWDLQnU2IRmH2Dbi5flGoyXDsQ&amp;oe=68F5AAC7', 'profileId': 'pfbid0fa44ZGRJUGGksReyDwXqkYh6vmsfHncCYREYHxschih6bCfPLjm5BVYXxN3Tttqxl', 'profileName': 'Enith Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=783140414502764', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzc4MzE0MDQxNDUwMjc2NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183ODMxNDA0MTQ1MDI3NjQ=', 'date': '2025-10-12T12:41:52.000Z', 'text': 'Amén', 'profileUrl': 'https://www.facebook.com/people/Ana-Arrieta-Ramirez/pfbid02EBaAjURqq7wUm5375yUb4hjFTVXP6xZyKq8nmdoYSUZPpvT5Hcyo1RxfqYERiQgKl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/558092926_122108635449004435_7260945072971592328_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=576YRcjg8ZoQ7kNvwEuR9SM&amp;_nc_oc=Adn1LNxGoLAcGuP9e-7RyRLAjLvMQdJv3rH0kJbLBF4vmrUu9wgenG7m2b19s_U_HBU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AffNaJvGGmFpwGb0OJWyfv7b3WV6KNPgTEzGTedAy0ZeXQ&amp;oe=68F6C261', 'profileId': 'pfbid02EBaAjURqq7wUm5375yUb4hjFTVXP6xZyKq8nmdoYSUZPpvT5Hcyo1RxfqYERiQgKl', 'profileName': 'Ana Arrieta Ramirez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4046,18 +4046,18 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Que rico yo quisiera tener un marido así que me quiera y que me ayude 😍😍😍</t>
+          <t>Que uñas mas lindas tienen</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45942.6288425926</v>
+        <v>45943.64201388889</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>15:05:32</t>
+          <t>15:24:30</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4074,7 +4074,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1199680601981630', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzExOTk2ODA2MDE5ODE2MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMTk5NjgwNjAxOTgxNjMw', 'date': '2025-10-12T15:05:32.000Z', 'text': 'Que rico yo quisiera tener un marido así que me quiera y que me ayude 😍😍😍', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/474791363_2741887952684528_1666872816557947934_n.jpg?stp=c0.0.480.480a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=x97L_unjYL4Q7kNvwGMnQqi&amp;_nc_oc=AdmILlORW_pLJ7hCjZUESwfCJKvNi6pRcHu2Zt9NkdkCcoyKnbGB74OD8vVvtLFZy_M&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AffbP-Fe00ZlrlkVmL9iAeIeb8W8VHeHadBt6pOXgx1PPQ&amp;oe=68F5C950', 'profileId': 'pfbid02G3FgBJbdCpCZKyvCQpA1edbTYfXFcDbkuKQXVEBPcSEsFVPKw8No3XRnpzMSfZfFl', 'profileName': 'Crustie Elpoderoso Slbgt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1552414922415803', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1NTI0MTQ5MjI0MTU4MDM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTUyNDE0OTIyNDE1ODAz', 'date': '2025-10-13T15:24:30.000Z', 'text': 'Que uñas mas lindas tienen', 'profileUrl': 'https://www.facebook.com/luisa.valenciagarcia.73', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t1.6435-1/94092730_674170903378221_2460992389179768832_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=usAzJLAcCCQQ7kNvwFdqybh&amp;_nc_oc=AdndaJ9iODLHN6d2XwJH2m9CMsIo52uTbMBkAa8yeuPAm3u_A4Vt8NVSC1b6oPQf5Io&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_Afc2f8fTezjaTJTAW7TcrG31vl8DP2_DYqm7ebdi7j8JHA&amp;oe=69184910', 'profileId': 'pfbid023LQwq93KLSEaHvrTYhef5X3EWs61FbPZhP3psMskd3nTAoKkqUyUkTn8fBVUq2Lql', 'profileName': 'Luisa Valencia Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4100,23 +4100,23 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Uno para todos y todos para uno ...jum</t>
+          <t>☺️☺️🫶🤗🤗😋😋</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45941.04314814815</v>
+        <v>45942.53140046296</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>01:02:08</t>
+          <t>12:45:13</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -4128,7 +4128,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1582416486473444', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1ODI0MTY0ODY0NzM0NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTgyNDE2NDg2NDczNDQ0', 'date': '2025-10-11T01:02:08.000Z', 'text': 'Uno para todos y todos para uno ...jum', 'profileUrl': 'https://www.facebook.com/teresajesus.garciasalla', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwHfuvqj&amp;_nc_oc=AdlcTO_FhCPbxW73qniCWy9JztNuk6poxbDLCmfx7vNAi0S8HmpXq__UlG8NGWbR9Ds&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfeXMhL7TLz1a-8BUu3HttsSXNku0OalyJzWEGxDyQWQQg&amp;oe=69175EBA', 'profileId': 'pfbid02c957cnPmYoDECsKCso6nuB9HaxVSuKbMmAeWweb2NgWd1xgx3qgyqBDcYAdQeXDgl', 'profileName': 'Teresa Jesus Garcia Salla', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=3295479787301568', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzMyOTU0Nzk3ODczMDE1Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18zMjk1NDc5Nzg3MzAxNTY4', 'date': '2025-10-12T12:45:13.000Z', 'text': '☺️☺️🫶🤗🤗😋😋', 'profileUrl': 'https://www.facebook.com/enith.torres.737', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/488049617_3878653239041836_5885240365111372758_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=rfY7HmPxlCsQ7kNvwHNCA3E&amp;_nc_oc=Adkce0mMXH_FJXsBMXvWXeSrtkSwZ34GER76gX6XmVb1e_-XOxjdBp2bVOzfuYlpf0c&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AfeUdWHhANdGRmN936uSc67A-8JFjqE_eQNxPVMaWeo78w&amp;oe=68F6C407', 'profileId': 'pfbid02jRVmjwM8KeypzF96SNpKaeNeeaZF7Lkk5tvVTaLQ4JBUQXCHs1w6WjvHE7v9xHyBl', 'profileName': 'Enith Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4154,23 +4154,23 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mariposas</t>
+          <t>Que rico yo quisiera tener un marido así que me quiera y que me ayude 😍😍😍</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45942.49515046296</v>
+        <v>45942.6288425926</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>11:53:01</t>
+          <t>15:05:32</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4182,7 +4182,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1300026921780955', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEzMDAwMjY5MjE3ODA5NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMzAwMDI2OTIxNzgwOTU1', 'date': '2025-10-12T11:53:01.000Z', 'text': 'Mariposas', 'profileUrl': 'https://www.facebook.com/people/SC-Salazar/pfbid029yNuM5CgABioNutsJQrfgSpzZRwozYMuNzoupVYZ6UZZ5ESBxCXHKjuMWtBA13ELl/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/508169222_572837532547826_144276383411226544_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GwNwak5YO1sQ7kNvwELRFDs&amp;_nc_oc=Adka04Lq7pvuj38_Esxa-PRSozP3feUajY4aZIgBsE3iJxJ-LXe1xRKIc_xP8BqN9n8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AfefvCoKcs-Ivajw77XE9tXwxK_As501mMGXmMLHN7i-7Q&amp;oe=68F5977F', 'profileId': 'pfbid029yNuM5CgABioNutsJQrfgSpzZRwozYMuNzoupVYZ6UZZ5ESBxCXHKjuMWtBA13ELl', 'profileName': 'SC Salazar', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1199680601981630', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzExOTk2ODA2MDE5ODE2MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMTk5NjgwNjAxOTgxNjMw', 'date': '2025-10-12T15:05:32.000Z', 'text': 'Que rico yo quisiera tener un marido así que me quiera y que me ayude 😍😍😍', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/474791363_2741887952684528_1666872816557947934_n.jpg?stp=c0.0.480.480a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=Kj0P-JfPT1cQ7kNvwGpdz5z&amp;_nc_oc=AdlAs8aMRXyjoTcJ5zbKX-Z3cVqS4qgDX_UJ_FW5HorcrX72i2FgVR2wNrIstPj6wtY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_Aff7f-Q9us5p_fm9Lx9JKygHELhOs-BsGjRbCI4WUM-SSQ&amp;oe=68F6AA50', 'profileId': 'pfbid0CVcVG8yGMWJTysrHcmiUXNxzZbRHNJpfjx2UUVqCNkZbYDYHjKDU54GBLwcUoSWal', 'profileName': 'Crustie Elpoderoso Slbgt', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4208,23 +4208,23 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>soncucarones</t>
+          <t>Uno para todos y todos para uno ...jum</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45942.50466435185</v>
+        <v>45941.04314814815</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>12:06:43</t>
+          <t>01:02:08</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4236,7 +4236,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1101664368684241', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzExMDE2NjQzNjg2ODQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMTAxNjY0MzY4Njg0MjQx', 'date': '2025-10-12T12:06:43.000Z', 'text': 'soncucarones', 'profileUrl': 'https://www.facebook.com/alonso.taborda.709561', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/475922727_122175077228047945_1521640891949515060_n.jpg?stp=c0.0.526.526a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DsiEFteCraYQ7kNvwE7Jjl4&amp;_nc_oc=AdljhcrnlIOeM03A_V6Jgb9kjZs8FPB83HL2ZftEQNbQarZgc8aEiD3yFI8Dar-3eZY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_AfcqxAhXg7qg6F_VAQjxksNvAa_yCKtzoMHGVd58sfL3gA&amp;oe=68F5B565', 'profileId': 'pfbid02nUdoDRtUJCUj1RD8XKHdoYPJ97b3dz1p23KTNLxXzs4CbUWGQBiX1rK4BzqToWrCl', 'profileName': 'Alonso Taborda', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1582416486473444', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1ODI0MTY0ODY0NzM0NDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTgyNDE2NDg2NDczNDQ0', 'date': '2025-10-11T01:02:08.000Z', 'text': 'Uno para todos y todos para uno ...jum', 'profileUrl': 'https://www.facebook.com/teresajesus.garciasalla', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwGYmH07&amp;_nc_oc=AdkIzI1Jwm7sIi2anzKMruHiSdXEru_UDKBx1aoYvYF-ggJA5Tim3iCHrlxbRgZpbCo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;oh=00_AffqDFdHVIptw3nsYSRxZtLncogkcfmg_rgwKxCOXzqHlQ&amp;oe=691877FA', 'profileId': 'pfbid0YbRvhcmQhg4wkpAi6F1H55wXsGLVQLEmXqnJinWZoe7iFebiVS16TrSGSJSARCujl', 'profileName': 'Teresa Jesus Garcia Salla', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4262,23 +4262,23 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ellos si pueden decir "raritos" y no pasa nada, pero a ellos le dicen "raritos" y se ostigan y empiezan a hacer su respectivo show.</t>
+          <t>Mariposas</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45941.59541666666</v>
+        <v>45942.49515046296</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>14:17:24</t>
+          <t>11:53:01</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -4290,7 +4290,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=3758565694438195', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzM3NTg1NjU2OTQ0MzgxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18zNzU4NTY1Njk0NDM4MTk1', 'date': '2025-10-11T14:17:24.000Z', 'text': 'Ellos si pueden decir "raritos" y no pasa nada, pero a ellos le dicen "raritos" y se ostigan y empiezan a hacer su respectivo show.', 'profileUrl': 'https://www.facebook.com/jairoalberto.becerrahiguera', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/462870619_27202093852771520_3557399599622316174_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BNaXeZdK5XsQ7kNvwFT77yF&amp;_nc_oc=AdkCBZAGRHRCzQsVvB5Lb8QuD7XUSU52sD0tw9N6H0gI09LKJdrfehvCtLT6OUCt4eg&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=D9GE0oXNVX2iPbCSesoCtw&amp;oh=00_Afe1EtFzBGaLQejsU6z5hbtOYa7z17AxJ54MeNxqFCgq4g&amp;oe=68F599DA', 'profileId': '100001928170961', 'profileName': 'Alberto Becerra', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1300026921780955', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEzMDAwMjY5MjE3ODA5NTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMzAwMDI2OTIxNzgwOTU1', 'date': '2025-10-12T11:53:01.000Z', 'text': 'Mariposas', 'profileUrl': 'https://www.facebook.com/people/SC-Salazar/pfbid05wnBsG17VHBqcHcV4BDRG9VGEui9wKwBeHMnNYCyHPKCyfSiT1Ejyi5GS1jSf63Kl/', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/508169222_572837532547826_144276383411226544_n.jpg?stp=c0.0.720.720a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GwNwak5YO1sQ7kNvwFRRVOa&amp;_nc_oc=AdmQ-OYl84HMbb-4PHfoBXFkIsRwLmWS0o7M7QFXwcuQags97H1iAc8irFTh4UTii20&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AfcSP3DrE0XoCneIaOXIJifWeePwEICbOcwBpvPJwifRDw&amp;oe=68F6B0BF', 'profileId': 'pfbid05wnBsG17VHBqcHcV4BDRG9VGEui9wKwBeHMnNYCyHPKCyfSiT1Ejyi5GS1jSf63Kl', 'profileName': 'SC Salazar', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4316,23 +4316,23 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>El de marketing de Alpina es cagasten</t>
+          <t>soncucarones</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45941.87763888889</v>
+        <v>45942.50466435185</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>21:03:48</t>
+          <t>12:06:43</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K78" t="n">
@@ -4344,7 +4344,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1871468583433449', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE4NzE0Njg1ODM0MzM0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xODcxNDY4NTgzNDMzNDQ5', 'date': '2025-10-11T21:03:48.000Z', 'text': 'El de marketing de Alpina es cagasten', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/550529727_10162936882203329_7119192240894643514_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=kT4dgeSu9eoQ7kNvwEp1CfR&amp;_nc_oc=AdmL5JTh6QtbhEfBbW65Mzhj16x4LPl7Uax9gluDeTFxyFqJu6PsRg9-jjE9mFVnz_A&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AffQpAVa8kRpSe-CU8cAk08nvT9Dds8asEz3dIhg4d_GMQ&amp;oe=68F5B051', 'profileId': 'pfbid02SCLH2Vdxq99GRyFTmma6hjQZ69fKeA2BxSszHkKxASeAhfiA2d6tCt6VTLsuqUaEl', 'profileName': "Camilo D'orian", 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1101664368684241', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzExMDE2NjQzNjg2ODQyNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMTAxNjY0MzY4Njg0MjQx', 'date': '2025-10-12T12:06:43.000Z', 'text': 'soncucarones', 'profileUrl': 'https://www.facebook.com/alonso.taborda.709561', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/475922727_122175077228047945_1521640891949515060_n.jpg?stp=c0.0.526.526a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DsiEFteCraYQ7kNvwF31Ks3&amp;_nc_oc=Adn05Di3UjmH3frvnViRcYkbnALfPml3QPMU8t_-fwMhrAMZbvPD9TYeDMuuj3UNleE&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AfeqyVw2JwG8GacN7NPmYEj7mQrTCa5IcxgoA-UrnaXquw&amp;oe=68F6CEA5', 'profileId': 'pfbid02nUdoDRtUJCUj1RD8XKHdoYPJ97b3dz1p23KTNLxXzs4CbUWGQBiX1rK4BzqToWrCl', 'profileName': 'Alonso Taborda', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4370,23 +4370,23 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Que tal?</t>
+          <t>Ellos si pueden decir "raritos" y no pasa nada, pero a ellos le dicen "raritos" y se ostigan y empiezan a hacer su respectivo show.</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45941.96579861111</v>
+        <v>45941.59541666666</v>
       </c>
       <c r="H79" s="3" t="n">
         <v>45941</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>23:10:45</t>
+          <t>14:17:24</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -4398,7 +4398,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=824665253249922', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzgyNDY2NTI1MzI0OTkyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184MjQ2NjUyNTMyNDk5MjI=', 'date': '2025-10-11T23:10:45.000Z', 'text': 'Que tal?', 'profileUrl': 'https://www.facebook.com/pachita.kkaedv.de.castro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/559212107_795658633208356_2904535387053357013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bzleHUg5zpoQ7kNvwH2YUsi&amp;_nc_oc=Adnn7E2QQENulC5Si15CfrkL8tN8PUfruoj767VeikGl2NhY548q-ogYwNb6uZXyMq4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfeKNH2uEbQ5BvWfr3SA_yMwuT8vbeIgSJD4UCxoM0eVSw&amp;oe=68F5A377', 'profileId': '100082926798839', 'profileName': 'Pachita Kkaedv de Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=3758565694438195', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzM3NTg1NjU2OTQ0MzgxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18zNzU4NTY1Njk0NDM4MTk1', 'date': '2025-10-11T14:17:24.000Z', 'text': 'Ellos si pueden decir "raritos" y no pasa nada, pero a ellos le dicen "raritos" y se ostigan y empiezan a hacer su respectivo show.', 'profileUrl': 'https://www.facebook.com/jairoalberto.becerrahiguera', 'profilePicture': 'https://scontent-mia3-1.xx.fbcdn.net/v/t39.30808-1/462870619_27202093852771520_3557399599622316174_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BNaXeZdK5XsQ7kNvwHd0fvx&amp;_nc_oc=Adm1EZEoJqS2gXBDCSrNbX6NeBH55cmQcwSYZ0iQVAsxtYL9uZQi5glgFe8xbwZTgsA&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-1.xx&amp;_nc_gid=_LEAJcVC2sJTMrWO2Yz0oA&amp;oh=00_AffPqbmFeDgSjwcqXoiEq19-Hjzt7hG6CpUGaqJlJIOukQ&amp;oe=68F6B31A', 'profileId': '100001928170961', 'profileName': 'Alberto Becerra', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4424,23 +4424,23 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Miré los votó de pertrllia</t>
+          <t>El de marketing de Alpina es cagasten</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45942.88768518518</v>
+        <v>45941.87763888889</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>21:18:16</t>
+          <t>21:03:48</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -4452,7 +4452,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=832484179335090', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzgzMjQ4NDE3OTMzNTA5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184MzI0ODQxNzkzMzUwOTA=', 'date': '2025-10-12T21:18:16.000Z', 'text': 'Miré los votó de pertrllia', 'profileUrl': 'https://www.facebook.com/rafaelenrique.gutierrez.18', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/543428520_1649836409027708_87636662507365428_n.webp?stp=c0.13.405.405a_cp0_dst-png_s32x32&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3Ysnv6IyvcQ7kNvwFRHgZz&amp;_nc_oc=AdkdvVDsYEwUgg8xtZrrN9TKb1J8IAguVYvlQaHDg5itTRNGM2GnxOyVTxRoUTMIXUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfddR2dsQSB4vxuRfLCcW5DCqC_bj7p_k3zYumC-rN8tgA&amp;oe=68F598B7', 'profileId': 'pfbid0QQoWAMQgKzwjpL5BvugzX1D5ZBBuPnmZywG3GBXqif3kTLM3bn8bzwToPqeBT5uKl', 'profileName': 'Rafael Enrique Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1871468583433449', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE4NzE0Njg1ODM0MzM0NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xODcxNDY4NTgzNDMzNDQ5', 'date': '2025-10-11T21:03:48.000Z', 'text': 'El de marketing de Alpina es cagasten', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/550529727_10162936882203329_7119192240894643514_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0GdqCQwsgZwQ7kNvwGKPWgg&amp;_nc_oc=AdkMR5eyHIlzmueilbCVYtD-QzYKEVBpxuANHaNWyEajMJyY7eLk-n1URJpoTvo5lPc&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AfeyKLNi3yM9JursJPtNtG49ReVg5Yf8yg8F6kOAhsBN8A&amp;oe=68F6C991', 'profileId': 'pfbid0Neh67L1byoVhxtSfMmPAWCiFLQ7APbHW711SLGb8GrUjqmLiE2EhTGTrYDVnX4dWl', 'profileName': "Camilo D'orian", 'likesCount': '5', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4478,18 +4478,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Cacorros</t>
+          <t>Que tal?</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45942.85234953704</v>
+        <v>45941.96579861111</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20:27:23</t>
+          <t>23:10:45</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4506,7 +4506,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=781251071443654', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzc4MTI1MTA3MTQ0MzY1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183ODEyNTEwNzE0NDM2NTQ=', 'date': '2025-10-12T20:27:23.000Z', 'text': 'Cacorros', 'profileUrl': 'https://www.facebook.com/edy.porras.garcia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/482027582_657654826931612_4126054256895158013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjicD34ovW4Q7kNvwGirnCN&amp;_nc_oc=Admmik1M-gLGoO7Uzj2YP9BseyPRL-yrBNY4hQtHcmpDQ6PNtK1v6hzLsgas7owLFL4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfecRpKad_k3Ix8TXFV7FOAYchFjU5uG-bRA-_Y81BSfgw&amp;oe=68F5C115', 'profileId': 'pfbid06mqBRxokHtQmvKaDQ3WVf8xYuaxyfUwnZi3wN81kC9bMQ5vNBUhNP3i5Z8wC6Zmgl', 'profileName': 'Edy Porras Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=824665253249922', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzgyNDY2NTI1MzI0OTkyMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184MjQ2NjUyNTMyNDk5MjI=', 'date': '2025-10-11T23:10:45.000Z', 'text': 'Que tal?', 'profileUrl': 'https://www.facebook.com/pachita.kkaedv.de.castro', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/559212107_795658633208356_2904535387053357013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bzleHUg5zpoQ7kNvwHysWTn&amp;_nc_oc=AdkKLxa_GRcQ2BW7wejzd5p4DQLsgVY0B-En7T-a5j8VJ4chdedo4rSxUp76Rr7lv9g&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_Afc_u26tzxDMNar72XxLHJXJ7Sn4KiFe-xU7zCS1nzSilg&amp;oe=68F6BCB7', 'profileId': '100082926798839', 'profileName': 'Pachita Kkaedv de Castro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4532,18 +4532,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Que pereza estos manes</t>
+          <t>Miré los votó de pertrllia</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45943.59202546296</v>
+        <v>45942.88768518518</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45943</v>
+        <v>45942</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>14:12:31</t>
+          <t>21:18:16</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4560,7 +4560,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=584226838113894', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzU4NDIyNjgzODExMzg5NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM181ODQyMjY4MzgxMTM4OTQ=', 'date': '2025-10-13T14:12:31.000Z', 'text': 'Que pereza estos manes', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/556062752_10237794240171418_2041985993110129915_n.jpg?stp=c0.0.940.940a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IN7eET2HcJsQ7kNvwH7pIMn&amp;_nc_oc=Adn2m5WbpHI_VNmVoozfjNT-l6Xs4RYDlosWLGYUTBg95hb8hNsZHxh93VAgzvsOAiw&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfcJUmE9yoVMhd50OF8OGI5pMZ3Ny6dGcgCPzzxWYvsLqg&amp;oe=68F5BBD5', 'profileId': 'pfbid0JBKNWksmGBkFCVQvwEwQRVYvgJE7Zw3e7yWp9HUWo1S9Anqu3U8SaUzXosf2LSQRl', 'profileName': 'Jonathan Steven AF', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=832484179335090', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzgzMjQ4NDE3OTMzNTA5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184MzI0ODQxNzkzMzUwOTA=', 'date': '2025-10-12T21:18:16.000Z', 'text': 'Miré los votó de pertrllia', 'profileUrl': 'https://www.facebook.com/rafaelenrique.gutierrez.18', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/543428520_1649836409027708_87636662507365428_n.webp?stp=c0.13.405.405a_cp0_dst-png_s32x32&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=B3Ysnv6IyvcQ7kNvwHrLebz&amp;_nc_oc=AdnbAhtusBV7iqQLIJDUrPkQ9H0ZRwX__NqtOrISxVWdbbPlDZ0QGIdbU66PAeDEXus&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AfcCUXLbM9dG6KWWq4ir8nERQIf3IoDCJrSilgVyxr_0CA&amp;oe=68F6B1F7', 'profileId': 'pfbid02UGFDM2LWBMr7LQ6eAnkcxToE4G2jpcjfo5zmJ2NcdWzpf5QDkjo4TDKVWkbG9zLjl', 'profileName': 'Rafael Enrique Gutierrez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4586,18 +4586,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Culo es la mujer deben delicados les tengo un taladro</t>
+          <t>Cacorros</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45942.51831018519</v>
+        <v>45942.85234953704</v>
       </c>
       <c r="H83" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>12:26:22</t>
+          <t>20:27:23</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4614,7 +4614,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=3645667812232375', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzM2NDU2Njc4MTIyMzIzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18zNjQ1NjY3ODEyMjMyMzc1', 'date': '2025-10-12T12:26:22.000Z', 'text': 'Culo es la mujer deben delicados les tengo un taladro', 'profileUrl': 'https://www.facebook.com/alexandee.mendoza.16', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/548217516_1321770336129927_5610184464844635238_n.webp?stp=c0.0.540.540a_cp0_dst-png_s32x32&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DJr7bXu82TcQ7kNvwEoWy_r&amp;_nc_oc=AdnYV_MPQJ_uHuHh2GduHXAeNa4-DCztanVs-t3SGqeT5CXN_MUO2ZH0C-csUZIxLdA&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfdjCNqpDIF93TBNXdq4hutgIjdqlgwiHoXcPz-GY3VPTw&amp;oe=68F5B25B', 'profileId': 'pfbid02bRMRx8Sm56Jm3uU9WLZi5eXa8dYYT1pnkxr3CL1ZVoeKms8GQzwTUS4aCpFwTsMBl', 'profileName': 'Alexandee Mendoza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=781251071443654', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzc4MTI1MTA3MTQ0MzY1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183ODEyNTEwNzE0NDM2NTQ=', 'date': '2025-10-12T20:27:23.000Z', 'text': 'Cacorros', 'profileUrl': 'https://www.facebook.com/edy.porras.garcia', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/482027582_657654826931612_4126054256895158013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=EjicD34ovW4Q7kNvwGjNO8q&amp;_nc_oc=AdkAAJUcf_lX1IsxGEWSQNPS-MzLsqD3z5MGP05Bd5ggm4NldVz9p3HtJZ_peYGU4qI&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AfeaRy53p-UAWzWoIPPau7fE2v8pdsdFUGDw_af_cpyn1w&amp;oe=68F6DA55', 'profileId': 'pfbid02A9KN3zANKRPTd3KqA8ay5EGn8b8gCbiajev1k5PenRDgwdigqHtfzVAQJeC1JyfEl', 'profileName': 'Edy Porras Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4640,18 +4640,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vea pues</t>
+          <t>Que pereza estos manes</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45941.04291666667</v>
+        <v>45943.59202546296</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>01:01:48</t>
+          <t>14:12:31</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4668,7 +4668,7 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=4346662632322087', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzQzNDY2NjI2MzIzMjIwODc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM180MzQ2NjYyNjMyMzIyMDg3', 'date': '2025-10-11T01:01:48.000Z', 'text': 'Vea pues', 'profileUrl': 'https://www.facebook.com/teresajesus.garciasalla', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwGx3Tha&amp;_nc_oc=AdkNWrHhomuA4uV7MtbtseXODu5uWUhPfok9KchdReJxYGfjVvOq8l0dIncM-vb3-9w&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_Afc3J8zqbwki7UVF6Iukhbi18qLMhtAJu8O-OW3VOxpt7Q&amp;oe=69175EBA', 'profileId': 'pfbid02c957cnPmYoDECsKCso6nuB9HaxVSuKbMmAeWweb2NgWd1xgx3qgyqBDcYAdQeXDgl', 'profileName': 'Teresa Jesus Garcia Salla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=584226838113894', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzU4NDIyNjgzODExMzg5NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM181ODQyMjY4MzgxMTM4OTQ=', 'date': '2025-10-13T14:12:31.000Z', 'text': 'Que pereza estos manes', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/556062752_10237794240171418_2041985993110129915_n.jpg?stp=c0.0.940.940a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=IN7eET2HcJsQ7kNvwEG8w6W&amp;_nc_oc=AdnbUNczTkuVQ5pl9vcKSo1L6Ar0MCWdGlkpxK6tZ1Ffn8cUU9FjMk8lI3CrOwmlHx4&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AffQG8JhPXAJffjQtV0GBeoiWml8nTEZ3RWPJHOBmQcIxw&amp;oe=68F6D515', 'profileId': 'pfbid0JBKNWksmGBkFCVQvwEwQRVYvgJE7Zw3e7yWp9HUWo1S9Anqu3U8SaUzXosf2LSQRl', 'profileName': 'Jonathan Steven AF', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4694,23 +4694,23 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Al de marketing le gusta la leche y no de vaca.</t>
+          <t>Culo es la mujer deben delicados les tengo un taladro</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45942.14918981482</v>
+        <v>45942.51831018519</v>
       </c>
       <c r="H85" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>03:34:50</t>
+          <t>12:26:22</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K85" t="n">
@@ -4722,7 +4722,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1361088752109885', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEzNjEwODg3NTIxMDk4ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMzYxMDg4NzUyMTA5ODg1', 'date': '2025-10-12T03:34:50.000Z', 'text': 'Al de marketing le gusta la leche y no de vaca.', 'profileUrl': 'https://www.facebook.com/jairoalberto.becerrahiguera', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/462870619_27202093852771520_3557399599622316174_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BNaXeZdK5XsQ7kNvwEAiEC2&amp;_nc_oc=Admt6ua93yAuPbkd49vg29011tkiXWdaf8xNxm1dbwpqFmK1U-zR9m_Ge99b-9dUIZg&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_Aff04wZRC5vc-YIJs-d13rWhdPD9DSctWcwnlfhuLXkBOQ&amp;oe=68F599DA', 'profileId': '100001928170961', 'profileName': 'Alberto Becerra', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=3645667812232375', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzM2NDU2Njc4MTIyMzIzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18zNjQ1NjY3ODEyMjMyMzc1', 'date': '2025-10-12T12:26:22.000Z', 'text': 'Culo es la mujer deben delicados les tengo un taladro', 'profileUrl': 'https://www.facebook.com/alexandee.mendoza.16', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/548217516_1321770336129927_5610184464844635238_n.webp?stp=c0.0.540.540a_cp0_dst-png_s32x32&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=DJr7bXu82TcQ7kNvwH2UQtJ&amp;_nc_oc=AdmG3uOtEhxCT4VhZTgDBeHAFmKLmV7so2ClhRynLmBbFkCz4tvZ54K0cE0qCLjnbpY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AffS9TZxXaZQu4VTZeHxW2-nxIONksi4U9u54nHwXhOzQg&amp;oe=68F6CB9B', 'profileId': 'pfbid0XPkiUKFCQFLmR1MjbxLsfDwiPqpmo5mU6M6mTffzVtytox7MGP3mRMBMFcXb4Wmyl', 'profileName': 'Alexandee Mendoza', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4748,24 +4748,23 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>No c
-Austen que eso hay de todo hombres y mujeres asi esta la vaina caray</t>
+          <t>Vea pues</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45942.52979166667</v>
+        <v>45941.04291666667</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>12:42:54</t>
+          <t>01:01:48</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K86" t="n">
@@ -4777,7 +4776,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=610133118782413', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzYxMDEzMzExODc4MjQxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM182MTAxMzMxMTg3ODI0MTM=', 'date': '2025-10-12T12:42:54.000Z', 'text': 'No c\nAusten que eso hay de todo hombres y mujeres asi esta la vaina caray', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/556587985_823264443509930_1900915768462848883_n.jpg?stp=c0.0.1224.1224a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5eDOzpUXN08Q7kNvwH3VAok&amp;_nc_oc=AdmpARJUr2dJtihSWjXYntX0YD6UbWru5ASm6lNN2o9FFNTJL-hYUwEjaPVbAc6pkZI&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfdNbRs0sxyMHxXKF58-Cn4hozpVd2cIBtDU_kcy7q3-Rw&amp;oe=68F5B2B5', 'profileId': 'pfbid0ygew8vyDPKV7VyKX8W36W8yQd4kh8ujRwUxEYMf3k4w8cNYvYbc8J3jjdfUutHnDl', 'profileName': 'Toña Achipiz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=4346662632322087', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzQzNDY2NjI2MzIzMjIwODc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM180MzQ2NjYyNjMyMzIyMDg3', 'date': '2025-10-11T01:01:48.000Z', 'text': 'Vea pues', 'profileUrl': 'https://www.facebook.com/teresajesus.garciasalla', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwEDw-_G&amp;_nc_oc=AdllQvXHxj5B7VwP2WajZYNnOCOoXUty7TJqr-NZ22bZ_m0PzjOAZZEdozJ56e7KlNw&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;oh=00_AfdfDYsQOKWipMTtyudDZgWZUnRDysqt6jDg8bg1Oo4WpQ&amp;oe=691877FA', 'profileId': 'pfbid0YbRvhcmQhg4wkpAi6F1H55wXsGLVQLEmXqnJinWZoe7iFebiVS16TrSGSJSARCujl', 'profileName': 'Teresa Jesus Garcia Salla', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4803,23 +4802,23 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Esto está feo</t>
+          <t>Al de marketing le gusta la leche y no de vaca.</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45941.9658912037</v>
+        <v>45942.14918981482</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>23:10:53</t>
+          <t>03:34:50</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -4831,7 +4830,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1988191021981966', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE5ODgxOTEwMjE5ODE5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xOTg4MTkxMDIxOTgxOTY2', 'date': '2025-10-11T23:10:53.000Z', 'text': 'Esto está feo', 'profileUrl': 'https://www.facebook.com/pachita.kkaedv.de.castro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/559212107_795658633208356_2904535387053357013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bzleHUg5zpoQ7kNvwH2YUsi&amp;_nc_oc=Adnn7E2QQENulC5Si15CfrkL8tN8PUfruoj767VeikGl2NhY548q-ogYwNb6uZXyMq4&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=Pymit0XcLgsFw9W8fvUZyA&amp;oh=00_AfeKNH2uEbQ5BvWfr3SA_yMwuT8vbeIgSJD4UCxoM0eVSw&amp;oe=68F5A377', 'profileId': '100082926798839', 'profileName': 'Pachita Kkaedv de Castro', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1361088752109885', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEzNjEwODg3NTIxMDk4ODU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMzYxMDg4NzUyMTA5ODg1', 'date': '2025-10-12T03:34:50.000Z', 'text': 'Al de marketing le gusta la leche y no de vaca.', 'profileUrl': 'https://www.facebook.com/jairoalberto.becerrahiguera', 'profilePicture': 'https://scontent-lga3-1.xx.fbcdn.net/v/t39.30808-1/462870619_27202093852771520_3557399599622316174_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=BNaXeZdK5XsQ7kNvwGjpTMy&amp;_nc_oc=AdkuCrJttF4sKbV4dbTG8bNPxGUNp5kTn0J7pJq43COxNa7Xtg_uj-MU6cR3aBuCCrA&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-1.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AfcGUqgavNst_6bLrTU7cj2UJj3Rj-fQwvUriz5lU4LwbQ&amp;oe=68F6B31A', 'profileId': '100001928170961', 'profileName': 'Alberto Becerra', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4857,23 +4856,24 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Busquen mujeres par de lokas</t>
+          <t>No c
+Austen que eso hay de todo hombres y mujeres asi esta la vaina caray</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45943.93864583333</v>
+        <v>45942.52979166667</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45943</v>
+        <v>45942</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>22:31:39</t>
+          <t>12:42:54</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K88" t="n">
@@ -4885,7 +4885,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1234541551812267', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEyMzQ1NDE1NTE4MTIyNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMjM0NTQxNTUxODEyMjY3', 'date': '2025-10-13T22:31:39.000Z', 'text': 'Busquen mujeres par de lokas', 'profileUrl': 'https://www.facebook.com/alvaro.gonzalesmanrique', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/437859782_2866847680135763_6169237609457973711_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yNGkBxmT2voQ7kNvwFAGOvC&amp;_nc_oc=AdnZUCZyDxcPYwXCy_AuEpCXYSp3ZwinB6d8AGZzEvKPUPvrbsenb0OQTkhMrqOWT44&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfeOVPewwtjySrIzo6XFe0CapuKel1_2EElADcfV4vVrpQ&amp;oe=68F59E20', 'profileId': 'pfbid02kcqxPPxuzp31XgkRJe2xRXuRowUtv18ijv9tb6GE87cNc8S88yPSKjaiVaJuCcqXl', 'profileName': 'Alvaro Gonzales Manrique', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=610133118782413', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzYxMDEzMzExODc4MjQxMw==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM182MTAxMzMxMTg3ODI0MTM=', 'date': '2025-10-12T12:42:54.000Z', 'text': 'No c\nAusten que eso hay de todo hombres y mujeres asi esta la vaina caray', 'profilePicture': 'https://scontent-lga3-3.xx.fbcdn.net/v/t39.30808-1/556587985_823264443509930_1900915768462848883_n.jpg?stp=c0.0.1224.1224a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5eDOzpUXN08Q7kNvwGe1Tq0&amp;_nc_oc=AdnjjE9K9GiHW62KZJ-oqTU0ubNHRqUSUAE6J1CKeVGU-qdeX0jOxuIg3cqReGoLSrY&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-3.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_AfebPsLAsSdrRX5YSwoIGyPNzOJ9TBJzcvGYU-lyd9hkTg&amp;oe=68F6CBF5', 'profileId': 'pfbid033Y6eKbu3EtMVw4EbaY96MivTReSHwSUGGdQBAcHxBoiJaA6o2cREp3GZZSUKTgJFl', 'profileName': 'Toña Achipiz', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4911,23 +4911,23 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Y estos no estaban cancelados?</t>
+          <t>Esto está feo</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45943.69858796296</v>
+        <v>45941.9658912037</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45943</v>
+        <v>45941</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>16:45:58</t>
+          <t>23:10:53</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -4939,7 +4939,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=701594982954875', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzcwMTU5NDk4Mjk1NDg3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183MDE1OTQ5ODI5NTQ4NzU=', 'date': '2025-10-13T16:45:58.000Z', 'text': 'Y estos no estaban cancelados?', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/434176886_2607700236071443_6967886739321293629_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XwJ4rnnvmPkQ7kNvwHtTkY2&amp;_nc_oc=AdlEerhFgcvicxd1d-CwTyBkceqgKK_NuoFFdrylST3EqLeJQffYaKiphWOs5R27j2A&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfejvNnAH-NDdz_i0W3RY0rBUxfuwHqeo--kxOH6TXD_Cg&amp;oe=68F5AF5E', 'profileId': 'pfbid032K7Q4dgRxeR4nvDbCsFU7NhXXcxRwDp6T4S7CQsrYb3Q3sTBjWzU4Gr9voZn4Q8Ql', 'profileName': 'Lucian Caelum', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1988191021981966', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE5ODgxOTEwMjE5ODE5NjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xOTg4MTkxMDIxOTgxOTY2', 'date': '2025-10-11T23:10:53.000Z', 'text': 'Esto está feo', 'profileUrl': 'https://www.facebook.com/pachita.kkaedv.de.castro', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/559212107_795658633208356_2904535387053357013_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=bzleHUg5zpoQ7kNvwHysWTn&amp;_nc_oc=AdkKLxa_GRcQ2BW7wejzd5p4DQLsgVY0B-En7T-a5j8VJ4chdedo4rSxUp76Rr7lv9g&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=E2A62nxb64xbmZqfqS-Uiw&amp;oh=00_Afc_u26tzxDMNar72XxLHJXJ7Sn4KiFe-xU7zCS1nzSilg&amp;oe=68F6BCB7', 'profileId': '100082926798839', 'profileName': 'Pachita Kkaedv de Castro', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -4965,18 +4965,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Estan a tiempo de corregir sus vidas</t>
+          <t>Busquen mujeres par de lokas</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45943.97407407407</v>
+        <v>45943.93864583333</v>
       </c>
       <c r="H90" s="3" t="n">
         <v>45943</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>23:22:40</t>
+          <t>22:31:39</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4993,7 +4993,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1944683752767372', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE5NDQ2ODM3NTI3NjczNzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xOTQ0NjgzNzUyNzY3Mzcy', 'date': '2025-10-13T23:22:40.000Z', 'text': 'Estan a tiempo de corregir sus vidas', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/558985234_122154071930799729_8170997682186772453_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=vyEI6Mlcx9oQ7kNvwGDmuYt&amp;_nc_oc=AdnrHxfRFssNvoaJ-rZPBronpa4o9kLv3VEqyOIjP0nSkKYP3ot4-8PKPWR53ZTY6xs&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfePcypA2scbyE9sq8r3rSuyUXgKu0NDnpuD9RQ9fFm3OQ&amp;oe=68F5C53F'}, 'id': '122154071924799729', 'cix_screen': None, 'massive_image': {'width': 432, 'height': 960}, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-6/558985234_122154071930799729_8170997682186772453_n.jpg?stp=dst-jpg_p100x100_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=vyEI6Mlcx9oQ7kNvwGDmuYt&amp;_nc_oc=AdnrHxfRFssNvoaJ-rZPBronpa4o9kLv3VEqyOIjP0nSkKYP3ot4-8PKPWR53ZTY6xs&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfcazoXFxGVGf9RRbDOQ6NJwF7s2sV8i_fsTqE7BwsF8-Q&amp;oe=68F5C53F', 'width': 100, 'height': 222}, 'ocrText': 'May be an image of ticket stub and text'}], 'profileUrl': 'https://www.facebook.com/jospifrancho', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/508829420_122129523662799729_3249745286692439187_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GVM1ECHm7JcQ7kNvwEgnInd&amp;_nc_oc=AdmuVgo_Itm-umf0E173fglLs7J4NkGNIceXLNXWBfEaAQ_Z3j-FnjqIVJ5a9XeIeT0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AffjxuFbeSdmENfDxBa1CnwwLoyupHezE20oPIJa36pv2g&amp;oe=68F5C6BB', 'profileId': 'pfbid027pLHUFfq1kEj4Tb83LQU2uL5npE1WQyhxC13SAnH1ZMYCsxEBVw2znmW46TpiZ8Cl', 'profileName': 'Jospi Francho', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1234541551812267', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEyMzQ1NDE1NTE4MTIyNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMjM0NTQxNTUxODEyMjY3', 'date': '2025-10-13T22:31:39.000Z', 'text': 'Busquen mujeres par de lokas', 'profileUrl': 'https://www.facebook.com/alvaro.gonzalesmanrique', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/437859782_2866847680135763_6169237609457973711_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7rcIGJSQ-sgQ7kNvwF4Jrcv&amp;_nc_oc=AdmFAAtwy9FoMNrxVK41ZjE63DPNE5NdoAWQAD2E2Kxq6nt3Lqx0bUGZNKoqUd25eVs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AfdcIm5xVS10pY6z_7FYbuvN6ZCiyryQjMmd8meALviUfw&amp;oe=68F6B760', 'profileId': 'pfbid02kcqxPPxuzp31XgkRJe2xRXuRowUtv18ijv9tb6GE87cNc8S88yPSKjaiVaJuCcqXl', 'profileName': 'Alvaro Gonzales Manrique', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5019,18 +5019,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>No muestren tanto degenero</t>
+          <t>Y estos no estaban cancelados?</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45943.56054398148</v>
+        <v>45943.69858796296</v>
       </c>
       <c r="H91" s="3" t="n">
         <v>45943</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>13:27:11</t>
+          <t>16:45:58</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5047,7 +5047,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=787589387396206', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzc4NzU4OTM4NzM5NjIwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183ODc1ODkzODczOTYyMDY=', 'date': '2025-10-13T13:27:11.000Z', 'text': 'No muestren tanto degenero', 'profileUrl': 'https://www.facebook.com/people/Fernando-Espinel/pfbid0emkNFLQrqr6FotYk6JLJTVFUJrBEm443tpQZvmb77MQnGNnjkA24BQ7RdMuyr77xl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/415526588_122124887816063483_7074290949656001059_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TnmsKCJbmCcQ7kNvwFAYRQ9&amp;_nc_oc=AdkrDrGlyd71fikFcFqM2a7uUGykbc9Cx4M40A33wgsRxoAlFIstai3Q99ejZWcQMso&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfeZT66K400Vkt1wuzIadnroFFbkUxOt5rKfj4-d3G8ITQ&amp;oe=68F5C908', 'profileId': 'pfbid0emkNFLQrqr6FotYk6JLJTVFUJrBEm443tpQZvmb77MQnGNnjkA24BQ7RdMuyr77xl', 'profileName': 'Fernando Espinel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=701594982954875', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzcwMTU5NDk4Mjk1NDg3NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183MDE1OTQ5ODI5NTQ4NzU=', 'date': '2025-10-13T16:45:58.000Z', 'text': 'Y estos no estaban cancelados?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/434176886_2607700236071443_6967886739321293629_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XwJ4rnnvmPkQ7kNvwHaDyP8&amp;_nc_oc=AdlqfyE6wuscZ5TmygrEunbVsn733KcsFo7wGLAC5Ve4gQlmeEe2ADtHG38ZOloPy-Y&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AffV_tJjmQgAM2Gkh_Pb1C2TnsCQAcQkjbu66026ct2YjA&amp;oe=68F6C89E', 'profileId': 'pfbid0xmUD9U457MVgAxps8MVtqe9eMQW2hTwmutkx4kFZVEzR2EeMFhZkCeAp6P2n7yr2l', 'profileName': 'Lucian Caelum', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5073,23 +5073,23 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hasta donde se ha llegado que ahora en casi todas las publicidades aparecen 2 hombres como pareja en vez de poner una familia que pereza 😒😒🤔😵‍💫😵‍💫</t>
+          <t>Estan a tiempo de corregir sus vidas</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45941.59321759259</v>
+        <v>45943.97407407407</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>14:14:14</t>
+          <t>23:22:40</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -5101,7 +5101,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=2240275509770246', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzIyNDAyNzU1MDk3NzAyNDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18yMjQwMjc1NTA5NzcwMjQ2', 'date': '2025-10-11T14:14:14.000Z', 'text': 'Hasta donde se ha llegado que ahora en casi todas las publicidades aparecen 2 hombres como pareja en vez de poner una familia que pereza 😒😒🤔😵\u200d💫😵\u200d💫', 'profileUrl': 'https://www.facebook.com/oskr.jrb', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/432447138_3754758358096216_4642105983157288273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=eZbToFInpxIQ7kNvwEXgwa1&amp;_nc_oc=AdkvJ2F7znFyNnxI4PXWRfh8h-ZUuKG05ZL7pNzWrTyLF7bU_GS97Kcnm5CrA-fyhls&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_Afdg3w3KXR4-ZEX9THU3OToGCruNNATLzAf2p90TRMWqTQ&amp;oe=68F5A722', 'profileId': '100006862666761', 'profileName': 'Oskr Jrb', 'likesCount': '7', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1944683752767372', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE5NDQ2ODM3NTI3NjczNzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xOTQ0NjgzNzUyNzY3Mzcy', 'date': '2025-10-13T23:22:40.000Z', 'text': 'Estan a tiempo de corregir sus vidas', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/558985234_122154071930799729_8170997682186772453_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=B4Xu_8Rgix8Q7kNvwH5pPqm&amp;_nc_oc=Adk25hBz_8qdCbt4llmfK1P97Q70kKtw3kDkv3WUW_lcDq6SYEfzysk-xI7l179dYuo&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AffUqb74jYyM5dFO_sK3POuAUWp581--Maa0FUMMpg8bDw&amp;oe=68F6DE7F'}, 'id': '122154071924799729', 'cix_screen': None, 'massive_image': {'width': 432, 'height': 960}, 'image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/558985234_122154071930799729_8170997682186772453_n.jpg?stp=dst-jpg_p100x100_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=B4Xu_8Rgix8Q7kNvwH5pPqm&amp;_nc_oc=Adk25hBz_8qdCbt4llmfK1P97Q70kKtw3kDkv3WUW_lcDq6SYEfzysk-xI7l179dYuo&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AffWreZK5C_xRSL3jO8xe_C-2XqdukS9YaIHP7ZeyGBCZw&amp;oe=68F6DE7F', 'width': 100, 'height': 222}, 'ocrText': 'May be an image of ticket stub and text'}], 'profileUrl': 'https://www.facebook.com/jospifrancho', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/508829420_122129523662799729_3249745286692439187_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=GVM1ECHm7JcQ7kNvwE09NrF&amp;_nc_oc=AdnEdS4BYmhnpUsV7X6FsMWK-G5BnGSagKGcIZ7HTtiW7VUrMKNSEoVC9HhE6S_fBYQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AffFQQjMLVDWhzbHSGz3CyKQBdEGR_O8pL4EsiFyVrcghw&amp;oe=68F6DFFB', 'profileId': 'pfbid04Gh6Z63UAaeKtqVaLz8qdUm7MKBQ7gxmN63qt3vb6PS71dbBna2MEhxMhmfSJjhpl', 'profileName': 'Jospi Francho', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5127,23 +5127,23 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Que pereza esta monda, entonces ahora nos quieren meter a las malas las grandes industrias esta mamada de igualdad, pufff que asco en verdad.</t>
+          <t>No muestren tanto degenero</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45942.58825231482</v>
+        <v>45943.56054398148</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>14:07:05</t>
+          <t>13:27:11</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -5155,7 +5155,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1583962322573034', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1ODM5NjIzMjI1NzMwMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTgzOTYyMzIyNTczMDM0', 'date': '2025-10-12T14:07:05.000Z', 'text': 'Que pereza esta monda, entonces ahora nos quieren meter a las malas las grandes industrias esta mamada de igualdad, pufff que asco en verdad.', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/416854882_1423483695245228_5941021899636176736_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=thpWhonIMmoQ7kNvwFJBwtO&amp;_nc_oc=Adn4fdOhc4DiM6tW63tvZj_w8I9t6tqqm8wKm3JmXnbCB3-Db4uYi-TaQBFBKA_bjIU&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AffHc31ZkagI77O4SL6fGSwr0lj_5UvXpxE7hjB_CoO9iA&amp;oe=68F59A0B', 'profileId': 'pfbid02VdXqGAGtBGkFgN5hLTdwzxy57XBMeYtKrf3mkNyztV4M38ZECSkRK5C71fXNdLJdl', 'profileName': 'Stiven Sierra', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=787589387396206', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzc4NzU4OTM4NzM5NjIwNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM183ODc1ODkzODczOTYyMDY=', 'date': '2025-10-13T13:27:11.000Z', 'text': 'No muestren tanto degenero', 'profileUrl': 'https://www.facebook.com/people/Fernando-Espinel/pfbid02idC5S1LghJcpNishbhnzPYnRReUsLcbifyJmtx1oDUEVKdfYfdifYndrHqoEdbrMl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/415526588_122124887816063483_7074290949656001059_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=TnmsKCJbmCcQ7kNvwGc6P_M&amp;_nc_oc=AdmUAE4yrwFBR9B2fsOIlDc6oRRgM2K3nWqaqW3spuo0aNHKQm6TxOIXqQAO__dBRuc&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AfemRkp_UBMuAtZq2ORyJYpKntl5bvRegnwO2C1B74Xagw&amp;oe=68F6AA08', 'profileId': 'pfbid02idC5S1LghJcpNishbhnzPYnRReUsLcbifyJmtx1oDUEVKdfYfdifYndrHqoEdbrMl', 'profileName': 'Fernando Espinel', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5179,16 +5179,20 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ellos haciendo publicidad y la gente ya dizque ofendida  y poniendo versículos absurdos de la biblia, coman mierda y dejen vivir hijueputas aleluyos.</t>
+        </is>
+      </c>
       <c r="G94" s="2" t="n">
-        <v>45941.62851851852</v>
+        <v>45944.0625</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>45941</v>
+        <v>45944</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>15:05:04</t>
+          <t>01:30:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5205,7 +5209,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1103860408402986', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzExMDM4NjA0MDg0MDI5ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMTAzODYwNDA4NDAyOTg2', 'date': '2025-10-11T15:05:04.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling softly, nodding head forward slightly, holding one hand up to make an O symbol, with teal text above them that reads "100%".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.1997-6/558128774_24658241907119816_1639022271504480113_n.webp?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=N_ptOXytRLgQ7kNvwHGbQPu&amp;_nc_oc=AdlRwEQQQFDuzrKnQJTF1y5idWxGKKloL_R2vpS39x5WZfr7JulXL7d2lbgxyRlqMvA&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_Afeqbp1Ep0y0nZqjWOg5kIcmUy378-gEhQyphxgK0yD46w&amp;oe=68F5C09C', 'width': 120, 'height': 120}, 'id': '828202736391766'}], 'profileUrl': 'https://www.facebook.com/people/Jhojairo-Pazcuero/pfbid02SQ22zBPrAUBBb2J9tr25ENo8PrYgnQeAigmvNus7iJcrtRUb63qVqCiX8RjXto3Gl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/536270276_122134856948886563_7702428783540856257_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8xDOP8E3fR8Q7kNvwFwqNMo&amp;_nc_oc=AdkBe3zVkll_eObDqZlfbTQdNA7CPp_zTcxOgY1EeI2u22vcio2uR9qVYN_oY7morGA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfdTIVxlvymWge7dgDgxQYUqCoE3mQRDpyrO_I3THIbyXA&amp;oe=68F5C067', 'profileId': 'pfbid02SQ22zBPrAUBBb2J9tr25ENo8PrYgnQeAigmvNus7iJcrtRUb63qVqCiX8RjXto3Gl', 'profileName': 'Jhojairo Pazcuero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=806975718714170', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzgwNjk3NTcxODcxNDE3MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM184MDY5NzU3MTg3MTQxNzA=', 'date': '2025-10-14T01:30:00.000Z', 'text': 'Ellos haciendo publicidad y la gente ya dizque ofendida  y poniendo versículos absurdos de la biblia, coman mierda y dejen vivir hijueputas aleluyos.', 'profileUrl': 'https://www.facebook.com/sergio.puertas.509337', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=b224c7&amp;_nc_ohc=-ULtEZXDyDsQ7kNvwFnje2g&amp;_nc_oc=Admxde5RC3nQUVO4rRfKLSRZYZIAhLxhMzTx5POxK02lAkupnLUjAcGtRh7dSPAggPs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfchHvP3pZ4jQv7qWeUDogBwz0Bl5pO3H6ljzXiysnLWXg&amp;oe=691877FA', 'profileId': '61567025530818', 'profileName': 'Sergio Puertas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5229,21 +5233,25 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Hasta donde se ha llegado que ahora en casi todas las publicidades aparecen 2 hombres como pareja en vez de poner una familia que pereza 😒😒🤔😵‍💫😵‍💫</t>
+        </is>
+      </c>
       <c r="G95" s="2" t="n">
-        <v>45941.6283912037</v>
+        <v>45941.59321759259</v>
       </c>
       <c r="H95" s="3" t="n">
         <v>45941</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>15:04:53</t>
+          <t>14:14:14</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -5255,7 +5263,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1445329749882489', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE0NDUzMjk3NDk4ODI0ODk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNDQ1MzI5NzQ5ODgyNDg5', 'date': '2025-10-11T15:04:53.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.1997-6/557082323_24700478306283617_336172941950475493_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=-Tvu2aPCHJUQ7kNvwELSFkZ&amp;_nc_oc=AdmfCFp8zWwW1dxEvTEG0OnRa9FJk0lLlM8A1PxHaWG6o3XBxFfOHxDfjCQ1wyGPBb0&amp;_nc_zt=26&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfeLD84tU3t4Z1izGaTpCL2bCNVaqyKLhxXWzOGWdbIOfg&amp;oe=68F5BFB3', 'width': 120, 'height': 120}, 'id': '2046941765841201'}], 'profileUrl': 'https://www.facebook.com/people/Jhojairo-Pazcuero/pfbid02SQ22zBPrAUBBb2J9tr25ENo8PrYgnQeAigmvNus7iJcrtRUb63qVqCiX8RjXto3Gl/', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/536270276_122134856948886563_7702428783540856257_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8xDOP8E3fR8Q7kNvwFwqNMo&amp;_nc_oc=AdkBe3zVkll_eObDqZlfbTQdNA7CPp_zTcxOgY1EeI2u22vcio2uR9qVYN_oY7morGA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfdTIVxlvymWge7dgDgxQYUqCoE3mQRDpyrO_I3THIbyXA&amp;oe=68F5C067', 'profileId': 'pfbid02SQ22zBPrAUBBb2J9tr25ENo8PrYgnQeAigmvNus7iJcrtRUb63qVqCiX8RjXto3Gl', 'profileName': 'Jhojairo Pazcuero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=2240275509770246', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzIyNDAyNzU1MDk3NzAyNDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18yMjQwMjc1NTA5NzcwMjQ2', 'date': '2025-10-11T14:14:14.000Z', 'text': 'Hasta donde se ha llegado que ahora en casi todas las publicidades aparecen 2 hombres como pareja en vez de poner una familia que pereza 😒😒🤔😵\u200d💫😵\u200d💫', 'profileUrl': 'https://www.facebook.com/oskr.jrb', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/432447138_3754758358096216_4642105983157288273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=79KFe3c-BZcQ7kNvwF5-lt8&amp;_nc_oc=AdmxlJnC6fQuO3H6LCX2WBrrZSxu9_DVmm4TzVf4_LMgAv61qEKqNHa76pT4ou6Hbak&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_Afe9WTrOn2adDSxZaQyGwRYaMNK3h02up7Otv0mNzgWCEw&amp;oe=68F6C062', 'profileId': '100006862666761', 'profileName': 'Oskr Jrb', 'likesCount': '7', 'commentsCount': 3, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5281,23 +5289,23 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Esto si es comida de peso de varón....</t>
+          <t>Que pereza esta monda, entonces ahora nos quieren meter a las malas las grandes industrias esta mamada de igualdad, pufff que asco en verdad.</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45942.63023148148</v>
+        <v>45942.58825231482</v>
       </c>
       <c r="H96" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>15:07:32</t>
+          <t>14:07:05</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -5309,7 +5317,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=24203157709361722', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzI0MjAzMTU3NzA5MzYxNzIy', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18yNDIwMzE1NzcwOTM2MTcyMg==', 'date': '2025-10-12T15:07:32.000Z', 'text': 'Esto si es comida de peso de varón....', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/565323366_3248243675334293_509051387608534296_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-mcqkAEsWsgQ7kNvwEixBtO&amp;_nc_oc=AdnK6RhuGakqCwSYcxX00hv_gBO0HDDnp4Zg5F-umi3WO00y_oQJBQxdFh3auuH4DZI&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfcWXc_lxgtVqbtDmRtygKbTy2jyUXjFm9d6KH6OIpGcPA&amp;oe=68F5B163'}, 'id': '3248243672000960', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 940}, 'image': {'uri': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-6/565323366_3248243675334293_509051387608534296_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-mcqkAEsWsgQ7kNvwEixBtO&amp;_nc_oc=AdnK6RhuGakqCwSYcxX00hv_gBO0HDDnp4Zg5F-umi3WO00y_oQJBQxdFh3auuH4DZI&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_Afcb6Z2nqyENmoIBDg8mRYAgzw7IvJfSZWMwcgsyL6W2Ow&amp;oe=68F5B163', 'width': 228, 'height': 223}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wqgRXCvOM9YQ7kNvwHGIZc3&amp;_nc_oc=AdkR3ixM68IhWqwB6Y0nUU0rFc15cH4sJ1x32rgE52vn-EEHESpq3gvbuFfiihfQbWs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_Afca2P_DHJizPoeDrkb3FoUYvYqfxWBLIFVf-QkOo14LVA&amp;oe=68F5BA00', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1583962322573034', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE1ODM5NjIzMjI1NzMwMzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNTgzOTYyMzIyNTczMDM0', 'date': '2025-10-12T14:07:05.000Z', 'text': 'Que pereza esta monda, entonces ahora nos quieren meter a las malas las grandes industrias esta mamada de igualdad, pufff que asco en verdad.', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/416854882_1423483695245228_5941021899636176736_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=thpWhonIMmoQ7kNvwHUsqbC&amp;_nc_oc=AdmsLGDFOvMD95W6b018n0IY9KtbqgvMT9MCMNCd4AXJtT7Xt8lnyTfzsnjgGPAitYM&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_Afc5b6ZHQBYKO8ArO6qmxWomHjsifqboM6Mi0Y-uD1VXQQ&amp;oe=68F6B34B', 'profileId': 'pfbid02VdXqGAGtBGkFgN5hLTdwzxy57XBMeYtKrf3mkNyztV4M38ZECSkRK5C71fXNdLJdl', 'profileName': 'Stiven Sierra', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5333,20 +5341,16 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Comerciales con          m.. A.. R.. I.. C.. A.. S no jodan</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" s="2" t="n">
-        <v>45944.09695601852</v>
+        <v>45941.62851851852</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45944</v>
+        <v>45941</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>02:19:37</t>
+          <t>15:05:04</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5363,13 +5367,13 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1312652699894935', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEzMTI2NTI2OTk4OTQ5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMzEyNjUyNjk5ODk0OTM1', 'date': '2025-10-14T02:19:37.000Z', 'text': 'Comerciales con          m.. A.. R.. I.. C.. A.. S no jodan', 'profileUrl': 'https://www.facebook.com/osbaldo.perez.665187', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/553453407_2722940801389904_4028267123954476381_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=SxoG-vg7UA8Q7kNvwENRrGz&amp;_nc_oc=AdlFLzBqGDMeQJTHVS3SK9w9_kJMD6EkuL5Bfmj21llnP8jsMHJTnbxSGdarbV0jaqo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=_biXg_CkaW0f_dW44-QGdw&amp;oh=00_AfdN3gi0Si8UOtiu0cU8ltFuKYPkjyVMI1Map8CWlkvB9w&amp;oe=68F5A313', 'profileId': 'pfbid0Ay9mkjziYDYth7Gvj7gsuufwxkU5kDbRYPoJ2jHJikUnYZ1q3dLyGG2jN6NS43Knl', 'profileName': 'Osbaldo Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1103860408402986', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzExMDM4NjA0MDg0MDI5ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMTAzODYwNDA4NDAyOTg2', 'date': '2025-10-11T15:05:04.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar is smiling softly, nodding head forward slightly, holding one hand up to make an O symbol, with teal text above them that reads "100%".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.1997-6/558128774_24658241907119816_1639022271504480113_n.webp?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=phYU6zcwi0IQ7kNvwGDL8Yv&amp;_nc_oc=AdniXmqvbRQQorBgHXWez9nFZfn0uoW4DwHv9dB0MwWpcHySGwp_ypib8gJK-WJoJmo&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_Afc7LQgtL46yWFaI8feP9G2JICsL5lzHapf7OXBfROUUFg&amp;oe=68F6D9DC', 'width': 120, 'height': 120}, 'id': '828202736391766'}], 'profileUrl': 'https://www.facebook.com/people/Jhojairo-Pazcuero/pfbid0NrNr51mVKLsC6Kjjukv3akzjo31iLv2fSSaTjfmAcYGwptbTomTMDi5jpGzrfj6Zl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/536270276_122134856948886563_7702428783540856257_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8xDOP8E3fR8Q7kNvwF7xQrP&amp;_nc_oc=AdnzETCwZZ9U4A4fbiedOE8TrUSuNi_nuMqNTfHGrVRt5aektW7NF5VtqACgC1WU_kQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_Aff3Axw5vPAnYU1qxrjAGA3_zRqS_eqLh2k0LoLde7J1fA&amp;oe=68F6D9A7', 'profileId': 'pfbid0NrNr51mVKLsC6Kjjukv3akzjo31iLv2fSSaTjfmAcYGwptbTomTMDi5jpGzrfj6Zl', 'profileName': 'Jhojairo Pazcuero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5383,29 +5387,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1206917587929517/</t>
+          <t>https://www.facebook.com/reel/1178692000784865/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Excelente buenísimo solo ellos lo pueden hacer de esa manera tan espectacular. Felicitaciones a promoverlo en la TV</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" s="2" t="n">
-        <v>45942.14425925926</v>
+        <v>45941.6283912037</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>45942</v>
+        <v>45941</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>03:27:44</t>
+          <t>15:04:53</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -5417,13 +5417,13 @@
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=792514490295412', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5Xzc5MjUxNDQ5MDI5NTQxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV83OTI1MTQ0OTAyOTU0MTI=', 'date': '2025-10-12T03:27:44.000Z', 'text': 'Excelente buenísimo solo ellos lo pueden hacer de esa manera tan espectacular. Felicitaciones a promoverlo en la TV', 'profileUrl': 'https://www.facebook.com/clara.n.hernandez', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.6435-1/198703950_10159678281782652_5830032612551716521_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XkSOc-wCaJUQ7kNvwHvkd9q&amp;_nc_oc=AdncwqLZTAuhNdjpQDhWOEWf_dBti1MCo4Z8xPofZuQiZdUVCNi2I6zeqH0LLwiN5tg&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=oWfnAAyMmOfbv7fxIaTFZA&amp;oh=00_AfcWYvubz0usJrk10BHQX8WnPfowC12ns7aJVjU6zRDZNw&amp;oe=69176276', 'profileId': 'pfbid0pcbAAgQqRuRtX9vkGYgJn6yt6QP3ggiR2afjS8ggwB8RWT94c5WC1BZ5LiZz3MnSl', 'profileName': 'Clara Nydia Arenas Hernandez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1445329749882489', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzE0NDUzMjk3NDk4ODI0ODk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xNDQ1MzI5NzQ5ODgyNDg5', 'date': '2025-10-11T15:04:53.000Z', 'attachments': [{'__typename': 'Sticker', 'frame_count': 1, 'frame_rate': 83, 'frames_per_column': 1, 'frames_per_row': 1, 'label': 'Avatar smiling, with shoulders hunched towards their ears, holding their fists balled up towards their chin. Gold text below them reads "Delish!".', 'pack': None, 'sprite_image': None, 'image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.1997-6/557082323_24700478306283617_336172941950475493_n.webp?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=72b077&amp;_nc_ohc=-Tvu2aPCHJUQ7kNvwGYsksk&amp;_nc_oc=AdnpZxVemfL5Wf6w6isbACr7mh5wFuuHnGM-sKSbWiFJtrxm5am8cgSH5wfb0wE0jos&amp;_nc_zt=26&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AfdTXx28NCV7ABRv-zdbhV97HLz3m0smwHaxW1v7HhWm5Q&amp;oe=68F6D8F3', 'width': 120, 'height': 120}, 'id': '2046941765841201'}], 'profileUrl': 'https://www.facebook.com/people/Jhojairo-Pazcuero/pfbid0NrNr51mVKLsC6Kjjukv3akzjo31iLv2fSSaTjfmAcYGwptbTomTMDi5jpGzrfj6Zl/', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/536270276_122134856948886563_7702428783540856257_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=8xDOP8E3fR8Q7kNvwF7xQrP&amp;_nc_oc=AdnzETCwZZ9U4A4fbiedOE8TrUSuNi_nuMqNTfHGrVRt5aektW7NF5VtqACgC1WU_kQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_Aff3Axw5vPAnYU1qxrjAGA3_zRqS_eqLh2k0LoLde7J1fA&amp;oe=68F6D9A7', 'profileId': 'pfbid0NrNr51mVKLsC6Kjjukv3akzjo31iLv2fSSaTjfmAcYGwptbTomTMDi5jpGzrfj6Zl', 'profileName': 'Jhojairo Pazcuero', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5437,29 +5437,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1206917587929517/</t>
+          <t>https://www.facebook.com/reel/1178692000784865/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Muy buena campaña Tatan y Maleja con su Guadalupe la rompen ya me dieron ganas de tomas el Alpin</t>
+          <t>Esto si es comida de peso de varón....</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45942.48399305555</v>
+        <v>45942.63023148148</v>
       </c>
       <c r="H99" s="3" t="n">
         <v>45942</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>11:36:57</t>
+          <t>15:07:32</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K99" t="n">
@@ -5471,13 +5471,13 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=1514260113045549', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzE1MTQyNjAxMTMwNDU1NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8xNTE0MjYwMTEzMDQ1NTQ5', 'date': '2025-10-12T11:36:57.000Z', 'text': 'Muy buena campaña Tatan y Maleja con su Guadalupe la rompen ya me dieron ganas de tomas el Alpin', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/545304012_10239744915904979_250655008828404186_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k8ljh0T6CrAQ7kNvwHnyXpR&amp;_nc_oc=AdlLM2mUzpiRnKSdWUIhuVxevsW_1lEvcWOLGuumpWPEzM4dy3shHr51vrfdpvUMOu8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=oWfnAAyMmOfbv7fxIaTFZA&amp;oh=00_AffKvpIsrr_mg7zGIwI6-8C4iPgqcWvGf5XX_SKGWat9eg&amp;oe=68F59E72', 'profileId': 'pfbid0qYKaWPjxBoGNQvkHhe4JUnPcnyoTaWjMGuBD3Qs7rm48MyJ9h111DwnoXzeFdE27l', 'profileName': 'Diana Marcela Oñate Sierra', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=24203157709361722', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzI0MjAzMTU3NzA5MzYxNzIy', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18yNDIwMzE1NzcwOTM2MTcyMg==', 'date': '2025-10-12T15:07:32.000Z', 'text': 'Esto si es comida de peso de varón....', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/565323366_3248243675334293_509051387608534296_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-mcqkAEsWsgQ7kNvwFBFcIA&amp;_nc_oc=AdmhPCrF4hXJhZPJfzL7QWxQf1u4dBygvN8QUV7ELVMvbVz7KYou-lB6U0Bivr66UuA&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AfeR0Op8k22HjYK4LQ6tqywYjnjMAb2wQDAm8l72bXZhsQ&amp;oe=68F6CAA3'}, 'id': '3248243672000960', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 940}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/565323366_3248243675334293_509051387608534296_n.jpg?stp=dst-jpg_p228x119_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=-mcqkAEsWsgQ7kNvwFBFcIA&amp;_nc_oc=AdmhPCrF4hXJhZPJfzL7QWxQf1u4dBygvN8QUV7ELVMvbVz7KYou-lB6U0Bivr66UuA&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_AfepfbA-OIbLUWJqPtUAcyrsO257M16OE0nZtlR35NQKVw&amp;oe=68F6CAA3', 'width': 228, 'height': 223}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/texe.sotomayor.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/514404208_3135821109909884_3123113714550485006_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wqgRXCvOM9YQ7kNvwGcPNiI&amp;_nc_oc=Adl_s5HfKsO5F1f82691Y_2yCGWOpY4xeYHn7-mzuJh6A743ydioQfea_bRPtcdkOko&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=e2D0anjuONupJT2d9cKrCw&amp;oh=00_Afdiz7Jc8S135qj5vPS-kha7pcdEO-51HsGBkuJCit9VRg&amp;oe=68F6D340', 'profileId': '100004460768431', 'profileName': 'Texe Sotomayor', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5491,24 +5491,24 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1206917587929517/</t>
+          <t>https://www.facebook.com/reel/1178692000784865/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Su familia es lo maximo jjaajaj</t>
+          <t>Comerciales con          m.. A.. R.. I.. C.. A.. S no jodan</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45943.09504629629</v>
+        <v>45944.09695601852</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>02:16:52</t>
+          <t>02:19:37</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5525,7 +5525,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=1999618687247160', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzE5OTk2MTg2ODcyNDcxNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8xOTk5NjE4Njg3MjQ3MTYw', 'date': '2025-10-13T02:16:52.000Z', 'text': 'Su familia es lo maximo jjaajaj', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/317397396_5615506821859537_2447407920547955306_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=JgROO0qTiUYQ7kNvwFjEoDR&amp;_nc_oc=AdlmbncuO4mRMiP1QxUGx9Y2NkaFYldrbp5yJhaBGvgdNvSWl5_s8rv5gGnK2WKfEH8&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=oWfnAAyMmOfbv7fxIaTFZA&amp;oh=00_AffJHpuS4DBxEF7ft9XTMNmiwVXTnBjGQlSsHy1Blan-Tg&amp;oe=68F5A2B4', 'profileId': 'pfbid02opW59w1nE7X8PvVwDAwKKS2JpD54fdhTnUwqYQGphRA2yaDs6u1hhyWCAui9w85ql', 'profileName': 'Maria Yj Santi', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1178692000784865/', 'commentUrl': 'https://www.facebook.com/reel/1178692000784865/?comment_id=1312652699894935', 'id': 'Y29tbWVudDoxMjQ0MjAxOTA0NDE4NzEzXzEzMTI2NTI2OTk4OTQ5MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwMTkwNDQxODcxM18xMzEyNjUyNjk5ODk0OTM1', 'date': '2025-10-14T02:19:37.000Z', 'text': 'Comerciales con          m.. A.. R.. I.. C.. A.. S no jodan', 'profileUrl': 'https://www.facebook.com/osbaldo.perez.665187', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/553453407_2722940801389904_4028267123954476381_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=0ZFBvnQRhLIQ7kNvwEK2MGl&amp;_nc_oc=Adn485s_lv0zaV9kaRU8tHVOKk7dAOefb4tI2qWn3rtqkhP8OW3t6P0-EKer8LVnU9c&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=cpDhLzKpvhO-QvsC0I3E_g&amp;oh=00_AfdGXk2hpoa57Q04F7NnBe7Qw7JjwbXB-eDqBJi-AmatOA&amp;oe=68F6BC53', 'profileId': 'pfbid0Ay9mkjziYDYth7Gvj7gsuufwxkU5kDbRYPoJ2jHJikUnYZ1q3dLyGG2jN6NS43Knl', 'profileName': 'Osbaldo Perez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244201904418713', 'postTitle': 'Cada tarde tiene su snack perfecto. El nuestro siempre trae Kumis @Alpina 🐮 ¿Y el tuyo?', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1178692000784865/'}</t>
         </is>
       </c>
     </row>
@@ -5551,23 +5551,23 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Producto con etiquetas negras , toxico para la salud .</t>
+          <t>Excelente buenísimo solo ellos lo pueden hacer de esa manera tan espectacular. Felicitaciones a promoverlo en la TV</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45943.03650462963</v>
+        <v>45942.14425925926</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>45943</v>
+        <v>45942</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>00:52:34</t>
+          <t>03:27:44</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K101" t="n">
@@ -5579,7 +5579,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=3377377439075919', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzMzNzczNzc0MzkwNzU5MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8zMzc3Mzc3NDM5MDc1OTE5', 'date': '2025-10-13T00:52:34.000Z', 'text': 'Producto con etiquetas negras , toxico para la salud .', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/533226309_31156447737334435_2977033150897679768_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=D6VHteLSebYQ7kNvwFLZuOb&amp;_nc_oc=Adl5_9lP74jwQjiRnRBEVZHXEgZeL3WhJ1YvQ0ZTyFQCb94eDqQlNTzxJkLn-VX6Gng&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=oWfnAAyMmOfbv7fxIaTFZA&amp;oh=00_AfcXZoYZhkrFMDYuhZgw1lgh3aDBgsrnOBiovT0t6cD06Q&amp;oe=68F599B5', 'profileId': '100001878453942', 'profileName': 'Imelda Zambrano', 'likesCount': '2', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=792514490295412', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5Xzc5MjUxNDQ5MDI5NTQxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV83OTI1MTQ0OTAyOTU0MTI=', 'date': '2025-10-12T03:27:44.000Z', 'text': 'Excelente buenísimo solo ellos lo pueden hacer de esa manera tan espectacular. Felicitaciones a promoverlo en la TV', 'profileUrl': 'https://www.facebook.com/clara.n.hernandez', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t1.6435-1/198703950_10159678281782652_5830032612551716521_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XkSOc-wCaJUQ7kNvwE_vQQI&amp;_nc_oc=AdnR5M3AMszHng3HitRVYPykUMfWxVEVPXngKnGYo0YvytsPCuqtyste0C-DH9KY_uP_GbyenVODgpP-fJB5iStX&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=9xDFvPCFtmhA469iOnMCPA&amp;oh=00_AfdFD8qoPdI-3aAODLt_KxpaxLXx-26aA_dC_IW8frH_rg&amp;oe=69187BB6', 'profileId': 'pfbid0pcbAAgQqRuRtX9vkGYgJn6yt6QP3ggiR2afjS8ggwB8RWT94c5WC1BZ5LiZz3MnSl', 'profileName': 'Clara Nydia Arenas Hernandez', 'likesCount': '4', 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
         </is>
       </c>
     </row>
@@ -5605,23 +5605,23 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Con la lechuga jajjajajajajajajajaja. Yo.toso duro cuando destapó algún paquetico para que no escuche igual llega ahí jaja</t>
+          <t>Muy buena campaña Tatan y Maleja con su Guadalupe la rompen ya me dieron ganas de tomas el Alpin</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45944.50711805555</v>
+        <v>45942.48399305555</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>45944</v>
+        <v>45942</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>12:10:15</t>
+          <t>11:36:57</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -5633,7 +5633,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=828027793079459', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzgyODAyNzc5MzA3OTQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV84MjgwMjc3OTMwNzk0NTk=', 'date': '2025-10-14T12:10:15.000Z', 'text': 'Con la lechuga jajjajajajajajajajaja. Yo.toso duro cuando destapó algún paquetico para que no escuche igual llega ahí jaja', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/464102549_3452293171568393_7444790248110204167_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=YVBPYRJUc1AQ7kNvwHFzuuy&amp;_nc_oc=AdmiUE-SxIDaGxaIagYYoHxXJpOEU8Zjf3PO7raOg9Q9oOzrwWezpRtuCK6QewnpLd0&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=oWfnAAyMmOfbv7fxIaTFZA&amp;oh=00_AfcE0raxM1HRmygc9vGSbqXcD0fIIiEJMz7VyLM6B4qtUA&amp;oe=68F5CBE8', 'profileId': 'pfbid02SqMYMxrThzE69vrD5MbSPYhUo5s2BhKz5LbyuqiELc3Ne6mmMvvuEJf9nqBfWfQkl', 'profileName': 'Antonio Moreno Toro', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=1514260113045549', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzE1MTQyNjAxMTMwNDU1NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8xNTE0MjYwMTEzMDQ1NTQ5', 'date': '2025-10-12T11:36:57.000Z', 'text': 'Muy buena campaña Tatan y Maleja con su Guadalupe la rompen ya me dieron ganas de tomas el Alpin', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/545304012_10239744915904979_250655008828404186_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=k8ljh0T6CrAQ7kNvwEk9OTz&amp;_nc_oc=AdkYRTW6W41D64Bipd6EcgFIlGPyKJHvy4rYzBVacjOla70eFHG0tRlkVW61GvxzWvHi87hq4QRbMcT2VZvDtRwD&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=9xDFvPCFtmhA469iOnMCPA&amp;oh=00_AfeT692zfCn_tK7TKtkBWSHQLEsKLVjFfLN30viamgOdkw&amp;oe=68F6B7B2', 'profileId': 'pfbid0qYKaWPjxBoGNQvkHhe4JUnPcnyoTaWjMGuBD3Qs7rm48MyJ9h111DwnoXzeFdE27l', 'profileName': 'Diana Marcela Oñate Sierra', 'likesCount': '4', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
         </is>
       </c>
     </row>
@@ -5659,23 +5659,23 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sabía que era un comercial y aún así entre 😅</t>
+          <t>Su familia es lo maximo jjaajaj</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45941.99390046296</v>
+        <v>45943.09504629629</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>23:51:13</t>
+          <t>02:16:52</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K103" t="n">
@@ -5687,7 +5687,7 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=1518028916050424', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzE1MTgwMjg5MTYwNTA0MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8xNTE4MDI4OTE2MDUwNDI0', 'date': '2025-10-11T23:51:13.000Z', 'text': 'Sabía que era un comercial y aún así entre 😅', 'profileUrl': 'https://www.facebook.com/dianaarvizugalvis', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/454630056_10161428397979605_7778295769709384636_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=aF7T6l0Q4zwQ7kNvwFEcqEW&amp;_nc_oc=AdlZ9TE_DUxV-_SLBQ_6sAiO_sPnMFHk2cNvr1_XiaYbl7h6cv6eJa8h6LT0sP_YVs4&amp;_nc_zt=24&amp;_nc_ht=scontent-hou1-1.xx&amp;_nc_gid=oWfnAAyMmOfbv7fxIaTFZA&amp;oh=00_AfeNwFrI2SssEQSZB1w7G0z6vjNl8_B1Teh7T77BdAr99Q&amp;oe=68F596DD', 'profileId': '679154604', 'profileName': 'Diana Arvizu Galvis', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=1999618687247160', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzE5OTk2MTg2ODcyNDcxNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8xOTk5NjE4Njg3MjQ3MTYw', 'date': '2025-10-13T02:16:52.000Z', 'text': 'Su familia es lo maximo jjaajaj', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/317397396_5615506821859537_2447407920547955306_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=tYDy53zjUKMQ7kNvwFSDzr2&amp;_nc_oc=Adl699ctbm5fGDwNvOv4ZUWERLEn_pDVQdPBAqN6eW4iDQaZaOfAWF6nZGmAq5_m-F6oRK9frBRJnroEw4fz8m4r&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=9xDFvPCFtmhA469iOnMCPA&amp;oh=00_AffGW3XzQFqBUPt1dl3sN5XY3GU8EMBVXtrBiH7lchGU0g&amp;oe=68F6BBF4', 'profileId': 'pfbid0kGrtEmPRNwRSMFQquaRfZiCbbvLkR8U6bDKKZk5eBwhrFqjhnKhsq5oWFtPWCw7wl', 'profileName': 'Maria Yj Santi', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1244209944417909', 'postTitle': 'Un Alpin chocolate es el secreto del combo perfecto para reconciliarse. Inténtalo también.', 'pageAdLibrary': {'id': '177587607187', 'woodhenge_creator_info': None}, 'inputUrl': 'https://www.facebook.com/reel/1206917587929517/'}</t>
         </is>
       </c>
     </row>
@@ -5713,23 +5713,23 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Si divinamente, pensaron primero en el dinero que en la salud de los niños, exceso de Azúcar!! En esos chocolates 😔</t>
+          <t>Producto con etiquetas negras , toxico para la salud .</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45945.16449074074</v>
+        <v>45943.03650462963</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>03:56:52</t>
+          <t>00:52:34</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K104" t="n">
@@ -5741,7 +5741,7 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1206917587929517/', 'commentUrl': 'https://www.facebook.com/reel/1206917587929517/?comment_id=1007197451536573', 'id': 'Y29tbWVudDoxMjQ0MjA5OTQ0NDE3OTA5XzEwMDcxOTc0NTE1MzY1NzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI0NDIwOTk0NDQxNzkwOV8xMDA3MTk3NDUxNTM2NTcz', 'date': '2025-10-15T03:56:52.000Z', 'text': 'Si divinamente, pensaron primero en el dinero que en la salud de los niños, exceso de Azúcar!! En esos chocolates 😔', 'profilePicture': 'https://sco